--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>database change</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
   <si>
     <t>Allow for entry of weight for total PO to 2 decimal places (ei: 100.25 T)(This is a required field)</t>
@@ -95,9 +98,6 @@
     <t>easy</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>Vendor should be a drop down.</t>
   </si>
   <si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Need to research on uploads and keeping them on the server for reference</t>
+  </si>
+  <si>
+    <t>Rails car Nb # </t>
+  </si>
+  <si>
+    <t>Mandatory, added by CL</t>
   </si>
   <si>
     <t>New Trailer:</t>
@@ -189,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -221,6 +227,21 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -268,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,6 +318,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -314,10 +351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:34"/>
+  <dimension ref="1:35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1373,7 +1410,9 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0"/>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -2397,7 +2436,7 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -3429,7 +3468,7 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -3437,13 +3476,13 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
@@ -4469,15 +4508,17 @@
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D6" s="0"/>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -5501,13 +5542,13 @@
     </row>
     <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
@@ -6533,13 +6574,13 @@
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -7565,11 +7606,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -8598,7 +8639,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="3"/>
@@ -9626,7 +9667,7 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -10658,13 +10699,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -11690,13 +11731,13 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12741,16 +12782,1037 @@
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+      <c r="AE16" s="0"/>
+      <c r="AF16" s="0"/>
+      <c r="AG16" s="0"/>
+      <c r="AH16" s="0"/>
+      <c r="AI16" s="0"/>
+      <c r="AJ16" s="0"/>
+      <c r="AK16" s="0"/>
+      <c r="AL16" s="0"/>
+      <c r="AM16" s="0"/>
+      <c r="AN16" s="0"/>
+      <c r="AO16" s="0"/>
+      <c r="AP16" s="0"/>
+      <c r="AQ16" s="0"/>
+      <c r="AR16" s="0"/>
+      <c r="AS16" s="0"/>
+      <c r="AT16" s="0"/>
+      <c r="AU16" s="0"/>
+      <c r="AV16" s="0"/>
+      <c r="AW16" s="0"/>
+      <c r="AX16" s="0"/>
+      <c r="AY16" s="0"/>
+      <c r="AZ16" s="0"/>
+      <c r="BA16" s="0"/>
+      <c r="BB16" s="0"/>
+      <c r="BC16" s="0"/>
+      <c r="BD16" s="0"/>
+      <c r="BE16" s="0"/>
+      <c r="BF16" s="0"/>
+      <c r="BG16" s="0"/>
+      <c r="BH16" s="0"/>
+      <c r="BI16" s="0"/>
+      <c r="BJ16" s="0"/>
+      <c r="BK16" s="0"/>
+      <c r="BL16" s="0"/>
+      <c r="BM16" s="0"/>
+      <c r="BN16" s="0"/>
+      <c r="BO16" s="0"/>
+      <c r="BP16" s="0"/>
+      <c r="BQ16" s="0"/>
+      <c r="BR16" s="0"/>
+      <c r="BS16" s="0"/>
+      <c r="BT16" s="0"/>
+      <c r="BU16" s="0"/>
+      <c r="BV16" s="0"/>
+      <c r="BW16" s="0"/>
+      <c r="BX16" s="0"/>
+      <c r="BY16" s="0"/>
+      <c r="BZ16" s="0"/>
+      <c r="CA16" s="0"/>
+      <c r="CB16" s="0"/>
+      <c r="CC16" s="0"/>
+      <c r="CD16" s="0"/>
+      <c r="CE16" s="0"/>
+      <c r="CF16" s="0"/>
+      <c r="CG16" s="0"/>
+      <c r="CH16" s="0"/>
+      <c r="CI16" s="0"/>
+      <c r="CJ16" s="0"/>
+      <c r="CK16" s="0"/>
+      <c r="CL16" s="0"/>
+      <c r="CM16" s="0"/>
+      <c r="CN16" s="0"/>
+      <c r="CO16" s="0"/>
+      <c r="CP16" s="0"/>
+      <c r="CQ16" s="0"/>
+      <c r="CR16" s="0"/>
+      <c r="CS16" s="0"/>
+      <c r="CT16" s="0"/>
+      <c r="CU16" s="0"/>
+      <c r="CV16" s="0"/>
+      <c r="CW16" s="0"/>
+      <c r="CX16" s="0"/>
+      <c r="CY16" s="0"/>
+      <c r="CZ16" s="0"/>
+      <c r="DA16" s="0"/>
+      <c r="DB16" s="0"/>
+      <c r="DC16" s="0"/>
+      <c r="DD16" s="0"/>
+      <c r="DE16" s="0"/>
+      <c r="DF16" s="0"/>
+      <c r="DG16" s="0"/>
+      <c r="DH16" s="0"/>
+      <c r="DI16" s="0"/>
+      <c r="DJ16" s="0"/>
+      <c r="DK16" s="0"/>
+      <c r="DL16" s="0"/>
+      <c r="DM16" s="0"/>
+      <c r="DN16" s="0"/>
+      <c r="DO16" s="0"/>
+      <c r="DP16" s="0"/>
+      <c r="DQ16" s="0"/>
+      <c r="DR16" s="0"/>
+      <c r="DS16" s="0"/>
+      <c r="DT16" s="0"/>
+      <c r="DU16" s="0"/>
+      <c r="DV16" s="0"/>
+      <c r="DW16" s="0"/>
+      <c r="DX16" s="0"/>
+      <c r="DY16" s="0"/>
+      <c r="DZ16" s="0"/>
+      <c r="EA16" s="0"/>
+      <c r="EB16" s="0"/>
+      <c r="EC16" s="0"/>
+      <c r="ED16" s="0"/>
+      <c r="EE16" s="0"/>
+      <c r="EF16" s="0"/>
+      <c r="EG16" s="0"/>
+      <c r="EH16" s="0"/>
+      <c r="EI16" s="0"/>
+      <c r="EJ16" s="0"/>
+      <c r="EK16" s="0"/>
+      <c r="EL16" s="0"/>
+      <c r="EM16" s="0"/>
+      <c r="EN16" s="0"/>
+      <c r="EO16" s="0"/>
+      <c r="EP16" s="0"/>
+      <c r="EQ16" s="0"/>
+      <c r="ER16" s="0"/>
+      <c r="ES16" s="0"/>
+      <c r="ET16" s="0"/>
+      <c r="EU16" s="0"/>
+      <c r="EV16" s="0"/>
+      <c r="EW16" s="0"/>
+      <c r="EX16" s="0"/>
+      <c r="EY16" s="0"/>
+      <c r="EZ16" s="0"/>
+      <c r="FA16" s="0"/>
+      <c r="FB16" s="0"/>
+      <c r="FC16" s="0"/>
+      <c r="FD16" s="0"/>
+      <c r="FE16" s="0"/>
+      <c r="FF16" s="0"/>
+      <c r="FG16" s="0"/>
+      <c r="FH16" s="0"/>
+      <c r="FI16" s="0"/>
+      <c r="FJ16" s="0"/>
+      <c r="FK16" s="0"/>
+      <c r="FL16" s="0"/>
+      <c r="FM16" s="0"/>
+      <c r="FN16" s="0"/>
+      <c r="FO16" s="0"/>
+      <c r="FP16" s="0"/>
+      <c r="FQ16" s="0"/>
+      <c r="FR16" s="0"/>
+      <c r="FS16" s="0"/>
+      <c r="FT16" s="0"/>
+      <c r="FU16" s="0"/>
+      <c r="FV16" s="0"/>
+      <c r="FW16" s="0"/>
+      <c r="FX16" s="0"/>
+      <c r="FY16" s="0"/>
+      <c r="FZ16" s="0"/>
+      <c r="GA16" s="0"/>
+      <c r="GB16" s="0"/>
+      <c r="GC16" s="0"/>
+      <c r="GD16" s="0"/>
+      <c r="GE16" s="0"/>
+      <c r="GF16" s="0"/>
+      <c r="GG16" s="0"/>
+      <c r="GH16" s="0"/>
+      <c r="GI16" s="0"/>
+      <c r="GJ16" s="0"/>
+      <c r="GK16" s="0"/>
+      <c r="GL16" s="0"/>
+      <c r="GM16" s="0"/>
+      <c r="GN16" s="0"/>
+      <c r="GO16" s="0"/>
+      <c r="GP16" s="0"/>
+      <c r="GQ16" s="0"/>
+      <c r="GR16" s="0"/>
+      <c r="GS16" s="0"/>
+      <c r="GT16" s="0"/>
+      <c r="GU16" s="0"/>
+      <c r="GV16" s="0"/>
+      <c r="GW16" s="0"/>
+      <c r="GX16" s="0"/>
+      <c r="GY16" s="0"/>
+      <c r="GZ16" s="0"/>
+      <c r="HA16" s="0"/>
+      <c r="HB16" s="0"/>
+      <c r="HC16" s="0"/>
+      <c r="HD16" s="0"/>
+      <c r="HE16" s="0"/>
+      <c r="HF16" s="0"/>
+      <c r="HG16" s="0"/>
+      <c r="HH16" s="0"/>
+      <c r="HI16" s="0"/>
+      <c r="HJ16" s="0"/>
+      <c r="HK16" s="0"/>
+      <c r="HL16" s="0"/>
+      <c r="HM16" s="0"/>
+      <c r="HN16" s="0"/>
+      <c r="HO16" s="0"/>
+      <c r="HP16" s="0"/>
+      <c r="HQ16" s="0"/>
+      <c r="HR16" s="0"/>
+      <c r="HS16" s="0"/>
+      <c r="HT16" s="0"/>
+      <c r="HU16" s="0"/>
+      <c r="HV16" s="0"/>
+      <c r="HW16" s="0"/>
+      <c r="HX16" s="0"/>
+      <c r="HY16" s="0"/>
+      <c r="HZ16" s="0"/>
+      <c r="IA16" s="0"/>
+      <c r="IB16" s="0"/>
+      <c r="IC16" s="0"/>
+      <c r="ID16" s="0"/>
+      <c r="IE16" s="0"/>
+      <c r="IF16" s="0"/>
+      <c r="IG16" s="0"/>
+      <c r="IH16" s="0"/>
+      <c r="II16" s="0"/>
+      <c r="IJ16" s="0"/>
+      <c r="IK16" s="0"/>
+      <c r="IL16" s="0"/>
+      <c r="IM16" s="0"/>
+      <c r="IN16" s="0"/>
+      <c r="IO16" s="0"/>
+      <c r="IP16" s="0"/>
+      <c r="IQ16" s="0"/>
+      <c r="IR16" s="0"/>
+      <c r="IS16" s="0"/>
+      <c r="IT16" s="0"/>
+      <c r="IU16" s="0"/>
+      <c r="IV16" s="0"/>
+      <c r="IW16" s="0"/>
+      <c r="IX16" s="0"/>
+      <c r="IY16" s="0"/>
+      <c r="IZ16" s="0"/>
+      <c r="JA16" s="0"/>
+      <c r="JB16" s="0"/>
+      <c r="JC16" s="0"/>
+      <c r="JD16" s="0"/>
+      <c r="JE16" s="0"/>
+      <c r="JF16" s="0"/>
+      <c r="JG16" s="0"/>
+      <c r="JH16" s="0"/>
+      <c r="JI16" s="0"/>
+      <c r="JJ16" s="0"/>
+      <c r="JK16" s="0"/>
+      <c r="JL16" s="0"/>
+      <c r="JM16" s="0"/>
+      <c r="JN16" s="0"/>
+      <c r="JO16" s="0"/>
+      <c r="JP16" s="0"/>
+      <c r="JQ16" s="0"/>
+      <c r="JR16" s="0"/>
+      <c r="JS16" s="0"/>
+      <c r="JT16" s="0"/>
+      <c r="JU16" s="0"/>
+      <c r="JV16" s="0"/>
+      <c r="JW16" s="0"/>
+      <c r="JX16" s="0"/>
+      <c r="JY16" s="0"/>
+      <c r="JZ16" s="0"/>
+      <c r="KA16" s="0"/>
+      <c r="KB16" s="0"/>
+      <c r="KC16" s="0"/>
+      <c r="KD16" s="0"/>
+      <c r="KE16" s="0"/>
+      <c r="KF16" s="0"/>
+      <c r="KG16" s="0"/>
+      <c r="KH16" s="0"/>
+      <c r="KI16" s="0"/>
+      <c r="KJ16" s="0"/>
+      <c r="KK16" s="0"/>
+      <c r="KL16" s="0"/>
+      <c r="KM16" s="0"/>
+      <c r="KN16" s="0"/>
+      <c r="KO16" s="0"/>
+      <c r="KP16" s="0"/>
+      <c r="KQ16" s="0"/>
+      <c r="KR16" s="0"/>
+      <c r="KS16" s="0"/>
+      <c r="KT16" s="0"/>
+      <c r="KU16" s="0"/>
+      <c r="KV16" s="0"/>
+      <c r="KW16" s="0"/>
+      <c r="KX16" s="0"/>
+      <c r="KY16" s="0"/>
+      <c r="KZ16" s="0"/>
+      <c r="LA16" s="0"/>
+      <c r="LB16" s="0"/>
+      <c r="LC16" s="0"/>
+      <c r="LD16" s="0"/>
+      <c r="LE16" s="0"/>
+      <c r="LF16" s="0"/>
+      <c r="LG16" s="0"/>
+      <c r="LH16" s="0"/>
+      <c r="LI16" s="0"/>
+      <c r="LJ16" s="0"/>
+      <c r="LK16" s="0"/>
+      <c r="LL16" s="0"/>
+      <c r="LM16" s="0"/>
+      <c r="LN16" s="0"/>
+      <c r="LO16" s="0"/>
+      <c r="LP16" s="0"/>
+      <c r="LQ16" s="0"/>
+      <c r="LR16" s="0"/>
+      <c r="LS16" s="0"/>
+      <c r="LT16" s="0"/>
+      <c r="LU16" s="0"/>
+      <c r="LV16" s="0"/>
+      <c r="LW16" s="0"/>
+      <c r="LX16" s="0"/>
+      <c r="LY16" s="0"/>
+      <c r="LZ16" s="0"/>
+      <c r="MA16" s="0"/>
+      <c r="MB16" s="0"/>
+      <c r="MC16" s="0"/>
+      <c r="MD16" s="0"/>
+      <c r="ME16" s="0"/>
+      <c r="MF16" s="0"/>
+      <c r="MG16" s="0"/>
+      <c r="MH16" s="0"/>
+      <c r="MI16" s="0"/>
+      <c r="MJ16" s="0"/>
+      <c r="MK16" s="0"/>
+      <c r="ML16" s="0"/>
+      <c r="MM16" s="0"/>
+      <c r="MN16" s="0"/>
+      <c r="MO16" s="0"/>
+      <c r="MP16" s="0"/>
+      <c r="MQ16" s="0"/>
+      <c r="MR16" s="0"/>
+      <c r="MS16" s="0"/>
+      <c r="MT16" s="0"/>
+      <c r="MU16" s="0"/>
+      <c r="MV16" s="0"/>
+      <c r="MW16" s="0"/>
+      <c r="MX16" s="0"/>
+      <c r="MY16" s="0"/>
+      <c r="MZ16" s="0"/>
+      <c r="NA16" s="0"/>
+      <c r="NB16" s="0"/>
+      <c r="NC16" s="0"/>
+      <c r="ND16" s="0"/>
+      <c r="NE16" s="0"/>
+      <c r="NF16" s="0"/>
+      <c r="NG16" s="0"/>
+      <c r="NH16" s="0"/>
+      <c r="NI16" s="0"/>
+      <c r="NJ16" s="0"/>
+      <c r="NK16" s="0"/>
+      <c r="NL16" s="0"/>
+      <c r="NM16" s="0"/>
+      <c r="NN16" s="0"/>
+      <c r="NO16" s="0"/>
+      <c r="NP16" s="0"/>
+      <c r="NQ16" s="0"/>
+      <c r="NR16" s="0"/>
+      <c r="NS16" s="0"/>
+      <c r="NT16" s="0"/>
+      <c r="NU16" s="0"/>
+      <c r="NV16" s="0"/>
+      <c r="NW16" s="0"/>
+      <c r="NX16" s="0"/>
+      <c r="NY16" s="0"/>
+      <c r="NZ16" s="0"/>
+      <c r="OA16" s="0"/>
+      <c r="OB16" s="0"/>
+      <c r="OC16" s="0"/>
+      <c r="OD16" s="0"/>
+      <c r="OE16" s="0"/>
+      <c r="OF16" s="0"/>
+      <c r="OG16" s="0"/>
+      <c r="OH16" s="0"/>
+      <c r="OI16" s="0"/>
+      <c r="OJ16" s="0"/>
+      <c r="OK16" s="0"/>
+      <c r="OL16" s="0"/>
+      <c r="OM16" s="0"/>
+      <c r="ON16" s="0"/>
+      <c r="OO16" s="0"/>
+      <c r="OP16" s="0"/>
+      <c r="OQ16" s="0"/>
+      <c r="OR16" s="0"/>
+      <c r="OS16" s="0"/>
+      <c r="OT16" s="0"/>
+      <c r="OU16" s="0"/>
+      <c r="OV16" s="0"/>
+      <c r="OW16" s="0"/>
+      <c r="OX16" s="0"/>
+      <c r="OY16" s="0"/>
+      <c r="OZ16" s="0"/>
+      <c r="PA16" s="0"/>
+      <c r="PB16" s="0"/>
+      <c r="PC16" s="0"/>
+      <c r="PD16" s="0"/>
+      <c r="PE16" s="0"/>
+      <c r="PF16" s="0"/>
+      <c r="PG16" s="0"/>
+      <c r="PH16" s="0"/>
+      <c r="PI16" s="0"/>
+      <c r="PJ16" s="0"/>
+      <c r="PK16" s="0"/>
+      <c r="PL16" s="0"/>
+      <c r="PM16" s="0"/>
+      <c r="PN16" s="0"/>
+      <c r="PO16" s="0"/>
+      <c r="PP16" s="0"/>
+      <c r="PQ16" s="0"/>
+      <c r="PR16" s="0"/>
+      <c r="PS16" s="0"/>
+      <c r="PT16" s="0"/>
+      <c r="PU16" s="0"/>
+      <c r="PV16" s="0"/>
+      <c r="PW16" s="0"/>
+      <c r="PX16" s="0"/>
+      <c r="PY16" s="0"/>
+      <c r="PZ16" s="0"/>
+      <c r="QA16" s="0"/>
+      <c r="QB16" s="0"/>
+      <c r="QC16" s="0"/>
+      <c r="QD16" s="0"/>
+      <c r="QE16" s="0"/>
+      <c r="QF16" s="0"/>
+      <c r="QG16" s="0"/>
+      <c r="QH16" s="0"/>
+      <c r="QI16" s="0"/>
+      <c r="QJ16" s="0"/>
+      <c r="QK16" s="0"/>
+      <c r="QL16" s="0"/>
+      <c r="QM16" s="0"/>
+      <c r="QN16" s="0"/>
+      <c r="QO16" s="0"/>
+      <c r="QP16" s="0"/>
+      <c r="QQ16" s="0"/>
+      <c r="QR16" s="0"/>
+      <c r="QS16" s="0"/>
+      <c r="QT16" s="0"/>
+      <c r="QU16" s="0"/>
+      <c r="QV16" s="0"/>
+      <c r="QW16" s="0"/>
+      <c r="QX16" s="0"/>
+      <c r="QY16" s="0"/>
+      <c r="QZ16" s="0"/>
+      <c r="RA16" s="0"/>
+      <c r="RB16" s="0"/>
+      <c r="RC16" s="0"/>
+      <c r="RD16" s="0"/>
+      <c r="RE16" s="0"/>
+      <c r="RF16" s="0"/>
+      <c r="RG16" s="0"/>
+      <c r="RH16" s="0"/>
+      <c r="RI16" s="0"/>
+      <c r="RJ16" s="0"/>
+      <c r="RK16" s="0"/>
+      <c r="RL16" s="0"/>
+      <c r="RM16" s="0"/>
+      <c r="RN16" s="0"/>
+      <c r="RO16" s="0"/>
+      <c r="RP16" s="0"/>
+      <c r="RQ16" s="0"/>
+      <c r="RR16" s="0"/>
+      <c r="RS16" s="0"/>
+      <c r="RT16" s="0"/>
+      <c r="RU16" s="0"/>
+      <c r="RV16" s="0"/>
+      <c r="RW16" s="0"/>
+      <c r="RX16" s="0"/>
+      <c r="RY16" s="0"/>
+      <c r="RZ16" s="0"/>
+      <c r="SA16" s="0"/>
+      <c r="SB16" s="0"/>
+      <c r="SC16" s="0"/>
+      <c r="SD16" s="0"/>
+      <c r="SE16" s="0"/>
+      <c r="SF16" s="0"/>
+      <c r="SG16" s="0"/>
+      <c r="SH16" s="0"/>
+      <c r="SI16" s="0"/>
+      <c r="SJ16" s="0"/>
+      <c r="SK16" s="0"/>
+      <c r="SL16" s="0"/>
+      <c r="SM16" s="0"/>
+      <c r="SN16" s="0"/>
+      <c r="SO16" s="0"/>
+      <c r="SP16" s="0"/>
+      <c r="SQ16" s="0"/>
+      <c r="SR16" s="0"/>
+      <c r="SS16" s="0"/>
+      <c r="ST16" s="0"/>
+      <c r="SU16" s="0"/>
+      <c r="SV16" s="0"/>
+      <c r="SW16" s="0"/>
+      <c r="SX16" s="0"/>
+      <c r="SY16" s="0"/>
+      <c r="SZ16" s="0"/>
+      <c r="TA16" s="0"/>
+      <c r="TB16" s="0"/>
+      <c r="TC16" s="0"/>
+      <c r="TD16" s="0"/>
+      <c r="TE16" s="0"/>
+      <c r="TF16" s="0"/>
+      <c r="TG16" s="0"/>
+      <c r="TH16" s="0"/>
+      <c r="TI16" s="0"/>
+      <c r="TJ16" s="0"/>
+      <c r="TK16" s="0"/>
+      <c r="TL16" s="0"/>
+      <c r="TM16" s="0"/>
+      <c r="TN16" s="0"/>
+      <c r="TO16" s="0"/>
+      <c r="TP16" s="0"/>
+      <c r="TQ16" s="0"/>
+      <c r="TR16" s="0"/>
+      <c r="TS16" s="0"/>
+      <c r="TT16" s="0"/>
+      <c r="TU16" s="0"/>
+      <c r="TV16" s="0"/>
+      <c r="TW16" s="0"/>
+      <c r="TX16" s="0"/>
+      <c r="TY16" s="0"/>
+      <c r="TZ16" s="0"/>
+      <c r="UA16" s="0"/>
+      <c r="UB16" s="0"/>
+      <c r="UC16" s="0"/>
+      <c r="UD16" s="0"/>
+      <c r="UE16" s="0"/>
+      <c r="UF16" s="0"/>
+      <c r="UG16" s="0"/>
+      <c r="UH16" s="0"/>
+      <c r="UI16" s="0"/>
+      <c r="UJ16" s="0"/>
+      <c r="UK16" s="0"/>
+      <c r="UL16" s="0"/>
+      <c r="UM16" s="0"/>
+      <c r="UN16" s="0"/>
+      <c r="UO16" s="0"/>
+      <c r="UP16" s="0"/>
+      <c r="UQ16" s="0"/>
+      <c r="UR16" s="0"/>
+      <c r="US16" s="0"/>
+      <c r="UT16" s="0"/>
+      <c r="UU16" s="0"/>
+      <c r="UV16" s="0"/>
+      <c r="UW16" s="0"/>
+      <c r="UX16" s="0"/>
+      <c r="UY16" s="0"/>
+      <c r="UZ16" s="0"/>
+      <c r="VA16" s="0"/>
+      <c r="VB16" s="0"/>
+      <c r="VC16" s="0"/>
+      <c r="VD16" s="0"/>
+      <c r="VE16" s="0"/>
+      <c r="VF16" s="0"/>
+      <c r="VG16" s="0"/>
+      <c r="VH16" s="0"/>
+      <c r="VI16" s="0"/>
+      <c r="VJ16" s="0"/>
+      <c r="VK16" s="0"/>
+      <c r="VL16" s="0"/>
+      <c r="VM16" s="0"/>
+      <c r="VN16" s="0"/>
+      <c r="VO16" s="0"/>
+      <c r="VP16" s="0"/>
+      <c r="VQ16" s="0"/>
+      <c r="VR16" s="0"/>
+      <c r="VS16" s="0"/>
+      <c r="VT16" s="0"/>
+      <c r="VU16" s="0"/>
+      <c r="VV16" s="0"/>
+      <c r="VW16" s="0"/>
+      <c r="VX16" s="0"/>
+      <c r="VY16" s="0"/>
+      <c r="VZ16" s="0"/>
+      <c r="WA16" s="0"/>
+      <c r="WB16" s="0"/>
+      <c r="WC16" s="0"/>
+      <c r="WD16" s="0"/>
+      <c r="WE16" s="0"/>
+      <c r="WF16" s="0"/>
+      <c r="WG16" s="0"/>
+      <c r="WH16" s="0"/>
+      <c r="WI16" s="0"/>
+      <c r="WJ16" s="0"/>
+      <c r="WK16" s="0"/>
+      <c r="WL16" s="0"/>
+      <c r="WM16" s="0"/>
+      <c r="WN16" s="0"/>
+      <c r="WO16" s="0"/>
+      <c r="WP16" s="0"/>
+      <c r="WQ16" s="0"/>
+      <c r="WR16" s="0"/>
+      <c r="WS16" s="0"/>
+      <c r="WT16" s="0"/>
+      <c r="WU16" s="0"/>
+      <c r="WV16" s="0"/>
+      <c r="WW16" s="0"/>
+      <c r="WX16" s="0"/>
+      <c r="WY16" s="0"/>
+      <c r="WZ16" s="0"/>
+      <c r="XA16" s="0"/>
+      <c r="XB16" s="0"/>
+      <c r="XC16" s="0"/>
+      <c r="XD16" s="0"/>
+      <c r="XE16" s="0"/>
+      <c r="XF16" s="0"/>
+      <c r="XG16" s="0"/>
+      <c r="XH16" s="0"/>
+      <c r="XI16" s="0"/>
+      <c r="XJ16" s="0"/>
+      <c r="XK16" s="0"/>
+      <c r="XL16" s="0"/>
+      <c r="XM16" s="0"/>
+      <c r="XN16" s="0"/>
+      <c r="XO16" s="0"/>
+      <c r="XP16" s="0"/>
+      <c r="XQ16" s="0"/>
+      <c r="XR16" s="0"/>
+      <c r="XS16" s="0"/>
+      <c r="XT16" s="0"/>
+      <c r="XU16" s="0"/>
+      <c r="XV16" s="0"/>
+      <c r="XW16" s="0"/>
+      <c r="XX16" s="0"/>
+      <c r="XY16" s="0"/>
+      <c r="XZ16" s="0"/>
+      <c r="YA16" s="0"/>
+      <c r="YB16" s="0"/>
+      <c r="YC16" s="0"/>
+      <c r="YD16" s="0"/>
+      <c r="YE16" s="0"/>
+      <c r="YF16" s="0"/>
+      <c r="YG16" s="0"/>
+      <c r="YH16" s="0"/>
+      <c r="YI16" s="0"/>
+      <c r="YJ16" s="0"/>
+      <c r="YK16" s="0"/>
+      <c r="YL16" s="0"/>
+      <c r="YM16" s="0"/>
+      <c r="YN16" s="0"/>
+      <c r="YO16" s="0"/>
+      <c r="YP16" s="0"/>
+      <c r="YQ16" s="0"/>
+      <c r="YR16" s="0"/>
+      <c r="YS16" s="0"/>
+      <c r="YT16" s="0"/>
+      <c r="YU16" s="0"/>
+      <c r="YV16" s="0"/>
+      <c r="YW16" s="0"/>
+      <c r="YX16" s="0"/>
+      <c r="YY16" s="0"/>
+      <c r="YZ16" s="0"/>
+      <c r="ZA16" s="0"/>
+      <c r="ZB16" s="0"/>
+      <c r="ZC16" s="0"/>
+      <c r="ZD16" s="0"/>
+      <c r="ZE16" s="0"/>
+      <c r="ZF16" s="0"/>
+      <c r="ZG16" s="0"/>
+      <c r="ZH16" s="0"/>
+      <c r="ZI16" s="0"/>
+      <c r="ZJ16" s="0"/>
+      <c r="ZK16" s="0"/>
+      <c r="ZL16" s="0"/>
+      <c r="ZM16" s="0"/>
+      <c r="ZN16" s="0"/>
+      <c r="ZO16" s="0"/>
+      <c r="ZP16" s="0"/>
+      <c r="ZQ16" s="0"/>
+      <c r="ZR16" s="0"/>
+      <c r="ZS16" s="0"/>
+      <c r="ZT16" s="0"/>
+      <c r="ZU16" s="0"/>
+      <c r="ZV16" s="0"/>
+      <c r="ZW16" s="0"/>
+      <c r="ZX16" s="0"/>
+      <c r="ZY16" s="0"/>
+      <c r="ZZ16" s="0"/>
+      <c r="AAA16" s="0"/>
+      <c r="AAB16" s="0"/>
+      <c r="AAC16" s="0"/>
+      <c r="AAD16" s="0"/>
+      <c r="AAE16" s="0"/>
+      <c r="AAF16" s="0"/>
+      <c r="AAG16" s="0"/>
+      <c r="AAH16" s="0"/>
+      <c r="AAI16" s="0"/>
+      <c r="AAJ16" s="0"/>
+      <c r="AAK16" s="0"/>
+      <c r="AAL16" s="0"/>
+      <c r="AAM16" s="0"/>
+      <c r="AAN16" s="0"/>
+      <c r="AAO16" s="0"/>
+      <c r="AAP16" s="0"/>
+      <c r="AAQ16" s="0"/>
+      <c r="AAR16" s="0"/>
+      <c r="AAS16" s="0"/>
+      <c r="AAT16" s="0"/>
+      <c r="AAU16" s="0"/>
+      <c r="AAV16" s="0"/>
+      <c r="AAW16" s="0"/>
+      <c r="AAX16" s="0"/>
+      <c r="AAY16" s="0"/>
+      <c r="AAZ16" s="0"/>
+      <c r="ABA16" s="0"/>
+      <c r="ABB16" s="0"/>
+      <c r="ABC16" s="0"/>
+      <c r="ABD16" s="0"/>
+      <c r="ABE16" s="0"/>
+      <c r="ABF16" s="0"/>
+      <c r="ABG16" s="0"/>
+      <c r="ABH16" s="0"/>
+      <c r="ABI16" s="0"/>
+      <c r="ABJ16" s="0"/>
+      <c r="ABK16" s="0"/>
+      <c r="ABL16" s="0"/>
+      <c r="ABM16" s="0"/>
+      <c r="ABN16" s="0"/>
+      <c r="ABO16" s="0"/>
+      <c r="ABP16" s="0"/>
+      <c r="ABQ16" s="0"/>
+      <c r="ABR16" s="0"/>
+      <c r="ABS16" s="0"/>
+      <c r="ABT16" s="0"/>
+      <c r="ABU16" s="0"/>
+      <c r="ABV16" s="0"/>
+      <c r="ABW16" s="0"/>
+      <c r="ABX16" s="0"/>
+      <c r="ABY16" s="0"/>
+      <c r="ABZ16" s="0"/>
+      <c r="ACA16" s="0"/>
+      <c r="ACB16" s="0"/>
+      <c r="ACC16" s="0"/>
+      <c r="ACD16" s="0"/>
+      <c r="ACE16" s="0"/>
+      <c r="ACF16" s="0"/>
+      <c r="ACG16" s="0"/>
+      <c r="ACH16" s="0"/>
+      <c r="ACI16" s="0"/>
+      <c r="ACJ16" s="0"/>
+      <c r="ACK16" s="0"/>
+      <c r="ACL16" s="0"/>
+      <c r="ACM16" s="0"/>
+      <c r="ACN16" s="0"/>
+      <c r="ACO16" s="0"/>
+      <c r="ACP16" s="0"/>
+      <c r="ACQ16" s="0"/>
+      <c r="ACR16" s="0"/>
+      <c r="ACS16" s="0"/>
+      <c r="ACT16" s="0"/>
+      <c r="ACU16" s="0"/>
+      <c r="ACV16" s="0"/>
+      <c r="ACW16" s="0"/>
+      <c r="ACX16" s="0"/>
+      <c r="ACY16" s="0"/>
+      <c r="ACZ16" s="0"/>
+      <c r="ADA16" s="0"/>
+      <c r="ADB16" s="0"/>
+      <c r="ADC16" s="0"/>
+      <c r="ADD16" s="0"/>
+      <c r="ADE16" s="0"/>
+      <c r="ADF16" s="0"/>
+      <c r="ADG16" s="0"/>
+      <c r="ADH16" s="0"/>
+      <c r="ADI16" s="0"/>
+      <c r="ADJ16" s="0"/>
+      <c r="ADK16" s="0"/>
+      <c r="ADL16" s="0"/>
+      <c r="ADM16" s="0"/>
+      <c r="ADN16" s="0"/>
+      <c r="ADO16" s="0"/>
+      <c r="ADP16" s="0"/>
+      <c r="ADQ16" s="0"/>
+      <c r="ADR16" s="0"/>
+      <c r="ADS16" s="0"/>
+      <c r="ADT16" s="0"/>
+      <c r="ADU16" s="0"/>
+      <c r="ADV16" s="0"/>
+      <c r="ADW16" s="0"/>
+      <c r="ADX16" s="0"/>
+      <c r="ADY16" s="0"/>
+      <c r="ADZ16" s="0"/>
+      <c r="AEA16" s="0"/>
+      <c r="AEB16" s="0"/>
+      <c r="AEC16" s="0"/>
+      <c r="AED16" s="0"/>
+      <c r="AEE16" s="0"/>
+      <c r="AEF16" s="0"/>
+      <c r="AEG16" s="0"/>
+      <c r="AEH16" s="0"/>
+      <c r="AEI16" s="0"/>
+      <c r="AEJ16" s="0"/>
+      <c r="AEK16" s="0"/>
+      <c r="AEL16" s="0"/>
+      <c r="AEM16" s="0"/>
+      <c r="AEN16" s="0"/>
+      <c r="AEO16" s="0"/>
+      <c r="AEP16" s="0"/>
+      <c r="AEQ16" s="0"/>
+      <c r="AER16" s="0"/>
+      <c r="AES16" s="0"/>
+      <c r="AET16" s="0"/>
+      <c r="AEU16" s="0"/>
+      <c r="AEV16" s="0"/>
+      <c r="AEW16" s="0"/>
+      <c r="AEX16" s="0"/>
+      <c r="AEY16" s="0"/>
+      <c r="AEZ16" s="0"/>
+      <c r="AFA16" s="0"/>
+      <c r="AFB16" s="0"/>
+      <c r="AFC16" s="0"/>
+      <c r="AFD16" s="0"/>
+      <c r="AFE16" s="0"/>
+      <c r="AFF16" s="0"/>
+      <c r="AFG16" s="0"/>
+      <c r="AFH16" s="0"/>
+      <c r="AFI16" s="0"/>
+      <c r="AFJ16" s="0"/>
+      <c r="AFK16" s="0"/>
+      <c r="AFL16" s="0"/>
+      <c r="AFM16" s="0"/>
+      <c r="AFN16" s="0"/>
+      <c r="AFO16" s="0"/>
+      <c r="AFP16" s="0"/>
+      <c r="AFQ16" s="0"/>
+      <c r="AFR16" s="0"/>
+      <c r="AFS16" s="0"/>
+      <c r="AFT16" s="0"/>
+      <c r="AFU16" s="0"/>
+      <c r="AFV16" s="0"/>
+      <c r="AFW16" s="0"/>
+      <c r="AFX16" s="0"/>
+      <c r="AFY16" s="0"/>
+      <c r="AFZ16" s="0"/>
+      <c r="AGA16" s="0"/>
+      <c r="AGB16" s="0"/>
+      <c r="AGC16" s="0"/>
+      <c r="AGD16" s="0"/>
+      <c r="AGE16" s="0"/>
+      <c r="AGF16" s="0"/>
+      <c r="AGG16" s="0"/>
+      <c r="AGH16" s="0"/>
+      <c r="AGI16" s="0"/>
+      <c r="AGJ16" s="0"/>
+      <c r="AGK16" s="0"/>
+      <c r="AGL16" s="0"/>
+      <c r="AGM16" s="0"/>
+      <c r="AGN16" s="0"/>
+      <c r="AGO16" s="0"/>
+      <c r="AGP16" s="0"/>
+      <c r="AGQ16" s="0"/>
+      <c r="AGR16" s="0"/>
+      <c r="AGS16" s="0"/>
+      <c r="AGT16" s="0"/>
+      <c r="AGU16" s="0"/>
+      <c r="AGV16" s="0"/>
+      <c r="AGW16" s="0"/>
+      <c r="AGX16" s="0"/>
+      <c r="AGY16" s="0"/>
+      <c r="AGZ16" s="0"/>
+      <c r="AHA16" s="0"/>
+      <c r="AHB16" s="0"/>
+      <c r="AHC16" s="0"/>
+      <c r="AHD16" s="0"/>
+      <c r="AHE16" s="0"/>
+      <c r="AHF16" s="0"/>
+      <c r="AHG16" s="0"/>
+      <c r="AHH16" s="0"/>
+      <c r="AHI16" s="0"/>
+      <c r="AHJ16" s="0"/>
+      <c r="AHK16" s="0"/>
+      <c r="AHL16" s="0"/>
+      <c r="AHM16" s="0"/>
+      <c r="AHN16" s="0"/>
+      <c r="AHO16" s="0"/>
+      <c r="AHP16" s="0"/>
+      <c r="AHQ16" s="0"/>
+      <c r="AHR16" s="0"/>
+      <c r="AHS16" s="0"/>
+      <c r="AHT16" s="0"/>
+      <c r="AHU16" s="0"/>
+      <c r="AHV16" s="0"/>
+      <c r="AHW16" s="0"/>
+      <c r="AHX16" s="0"/>
+      <c r="AHY16" s="0"/>
+      <c r="AHZ16" s="0"/>
+      <c r="AIA16" s="0"/>
+      <c r="AIB16" s="0"/>
+      <c r="AIC16" s="0"/>
+      <c r="AID16" s="0"/>
+      <c r="AIE16" s="0"/>
+      <c r="AIF16" s="0"/>
+      <c r="AIG16" s="0"/>
+      <c r="AIH16" s="0"/>
+      <c r="AII16" s="0"/>
+      <c r="AIJ16" s="0"/>
+      <c r="AIK16" s="0"/>
+      <c r="AIL16" s="0"/>
+      <c r="AIM16" s="0"/>
+      <c r="AIN16" s="0"/>
+      <c r="AIO16" s="0"/>
+      <c r="AIP16" s="0"/>
+      <c r="AIQ16" s="0"/>
+      <c r="AIR16" s="0"/>
+      <c r="AIS16" s="0"/>
+      <c r="AIT16" s="0"/>
+      <c r="AIU16" s="0"/>
+      <c r="AIV16" s="0"/>
+      <c r="AIW16" s="0"/>
+      <c r="AIX16" s="0"/>
+      <c r="AIY16" s="0"/>
+      <c r="AIZ16" s="0"/>
+      <c r="AJA16" s="0"/>
+      <c r="AJB16" s="0"/>
+      <c r="AJC16" s="0"/>
+      <c r="AJD16" s="0"/>
+      <c r="AJE16" s="0"/>
+      <c r="AJF16" s="0"/>
+      <c r="AJG16" s="0"/>
+      <c r="AJH16" s="0"/>
+      <c r="AJI16" s="0"/>
+      <c r="AJJ16" s="0"/>
+      <c r="AJK16" s="0"/>
+      <c r="AJL16" s="0"/>
+      <c r="AJM16" s="0"/>
+      <c r="AJN16" s="0"/>
+      <c r="AJO16" s="0"/>
+      <c r="AJP16" s="0"/>
+      <c r="AJQ16" s="0"/>
+      <c r="AJR16" s="0"/>
+      <c r="AJS16" s="0"/>
+      <c r="AJT16" s="0"/>
+      <c r="AJU16" s="0"/>
+      <c r="AJV16" s="0"/>
+      <c r="AJW16" s="0"/>
+      <c r="AJX16" s="0"/>
+      <c r="AJY16" s="0"/>
+      <c r="AJZ16" s="0"/>
+      <c r="AKA16" s="0"/>
+      <c r="AKB16" s="0"/>
+      <c r="AKC16" s="0"/>
+      <c r="AKD16" s="0"/>
+      <c r="AKE16" s="0"/>
+      <c r="AKF16" s="0"/>
+      <c r="AKG16" s="0"/>
+      <c r="AKH16" s="0"/>
+      <c r="AKI16" s="0"/>
+      <c r="AKJ16" s="0"/>
+      <c r="AKK16" s="0"/>
+      <c r="AKL16" s="0"/>
+      <c r="AKM16" s="0"/>
+      <c r="AKN16" s="0"/>
+      <c r="AKO16" s="0"/>
+      <c r="AKP16" s="0"/>
+      <c r="AKQ16" s="0"/>
+      <c r="AKR16" s="0"/>
+      <c r="AKS16" s="0"/>
+      <c r="AKT16" s="0"/>
+      <c r="AKU16" s="0"/>
+      <c r="AKV16" s="0"/>
+      <c r="AKW16" s="0"/>
+      <c r="AKX16" s="0"/>
+      <c r="AKY16" s="0"/>
+      <c r="AKZ16" s="0"/>
+      <c r="ALA16" s="0"/>
+      <c r="ALB16" s="0"/>
+      <c r="ALC16" s="0"/>
+      <c r="ALD16" s="0"/>
+      <c r="ALE16" s="0"/>
+      <c r="ALF16" s="0"/>
+      <c r="ALG16" s="0"/>
+      <c r="ALH16" s="0"/>
+      <c r="ALI16" s="0"/>
+      <c r="ALJ16" s="0"/>
+      <c r="ALK16" s="0"/>
+      <c r="ALL16" s="0"/>
+      <c r="ALM16" s="0"/>
+      <c r="ALN16" s="0"/>
+      <c r="ALO16" s="0"/>
+      <c r="ALP16" s="0"/>
+      <c r="ALQ16" s="0"/>
+      <c r="ALR16" s="0"/>
+      <c r="ALS16" s="0"/>
+      <c r="ALT16" s="0"/>
+      <c r="ALU16" s="0"/>
+      <c r="ALV16" s="0"/>
+      <c r="ALW16" s="0"/>
+      <c r="ALX16" s="0"/>
+      <c r="ALY16" s="0"/>
+      <c r="ALZ16" s="0"/>
+      <c r="AMA16" s="0"/>
+      <c r="AMB16" s="0"/>
+      <c r="AMC16" s="0"/>
+      <c r="AMD16" s="0"/>
+      <c r="AME16" s="0"/>
+      <c r="AMF16" s="0"/>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
@@ -13776,13 +14838,13 @@
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -15841,7 +16903,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>35</v>
@@ -16868,1047 +17930,1049 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="0"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0"/>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
-      <c r="AB22" s="0"/>
-      <c r="AC22" s="0"/>
-      <c r="AD22" s="0"/>
-      <c r="AE22" s="0"/>
-      <c r="AF22" s="0"/>
-      <c r="AG22" s="0"/>
-      <c r="AH22" s="0"/>
-      <c r="AI22" s="0"/>
-      <c r="AJ22" s="0"/>
-      <c r="AK22" s="0"/>
-      <c r="AL22" s="0"/>
-      <c r="AM22" s="0"/>
-      <c r="AN22" s="0"/>
-      <c r="AO22" s="0"/>
-      <c r="AP22" s="0"/>
-      <c r="AQ22" s="0"/>
-      <c r="AR22" s="0"/>
-      <c r="AS22" s="0"/>
-      <c r="AT22" s="0"/>
-      <c r="AU22" s="0"/>
-      <c r="AV22" s="0"/>
-      <c r="AW22" s="0"/>
-      <c r="AX22" s="0"/>
-      <c r="AY22" s="0"/>
-      <c r="AZ22" s="0"/>
-      <c r="BA22" s="0"/>
-      <c r="BB22" s="0"/>
-      <c r="BC22" s="0"/>
-      <c r="BD22" s="0"/>
-      <c r="BE22" s="0"/>
-      <c r="BF22" s="0"/>
-      <c r="BG22" s="0"/>
-      <c r="BH22" s="0"/>
-      <c r="BI22" s="0"/>
-      <c r="BJ22" s="0"/>
-      <c r="BK22" s="0"/>
-      <c r="BL22" s="0"/>
-      <c r="BM22" s="0"/>
-      <c r="BN22" s="0"/>
-      <c r="BO22" s="0"/>
-      <c r="BP22" s="0"/>
-      <c r="BQ22" s="0"/>
-      <c r="BR22" s="0"/>
-      <c r="BS22" s="0"/>
-      <c r="BT22" s="0"/>
-      <c r="BU22" s="0"/>
-      <c r="BV22" s="0"/>
-      <c r="BW22" s="0"/>
-      <c r="BX22" s="0"/>
-      <c r="BY22" s="0"/>
-      <c r="BZ22" s="0"/>
-      <c r="CA22" s="0"/>
-      <c r="CB22" s="0"/>
-      <c r="CC22" s="0"/>
-      <c r="CD22" s="0"/>
-      <c r="CE22" s="0"/>
-      <c r="CF22" s="0"/>
-      <c r="CG22" s="0"/>
-      <c r="CH22" s="0"/>
-      <c r="CI22" s="0"/>
-      <c r="CJ22" s="0"/>
-      <c r="CK22" s="0"/>
-      <c r="CL22" s="0"/>
-      <c r="CM22" s="0"/>
-      <c r="CN22" s="0"/>
-      <c r="CO22" s="0"/>
-      <c r="CP22" s="0"/>
-      <c r="CQ22" s="0"/>
-      <c r="CR22" s="0"/>
-      <c r="CS22" s="0"/>
-      <c r="CT22" s="0"/>
-      <c r="CU22" s="0"/>
-      <c r="CV22" s="0"/>
-      <c r="CW22" s="0"/>
-      <c r="CX22" s="0"/>
-      <c r="CY22" s="0"/>
-      <c r="CZ22" s="0"/>
-      <c r="DA22" s="0"/>
-      <c r="DB22" s="0"/>
-      <c r="DC22" s="0"/>
-      <c r="DD22" s="0"/>
-      <c r="DE22" s="0"/>
-      <c r="DF22" s="0"/>
-      <c r="DG22" s="0"/>
-      <c r="DH22" s="0"/>
-      <c r="DI22" s="0"/>
-      <c r="DJ22" s="0"/>
-      <c r="DK22" s="0"/>
-      <c r="DL22" s="0"/>
-      <c r="DM22" s="0"/>
-      <c r="DN22" s="0"/>
-      <c r="DO22" s="0"/>
-      <c r="DP22" s="0"/>
-      <c r="DQ22" s="0"/>
-      <c r="DR22" s="0"/>
-      <c r="DS22" s="0"/>
-      <c r="DT22" s="0"/>
-      <c r="DU22" s="0"/>
-      <c r="DV22" s="0"/>
-      <c r="DW22" s="0"/>
-      <c r="DX22" s="0"/>
-      <c r="DY22" s="0"/>
-      <c r="DZ22" s="0"/>
-      <c r="EA22" s="0"/>
-      <c r="EB22" s="0"/>
-      <c r="EC22" s="0"/>
-      <c r="ED22" s="0"/>
-      <c r="EE22" s="0"/>
-      <c r="EF22" s="0"/>
-      <c r="EG22" s="0"/>
-      <c r="EH22" s="0"/>
-      <c r="EI22" s="0"/>
-      <c r="EJ22" s="0"/>
-      <c r="EK22" s="0"/>
-      <c r="EL22" s="0"/>
-      <c r="EM22" s="0"/>
-      <c r="EN22" s="0"/>
-      <c r="EO22" s="0"/>
-      <c r="EP22" s="0"/>
-      <c r="EQ22" s="0"/>
-      <c r="ER22" s="0"/>
-      <c r="ES22" s="0"/>
-      <c r="ET22" s="0"/>
-      <c r="EU22" s="0"/>
-      <c r="EV22" s="0"/>
-      <c r="EW22" s="0"/>
-      <c r="EX22" s="0"/>
-      <c r="EY22" s="0"/>
-      <c r="EZ22" s="0"/>
-      <c r="FA22" s="0"/>
-      <c r="FB22" s="0"/>
-      <c r="FC22" s="0"/>
-      <c r="FD22" s="0"/>
-      <c r="FE22" s="0"/>
-      <c r="FF22" s="0"/>
-      <c r="FG22" s="0"/>
-      <c r="FH22" s="0"/>
-      <c r="FI22" s="0"/>
-      <c r="FJ22" s="0"/>
-      <c r="FK22" s="0"/>
-      <c r="FL22" s="0"/>
-      <c r="FM22" s="0"/>
-      <c r="FN22" s="0"/>
-      <c r="FO22" s="0"/>
-      <c r="FP22" s="0"/>
-      <c r="FQ22" s="0"/>
-      <c r="FR22" s="0"/>
-      <c r="FS22" s="0"/>
-      <c r="FT22" s="0"/>
-      <c r="FU22" s="0"/>
-      <c r="FV22" s="0"/>
-      <c r="FW22" s="0"/>
-      <c r="FX22" s="0"/>
-      <c r="FY22" s="0"/>
-      <c r="FZ22" s="0"/>
-      <c r="GA22" s="0"/>
-      <c r="GB22" s="0"/>
-      <c r="GC22" s="0"/>
-      <c r="GD22" s="0"/>
-      <c r="GE22" s="0"/>
-      <c r="GF22" s="0"/>
-      <c r="GG22" s="0"/>
-      <c r="GH22" s="0"/>
-      <c r="GI22" s="0"/>
-      <c r="GJ22" s="0"/>
-      <c r="GK22" s="0"/>
-      <c r="GL22" s="0"/>
-      <c r="GM22" s="0"/>
-      <c r="GN22" s="0"/>
-      <c r="GO22" s="0"/>
-      <c r="GP22" s="0"/>
-      <c r="GQ22" s="0"/>
-      <c r="GR22" s="0"/>
-      <c r="GS22" s="0"/>
-      <c r="GT22" s="0"/>
-      <c r="GU22" s="0"/>
-      <c r="GV22" s="0"/>
-      <c r="GW22" s="0"/>
-      <c r="GX22" s="0"/>
-      <c r="GY22" s="0"/>
-      <c r="GZ22" s="0"/>
-      <c r="HA22" s="0"/>
-      <c r="HB22" s="0"/>
-      <c r="HC22" s="0"/>
-      <c r="HD22" s="0"/>
-      <c r="HE22" s="0"/>
-      <c r="HF22" s="0"/>
-      <c r="HG22" s="0"/>
-      <c r="HH22" s="0"/>
-      <c r="HI22" s="0"/>
-      <c r="HJ22" s="0"/>
-      <c r="HK22" s="0"/>
-      <c r="HL22" s="0"/>
-      <c r="HM22" s="0"/>
-      <c r="HN22" s="0"/>
-      <c r="HO22" s="0"/>
-      <c r="HP22" s="0"/>
-      <c r="HQ22" s="0"/>
-      <c r="HR22" s="0"/>
-      <c r="HS22" s="0"/>
-      <c r="HT22" s="0"/>
-      <c r="HU22" s="0"/>
-      <c r="HV22" s="0"/>
-      <c r="HW22" s="0"/>
-      <c r="HX22" s="0"/>
-      <c r="HY22" s="0"/>
-      <c r="HZ22" s="0"/>
-      <c r="IA22" s="0"/>
-      <c r="IB22" s="0"/>
-      <c r="IC22" s="0"/>
-      <c r="ID22" s="0"/>
-      <c r="IE22" s="0"/>
-      <c r="IF22" s="0"/>
-      <c r="IG22" s="0"/>
-      <c r="IH22" s="0"/>
-      <c r="II22" s="0"/>
-      <c r="IJ22" s="0"/>
-      <c r="IK22" s="0"/>
-      <c r="IL22" s="0"/>
-      <c r="IM22" s="0"/>
-      <c r="IN22" s="0"/>
-      <c r="IO22" s="0"/>
-      <c r="IP22" s="0"/>
-      <c r="IQ22" s="0"/>
-      <c r="IR22" s="0"/>
-      <c r="IS22" s="0"/>
-      <c r="IT22" s="0"/>
-      <c r="IU22" s="0"/>
-      <c r="IV22" s="0"/>
-      <c r="IW22" s="0"/>
-      <c r="IX22" s="0"/>
-      <c r="IY22" s="0"/>
-      <c r="IZ22" s="0"/>
-      <c r="JA22" s="0"/>
-      <c r="JB22" s="0"/>
-      <c r="JC22" s="0"/>
-      <c r="JD22" s="0"/>
-      <c r="JE22" s="0"/>
-      <c r="JF22" s="0"/>
-      <c r="JG22" s="0"/>
-      <c r="JH22" s="0"/>
-      <c r="JI22" s="0"/>
-      <c r="JJ22" s="0"/>
-      <c r="JK22" s="0"/>
-      <c r="JL22" s="0"/>
-      <c r="JM22" s="0"/>
-      <c r="JN22" s="0"/>
-      <c r="JO22" s="0"/>
-      <c r="JP22" s="0"/>
-      <c r="JQ22" s="0"/>
-      <c r="JR22" s="0"/>
-      <c r="JS22" s="0"/>
-      <c r="JT22" s="0"/>
-      <c r="JU22" s="0"/>
-      <c r="JV22" s="0"/>
-      <c r="JW22" s="0"/>
-      <c r="JX22" s="0"/>
-      <c r="JY22" s="0"/>
-      <c r="JZ22" s="0"/>
-      <c r="KA22" s="0"/>
-      <c r="KB22" s="0"/>
-      <c r="KC22" s="0"/>
-      <c r="KD22" s="0"/>
-      <c r="KE22" s="0"/>
-      <c r="KF22" s="0"/>
-      <c r="KG22" s="0"/>
-      <c r="KH22" s="0"/>
-      <c r="KI22" s="0"/>
-      <c r="KJ22" s="0"/>
-      <c r="KK22" s="0"/>
-      <c r="KL22" s="0"/>
-      <c r="KM22" s="0"/>
-      <c r="KN22" s="0"/>
-      <c r="KO22" s="0"/>
-      <c r="KP22" s="0"/>
-      <c r="KQ22" s="0"/>
-      <c r="KR22" s="0"/>
-      <c r="KS22" s="0"/>
-      <c r="KT22" s="0"/>
-      <c r="KU22" s="0"/>
-      <c r="KV22" s="0"/>
-      <c r="KW22" s="0"/>
-      <c r="KX22" s="0"/>
-      <c r="KY22" s="0"/>
-      <c r="KZ22" s="0"/>
-      <c r="LA22" s="0"/>
-      <c r="LB22" s="0"/>
-      <c r="LC22" s="0"/>
-      <c r="LD22" s="0"/>
-      <c r="LE22" s="0"/>
-      <c r="LF22" s="0"/>
-      <c r="LG22" s="0"/>
-      <c r="LH22" s="0"/>
-      <c r="LI22" s="0"/>
-      <c r="LJ22" s="0"/>
-      <c r="LK22" s="0"/>
-      <c r="LL22" s="0"/>
-      <c r="LM22" s="0"/>
-      <c r="LN22" s="0"/>
-      <c r="LO22" s="0"/>
-      <c r="LP22" s="0"/>
-      <c r="LQ22" s="0"/>
-      <c r="LR22" s="0"/>
-      <c r="LS22" s="0"/>
-      <c r="LT22" s="0"/>
-      <c r="LU22" s="0"/>
-      <c r="LV22" s="0"/>
-      <c r="LW22" s="0"/>
-      <c r="LX22" s="0"/>
-      <c r="LY22" s="0"/>
-      <c r="LZ22" s="0"/>
-      <c r="MA22" s="0"/>
-      <c r="MB22" s="0"/>
-      <c r="MC22" s="0"/>
-      <c r="MD22" s="0"/>
-      <c r="ME22" s="0"/>
-      <c r="MF22" s="0"/>
-      <c r="MG22" s="0"/>
-      <c r="MH22" s="0"/>
-      <c r="MI22" s="0"/>
-      <c r="MJ22" s="0"/>
-      <c r="MK22" s="0"/>
-      <c r="ML22" s="0"/>
-      <c r="MM22" s="0"/>
-      <c r="MN22" s="0"/>
-      <c r="MO22" s="0"/>
-      <c r="MP22" s="0"/>
-      <c r="MQ22" s="0"/>
-      <c r="MR22" s="0"/>
-      <c r="MS22" s="0"/>
-      <c r="MT22" s="0"/>
-      <c r="MU22" s="0"/>
-      <c r="MV22" s="0"/>
-      <c r="MW22" s="0"/>
-      <c r="MX22" s="0"/>
-      <c r="MY22" s="0"/>
-      <c r="MZ22" s="0"/>
-      <c r="NA22" s="0"/>
-      <c r="NB22" s="0"/>
-      <c r="NC22" s="0"/>
-      <c r="ND22" s="0"/>
-      <c r="NE22" s="0"/>
-      <c r="NF22" s="0"/>
-      <c r="NG22" s="0"/>
-      <c r="NH22" s="0"/>
-      <c r="NI22" s="0"/>
-      <c r="NJ22" s="0"/>
-      <c r="NK22" s="0"/>
-      <c r="NL22" s="0"/>
-      <c r="NM22" s="0"/>
-      <c r="NN22" s="0"/>
-      <c r="NO22" s="0"/>
-      <c r="NP22" s="0"/>
-      <c r="NQ22" s="0"/>
-      <c r="NR22" s="0"/>
-      <c r="NS22" s="0"/>
-      <c r="NT22" s="0"/>
-      <c r="NU22" s="0"/>
-      <c r="NV22" s="0"/>
-      <c r="NW22" s="0"/>
-      <c r="NX22" s="0"/>
-      <c r="NY22" s="0"/>
-      <c r="NZ22" s="0"/>
-      <c r="OA22" s="0"/>
-      <c r="OB22" s="0"/>
-      <c r="OC22" s="0"/>
-      <c r="OD22" s="0"/>
-      <c r="OE22" s="0"/>
-      <c r="OF22" s="0"/>
-      <c r="OG22" s="0"/>
-      <c r="OH22" s="0"/>
-      <c r="OI22" s="0"/>
-      <c r="OJ22" s="0"/>
-      <c r="OK22" s="0"/>
-      <c r="OL22" s="0"/>
-      <c r="OM22" s="0"/>
-      <c r="ON22" s="0"/>
-      <c r="OO22" s="0"/>
-      <c r="OP22" s="0"/>
-      <c r="OQ22" s="0"/>
-      <c r="OR22" s="0"/>
-      <c r="OS22" s="0"/>
-      <c r="OT22" s="0"/>
-      <c r="OU22" s="0"/>
-      <c r="OV22" s="0"/>
-      <c r="OW22" s="0"/>
-      <c r="OX22" s="0"/>
-      <c r="OY22" s="0"/>
-      <c r="OZ22" s="0"/>
-      <c r="PA22" s="0"/>
-      <c r="PB22" s="0"/>
-      <c r="PC22" s="0"/>
-      <c r="PD22" s="0"/>
-      <c r="PE22" s="0"/>
-      <c r="PF22" s="0"/>
-      <c r="PG22" s="0"/>
-      <c r="PH22" s="0"/>
-      <c r="PI22" s="0"/>
-      <c r="PJ22" s="0"/>
-      <c r="PK22" s="0"/>
-      <c r="PL22" s="0"/>
-      <c r="PM22" s="0"/>
-      <c r="PN22" s="0"/>
-      <c r="PO22" s="0"/>
-      <c r="PP22" s="0"/>
-      <c r="PQ22" s="0"/>
-      <c r="PR22" s="0"/>
-      <c r="PS22" s="0"/>
-      <c r="PT22" s="0"/>
-      <c r="PU22" s="0"/>
-      <c r="PV22" s="0"/>
-      <c r="PW22" s="0"/>
-      <c r="PX22" s="0"/>
-      <c r="PY22" s="0"/>
-      <c r="PZ22" s="0"/>
-      <c r="QA22" s="0"/>
-      <c r="QB22" s="0"/>
-      <c r="QC22" s="0"/>
-      <c r="QD22" s="0"/>
-      <c r="QE22" s="0"/>
-      <c r="QF22" s="0"/>
-      <c r="QG22" s="0"/>
-      <c r="QH22" s="0"/>
-      <c r="QI22" s="0"/>
-      <c r="QJ22" s="0"/>
-      <c r="QK22" s="0"/>
-      <c r="QL22" s="0"/>
-      <c r="QM22" s="0"/>
-      <c r="QN22" s="0"/>
-      <c r="QO22" s="0"/>
-      <c r="QP22" s="0"/>
-      <c r="QQ22" s="0"/>
-      <c r="QR22" s="0"/>
-      <c r="QS22" s="0"/>
-      <c r="QT22" s="0"/>
-      <c r="QU22" s="0"/>
-      <c r="QV22" s="0"/>
-      <c r="QW22" s="0"/>
-      <c r="QX22" s="0"/>
-      <c r="QY22" s="0"/>
-      <c r="QZ22" s="0"/>
-      <c r="RA22" s="0"/>
-      <c r="RB22" s="0"/>
-      <c r="RC22" s="0"/>
-      <c r="RD22" s="0"/>
-      <c r="RE22" s="0"/>
-      <c r="RF22" s="0"/>
-      <c r="RG22" s="0"/>
-      <c r="RH22" s="0"/>
-      <c r="RI22" s="0"/>
-      <c r="RJ22" s="0"/>
-      <c r="RK22" s="0"/>
-      <c r="RL22" s="0"/>
-      <c r="RM22" s="0"/>
-      <c r="RN22" s="0"/>
-      <c r="RO22" s="0"/>
-      <c r="RP22" s="0"/>
-      <c r="RQ22" s="0"/>
-      <c r="RR22" s="0"/>
-      <c r="RS22" s="0"/>
-      <c r="RT22" s="0"/>
-      <c r="RU22" s="0"/>
-      <c r="RV22" s="0"/>
-      <c r="RW22" s="0"/>
-      <c r="RX22" s="0"/>
-      <c r="RY22" s="0"/>
-      <c r="RZ22" s="0"/>
-      <c r="SA22" s="0"/>
-      <c r="SB22" s="0"/>
-      <c r="SC22" s="0"/>
-      <c r="SD22" s="0"/>
-      <c r="SE22" s="0"/>
-      <c r="SF22" s="0"/>
-      <c r="SG22" s="0"/>
-      <c r="SH22" s="0"/>
-      <c r="SI22" s="0"/>
-      <c r="SJ22" s="0"/>
-      <c r="SK22" s="0"/>
-      <c r="SL22" s="0"/>
-      <c r="SM22" s="0"/>
-      <c r="SN22" s="0"/>
-      <c r="SO22" s="0"/>
-      <c r="SP22" s="0"/>
-      <c r="SQ22" s="0"/>
-      <c r="SR22" s="0"/>
-      <c r="SS22" s="0"/>
-      <c r="ST22" s="0"/>
-      <c r="SU22" s="0"/>
-      <c r="SV22" s="0"/>
-      <c r="SW22" s="0"/>
-      <c r="SX22" s="0"/>
-      <c r="SY22" s="0"/>
-      <c r="SZ22" s="0"/>
-      <c r="TA22" s="0"/>
-      <c r="TB22" s="0"/>
-      <c r="TC22" s="0"/>
-      <c r="TD22" s="0"/>
-      <c r="TE22" s="0"/>
-      <c r="TF22" s="0"/>
-      <c r="TG22" s="0"/>
-      <c r="TH22" s="0"/>
-      <c r="TI22" s="0"/>
-      <c r="TJ22" s="0"/>
-      <c r="TK22" s="0"/>
-      <c r="TL22" s="0"/>
-      <c r="TM22" s="0"/>
-      <c r="TN22" s="0"/>
-      <c r="TO22" s="0"/>
-      <c r="TP22" s="0"/>
-      <c r="TQ22" s="0"/>
-      <c r="TR22" s="0"/>
-      <c r="TS22" s="0"/>
-      <c r="TT22" s="0"/>
-      <c r="TU22" s="0"/>
-      <c r="TV22" s="0"/>
-      <c r="TW22" s="0"/>
-      <c r="TX22" s="0"/>
-      <c r="TY22" s="0"/>
-      <c r="TZ22" s="0"/>
-      <c r="UA22" s="0"/>
-      <c r="UB22" s="0"/>
-      <c r="UC22" s="0"/>
-      <c r="UD22" s="0"/>
-      <c r="UE22" s="0"/>
-      <c r="UF22" s="0"/>
-      <c r="UG22" s="0"/>
-      <c r="UH22" s="0"/>
-      <c r="UI22" s="0"/>
-      <c r="UJ22" s="0"/>
-      <c r="UK22" s="0"/>
-      <c r="UL22" s="0"/>
-      <c r="UM22" s="0"/>
-      <c r="UN22" s="0"/>
-      <c r="UO22" s="0"/>
-      <c r="UP22" s="0"/>
-      <c r="UQ22" s="0"/>
-      <c r="UR22" s="0"/>
-      <c r="US22" s="0"/>
-      <c r="UT22" s="0"/>
-      <c r="UU22" s="0"/>
-      <c r="UV22" s="0"/>
-      <c r="UW22" s="0"/>
-      <c r="UX22" s="0"/>
-      <c r="UY22" s="0"/>
-      <c r="UZ22" s="0"/>
-      <c r="VA22" s="0"/>
-      <c r="VB22" s="0"/>
-      <c r="VC22" s="0"/>
-      <c r="VD22" s="0"/>
-      <c r="VE22" s="0"/>
-      <c r="VF22" s="0"/>
-      <c r="VG22" s="0"/>
-      <c r="VH22" s="0"/>
-      <c r="VI22" s="0"/>
-      <c r="VJ22" s="0"/>
-      <c r="VK22" s="0"/>
-      <c r="VL22" s="0"/>
-      <c r="VM22" s="0"/>
-      <c r="VN22" s="0"/>
-      <c r="VO22" s="0"/>
-      <c r="VP22" s="0"/>
-      <c r="VQ22" s="0"/>
-      <c r="VR22" s="0"/>
-      <c r="VS22" s="0"/>
-      <c r="VT22" s="0"/>
-      <c r="VU22" s="0"/>
-      <c r="VV22" s="0"/>
-      <c r="VW22" s="0"/>
-      <c r="VX22" s="0"/>
-      <c r="VY22" s="0"/>
-      <c r="VZ22" s="0"/>
-      <c r="WA22" s="0"/>
-      <c r="WB22" s="0"/>
-      <c r="WC22" s="0"/>
-      <c r="WD22" s="0"/>
-      <c r="WE22" s="0"/>
-      <c r="WF22" s="0"/>
-      <c r="WG22" s="0"/>
-      <c r="WH22" s="0"/>
-      <c r="WI22" s="0"/>
-      <c r="WJ22" s="0"/>
-      <c r="WK22" s="0"/>
-      <c r="WL22" s="0"/>
-      <c r="WM22" s="0"/>
-      <c r="WN22" s="0"/>
-      <c r="WO22" s="0"/>
-      <c r="WP22" s="0"/>
-      <c r="WQ22" s="0"/>
-      <c r="WR22" s="0"/>
-      <c r="WS22" s="0"/>
-      <c r="WT22" s="0"/>
-      <c r="WU22" s="0"/>
-      <c r="WV22" s="0"/>
-      <c r="WW22" s="0"/>
-      <c r="WX22" s="0"/>
-      <c r="WY22" s="0"/>
-      <c r="WZ22" s="0"/>
-      <c r="XA22" s="0"/>
-      <c r="XB22" s="0"/>
-      <c r="XC22" s="0"/>
-      <c r="XD22" s="0"/>
-      <c r="XE22" s="0"/>
-      <c r="XF22" s="0"/>
-      <c r="XG22" s="0"/>
-      <c r="XH22" s="0"/>
-      <c r="XI22" s="0"/>
-      <c r="XJ22" s="0"/>
-      <c r="XK22" s="0"/>
-      <c r="XL22" s="0"/>
-      <c r="XM22" s="0"/>
-      <c r="XN22" s="0"/>
-      <c r="XO22" s="0"/>
-      <c r="XP22" s="0"/>
-      <c r="XQ22" s="0"/>
-      <c r="XR22" s="0"/>
-      <c r="XS22" s="0"/>
-      <c r="XT22" s="0"/>
-      <c r="XU22" s="0"/>
-      <c r="XV22" s="0"/>
-      <c r="XW22" s="0"/>
-      <c r="XX22" s="0"/>
-      <c r="XY22" s="0"/>
-      <c r="XZ22" s="0"/>
-      <c r="YA22" s="0"/>
-      <c r="YB22" s="0"/>
-      <c r="YC22" s="0"/>
-      <c r="YD22" s="0"/>
-      <c r="YE22" s="0"/>
-      <c r="YF22" s="0"/>
-      <c r="YG22" s="0"/>
-      <c r="YH22" s="0"/>
-      <c r="YI22" s="0"/>
-      <c r="YJ22" s="0"/>
-      <c r="YK22" s="0"/>
-      <c r="YL22" s="0"/>
-      <c r="YM22" s="0"/>
-      <c r="YN22" s="0"/>
-      <c r="YO22" s="0"/>
-      <c r="YP22" s="0"/>
-      <c r="YQ22" s="0"/>
-      <c r="YR22" s="0"/>
-      <c r="YS22" s="0"/>
-      <c r="YT22" s="0"/>
-      <c r="YU22" s="0"/>
-      <c r="YV22" s="0"/>
-      <c r="YW22" s="0"/>
-      <c r="YX22" s="0"/>
-      <c r="YY22" s="0"/>
-      <c r="YZ22" s="0"/>
-      <c r="ZA22" s="0"/>
-      <c r="ZB22" s="0"/>
-      <c r="ZC22" s="0"/>
-      <c r="ZD22" s="0"/>
-      <c r="ZE22" s="0"/>
-      <c r="ZF22" s="0"/>
-      <c r="ZG22" s="0"/>
-      <c r="ZH22" s="0"/>
-      <c r="ZI22" s="0"/>
-      <c r="ZJ22" s="0"/>
-      <c r="ZK22" s="0"/>
-      <c r="ZL22" s="0"/>
-      <c r="ZM22" s="0"/>
-      <c r="ZN22" s="0"/>
-      <c r="ZO22" s="0"/>
-      <c r="ZP22" s="0"/>
-      <c r="ZQ22" s="0"/>
-      <c r="ZR22" s="0"/>
-      <c r="ZS22" s="0"/>
-      <c r="ZT22" s="0"/>
-      <c r="ZU22" s="0"/>
-      <c r="ZV22" s="0"/>
-      <c r="ZW22" s="0"/>
-      <c r="ZX22" s="0"/>
-      <c r="ZY22" s="0"/>
-      <c r="ZZ22" s="0"/>
-      <c r="AAA22" s="0"/>
-      <c r="AAB22" s="0"/>
-      <c r="AAC22" s="0"/>
-      <c r="AAD22" s="0"/>
-      <c r="AAE22" s="0"/>
-      <c r="AAF22" s="0"/>
-      <c r="AAG22" s="0"/>
-      <c r="AAH22" s="0"/>
-      <c r="AAI22" s="0"/>
-      <c r="AAJ22" s="0"/>
-      <c r="AAK22" s="0"/>
-      <c r="AAL22" s="0"/>
-      <c r="AAM22" s="0"/>
-      <c r="AAN22" s="0"/>
-      <c r="AAO22" s="0"/>
-      <c r="AAP22" s="0"/>
-      <c r="AAQ22" s="0"/>
-      <c r="AAR22" s="0"/>
-      <c r="AAS22" s="0"/>
-      <c r="AAT22" s="0"/>
-      <c r="AAU22" s="0"/>
-      <c r="AAV22" s="0"/>
-      <c r="AAW22" s="0"/>
-      <c r="AAX22" s="0"/>
-      <c r="AAY22" s="0"/>
-      <c r="AAZ22" s="0"/>
-      <c r="ABA22" s="0"/>
-      <c r="ABB22" s="0"/>
-      <c r="ABC22" s="0"/>
-      <c r="ABD22" s="0"/>
-      <c r="ABE22" s="0"/>
-      <c r="ABF22" s="0"/>
-      <c r="ABG22" s="0"/>
-      <c r="ABH22" s="0"/>
-      <c r="ABI22" s="0"/>
-      <c r="ABJ22" s="0"/>
-      <c r="ABK22" s="0"/>
-      <c r="ABL22" s="0"/>
-      <c r="ABM22" s="0"/>
-      <c r="ABN22" s="0"/>
-      <c r="ABO22" s="0"/>
-      <c r="ABP22" s="0"/>
-      <c r="ABQ22" s="0"/>
-      <c r="ABR22" s="0"/>
-      <c r="ABS22" s="0"/>
-      <c r="ABT22" s="0"/>
-      <c r="ABU22" s="0"/>
-      <c r="ABV22" s="0"/>
-      <c r="ABW22" s="0"/>
-      <c r="ABX22" s="0"/>
-      <c r="ABY22" s="0"/>
-      <c r="ABZ22" s="0"/>
-      <c r="ACA22" s="0"/>
-      <c r="ACB22" s="0"/>
-      <c r="ACC22" s="0"/>
-      <c r="ACD22" s="0"/>
-      <c r="ACE22" s="0"/>
-      <c r="ACF22" s="0"/>
-      <c r="ACG22" s="0"/>
-      <c r="ACH22" s="0"/>
-      <c r="ACI22" s="0"/>
-      <c r="ACJ22" s="0"/>
-      <c r="ACK22" s="0"/>
-      <c r="ACL22" s="0"/>
-      <c r="ACM22" s="0"/>
-      <c r="ACN22" s="0"/>
-      <c r="ACO22" s="0"/>
-      <c r="ACP22" s="0"/>
-      <c r="ACQ22" s="0"/>
-      <c r="ACR22" s="0"/>
-      <c r="ACS22" s="0"/>
-      <c r="ACT22" s="0"/>
-      <c r="ACU22" s="0"/>
-      <c r="ACV22" s="0"/>
-      <c r="ACW22" s="0"/>
-      <c r="ACX22" s="0"/>
-      <c r="ACY22" s="0"/>
-      <c r="ACZ22" s="0"/>
-      <c r="ADA22" s="0"/>
-      <c r="ADB22" s="0"/>
-      <c r="ADC22" s="0"/>
-      <c r="ADD22" s="0"/>
-      <c r="ADE22" s="0"/>
-      <c r="ADF22" s="0"/>
-      <c r="ADG22" s="0"/>
-      <c r="ADH22" s="0"/>
-      <c r="ADI22" s="0"/>
-      <c r="ADJ22" s="0"/>
-      <c r="ADK22" s="0"/>
-      <c r="ADL22" s="0"/>
-      <c r="ADM22" s="0"/>
-      <c r="ADN22" s="0"/>
-      <c r="ADO22" s="0"/>
-      <c r="ADP22" s="0"/>
-      <c r="ADQ22" s="0"/>
-      <c r="ADR22" s="0"/>
-      <c r="ADS22" s="0"/>
-      <c r="ADT22" s="0"/>
-      <c r="ADU22" s="0"/>
-      <c r="ADV22" s="0"/>
-      <c r="ADW22" s="0"/>
-      <c r="ADX22" s="0"/>
-      <c r="ADY22" s="0"/>
-      <c r="ADZ22" s="0"/>
-      <c r="AEA22" s="0"/>
-      <c r="AEB22" s="0"/>
-      <c r="AEC22" s="0"/>
-      <c r="AED22" s="0"/>
-      <c r="AEE22" s="0"/>
-      <c r="AEF22" s="0"/>
-      <c r="AEG22" s="0"/>
-      <c r="AEH22" s="0"/>
-      <c r="AEI22" s="0"/>
-      <c r="AEJ22" s="0"/>
-      <c r="AEK22" s="0"/>
-      <c r="AEL22" s="0"/>
-      <c r="AEM22" s="0"/>
-      <c r="AEN22" s="0"/>
-      <c r="AEO22" s="0"/>
-      <c r="AEP22" s="0"/>
-      <c r="AEQ22" s="0"/>
-      <c r="AER22" s="0"/>
-      <c r="AES22" s="0"/>
-      <c r="AET22" s="0"/>
-      <c r="AEU22" s="0"/>
-      <c r="AEV22" s="0"/>
-      <c r="AEW22" s="0"/>
-      <c r="AEX22" s="0"/>
-      <c r="AEY22" s="0"/>
-      <c r="AEZ22" s="0"/>
-      <c r="AFA22" s="0"/>
-      <c r="AFB22" s="0"/>
-      <c r="AFC22" s="0"/>
-      <c r="AFD22" s="0"/>
-      <c r="AFE22" s="0"/>
-      <c r="AFF22" s="0"/>
-      <c r="AFG22" s="0"/>
-      <c r="AFH22" s="0"/>
-      <c r="AFI22" s="0"/>
-      <c r="AFJ22" s="0"/>
-      <c r="AFK22" s="0"/>
-      <c r="AFL22" s="0"/>
-      <c r="AFM22" s="0"/>
-      <c r="AFN22" s="0"/>
-      <c r="AFO22" s="0"/>
-      <c r="AFP22" s="0"/>
-      <c r="AFQ22" s="0"/>
-      <c r="AFR22" s="0"/>
-      <c r="AFS22" s="0"/>
-      <c r="AFT22" s="0"/>
-      <c r="AFU22" s="0"/>
-      <c r="AFV22" s="0"/>
-      <c r="AFW22" s="0"/>
-      <c r="AFX22" s="0"/>
-      <c r="AFY22" s="0"/>
-      <c r="AFZ22" s="0"/>
-      <c r="AGA22" s="0"/>
-      <c r="AGB22" s="0"/>
-      <c r="AGC22" s="0"/>
-      <c r="AGD22" s="0"/>
-      <c r="AGE22" s="0"/>
-      <c r="AGF22" s="0"/>
-      <c r="AGG22" s="0"/>
-      <c r="AGH22" s="0"/>
-      <c r="AGI22" s="0"/>
-      <c r="AGJ22" s="0"/>
-      <c r="AGK22" s="0"/>
-      <c r="AGL22" s="0"/>
-      <c r="AGM22" s="0"/>
-      <c r="AGN22" s="0"/>
-      <c r="AGO22" s="0"/>
-      <c r="AGP22" s="0"/>
-      <c r="AGQ22" s="0"/>
-      <c r="AGR22" s="0"/>
-      <c r="AGS22" s="0"/>
-      <c r="AGT22" s="0"/>
-      <c r="AGU22" s="0"/>
-      <c r="AGV22" s="0"/>
-      <c r="AGW22" s="0"/>
-      <c r="AGX22" s="0"/>
-      <c r="AGY22" s="0"/>
-      <c r="AGZ22" s="0"/>
-      <c r="AHA22" s="0"/>
-      <c r="AHB22" s="0"/>
-      <c r="AHC22" s="0"/>
-      <c r="AHD22" s="0"/>
-      <c r="AHE22" s="0"/>
-      <c r="AHF22" s="0"/>
-      <c r="AHG22" s="0"/>
-      <c r="AHH22" s="0"/>
-      <c r="AHI22" s="0"/>
-      <c r="AHJ22" s="0"/>
-      <c r="AHK22" s="0"/>
-      <c r="AHL22" s="0"/>
-      <c r="AHM22" s="0"/>
-      <c r="AHN22" s="0"/>
-      <c r="AHO22" s="0"/>
-      <c r="AHP22" s="0"/>
-      <c r="AHQ22" s="0"/>
-      <c r="AHR22" s="0"/>
-      <c r="AHS22" s="0"/>
-      <c r="AHT22" s="0"/>
-      <c r="AHU22" s="0"/>
-      <c r="AHV22" s="0"/>
-      <c r="AHW22" s="0"/>
-      <c r="AHX22" s="0"/>
-      <c r="AHY22" s="0"/>
-      <c r="AHZ22" s="0"/>
-      <c r="AIA22" s="0"/>
-      <c r="AIB22" s="0"/>
-      <c r="AIC22" s="0"/>
-      <c r="AID22" s="0"/>
-      <c r="AIE22" s="0"/>
-      <c r="AIF22" s="0"/>
-      <c r="AIG22" s="0"/>
-      <c r="AIH22" s="0"/>
-      <c r="AII22" s="0"/>
-      <c r="AIJ22" s="0"/>
-      <c r="AIK22" s="0"/>
-      <c r="AIL22" s="0"/>
-      <c r="AIM22" s="0"/>
-      <c r="AIN22" s="0"/>
-      <c r="AIO22" s="0"/>
-      <c r="AIP22" s="0"/>
-      <c r="AIQ22" s="0"/>
-      <c r="AIR22" s="0"/>
-      <c r="AIS22" s="0"/>
-      <c r="AIT22" s="0"/>
-      <c r="AIU22" s="0"/>
-      <c r="AIV22" s="0"/>
-      <c r="AIW22" s="0"/>
-      <c r="AIX22" s="0"/>
-      <c r="AIY22" s="0"/>
-      <c r="AIZ22" s="0"/>
-      <c r="AJA22" s="0"/>
-      <c r="AJB22" s="0"/>
-      <c r="AJC22" s="0"/>
-      <c r="AJD22" s="0"/>
-      <c r="AJE22" s="0"/>
-      <c r="AJF22" s="0"/>
-      <c r="AJG22" s="0"/>
-      <c r="AJH22" s="0"/>
-      <c r="AJI22" s="0"/>
-      <c r="AJJ22" s="0"/>
-      <c r="AJK22" s="0"/>
-      <c r="AJL22" s="0"/>
-      <c r="AJM22" s="0"/>
-      <c r="AJN22" s="0"/>
-      <c r="AJO22" s="0"/>
-      <c r="AJP22" s="0"/>
-      <c r="AJQ22" s="0"/>
-      <c r="AJR22" s="0"/>
-      <c r="AJS22" s="0"/>
-      <c r="AJT22" s="0"/>
-      <c r="AJU22" s="0"/>
-      <c r="AJV22" s="0"/>
-      <c r="AJW22" s="0"/>
-      <c r="AJX22" s="0"/>
-      <c r="AJY22" s="0"/>
-      <c r="AJZ22" s="0"/>
-      <c r="AKA22" s="0"/>
-      <c r="AKB22" s="0"/>
-      <c r="AKC22" s="0"/>
-      <c r="AKD22" s="0"/>
-      <c r="AKE22" s="0"/>
-      <c r="AKF22" s="0"/>
-      <c r="AKG22" s="0"/>
-      <c r="AKH22" s="0"/>
-      <c r="AKI22" s="0"/>
-      <c r="AKJ22" s="0"/>
-      <c r="AKK22" s="0"/>
-      <c r="AKL22" s="0"/>
-      <c r="AKM22" s="0"/>
-      <c r="AKN22" s="0"/>
-      <c r="AKO22" s="0"/>
-      <c r="AKP22" s="0"/>
-      <c r="AKQ22" s="0"/>
-      <c r="AKR22" s="0"/>
-      <c r="AKS22" s="0"/>
-      <c r="AKT22" s="0"/>
-      <c r="AKU22" s="0"/>
-      <c r="AKV22" s="0"/>
-      <c r="AKW22" s="0"/>
-      <c r="AKX22" s="0"/>
-      <c r="AKY22" s="0"/>
-      <c r="AKZ22" s="0"/>
-      <c r="ALA22" s="0"/>
-      <c r="ALB22" s="0"/>
-      <c r="ALC22" s="0"/>
-      <c r="ALD22" s="0"/>
-      <c r="ALE22" s="0"/>
-      <c r="ALF22" s="0"/>
-      <c r="ALG22" s="0"/>
-      <c r="ALH22" s="0"/>
-      <c r="ALI22" s="0"/>
-      <c r="ALJ22" s="0"/>
-      <c r="ALK22" s="0"/>
-      <c r="ALL22" s="0"/>
-      <c r="ALM22" s="0"/>
-      <c r="ALN22" s="0"/>
-      <c r="ALO22" s="0"/>
-      <c r="ALP22" s="0"/>
-      <c r="ALQ22" s="0"/>
-      <c r="ALR22" s="0"/>
-      <c r="ALS22" s="0"/>
-      <c r="ALT22" s="0"/>
-      <c r="ALU22" s="0"/>
-      <c r="ALV22" s="0"/>
-      <c r="ALW22" s="0"/>
-      <c r="ALX22" s="0"/>
-      <c r="ALY22" s="0"/>
-      <c r="ALZ22" s="0"/>
-      <c r="AMA22" s="0"/>
-      <c r="AMB22" s="0"/>
-      <c r="AMC22" s="0"/>
-      <c r="AMD22" s="0"/>
-      <c r="AME22" s="0"/>
-      <c r="AMF22" s="0"/>
-      <c r="AMG22" s="0"/>
-      <c r="AMH22" s="0"/>
-      <c r="AMI22" s="0"/>
-      <c r="AMJ22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
+      <c r="D21" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="0"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
+      <c r="AD21" s="0"/>
+      <c r="AE21" s="0"/>
+      <c r="AF21" s="0"/>
+      <c r="AG21" s="0"/>
+      <c r="AH21" s="0"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="0"/>
+      <c r="AK21" s="0"/>
+      <c r="AL21" s="0"/>
+      <c r="AM21" s="0"/>
+      <c r="AN21" s="0"/>
+      <c r="AO21" s="0"/>
+      <c r="AP21" s="0"/>
+      <c r="AQ21" s="0"/>
+      <c r="AR21" s="0"/>
+      <c r="AS21" s="0"/>
+      <c r="AT21" s="0"/>
+      <c r="AU21" s="0"/>
+      <c r="AV21" s="0"/>
+      <c r="AW21" s="0"/>
+      <c r="AX21" s="0"/>
+      <c r="AY21" s="0"/>
+      <c r="AZ21" s="0"/>
+      <c r="BA21" s="0"/>
+      <c r="BB21" s="0"/>
+      <c r="BC21" s="0"/>
+      <c r="BD21" s="0"/>
+      <c r="BE21" s="0"/>
+      <c r="BF21" s="0"/>
+      <c r="BG21" s="0"/>
+      <c r="BH21" s="0"/>
+      <c r="BI21" s="0"/>
+      <c r="BJ21" s="0"/>
+      <c r="BK21" s="0"/>
+      <c r="BL21" s="0"/>
+      <c r="BM21" s="0"/>
+      <c r="BN21" s="0"/>
+      <c r="BO21" s="0"/>
+      <c r="BP21" s="0"/>
+      <c r="BQ21" s="0"/>
+      <c r="BR21" s="0"/>
+      <c r="BS21" s="0"/>
+      <c r="BT21" s="0"/>
+      <c r="BU21" s="0"/>
+      <c r="BV21" s="0"/>
+      <c r="BW21" s="0"/>
+      <c r="BX21" s="0"/>
+      <c r="BY21" s="0"/>
+      <c r="BZ21" s="0"/>
+      <c r="CA21" s="0"/>
+      <c r="CB21" s="0"/>
+      <c r="CC21" s="0"/>
+      <c r="CD21" s="0"/>
+      <c r="CE21" s="0"/>
+      <c r="CF21" s="0"/>
+      <c r="CG21" s="0"/>
+      <c r="CH21" s="0"/>
+      <c r="CI21" s="0"/>
+      <c r="CJ21" s="0"/>
+      <c r="CK21" s="0"/>
+      <c r="CL21" s="0"/>
+      <c r="CM21" s="0"/>
+      <c r="CN21" s="0"/>
+      <c r="CO21" s="0"/>
+      <c r="CP21" s="0"/>
+      <c r="CQ21" s="0"/>
+      <c r="CR21" s="0"/>
+      <c r="CS21" s="0"/>
+      <c r="CT21" s="0"/>
+      <c r="CU21" s="0"/>
+      <c r="CV21" s="0"/>
+      <c r="CW21" s="0"/>
+      <c r="CX21" s="0"/>
+      <c r="CY21" s="0"/>
+      <c r="CZ21" s="0"/>
+      <c r="DA21" s="0"/>
+      <c r="DB21" s="0"/>
+      <c r="DC21" s="0"/>
+      <c r="DD21" s="0"/>
+      <c r="DE21" s="0"/>
+      <c r="DF21" s="0"/>
+      <c r="DG21" s="0"/>
+      <c r="DH21" s="0"/>
+      <c r="DI21" s="0"/>
+      <c r="DJ21" s="0"/>
+      <c r="DK21" s="0"/>
+      <c r="DL21" s="0"/>
+      <c r="DM21" s="0"/>
+      <c r="DN21" s="0"/>
+      <c r="DO21" s="0"/>
+      <c r="DP21" s="0"/>
+      <c r="DQ21" s="0"/>
+      <c r="DR21" s="0"/>
+      <c r="DS21" s="0"/>
+      <c r="DT21" s="0"/>
+      <c r="DU21" s="0"/>
+      <c r="DV21" s="0"/>
+      <c r="DW21" s="0"/>
+      <c r="DX21" s="0"/>
+      <c r="DY21" s="0"/>
+      <c r="DZ21" s="0"/>
+      <c r="EA21" s="0"/>
+      <c r="EB21" s="0"/>
+      <c r="EC21" s="0"/>
+      <c r="ED21" s="0"/>
+      <c r="EE21" s="0"/>
+      <c r="EF21" s="0"/>
+      <c r="EG21" s="0"/>
+      <c r="EH21" s="0"/>
+      <c r="EI21" s="0"/>
+      <c r="EJ21" s="0"/>
+      <c r="EK21" s="0"/>
+      <c r="EL21" s="0"/>
+      <c r="EM21" s="0"/>
+      <c r="EN21" s="0"/>
+      <c r="EO21" s="0"/>
+      <c r="EP21" s="0"/>
+      <c r="EQ21" s="0"/>
+      <c r="ER21" s="0"/>
+      <c r="ES21" s="0"/>
+      <c r="ET21" s="0"/>
+      <c r="EU21" s="0"/>
+      <c r="EV21" s="0"/>
+      <c r="EW21" s="0"/>
+      <c r="EX21" s="0"/>
+      <c r="EY21" s="0"/>
+      <c r="EZ21" s="0"/>
+      <c r="FA21" s="0"/>
+      <c r="FB21" s="0"/>
+      <c r="FC21" s="0"/>
+      <c r="FD21" s="0"/>
+      <c r="FE21" s="0"/>
+      <c r="FF21" s="0"/>
+      <c r="FG21" s="0"/>
+      <c r="FH21" s="0"/>
+      <c r="FI21" s="0"/>
+      <c r="FJ21" s="0"/>
+      <c r="FK21" s="0"/>
+      <c r="FL21" s="0"/>
+      <c r="FM21" s="0"/>
+      <c r="FN21" s="0"/>
+      <c r="FO21" s="0"/>
+      <c r="FP21" s="0"/>
+      <c r="FQ21" s="0"/>
+      <c r="FR21" s="0"/>
+      <c r="FS21" s="0"/>
+      <c r="FT21" s="0"/>
+      <c r="FU21" s="0"/>
+      <c r="FV21" s="0"/>
+      <c r="FW21" s="0"/>
+      <c r="FX21" s="0"/>
+      <c r="FY21" s="0"/>
+      <c r="FZ21" s="0"/>
+      <c r="GA21" s="0"/>
+      <c r="GB21" s="0"/>
+      <c r="GC21" s="0"/>
+      <c r="GD21" s="0"/>
+      <c r="GE21" s="0"/>
+      <c r="GF21" s="0"/>
+      <c r="GG21" s="0"/>
+      <c r="GH21" s="0"/>
+      <c r="GI21" s="0"/>
+      <c r="GJ21" s="0"/>
+      <c r="GK21" s="0"/>
+      <c r="GL21" s="0"/>
+      <c r="GM21" s="0"/>
+      <c r="GN21" s="0"/>
+      <c r="GO21" s="0"/>
+      <c r="GP21" s="0"/>
+      <c r="GQ21" s="0"/>
+      <c r="GR21" s="0"/>
+      <c r="GS21" s="0"/>
+      <c r="GT21" s="0"/>
+      <c r="GU21" s="0"/>
+      <c r="GV21" s="0"/>
+      <c r="GW21" s="0"/>
+      <c r="GX21" s="0"/>
+      <c r="GY21" s="0"/>
+      <c r="GZ21" s="0"/>
+      <c r="HA21" s="0"/>
+      <c r="HB21" s="0"/>
+      <c r="HC21" s="0"/>
+      <c r="HD21" s="0"/>
+      <c r="HE21" s="0"/>
+      <c r="HF21" s="0"/>
+      <c r="HG21" s="0"/>
+      <c r="HH21" s="0"/>
+      <c r="HI21" s="0"/>
+      <c r="HJ21" s="0"/>
+      <c r="HK21" s="0"/>
+      <c r="HL21" s="0"/>
+      <c r="HM21" s="0"/>
+      <c r="HN21" s="0"/>
+      <c r="HO21" s="0"/>
+      <c r="HP21" s="0"/>
+      <c r="HQ21" s="0"/>
+      <c r="HR21" s="0"/>
+      <c r="HS21" s="0"/>
+      <c r="HT21" s="0"/>
+      <c r="HU21" s="0"/>
+      <c r="HV21" s="0"/>
+      <c r="HW21" s="0"/>
+      <c r="HX21" s="0"/>
+      <c r="HY21" s="0"/>
+      <c r="HZ21" s="0"/>
+      <c r="IA21" s="0"/>
+      <c r="IB21" s="0"/>
+      <c r="IC21" s="0"/>
+      <c r="ID21" s="0"/>
+      <c r="IE21" s="0"/>
+      <c r="IF21" s="0"/>
+      <c r="IG21" s="0"/>
+      <c r="IH21" s="0"/>
+      <c r="II21" s="0"/>
+      <c r="IJ21" s="0"/>
+      <c r="IK21" s="0"/>
+      <c r="IL21" s="0"/>
+      <c r="IM21" s="0"/>
+      <c r="IN21" s="0"/>
+      <c r="IO21" s="0"/>
+      <c r="IP21" s="0"/>
+      <c r="IQ21" s="0"/>
+      <c r="IR21" s="0"/>
+      <c r="IS21" s="0"/>
+      <c r="IT21" s="0"/>
+      <c r="IU21" s="0"/>
+      <c r="IV21" s="0"/>
+      <c r="IW21" s="0"/>
+      <c r="IX21" s="0"/>
+      <c r="IY21" s="0"/>
+      <c r="IZ21" s="0"/>
+      <c r="JA21" s="0"/>
+      <c r="JB21" s="0"/>
+      <c r="JC21" s="0"/>
+      <c r="JD21" s="0"/>
+      <c r="JE21" s="0"/>
+      <c r="JF21" s="0"/>
+      <c r="JG21" s="0"/>
+      <c r="JH21" s="0"/>
+      <c r="JI21" s="0"/>
+      <c r="JJ21" s="0"/>
+      <c r="JK21" s="0"/>
+      <c r="JL21" s="0"/>
+      <c r="JM21" s="0"/>
+      <c r="JN21" s="0"/>
+      <c r="JO21" s="0"/>
+      <c r="JP21" s="0"/>
+      <c r="JQ21" s="0"/>
+      <c r="JR21" s="0"/>
+      <c r="JS21" s="0"/>
+      <c r="JT21" s="0"/>
+      <c r="JU21" s="0"/>
+      <c r="JV21" s="0"/>
+      <c r="JW21" s="0"/>
+      <c r="JX21" s="0"/>
+      <c r="JY21" s="0"/>
+      <c r="JZ21" s="0"/>
+      <c r="KA21" s="0"/>
+      <c r="KB21" s="0"/>
+      <c r="KC21" s="0"/>
+      <c r="KD21" s="0"/>
+      <c r="KE21" s="0"/>
+      <c r="KF21" s="0"/>
+      <c r="KG21" s="0"/>
+      <c r="KH21" s="0"/>
+      <c r="KI21" s="0"/>
+      <c r="KJ21" s="0"/>
+      <c r="KK21" s="0"/>
+      <c r="KL21" s="0"/>
+      <c r="KM21" s="0"/>
+      <c r="KN21" s="0"/>
+      <c r="KO21" s="0"/>
+      <c r="KP21" s="0"/>
+      <c r="KQ21" s="0"/>
+      <c r="KR21" s="0"/>
+      <c r="KS21" s="0"/>
+      <c r="KT21" s="0"/>
+      <c r="KU21" s="0"/>
+      <c r="KV21" s="0"/>
+      <c r="KW21" s="0"/>
+      <c r="KX21" s="0"/>
+      <c r="KY21" s="0"/>
+      <c r="KZ21" s="0"/>
+      <c r="LA21" s="0"/>
+      <c r="LB21" s="0"/>
+      <c r="LC21" s="0"/>
+      <c r="LD21" s="0"/>
+      <c r="LE21" s="0"/>
+      <c r="LF21" s="0"/>
+      <c r="LG21" s="0"/>
+      <c r="LH21" s="0"/>
+      <c r="LI21" s="0"/>
+      <c r="LJ21" s="0"/>
+      <c r="LK21" s="0"/>
+      <c r="LL21" s="0"/>
+      <c r="LM21" s="0"/>
+      <c r="LN21" s="0"/>
+      <c r="LO21" s="0"/>
+      <c r="LP21" s="0"/>
+      <c r="LQ21" s="0"/>
+      <c r="LR21" s="0"/>
+      <c r="LS21" s="0"/>
+      <c r="LT21" s="0"/>
+      <c r="LU21" s="0"/>
+      <c r="LV21" s="0"/>
+      <c r="LW21" s="0"/>
+      <c r="LX21" s="0"/>
+      <c r="LY21" s="0"/>
+      <c r="LZ21" s="0"/>
+      <c r="MA21" s="0"/>
+      <c r="MB21" s="0"/>
+      <c r="MC21" s="0"/>
+      <c r="MD21" s="0"/>
+      <c r="ME21" s="0"/>
+      <c r="MF21" s="0"/>
+      <c r="MG21" s="0"/>
+      <c r="MH21" s="0"/>
+      <c r="MI21" s="0"/>
+      <c r="MJ21" s="0"/>
+      <c r="MK21" s="0"/>
+      <c r="ML21" s="0"/>
+      <c r="MM21" s="0"/>
+      <c r="MN21" s="0"/>
+      <c r="MO21" s="0"/>
+      <c r="MP21" s="0"/>
+      <c r="MQ21" s="0"/>
+      <c r="MR21" s="0"/>
+      <c r="MS21" s="0"/>
+      <c r="MT21" s="0"/>
+      <c r="MU21" s="0"/>
+      <c r="MV21" s="0"/>
+      <c r="MW21" s="0"/>
+      <c r="MX21" s="0"/>
+      <c r="MY21" s="0"/>
+      <c r="MZ21" s="0"/>
+      <c r="NA21" s="0"/>
+      <c r="NB21" s="0"/>
+      <c r="NC21" s="0"/>
+      <c r="ND21" s="0"/>
+      <c r="NE21" s="0"/>
+      <c r="NF21" s="0"/>
+      <c r="NG21" s="0"/>
+      <c r="NH21" s="0"/>
+      <c r="NI21" s="0"/>
+      <c r="NJ21" s="0"/>
+      <c r="NK21" s="0"/>
+      <c r="NL21" s="0"/>
+      <c r="NM21" s="0"/>
+      <c r="NN21" s="0"/>
+      <c r="NO21" s="0"/>
+      <c r="NP21" s="0"/>
+      <c r="NQ21" s="0"/>
+      <c r="NR21" s="0"/>
+      <c r="NS21" s="0"/>
+      <c r="NT21" s="0"/>
+      <c r="NU21" s="0"/>
+      <c r="NV21" s="0"/>
+      <c r="NW21" s="0"/>
+      <c r="NX21" s="0"/>
+      <c r="NY21" s="0"/>
+      <c r="NZ21" s="0"/>
+      <c r="OA21" s="0"/>
+      <c r="OB21" s="0"/>
+      <c r="OC21" s="0"/>
+      <c r="OD21" s="0"/>
+      <c r="OE21" s="0"/>
+      <c r="OF21" s="0"/>
+      <c r="OG21" s="0"/>
+      <c r="OH21" s="0"/>
+      <c r="OI21" s="0"/>
+      <c r="OJ21" s="0"/>
+      <c r="OK21" s="0"/>
+      <c r="OL21" s="0"/>
+      <c r="OM21" s="0"/>
+      <c r="ON21" s="0"/>
+      <c r="OO21" s="0"/>
+      <c r="OP21" s="0"/>
+      <c r="OQ21" s="0"/>
+      <c r="OR21" s="0"/>
+      <c r="OS21" s="0"/>
+      <c r="OT21" s="0"/>
+      <c r="OU21" s="0"/>
+      <c r="OV21" s="0"/>
+      <c r="OW21" s="0"/>
+      <c r="OX21" s="0"/>
+      <c r="OY21" s="0"/>
+      <c r="OZ21" s="0"/>
+      <c r="PA21" s="0"/>
+      <c r="PB21" s="0"/>
+      <c r="PC21" s="0"/>
+      <c r="PD21" s="0"/>
+      <c r="PE21" s="0"/>
+      <c r="PF21" s="0"/>
+      <c r="PG21" s="0"/>
+      <c r="PH21" s="0"/>
+      <c r="PI21" s="0"/>
+      <c r="PJ21" s="0"/>
+      <c r="PK21" s="0"/>
+      <c r="PL21" s="0"/>
+      <c r="PM21" s="0"/>
+      <c r="PN21" s="0"/>
+      <c r="PO21" s="0"/>
+      <c r="PP21" s="0"/>
+      <c r="PQ21" s="0"/>
+      <c r="PR21" s="0"/>
+      <c r="PS21" s="0"/>
+      <c r="PT21" s="0"/>
+      <c r="PU21" s="0"/>
+      <c r="PV21" s="0"/>
+      <c r="PW21" s="0"/>
+      <c r="PX21" s="0"/>
+      <c r="PY21" s="0"/>
+      <c r="PZ21" s="0"/>
+      <c r="QA21" s="0"/>
+      <c r="QB21" s="0"/>
+      <c r="QC21" s="0"/>
+      <c r="QD21" s="0"/>
+      <c r="QE21" s="0"/>
+      <c r="QF21" s="0"/>
+      <c r="QG21" s="0"/>
+      <c r="QH21" s="0"/>
+      <c r="QI21" s="0"/>
+      <c r="QJ21" s="0"/>
+      <c r="QK21" s="0"/>
+      <c r="QL21" s="0"/>
+      <c r="QM21" s="0"/>
+      <c r="QN21" s="0"/>
+      <c r="QO21" s="0"/>
+      <c r="QP21" s="0"/>
+      <c r="QQ21" s="0"/>
+      <c r="QR21" s="0"/>
+      <c r="QS21" s="0"/>
+      <c r="QT21" s="0"/>
+      <c r="QU21" s="0"/>
+      <c r="QV21" s="0"/>
+      <c r="QW21" s="0"/>
+      <c r="QX21" s="0"/>
+      <c r="QY21" s="0"/>
+      <c r="QZ21" s="0"/>
+      <c r="RA21" s="0"/>
+      <c r="RB21" s="0"/>
+      <c r="RC21" s="0"/>
+      <c r="RD21" s="0"/>
+      <c r="RE21" s="0"/>
+      <c r="RF21" s="0"/>
+      <c r="RG21" s="0"/>
+      <c r="RH21" s="0"/>
+      <c r="RI21" s="0"/>
+      <c r="RJ21" s="0"/>
+      <c r="RK21" s="0"/>
+      <c r="RL21" s="0"/>
+      <c r="RM21" s="0"/>
+      <c r="RN21" s="0"/>
+      <c r="RO21" s="0"/>
+      <c r="RP21" s="0"/>
+      <c r="RQ21" s="0"/>
+      <c r="RR21" s="0"/>
+      <c r="RS21" s="0"/>
+      <c r="RT21" s="0"/>
+      <c r="RU21" s="0"/>
+      <c r="RV21" s="0"/>
+      <c r="RW21" s="0"/>
+      <c r="RX21" s="0"/>
+      <c r="RY21" s="0"/>
+      <c r="RZ21" s="0"/>
+      <c r="SA21" s="0"/>
+      <c r="SB21" s="0"/>
+      <c r="SC21" s="0"/>
+      <c r="SD21" s="0"/>
+      <c r="SE21" s="0"/>
+      <c r="SF21" s="0"/>
+      <c r="SG21" s="0"/>
+      <c r="SH21" s="0"/>
+      <c r="SI21" s="0"/>
+      <c r="SJ21" s="0"/>
+      <c r="SK21" s="0"/>
+      <c r="SL21" s="0"/>
+      <c r="SM21" s="0"/>
+      <c r="SN21" s="0"/>
+      <c r="SO21" s="0"/>
+      <c r="SP21" s="0"/>
+      <c r="SQ21" s="0"/>
+      <c r="SR21" s="0"/>
+      <c r="SS21" s="0"/>
+      <c r="ST21" s="0"/>
+      <c r="SU21" s="0"/>
+      <c r="SV21" s="0"/>
+      <c r="SW21" s="0"/>
+      <c r="SX21" s="0"/>
+      <c r="SY21" s="0"/>
+      <c r="SZ21" s="0"/>
+      <c r="TA21" s="0"/>
+      <c r="TB21" s="0"/>
+      <c r="TC21" s="0"/>
+      <c r="TD21" s="0"/>
+      <c r="TE21" s="0"/>
+      <c r="TF21" s="0"/>
+      <c r="TG21" s="0"/>
+      <c r="TH21" s="0"/>
+      <c r="TI21" s="0"/>
+      <c r="TJ21" s="0"/>
+      <c r="TK21" s="0"/>
+      <c r="TL21" s="0"/>
+      <c r="TM21" s="0"/>
+      <c r="TN21" s="0"/>
+      <c r="TO21" s="0"/>
+      <c r="TP21" s="0"/>
+      <c r="TQ21" s="0"/>
+      <c r="TR21" s="0"/>
+      <c r="TS21" s="0"/>
+      <c r="TT21" s="0"/>
+      <c r="TU21" s="0"/>
+      <c r="TV21" s="0"/>
+      <c r="TW21" s="0"/>
+      <c r="TX21" s="0"/>
+      <c r="TY21" s="0"/>
+      <c r="TZ21" s="0"/>
+      <c r="UA21" s="0"/>
+      <c r="UB21" s="0"/>
+      <c r="UC21" s="0"/>
+      <c r="UD21" s="0"/>
+      <c r="UE21" s="0"/>
+      <c r="UF21" s="0"/>
+      <c r="UG21" s="0"/>
+      <c r="UH21" s="0"/>
+      <c r="UI21" s="0"/>
+      <c r="UJ21" s="0"/>
+      <c r="UK21" s="0"/>
+      <c r="UL21" s="0"/>
+      <c r="UM21" s="0"/>
+      <c r="UN21" s="0"/>
+      <c r="UO21" s="0"/>
+      <c r="UP21" s="0"/>
+      <c r="UQ21" s="0"/>
+      <c r="UR21" s="0"/>
+      <c r="US21" s="0"/>
+      <c r="UT21" s="0"/>
+      <c r="UU21" s="0"/>
+      <c r="UV21" s="0"/>
+      <c r="UW21" s="0"/>
+      <c r="UX21" s="0"/>
+      <c r="UY21" s="0"/>
+      <c r="UZ21" s="0"/>
+      <c r="VA21" s="0"/>
+      <c r="VB21" s="0"/>
+      <c r="VC21" s="0"/>
+      <c r="VD21" s="0"/>
+      <c r="VE21" s="0"/>
+      <c r="VF21" s="0"/>
+      <c r="VG21" s="0"/>
+      <c r="VH21" s="0"/>
+      <c r="VI21" s="0"/>
+      <c r="VJ21" s="0"/>
+      <c r="VK21" s="0"/>
+      <c r="VL21" s="0"/>
+      <c r="VM21" s="0"/>
+      <c r="VN21" s="0"/>
+      <c r="VO21" s="0"/>
+      <c r="VP21" s="0"/>
+      <c r="VQ21" s="0"/>
+      <c r="VR21" s="0"/>
+      <c r="VS21" s="0"/>
+      <c r="VT21" s="0"/>
+      <c r="VU21" s="0"/>
+      <c r="VV21" s="0"/>
+      <c r="VW21" s="0"/>
+      <c r="VX21" s="0"/>
+      <c r="VY21" s="0"/>
+      <c r="VZ21" s="0"/>
+      <c r="WA21" s="0"/>
+      <c r="WB21" s="0"/>
+      <c r="WC21" s="0"/>
+      <c r="WD21" s="0"/>
+      <c r="WE21" s="0"/>
+      <c r="WF21" s="0"/>
+      <c r="WG21" s="0"/>
+      <c r="WH21" s="0"/>
+      <c r="WI21" s="0"/>
+      <c r="WJ21" s="0"/>
+      <c r="WK21" s="0"/>
+      <c r="WL21" s="0"/>
+      <c r="WM21" s="0"/>
+      <c r="WN21" s="0"/>
+      <c r="WO21" s="0"/>
+      <c r="WP21" s="0"/>
+      <c r="WQ21" s="0"/>
+      <c r="WR21" s="0"/>
+      <c r="WS21" s="0"/>
+      <c r="WT21" s="0"/>
+      <c r="WU21" s="0"/>
+      <c r="WV21" s="0"/>
+      <c r="WW21" s="0"/>
+      <c r="WX21" s="0"/>
+      <c r="WY21" s="0"/>
+      <c r="WZ21" s="0"/>
+      <c r="XA21" s="0"/>
+      <c r="XB21" s="0"/>
+      <c r="XC21" s="0"/>
+      <c r="XD21" s="0"/>
+      <c r="XE21" s="0"/>
+      <c r="XF21" s="0"/>
+      <c r="XG21" s="0"/>
+      <c r="XH21" s="0"/>
+      <c r="XI21" s="0"/>
+      <c r="XJ21" s="0"/>
+      <c r="XK21" s="0"/>
+      <c r="XL21" s="0"/>
+      <c r="XM21" s="0"/>
+      <c r="XN21" s="0"/>
+      <c r="XO21" s="0"/>
+      <c r="XP21" s="0"/>
+      <c r="XQ21" s="0"/>
+      <c r="XR21" s="0"/>
+      <c r="XS21" s="0"/>
+      <c r="XT21" s="0"/>
+      <c r="XU21" s="0"/>
+      <c r="XV21" s="0"/>
+      <c r="XW21" s="0"/>
+      <c r="XX21" s="0"/>
+      <c r="XY21" s="0"/>
+      <c r="XZ21" s="0"/>
+      <c r="YA21" s="0"/>
+      <c r="YB21" s="0"/>
+      <c r="YC21" s="0"/>
+      <c r="YD21" s="0"/>
+      <c r="YE21" s="0"/>
+      <c r="YF21" s="0"/>
+      <c r="YG21" s="0"/>
+      <c r="YH21" s="0"/>
+      <c r="YI21" s="0"/>
+      <c r="YJ21" s="0"/>
+      <c r="YK21" s="0"/>
+      <c r="YL21" s="0"/>
+      <c r="YM21" s="0"/>
+      <c r="YN21" s="0"/>
+      <c r="YO21" s="0"/>
+      <c r="YP21" s="0"/>
+      <c r="YQ21" s="0"/>
+      <c r="YR21" s="0"/>
+      <c r="YS21" s="0"/>
+      <c r="YT21" s="0"/>
+      <c r="YU21" s="0"/>
+      <c r="YV21" s="0"/>
+      <c r="YW21" s="0"/>
+      <c r="YX21" s="0"/>
+      <c r="YY21" s="0"/>
+      <c r="YZ21" s="0"/>
+      <c r="ZA21" s="0"/>
+      <c r="ZB21" s="0"/>
+      <c r="ZC21" s="0"/>
+      <c r="ZD21" s="0"/>
+      <c r="ZE21" s="0"/>
+      <c r="ZF21" s="0"/>
+      <c r="ZG21" s="0"/>
+      <c r="ZH21" s="0"/>
+      <c r="ZI21" s="0"/>
+      <c r="ZJ21" s="0"/>
+      <c r="ZK21" s="0"/>
+      <c r="ZL21" s="0"/>
+      <c r="ZM21" s="0"/>
+      <c r="ZN21" s="0"/>
+      <c r="ZO21" s="0"/>
+      <c r="ZP21" s="0"/>
+      <c r="ZQ21" s="0"/>
+      <c r="ZR21" s="0"/>
+      <c r="ZS21" s="0"/>
+      <c r="ZT21" s="0"/>
+      <c r="ZU21" s="0"/>
+      <c r="ZV21" s="0"/>
+      <c r="ZW21" s="0"/>
+      <c r="ZX21" s="0"/>
+      <c r="ZY21" s="0"/>
+      <c r="ZZ21" s="0"/>
+      <c r="AAA21" s="0"/>
+      <c r="AAB21" s="0"/>
+      <c r="AAC21" s="0"/>
+      <c r="AAD21" s="0"/>
+      <c r="AAE21" s="0"/>
+      <c r="AAF21" s="0"/>
+      <c r="AAG21" s="0"/>
+      <c r="AAH21" s="0"/>
+      <c r="AAI21" s="0"/>
+      <c r="AAJ21" s="0"/>
+      <c r="AAK21" s="0"/>
+      <c r="AAL21" s="0"/>
+      <c r="AAM21" s="0"/>
+      <c r="AAN21" s="0"/>
+      <c r="AAO21" s="0"/>
+      <c r="AAP21" s="0"/>
+      <c r="AAQ21" s="0"/>
+      <c r="AAR21" s="0"/>
+      <c r="AAS21" s="0"/>
+      <c r="AAT21" s="0"/>
+      <c r="AAU21" s="0"/>
+      <c r="AAV21" s="0"/>
+      <c r="AAW21" s="0"/>
+      <c r="AAX21" s="0"/>
+      <c r="AAY21" s="0"/>
+      <c r="AAZ21" s="0"/>
+      <c r="ABA21" s="0"/>
+      <c r="ABB21" s="0"/>
+      <c r="ABC21" s="0"/>
+      <c r="ABD21" s="0"/>
+      <c r="ABE21" s="0"/>
+      <c r="ABF21" s="0"/>
+      <c r="ABG21" s="0"/>
+      <c r="ABH21" s="0"/>
+      <c r="ABI21" s="0"/>
+      <c r="ABJ21" s="0"/>
+      <c r="ABK21" s="0"/>
+      <c r="ABL21" s="0"/>
+      <c r="ABM21" s="0"/>
+      <c r="ABN21" s="0"/>
+      <c r="ABO21" s="0"/>
+      <c r="ABP21" s="0"/>
+      <c r="ABQ21" s="0"/>
+      <c r="ABR21" s="0"/>
+      <c r="ABS21" s="0"/>
+      <c r="ABT21" s="0"/>
+      <c r="ABU21" s="0"/>
+      <c r="ABV21" s="0"/>
+      <c r="ABW21" s="0"/>
+      <c r="ABX21" s="0"/>
+      <c r="ABY21" s="0"/>
+      <c r="ABZ21" s="0"/>
+      <c r="ACA21" s="0"/>
+      <c r="ACB21" s="0"/>
+      <c r="ACC21" s="0"/>
+      <c r="ACD21" s="0"/>
+      <c r="ACE21" s="0"/>
+      <c r="ACF21" s="0"/>
+      <c r="ACG21" s="0"/>
+      <c r="ACH21" s="0"/>
+      <c r="ACI21" s="0"/>
+      <c r="ACJ21" s="0"/>
+      <c r="ACK21" s="0"/>
+      <c r="ACL21" s="0"/>
+      <c r="ACM21" s="0"/>
+      <c r="ACN21" s="0"/>
+      <c r="ACO21" s="0"/>
+      <c r="ACP21" s="0"/>
+      <c r="ACQ21" s="0"/>
+      <c r="ACR21" s="0"/>
+      <c r="ACS21" s="0"/>
+      <c r="ACT21" s="0"/>
+      <c r="ACU21" s="0"/>
+      <c r="ACV21" s="0"/>
+      <c r="ACW21" s="0"/>
+      <c r="ACX21" s="0"/>
+      <c r="ACY21" s="0"/>
+      <c r="ACZ21" s="0"/>
+      <c r="ADA21" s="0"/>
+      <c r="ADB21" s="0"/>
+      <c r="ADC21" s="0"/>
+      <c r="ADD21" s="0"/>
+      <c r="ADE21" s="0"/>
+      <c r="ADF21" s="0"/>
+      <c r="ADG21" s="0"/>
+      <c r="ADH21" s="0"/>
+      <c r="ADI21" s="0"/>
+      <c r="ADJ21" s="0"/>
+      <c r="ADK21" s="0"/>
+      <c r="ADL21" s="0"/>
+      <c r="ADM21" s="0"/>
+      <c r="ADN21" s="0"/>
+      <c r="ADO21" s="0"/>
+      <c r="ADP21" s="0"/>
+      <c r="ADQ21" s="0"/>
+      <c r="ADR21" s="0"/>
+      <c r="ADS21" s="0"/>
+      <c r="ADT21" s="0"/>
+      <c r="ADU21" s="0"/>
+      <c r="ADV21" s="0"/>
+      <c r="ADW21" s="0"/>
+      <c r="ADX21" s="0"/>
+      <c r="ADY21" s="0"/>
+      <c r="ADZ21" s="0"/>
+      <c r="AEA21" s="0"/>
+      <c r="AEB21" s="0"/>
+      <c r="AEC21" s="0"/>
+      <c r="AED21" s="0"/>
+      <c r="AEE21" s="0"/>
+      <c r="AEF21" s="0"/>
+      <c r="AEG21" s="0"/>
+      <c r="AEH21" s="0"/>
+      <c r="AEI21" s="0"/>
+      <c r="AEJ21" s="0"/>
+      <c r="AEK21" s="0"/>
+      <c r="AEL21" s="0"/>
+      <c r="AEM21" s="0"/>
+      <c r="AEN21" s="0"/>
+      <c r="AEO21" s="0"/>
+      <c r="AEP21" s="0"/>
+      <c r="AEQ21" s="0"/>
+      <c r="AER21" s="0"/>
+      <c r="AES21" s="0"/>
+      <c r="AET21" s="0"/>
+      <c r="AEU21" s="0"/>
+      <c r="AEV21" s="0"/>
+      <c r="AEW21" s="0"/>
+      <c r="AEX21" s="0"/>
+      <c r="AEY21" s="0"/>
+      <c r="AEZ21" s="0"/>
+      <c r="AFA21" s="0"/>
+      <c r="AFB21" s="0"/>
+      <c r="AFC21" s="0"/>
+      <c r="AFD21" s="0"/>
+      <c r="AFE21" s="0"/>
+      <c r="AFF21" s="0"/>
+      <c r="AFG21" s="0"/>
+      <c r="AFH21" s="0"/>
+      <c r="AFI21" s="0"/>
+      <c r="AFJ21" s="0"/>
+      <c r="AFK21" s="0"/>
+      <c r="AFL21" s="0"/>
+      <c r="AFM21" s="0"/>
+      <c r="AFN21" s="0"/>
+      <c r="AFO21" s="0"/>
+      <c r="AFP21" s="0"/>
+      <c r="AFQ21" s="0"/>
+      <c r="AFR21" s="0"/>
+      <c r="AFS21" s="0"/>
+      <c r="AFT21" s="0"/>
+      <c r="AFU21" s="0"/>
+      <c r="AFV21" s="0"/>
+      <c r="AFW21" s="0"/>
+      <c r="AFX21" s="0"/>
+      <c r="AFY21" s="0"/>
+      <c r="AFZ21" s="0"/>
+      <c r="AGA21" s="0"/>
+      <c r="AGB21" s="0"/>
+      <c r="AGC21" s="0"/>
+      <c r="AGD21" s="0"/>
+      <c r="AGE21" s="0"/>
+      <c r="AGF21" s="0"/>
+      <c r="AGG21" s="0"/>
+      <c r="AGH21" s="0"/>
+      <c r="AGI21" s="0"/>
+      <c r="AGJ21" s="0"/>
+      <c r="AGK21" s="0"/>
+      <c r="AGL21" s="0"/>
+      <c r="AGM21" s="0"/>
+      <c r="AGN21" s="0"/>
+      <c r="AGO21" s="0"/>
+      <c r="AGP21" s="0"/>
+      <c r="AGQ21" s="0"/>
+      <c r="AGR21" s="0"/>
+      <c r="AGS21" s="0"/>
+      <c r="AGT21" s="0"/>
+      <c r="AGU21" s="0"/>
+      <c r="AGV21" s="0"/>
+      <c r="AGW21" s="0"/>
+      <c r="AGX21" s="0"/>
+      <c r="AGY21" s="0"/>
+      <c r="AGZ21" s="0"/>
+      <c r="AHA21" s="0"/>
+      <c r="AHB21" s="0"/>
+      <c r="AHC21" s="0"/>
+      <c r="AHD21" s="0"/>
+      <c r="AHE21" s="0"/>
+      <c r="AHF21" s="0"/>
+      <c r="AHG21" s="0"/>
+      <c r="AHH21" s="0"/>
+      <c r="AHI21" s="0"/>
+      <c r="AHJ21" s="0"/>
+      <c r="AHK21" s="0"/>
+      <c r="AHL21" s="0"/>
+      <c r="AHM21" s="0"/>
+      <c r="AHN21" s="0"/>
+      <c r="AHO21" s="0"/>
+      <c r="AHP21" s="0"/>
+      <c r="AHQ21" s="0"/>
+      <c r="AHR21" s="0"/>
+      <c r="AHS21" s="0"/>
+      <c r="AHT21" s="0"/>
+      <c r="AHU21" s="0"/>
+      <c r="AHV21" s="0"/>
+      <c r="AHW21" s="0"/>
+      <c r="AHX21" s="0"/>
+      <c r="AHY21" s="0"/>
+      <c r="AHZ21" s="0"/>
+      <c r="AIA21" s="0"/>
+      <c r="AIB21" s="0"/>
+      <c r="AIC21" s="0"/>
+      <c r="AID21" s="0"/>
+      <c r="AIE21" s="0"/>
+      <c r="AIF21" s="0"/>
+      <c r="AIG21" s="0"/>
+      <c r="AIH21" s="0"/>
+      <c r="AII21" s="0"/>
+      <c r="AIJ21" s="0"/>
+      <c r="AIK21" s="0"/>
+      <c r="AIL21" s="0"/>
+      <c r="AIM21" s="0"/>
+      <c r="AIN21" s="0"/>
+      <c r="AIO21" s="0"/>
+      <c r="AIP21" s="0"/>
+      <c r="AIQ21" s="0"/>
+      <c r="AIR21" s="0"/>
+      <c r="AIS21" s="0"/>
+      <c r="AIT21" s="0"/>
+      <c r="AIU21" s="0"/>
+      <c r="AIV21" s="0"/>
+      <c r="AIW21" s="0"/>
+      <c r="AIX21" s="0"/>
+      <c r="AIY21" s="0"/>
+      <c r="AIZ21" s="0"/>
+      <c r="AJA21" s="0"/>
+      <c r="AJB21" s="0"/>
+      <c r="AJC21" s="0"/>
+      <c r="AJD21" s="0"/>
+      <c r="AJE21" s="0"/>
+      <c r="AJF21" s="0"/>
+      <c r="AJG21" s="0"/>
+      <c r="AJH21" s="0"/>
+      <c r="AJI21" s="0"/>
+      <c r="AJJ21" s="0"/>
+      <c r="AJK21" s="0"/>
+      <c r="AJL21" s="0"/>
+      <c r="AJM21" s="0"/>
+      <c r="AJN21" s="0"/>
+      <c r="AJO21" s="0"/>
+      <c r="AJP21" s="0"/>
+      <c r="AJQ21" s="0"/>
+      <c r="AJR21" s="0"/>
+      <c r="AJS21" s="0"/>
+      <c r="AJT21" s="0"/>
+      <c r="AJU21" s="0"/>
+      <c r="AJV21" s="0"/>
+      <c r="AJW21" s="0"/>
+      <c r="AJX21" s="0"/>
+      <c r="AJY21" s="0"/>
+      <c r="AJZ21" s="0"/>
+      <c r="AKA21" s="0"/>
+      <c r="AKB21" s="0"/>
+      <c r="AKC21" s="0"/>
+      <c r="AKD21" s="0"/>
+      <c r="AKE21" s="0"/>
+      <c r="AKF21" s="0"/>
+      <c r="AKG21" s="0"/>
+      <c r="AKH21" s="0"/>
+      <c r="AKI21" s="0"/>
+      <c r="AKJ21" s="0"/>
+      <c r="AKK21" s="0"/>
+      <c r="AKL21" s="0"/>
+      <c r="AKM21" s="0"/>
+      <c r="AKN21" s="0"/>
+      <c r="AKO21" s="0"/>
+      <c r="AKP21" s="0"/>
+      <c r="AKQ21" s="0"/>
+      <c r="AKR21" s="0"/>
+      <c r="AKS21" s="0"/>
+      <c r="AKT21" s="0"/>
+      <c r="AKU21" s="0"/>
+      <c r="AKV21" s="0"/>
+      <c r="AKW21" s="0"/>
+      <c r="AKX21" s="0"/>
+      <c r="AKY21" s="0"/>
+      <c r="AKZ21" s="0"/>
+      <c r="ALA21" s="0"/>
+      <c r="ALB21" s="0"/>
+      <c r="ALC21" s="0"/>
+      <c r="ALD21" s="0"/>
+      <c r="ALE21" s="0"/>
+      <c r="ALF21" s="0"/>
+      <c r="ALG21" s="0"/>
+      <c r="ALH21" s="0"/>
+      <c r="ALI21" s="0"/>
+      <c r="ALJ21" s="0"/>
+      <c r="ALK21" s="0"/>
+      <c r="ALL21" s="0"/>
+      <c r="ALM21" s="0"/>
+      <c r="ALN21" s="0"/>
+      <c r="ALO21" s="0"/>
+      <c r="ALP21" s="0"/>
+      <c r="ALQ21" s="0"/>
+      <c r="ALR21" s="0"/>
+      <c r="ALS21" s="0"/>
+      <c r="ALT21" s="0"/>
+      <c r="ALU21" s="0"/>
+      <c r="ALV21" s="0"/>
+      <c r="ALW21" s="0"/>
+      <c r="ALX21" s="0"/>
+      <c r="ALY21" s="0"/>
+      <c r="ALZ21" s="0"/>
+      <c r="AMA21" s="0"/>
+      <c r="AMB21" s="0"/>
+      <c r="AMC21" s="0"/>
+      <c r="AMD21" s="0"/>
+      <c r="AME21" s="0"/>
+      <c r="AMF21" s="0"/>
+      <c r="AMG21" s="0"/>
+      <c r="AMH21" s="0"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>38</v>
       </c>
+      <c r="B23" s="0"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -18931,1058 +19995,1058 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+      <c r="AY24" s="0"/>
+      <c r="AZ24" s="0"/>
+      <c r="BA24" s="0"/>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+      <c r="BH24" s="0"/>
+      <c r="BI24" s="0"/>
+      <c r="BJ24" s="0"/>
+      <c r="BK24" s="0"/>
+      <c r="BL24" s="0"/>
+      <c r="BM24" s="0"/>
+      <c r="BN24" s="0"/>
+      <c r="BO24" s="0"/>
+      <c r="BP24" s="0"/>
+      <c r="BQ24" s="0"/>
+      <c r="BR24" s="0"/>
+      <c r="BS24" s="0"/>
+      <c r="BT24" s="0"/>
+      <c r="BU24" s="0"/>
+      <c r="BV24" s="0"/>
+      <c r="BW24" s="0"/>
+      <c r="BX24" s="0"/>
+      <c r="BY24" s="0"/>
+      <c r="BZ24" s="0"/>
+      <c r="CA24" s="0"/>
+      <c r="CB24" s="0"/>
+      <c r="CC24" s="0"/>
+      <c r="CD24" s="0"/>
+      <c r="CE24" s="0"/>
+      <c r="CF24" s="0"/>
+      <c r="CG24" s="0"/>
+      <c r="CH24" s="0"/>
+      <c r="CI24" s="0"/>
+      <c r="CJ24" s="0"/>
+      <c r="CK24" s="0"/>
+      <c r="CL24" s="0"/>
+      <c r="CM24" s="0"/>
+      <c r="CN24" s="0"/>
+      <c r="CO24" s="0"/>
+      <c r="CP24" s="0"/>
+      <c r="CQ24" s="0"/>
+      <c r="CR24" s="0"/>
+      <c r="CS24" s="0"/>
+      <c r="CT24" s="0"/>
+      <c r="CU24" s="0"/>
+      <c r="CV24" s="0"/>
+      <c r="CW24" s="0"/>
+      <c r="CX24" s="0"/>
+      <c r="CY24" s="0"/>
+      <c r="CZ24" s="0"/>
+      <c r="DA24" s="0"/>
+      <c r="DB24" s="0"/>
+      <c r="DC24" s="0"/>
+      <c r="DD24" s="0"/>
+      <c r="DE24" s="0"/>
+      <c r="DF24" s="0"/>
+      <c r="DG24" s="0"/>
+      <c r="DH24" s="0"/>
+      <c r="DI24" s="0"/>
+      <c r="DJ24" s="0"/>
+      <c r="DK24" s="0"/>
+      <c r="DL24" s="0"/>
+      <c r="DM24" s="0"/>
+      <c r="DN24" s="0"/>
+      <c r="DO24" s="0"/>
+      <c r="DP24" s="0"/>
+      <c r="DQ24" s="0"/>
+      <c r="DR24" s="0"/>
+      <c r="DS24" s="0"/>
+      <c r="DT24" s="0"/>
+      <c r="DU24" s="0"/>
+      <c r="DV24" s="0"/>
+      <c r="DW24" s="0"/>
+      <c r="DX24" s="0"/>
+      <c r="DY24" s="0"/>
+      <c r="DZ24" s="0"/>
+      <c r="EA24" s="0"/>
+      <c r="EB24" s="0"/>
+      <c r="EC24" s="0"/>
+      <c r="ED24" s="0"/>
+      <c r="EE24" s="0"/>
+      <c r="EF24" s="0"/>
+      <c r="EG24" s="0"/>
+      <c r="EH24" s="0"/>
+      <c r="EI24" s="0"/>
+      <c r="EJ24" s="0"/>
+      <c r="EK24" s="0"/>
+      <c r="EL24" s="0"/>
+      <c r="EM24" s="0"/>
+      <c r="EN24" s="0"/>
+      <c r="EO24" s="0"/>
+      <c r="EP24" s="0"/>
+      <c r="EQ24" s="0"/>
+      <c r="ER24" s="0"/>
+      <c r="ES24" s="0"/>
+      <c r="ET24" s="0"/>
+      <c r="EU24" s="0"/>
+      <c r="EV24" s="0"/>
+      <c r="EW24" s="0"/>
+      <c r="EX24" s="0"/>
+      <c r="EY24" s="0"/>
+      <c r="EZ24" s="0"/>
+      <c r="FA24" s="0"/>
+      <c r="FB24" s="0"/>
+      <c r="FC24" s="0"/>
+      <c r="FD24" s="0"/>
+      <c r="FE24" s="0"/>
+      <c r="FF24" s="0"/>
+      <c r="FG24" s="0"/>
+      <c r="FH24" s="0"/>
+      <c r="FI24" s="0"/>
+      <c r="FJ24" s="0"/>
+      <c r="FK24" s="0"/>
+      <c r="FL24" s="0"/>
+      <c r="FM24" s="0"/>
+      <c r="FN24" s="0"/>
+      <c r="FO24" s="0"/>
+      <c r="FP24" s="0"/>
+      <c r="FQ24" s="0"/>
+      <c r="FR24" s="0"/>
+      <c r="FS24" s="0"/>
+      <c r="FT24" s="0"/>
+      <c r="FU24" s="0"/>
+      <c r="FV24" s="0"/>
+      <c r="FW24" s="0"/>
+      <c r="FX24" s="0"/>
+      <c r="FY24" s="0"/>
+      <c r="FZ24" s="0"/>
+      <c r="GA24" s="0"/>
+      <c r="GB24" s="0"/>
+      <c r="GC24" s="0"/>
+      <c r="GD24" s="0"/>
+      <c r="GE24" s="0"/>
+      <c r="GF24" s="0"/>
+      <c r="GG24" s="0"/>
+      <c r="GH24" s="0"/>
+      <c r="GI24" s="0"/>
+      <c r="GJ24" s="0"/>
+      <c r="GK24" s="0"/>
+      <c r="GL24" s="0"/>
+      <c r="GM24" s="0"/>
+      <c r="GN24" s="0"/>
+      <c r="GO24" s="0"/>
+      <c r="GP24" s="0"/>
+      <c r="GQ24" s="0"/>
+      <c r="GR24" s="0"/>
+      <c r="GS24" s="0"/>
+      <c r="GT24" s="0"/>
+      <c r="GU24" s="0"/>
+      <c r="GV24" s="0"/>
+      <c r="GW24" s="0"/>
+      <c r="GX24" s="0"/>
+      <c r="GY24" s="0"/>
+      <c r="GZ24" s="0"/>
+      <c r="HA24" s="0"/>
+      <c r="HB24" s="0"/>
+      <c r="HC24" s="0"/>
+      <c r="HD24" s="0"/>
+      <c r="HE24" s="0"/>
+      <c r="HF24" s="0"/>
+      <c r="HG24" s="0"/>
+      <c r="HH24" s="0"/>
+      <c r="HI24" s="0"/>
+      <c r="HJ24" s="0"/>
+      <c r="HK24" s="0"/>
+      <c r="HL24" s="0"/>
+      <c r="HM24" s="0"/>
+      <c r="HN24" s="0"/>
+      <c r="HO24" s="0"/>
+      <c r="HP24" s="0"/>
+      <c r="HQ24" s="0"/>
+      <c r="HR24" s="0"/>
+      <c r="HS24" s="0"/>
+      <c r="HT24" s="0"/>
+      <c r="HU24" s="0"/>
+      <c r="HV24" s="0"/>
+      <c r="HW24" s="0"/>
+      <c r="HX24" s="0"/>
+      <c r="HY24" s="0"/>
+      <c r="HZ24" s="0"/>
+      <c r="IA24" s="0"/>
+      <c r="IB24" s="0"/>
+      <c r="IC24" s="0"/>
+      <c r="ID24" s="0"/>
+      <c r="IE24" s="0"/>
+      <c r="IF24" s="0"/>
+      <c r="IG24" s="0"/>
+      <c r="IH24" s="0"/>
+      <c r="II24" s="0"/>
+      <c r="IJ24" s="0"/>
+      <c r="IK24" s="0"/>
+      <c r="IL24" s="0"/>
+      <c r="IM24" s="0"/>
+      <c r="IN24" s="0"/>
+      <c r="IO24" s="0"/>
+      <c r="IP24" s="0"/>
+      <c r="IQ24" s="0"/>
+      <c r="IR24" s="0"/>
+      <c r="IS24" s="0"/>
+      <c r="IT24" s="0"/>
+      <c r="IU24" s="0"/>
+      <c r="IV24" s="0"/>
+      <c r="IW24" s="0"/>
+      <c r="IX24" s="0"/>
+      <c r="IY24" s="0"/>
+      <c r="IZ24" s="0"/>
+      <c r="JA24" s="0"/>
+      <c r="JB24" s="0"/>
+      <c r="JC24" s="0"/>
+      <c r="JD24" s="0"/>
+      <c r="JE24" s="0"/>
+      <c r="JF24" s="0"/>
+      <c r="JG24" s="0"/>
+      <c r="JH24" s="0"/>
+      <c r="JI24" s="0"/>
+      <c r="JJ24" s="0"/>
+      <c r="JK24" s="0"/>
+      <c r="JL24" s="0"/>
+      <c r="JM24" s="0"/>
+      <c r="JN24" s="0"/>
+      <c r="JO24" s="0"/>
+      <c r="JP24" s="0"/>
+      <c r="JQ24" s="0"/>
+      <c r="JR24" s="0"/>
+      <c r="JS24" s="0"/>
+      <c r="JT24" s="0"/>
+      <c r="JU24" s="0"/>
+      <c r="JV24" s="0"/>
+      <c r="JW24" s="0"/>
+      <c r="JX24" s="0"/>
+      <c r="JY24" s="0"/>
+      <c r="JZ24" s="0"/>
+      <c r="KA24" s="0"/>
+      <c r="KB24" s="0"/>
+      <c r="KC24" s="0"/>
+      <c r="KD24" s="0"/>
+      <c r="KE24" s="0"/>
+      <c r="KF24" s="0"/>
+      <c r="KG24" s="0"/>
+      <c r="KH24" s="0"/>
+      <c r="KI24" s="0"/>
+      <c r="KJ24" s="0"/>
+      <c r="KK24" s="0"/>
+      <c r="KL24" s="0"/>
+      <c r="KM24" s="0"/>
+      <c r="KN24" s="0"/>
+      <c r="KO24" s="0"/>
+      <c r="KP24" s="0"/>
+      <c r="KQ24" s="0"/>
+      <c r="KR24" s="0"/>
+      <c r="KS24" s="0"/>
+      <c r="KT24" s="0"/>
+      <c r="KU24" s="0"/>
+      <c r="KV24" s="0"/>
+      <c r="KW24" s="0"/>
+      <c r="KX24" s="0"/>
+      <c r="KY24" s="0"/>
+      <c r="KZ24" s="0"/>
+      <c r="LA24" s="0"/>
+      <c r="LB24" s="0"/>
+      <c r="LC24" s="0"/>
+      <c r="LD24" s="0"/>
+      <c r="LE24" s="0"/>
+      <c r="LF24" s="0"/>
+      <c r="LG24" s="0"/>
+      <c r="LH24" s="0"/>
+      <c r="LI24" s="0"/>
+      <c r="LJ24" s="0"/>
+      <c r="LK24" s="0"/>
+      <c r="LL24" s="0"/>
+      <c r="LM24" s="0"/>
+      <c r="LN24" s="0"/>
+      <c r="LO24" s="0"/>
+      <c r="LP24" s="0"/>
+      <c r="LQ24" s="0"/>
+      <c r="LR24" s="0"/>
+      <c r="LS24" s="0"/>
+      <c r="LT24" s="0"/>
+      <c r="LU24" s="0"/>
+      <c r="LV24" s="0"/>
+      <c r="LW24" s="0"/>
+      <c r="LX24" s="0"/>
+      <c r="LY24" s="0"/>
+      <c r="LZ24" s="0"/>
+      <c r="MA24" s="0"/>
+      <c r="MB24" s="0"/>
+      <c r="MC24" s="0"/>
+      <c r="MD24" s="0"/>
+      <c r="ME24" s="0"/>
+      <c r="MF24" s="0"/>
+      <c r="MG24" s="0"/>
+      <c r="MH24" s="0"/>
+      <c r="MI24" s="0"/>
+      <c r="MJ24" s="0"/>
+      <c r="MK24" s="0"/>
+      <c r="ML24" s="0"/>
+      <c r="MM24" s="0"/>
+      <c r="MN24" s="0"/>
+      <c r="MO24" s="0"/>
+      <c r="MP24" s="0"/>
+      <c r="MQ24" s="0"/>
+      <c r="MR24" s="0"/>
+      <c r="MS24" s="0"/>
+      <c r="MT24" s="0"/>
+      <c r="MU24" s="0"/>
+      <c r="MV24" s="0"/>
+      <c r="MW24" s="0"/>
+      <c r="MX24" s="0"/>
+      <c r="MY24" s="0"/>
+      <c r="MZ24" s="0"/>
+      <c r="NA24" s="0"/>
+      <c r="NB24" s="0"/>
+      <c r="NC24" s="0"/>
+      <c r="ND24" s="0"/>
+      <c r="NE24" s="0"/>
+      <c r="NF24" s="0"/>
+      <c r="NG24" s="0"/>
+      <c r="NH24" s="0"/>
+      <c r="NI24" s="0"/>
+      <c r="NJ24" s="0"/>
+      <c r="NK24" s="0"/>
+      <c r="NL24" s="0"/>
+      <c r="NM24" s="0"/>
+      <c r="NN24" s="0"/>
+      <c r="NO24" s="0"/>
+      <c r="NP24" s="0"/>
+      <c r="NQ24" s="0"/>
+      <c r="NR24" s="0"/>
+      <c r="NS24" s="0"/>
+      <c r="NT24" s="0"/>
+      <c r="NU24" s="0"/>
+      <c r="NV24" s="0"/>
+      <c r="NW24" s="0"/>
+      <c r="NX24" s="0"/>
+      <c r="NY24" s="0"/>
+      <c r="NZ24" s="0"/>
+      <c r="OA24" s="0"/>
+      <c r="OB24" s="0"/>
+      <c r="OC24" s="0"/>
+      <c r="OD24" s="0"/>
+      <c r="OE24" s="0"/>
+      <c r="OF24" s="0"/>
+      <c r="OG24" s="0"/>
+      <c r="OH24" s="0"/>
+      <c r="OI24" s="0"/>
+      <c r="OJ24" s="0"/>
+      <c r="OK24" s="0"/>
+      <c r="OL24" s="0"/>
+      <c r="OM24" s="0"/>
+      <c r="ON24" s="0"/>
+      <c r="OO24" s="0"/>
+      <c r="OP24" s="0"/>
+      <c r="OQ24" s="0"/>
+      <c r="OR24" s="0"/>
+      <c r="OS24" s="0"/>
+      <c r="OT24" s="0"/>
+      <c r="OU24" s="0"/>
+      <c r="OV24" s="0"/>
+      <c r="OW24" s="0"/>
+      <c r="OX24" s="0"/>
+      <c r="OY24" s="0"/>
+      <c r="OZ24" s="0"/>
+      <c r="PA24" s="0"/>
+      <c r="PB24" s="0"/>
+      <c r="PC24" s="0"/>
+      <c r="PD24" s="0"/>
+      <c r="PE24" s="0"/>
+      <c r="PF24" s="0"/>
+      <c r="PG24" s="0"/>
+      <c r="PH24" s="0"/>
+      <c r="PI24" s="0"/>
+      <c r="PJ24" s="0"/>
+      <c r="PK24" s="0"/>
+      <c r="PL24" s="0"/>
+      <c r="PM24" s="0"/>
+      <c r="PN24" s="0"/>
+      <c r="PO24" s="0"/>
+      <c r="PP24" s="0"/>
+      <c r="PQ24" s="0"/>
+      <c r="PR24" s="0"/>
+      <c r="PS24" s="0"/>
+      <c r="PT24" s="0"/>
+      <c r="PU24" s="0"/>
+      <c r="PV24" s="0"/>
+      <c r="PW24" s="0"/>
+      <c r="PX24" s="0"/>
+      <c r="PY24" s="0"/>
+      <c r="PZ24" s="0"/>
+      <c r="QA24" s="0"/>
+      <c r="QB24" s="0"/>
+      <c r="QC24" s="0"/>
+      <c r="QD24" s="0"/>
+      <c r="QE24" s="0"/>
+      <c r="QF24" s="0"/>
+      <c r="QG24" s="0"/>
+      <c r="QH24" s="0"/>
+      <c r="QI24" s="0"/>
+      <c r="QJ24" s="0"/>
+      <c r="QK24" s="0"/>
+      <c r="QL24" s="0"/>
+      <c r="QM24" s="0"/>
+      <c r="QN24" s="0"/>
+      <c r="QO24" s="0"/>
+      <c r="QP24" s="0"/>
+      <c r="QQ24" s="0"/>
+      <c r="QR24" s="0"/>
+      <c r="QS24" s="0"/>
+      <c r="QT24" s="0"/>
+      <c r="QU24" s="0"/>
+      <c r="QV24" s="0"/>
+      <c r="QW24" s="0"/>
+      <c r="QX24" s="0"/>
+      <c r="QY24" s="0"/>
+      <c r="QZ24" s="0"/>
+      <c r="RA24" s="0"/>
+      <c r="RB24" s="0"/>
+      <c r="RC24" s="0"/>
+      <c r="RD24" s="0"/>
+      <c r="RE24" s="0"/>
+      <c r="RF24" s="0"/>
+      <c r="RG24" s="0"/>
+      <c r="RH24" s="0"/>
+      <c r="RI24" s="0"/>
+      <c r="RJ24" s="0"/>
+      <c r="RK24" s="0"/>
+      <c r="RL24" s="0"/>
+      <c r="RM24" s="0"/>
+      <c r="RN24" s="0"/>
+      <c r="RO24" s="0"/>
+      <c r="RP24" s="0"/>
+      <c r="RQ24" s="0"/>
+      <c r="RR24" s="0"/>
+      <c r="RS24" s="0"/>
+      <c r="RT24" s="0"/>
+      <c r="RU24" s="0"/>
+      <c r="RV24" s="0"/>
+      <c r="RW24" s="0"/>
+      <c r="RX24" s="0"/>
+      <c r="RY24" s="0"/>
+      <c r="RZ24" s="0"/>
+      <c r="SA24" s="0"/>
+      <c r="SB24" s="0"/>
+      <c r="SC24" s="0"/>
+      <c r="SD24" s="0"/>
+      <c r="SE24" s="0"/>
+      <c r="SF24" s="0"/>
+      <c r="SG24" s="0"/>
+      <c r="SH24" s="0"/>
+      <c r="SI24" s="0"/>
+      <c r="SJ24" s="0"/>
+      <c r="SK24" s="0"/>
+      <c r="SL24" s="0"/>
+      <c r="SM24" s="0"/>
+      <c r="SN24" s="0"/>
+      <c r="SO24" s="0"/>
+      <c r="SP24" s="0"/>
+      <c r="SQ24" s="0"/>
+      <c r="SR24" s="0"/>
+      <c r="SS24" s="0"/>
+      <c r="ST24" s="0"/>
+      <c r="SU24" s="0"/>
+      <c r="SV24" s="0"/>
+      <c r="SW24" s="0"/>
+      <c r="SX24" s="0"/>
+      <c r="SY24" s="0"/>
+      <c r="SZ24" s="0"/>
+      <c r="TA24" s="0"/>
+      <c r="TB24" s="0"/>
+      <c r="TC24" s="0"/>
+      <c r="TD24" s="0"/>
+      <c r="TE24" s="0"/>
+      <c r="TF24" s="0"/>
+      <c r="TG24" s="0"/>
+      <c r="TH24" s="0"/>
+      <c r="TI24" s="0"/>
+      <c r="TJ24" s="0"/>
+      <c r="TK24" s="0"/>
+      <c r="TL24" s="0"/>
+      <c r="TM24" s="0"/>
+      <c r="TN24" s="0"/>
+      <c r="TO24" s="0"/>
+      <c r="TP24" s="0"/>
+      <c r="TQ24" s="0"/>
+      <c r="TR24" s="0"/>
+      <c r="TS24" s="0"/>
+      <c r="TT24" s="0"/>
+      <c r="TU24" s="0"/>
+      <c r="TV24" s="0"/>
+      <c r="TW24" s="0"/>
+      <c r="TX24" s="0"/>
+      <c r="TY24" s="0"/>
+      <c r="TZ24" s="0"/>
+      <c r="UA24" s="0"/>
+      <c r="UB24" s="0"/>
+      <c r="UC24" s="0"/>
+      <c r="UD24" s="0"/>
+      <c r="UE24" s="0"/>
+      <c r="UF24" s="0"/>
+      <c r="UG24" s="0"/>
+      <c r="UH24" s="0"/>
+      <c r="UI24" s="0"/>
+      <c r="UJ24" s="0"/>
+      <c r="UK24" s="0"/>
+      <c r="UL24" s="0"/>
+      <c r="UM24" s="0"/>
+      <c r="UN24" s="0"/>
+      <c r="UO24" s="0"/>
+      <c r="UP24" s="0"/>
+      <c r="UQ24" s="0"/>
+      <c r="UR24" s="0"/>
+      <c r="US24" s="0"/>
+      <c r="UT24" s="0"/>
+      <c r="UU24" s="0"/>
+      <c r="UV24" s="0"/>
+      <c r="UW24" s="0"/>
+      <c r="UX24" s="0"/>
+      <c r="UY24" s="0"/>
+      <c r="UZ24" s="0"/>
+      <c r="VA24" s="0"/>
+      <c r="VB24" s="0"/>
+      <c r="VC24" s="0"/>
+      <c r="VD24" s="0"/>
+      <c r="VE24" s="0"/>
+      <c r="VF24" s="0"/>
+      <c r="VG24" s="0"/>
+      <c r="VH24" s="0"/>
+      <c r="VI24" s="0"/>
+      <c r="VJ24" s="0"/>
+      <c r="VK24" s="0"/>
+      <c r="VL24" s="0"/>
+      <c r="VM24" s="0"/>
+      <c r="VN24" s="0"/>
+      <c r="VO24" s="0"/>
+      <c r="VP24" s="0"/>
+      <c r="VQ24" s="0"/>
+      <c r="VR24" s="0"/>
+      <c r="VS24" s="0"/>
+      <c r="VT24" s="0"/>
+      <c r="VU24" s="0"/>
+      <c r="VV24" s="0"/>
+      <c r="VW24" s="0"/>
+      <c r="VX24" s="0"/>
+      <c r="VY24" s="0"/>
+      <c r="VZ24" s="0"/>
+      <c r="WA24" s="0"/>
+      <c r="WB24" s="0"/>
+      <c r="WC24" s="0"/>
+      <c r="WD24" s="0"/>
+      <c r="WE24" s="0"/>
+      <c r="WF24" s="0"/>
+      <c r="WG24" s="0"/>
+      <c r="WH24" s="0"/>
+      <c r="WI24" s="0"/>
+      <c r="WJ24" s="0"/>
+      <c r="WK24" s="0"/>
+      <c r="WL24" s="0"/>
+      <c r="WM24" s="0"/>
+      <c r="WN24" s="0"/>
+      <c r="WO24" s="0"/>
+      <c r="WP24" s="0"/>
+      <c r="WQ24" s="0"/>
+      <c r="WR24" s="0"/>
+      <c r="WS24" s="0"/>
+      <c r="WT24" s="0"/>
+      <c r="WU24" s="0"/>
+      <c r="WV24" s="0"/>
+      <c r="WW24" s="0"/>
+      <c r="WX24" s="0"/>
+      <c r="WY24" s="0"/>
+      <c r="WZ24" s="0"/>
+      <c r="XA24" s="0"/>
+      <c r="XB24" s="0"/>
+      <c r="XC24" s="0"/>
+      <c r="XD24" s="0"/>
+      <c r="XE24" s="0"/>
+      <c r="XF24" s="0"/>
+      <c r="XG24" s="0"/>
+      <c r="XH24" s="0"/>
+      <c r="XI24" s="0"/>
+      <c r="XJ24" s="0"/>
+      <c r="XK24" s="0"/>
+      <c r="XL24" s="0"/>
+      <c r="XM24" s="0"/>
+      <c r="XN24" s="0"/>
+      <c r="XO24" s="0"/>
+      <c r="XP24" s="0"/>
+      <c r="XQ24" s="0"/>
+      <c r="XR24" s="0"/>
+      <c r="XS24" s="0"/>
+      <c r="XT24" s="0"/>
+      <c r="XU24" s="0"/>
+      <c r="XV24" s="0"/>
+      <c r="XW24" s="0"/>
+      <c r="XX24" s="0"/>
+      <c r="XY24" s="0"/>
+      <c r="XZ24" s="0"/>
+      <c r="YA24" s="0"/>
+      <c r="YB24" s="0"/>
+      <c r="YC24" s="0"/>
+      <c r="YD24" s="0"/>
+      <c r="YE24" s="0"/>
+      <c r="YF24" s="0"/>
+      <c r="YG24" s="0"/>
+      <c r="YH24" s="0"/>
+      <c r="YI24" s="0"/>
+      <c r="YJ24" s="0"/>
+      <c r="YK24" s="0"/>
+      <c r="YL24" s="0"/>
+      <c r="YM24" s="0"/>
+      <c r="YN24" s="0"/>
+      <c r="YO24" s="0"/>
+      <c r="YP24" s="0"/>
+      <c r="YQ24" s="0"/>
+      <c r="YR24" s="0"/>
+      <c r="YS24" s="0"/>
+      <c r="YT24" s="0"/>
+      <c r="YU24" s="0"/>
+      <c r="YV24" s="0"/>
+      <c r="YW24" s="0"/>
+      <c r="YX24" s="0"/>
+      <c r="YY24" s="0"/>
+      <c r="YZ24" s="0"/>
+      <c r="ZA24" s="0"/>
+      <c r="ZB24" s="0"/>
+      <c r="ZC24" s="0"/>
+      <c r="ZD24" s="0"/>
+      <c r="ZE24" s="0"/>
+      <c r="ZF24" s="0"/>
+      <c r="ZG24" s="0"/>
+      <c r="ZH24" s="0"/>
+      <c r="ZI24" s="0"/>
+      <c r="ZJ24" s="0"/>
+      <c r="ZK24" s="0"/>
+      <c r="ZL24" s="0"/>
+      <c r="ZM24" s="0"/>
+      <c r="ZN24" s="0"/>
+      <c r="ZO24" s="0"/>
+      <c r="ZP24" s="0"/>
+      <c r="ZQ24" s="0"/>
+      <c r="ZR24" s="0"/>
+      <c r="ZS24" s="0"/>
+      <c r="ZT24" s="0"/>
+      <c r="ZU24" s="0"/>
+      <c r="ZV24" s="0"/>
+      <c r="ZW24" s="0"/>
+      <c r="ZX24" s="0"/>
+      <c r="ZY24" s="0"/>
+      <c r="ZZ24" s="0"/>
+      <c r="AAA24" s="0"/>
+      <c r="AAB24" s="0"/>
+      <c r="AAC24" s="0"/>
+      <c r="AAD24" s="0"/>
+      <c r="AAE24" s="0"/>
+      <c r="AAF24" s="0"/>
+      <c r="AAG24" s="0"/>
+      <c r="AAH24" s="0"/>
+      <c r="AAI24" s="0"/>
+      <c r="AAJ24" s="0"/>
+      <c r="AAK24" s="0"/>
+      <c r="AAL24" s="0"/>
+      <c r="AAM24" s="0"/>
+      <c r="AAN24" s="0"/>
+      <c r="AAO24" s="0"/>
+      <c r="AAP24" s="0"/>
+      <c r="AAQ24" s="0"/>
+      <c r="AAR24" s="0"/>
+      <c r="AAS24" s="0"/>
+      <c r="AAT24" s="0"/>
+      <c r="AAU24" s="0"/>
+      <c r="AAV24" s="0"/>
+      <c r="AAW24" s="0"/>
+      <c r="AAX24" s="0"/>
+      <c r="AAY24" s="0"/>
+      <c r="AAZ24" s="0"/>
+      <c r="ABA24" s="0"/>
+      <c r="ABB24" s="0"/>
+      <c r="ABC24" s="0"/>
+      <c r="ABD24" s="0"/>
+      <c r="ABE24" s="0"/>
+      <c r="ABF24" s="0"/>
+      <c r="ABG24" s="0"/>
+      <c r="ABH24" s="0"/>
+      <c r="ABI24" s="0"/>
+      <c r="ABJ24" s="0"/>
+      <c r="ABK24" s="0"/>
+      <c r="ABL24" s="0"/>
+      <c r="ABM24" s="0"/>
+      <c r="ABN24" s="0"/>
+      <c r="ABO24" s="0"/>
+      <c r="ABP24" s="0"/>
+      <c r="ABQ24" s="0"/>
+      <c r="ABR24" s="0"/>
+      <c r="ABS24" s="0"/>
+      <c r="ABT24" s="0"/>
+      <c r="ABU24" s="0"/>
+      <c r="ABV24" s="0"/>
+      <c r="ABW24" s="0"/>
+      <c r="ABX24" s="0"/>
+      <c r="ABY24" s="0"/>
+      <c r="ABZ24" s="0"/>
+      <c r="ACA24" s="0"/>
+      <c r="ACB24" s="0"/>
+      <c r="ACC24" s="0"/>
+      <c r="ACD24" s="0"/>
+      <c r="ACE24" s="0"/>
+      <c r="ACF24" s="0"/>
+      <c r="ACG24" s="0"/>
+      <c r="ACH24" s="0"/>
+      <c r="ACI24" s="0"/>
+      <c r="ACJ24" s="0"/>
+      <c r="ACK24" s="0"/>
+      <c r="ACL24" s="0"/>
+      <c r="ACM24" s="0"/>
+      <c r="ACN24" s="0"/>
+      <c r="ACO24" s="0"/>
+      <c r="ACP24" s="0"/>
+      <c r="ACQ24" s="0"/>
+      <c r="ACR24" s="0"/>
+      <c r="ACS24" s="0"/>
+      <c r="ACT24" s="0"/>
+      <c r="ACU24" s="0"/>
+      <c r="ACV24" s="0"/>
+      <c r="ACW24" s="0"/>
+      <c r="ACX24" s="0"/>
+      <c r="ACY24" s="0"/>
+      <c r="ACZ24" s="0"/>
+      <c r="ADA24" s="0"/>
+      <c r="ADB24" s="0"/>
+      <c r="ADC24" s="0"/>
+      <c r="ADD24" s="0"/>
+      <c r="ADE24" s="0"/>
+      <c r="ADF24" s="0"/>
+      <c r="ADG24" s="0"/>
+      <c r="ADH24" s="0"/>
+      <c r="ADI24" s="0"/>
+      <c r="ADJ24" s="0"/>
+      <c r="ADK24" s="0"/>
+      <c r="ADL24" s="0"/>
+      <c r="ADM24" s="0"/>
+      <c r="ADN24" s="0"/>
+      <c r="ADO24" s="0"/>
+      <c r="ADP24" s="0"/>
+      <c r="ADQ24" s="0"/>
+      <c r="ADR24" s="0"/>
+      <c r="ADS24" s="0"/>
+      <c r="ADT24" s="0"/>
+      <c r="ADU24" s="0"/>
+      <c r="ADV24" s="0"/>
+      <c r="ADW24" s="0"/>
+      <c r="ADX24" s="0"/>
+      <c r="ADY24" s="0"/>
+      <c r="ADZ24" s="0"/>
+      <c r="AEA24" s="0"/>
+      <c r="AEB24" s="0"/>
+      <c r="AEC24" s="0"/>
+      <c r="AED24" s="0"/>
+      <c r="AEE24" s="0"/>
+      <c r="AEF24" s="0"/>
+      <c r="AEG24" s="0"/>
+      <c r="AEH24" s="0"/>
+      <c r="AEI24" s="0"/>
+      <c r="AEJ24" s="0"/>
+      <c r="AEK24" s="0"/>
+      <c r="AEL24" s="0"/>
+      <c r="AEM24" s="0"/>
+      <c r="AEN24" s="0"/>
+      <c r="AEO24" s="0"/>
+      <c r="AEP24" s="0"/>
+      <c r="AEQ24" s="0"/>
+      <c r="AER24" s="0"/>
+      <c r="AES24" s="0"/>
+      <c r="AET24" s="0"/>
+      <c r="AEU24" s="0"/>
+      <c r="AEV24" s="0"/>
+      <c r="AEW24" s="0"/>
+      <c r="AEX24" s="0"/>
+      <c r="AEY24" s="0"/>
+      <c r="AEZ24" s="0"/>
+      <c r="AFA24" s="0"/>
+      <c r="AFB24" s="0"/>
+      <c r="AFC24" s="0"/>
+      <c r="AFD24" s="0"/>
+      <c r="AFE24" s="0"/>
+      <c r="AFF24" s="0"/>
+      <c r="AFG24" s="0"/>
+      <c r="AFH24" s="0"/>
+      <c r="AFI24" s="0"/>
+      <c r="AFJ24" s="0"/>
+      <c r="AFK24" s="0"/>
+      <c r="AFL24" s="0"/>
+      <c r="AFM24" s="0"/>
+      <c r="AFN24" s="0"/>
+      <c r="AFO24" s="0"/>
+      <c r="AFP24" s="0"/>
+      <c r="AFQ24" s="0"/>
+      <c r="AFR24" s="0"/>
+      <c r="AFS24" s="0"/>
+      <c r="AFT24" s="0"/>
+      <c r="AFU24" s="0"/>
+      <c r="AFV24" s="0"/>
+      <c r="AFW24" s="0"/>
+      <c r="AFX24" s="0"/>
+      <c r="AFY24" s="0"/>
+      <c r="AFZ24" s="0"/>
+      <c r="AGA24" s="0"/>
+      <c r="AGB24" s="0"/>
+      <c r="AGC24" s="0"/>
+      <c r="AGD24" s="0"/>
+      <c r="AGE24" s="0"/>
+      <c r="AGF24" s="0"/>
+      <c r="AGG24" s="0"/>
+      <c r="AGH24" s="0"/>
+      <c r="AGI24" s="0"/>
+      <c r="AGJ24" s="0"/>
+      <c r="AGK24" s="0"/>
+      <c r="AGL24" s="0"/>
+      <c r="AGM24" s="0"/>
+      <c r="AGN24" s="0"/>
+      <c r="AGO24" s="0"/>
+      <c r="AGP24" s="0"/>
+      <c r="AGQ24" s="0"/>
+      <c r="AGR24" s="0"/>
+      <c r="AGS24" s="0"/>
+      <c r="AGT24" s="0"/>
+      <c r="AGU24" s="0"/>
+      <c r="AGV24" s="0"/>
+      <c r="AGW24" s="0"/>
+      <c r="AGX24" s="0"/>
+      <c r="AGY24" s="0"/>
+      <c r="AGZ24" s="0"/>
+      <c r="AHA24" s="0"/>
+      <c r="AHB24" s="0"/>
+      <c r="AHC24" s="0"/>
+      <c r="AHD24" s="0"/>
+      <c r="AHE24" s="0"/>
+      <c r="AHF24" s="0"/>
+      <c r="AHG24" s="0"/>
+      <c r="AHH24" s="0"/>
+      <c r="AHI24" s="0"/>
+      <c r="AHJ24" s="0"/>
+      <c r="AHK24" s="0"/>
+      <c r="AHL24" s="0"/>
+      <c r="AHM24" s="0"/>
+      <c r="AHN24" s="0"/>
+      <c r="AHO24" s="0"/>
+      <c r="AHP24" s="0"/>
+      <c r="AHQ24" s="0"/>
+      <c r="AHR24" s="0"/>
+      <c r="AHS24" s="0"/>
+      <c r="AHT24" s="0"/>
+      <c r="AHU24" s="0"/>
+      <c r="AHV24" s="0"/>
+      <c r="AHW24" s="0"/>
+      <c r="AHX24" s="0"/>
+      <c r="AHY24" s="0"/>
+      <c r="AHZ24" s="0"/>
+      <c r="AIA24" s="0"/>
+      <c r="AIB24" s="0"/>
+      <c r="AIC24" s="0"/>
+      <c r="AID24" s="0"/>
+      <c r="AIE24" s="0"/>
+      <c r="AIF24" s="0"/>
+      <c r="AIG24" s="0"/>
+      <c r="AIH24" s="0"/>
+      <c r="AII24" s="0"/>
+      <c r="AIJ24" s="0"/>
+      <c r="AIK24" s="0"/>
+      <c r="AIL24" s="0"/>
+      <c r="AIM24" s="0"/>
+      <c r="AIN24" s="0"/>
+      <c r="AIO24" s="0"/>
+      <c r="AIP24" s="0"/>
+      <c r="AIQ24" s="0"/>
+      <c r="AIR24" s="0"/>
+      <c r="AIS24" s="0"/>
+      <c r="AIT24" s="0"/>
+      <c r="AIU24" s="0"/>
+      <c r="AIV24" s="0"/>
+      <c r="AIW24" s="0"/>
+      <c r="AIX24" s="0"/>
+      <c r="AIY24" s="0"/>
+      <c r="AIZ24" s="0"/>
+      <c r="AJA24" s="0"/>
+      <c r="AJB24" s="0"/>
+      <c r="AJC24" s="0"/>
+      <c r="AJD24" s="0"/>
+      <c r="AJE24" s="0"/>
+      <c r="AJF24" s="0"/>
+      <c r="AJG24" s="0"/>
+      <c r="AJH24" s="0"/>
+      <c r="AJI24" s="0"/>
+      <c r="AJJ24" s="0"/>
+      <c r="AJK24" s="0"/>
+      <c r="AJL24" s="0"/>
+      <c r="AJM24" s="0"/>
+      <c r="AJN24" s="0"/>
+      <c r="AJO24" s="0"/>
+      <c r="AJP24" s="0"/>
+      <c r="AJQ24" s="0"/>
+      <c r="AJR24" s="0"/>
+      <c r="AJS24" s="0"/>
+      <c r="AJT24" s="0"/>
+      <c r="AJU24" s="0"/>
+      <c r="AJV24" s="0"/>
+      <c r="AJW24" s="0"/>
+      <c r="AJX24" s="0"/>
+      <c r="AJY24" s="0"/>
+      <c r="AJZ24" s="0"/>
+      <c r="AKA24" s="0"/>
+      <c r="AKB24" s="0"/>
+      <c r="AKC24" s="0"/>
+      <c r="AKD24" s="0"/>
+      <c r="AKE24" s="0"/>
+      <c r="AKF24" s="0"/>
+      <c r="AKG24" s="0"/>
+      <c r="AKH24" s="0"/>
+      <c r="AKI24" s="0"/>
+      <c r="AKJ24" s="0"/>
+      <c r="AKK24" s="0"/>
+      <c r="AKL24" s="0"/>
+      <c r="AKM24" s="0"/>
+      <c r="AKN24" s="0"/>
+      <c r="AKO24" s="0"/>
+      <c r="AKP24" s="0"/>
+      <c r="AKQ24" s="0"/>
+      <c r="AKR24" s="0"/>
+      <c r="AKS24" s="0"/>
+      <c r="AKT24" s="0"/>
+      <c r="AKU24" s="0"/>
+      <c r="AKV24" s="0"/>
+      <c r="AKW24" s="0"/>
+      <c r="AKX24" s="0"/>
+      <c r="AKY24" s="0"/>
+      <c r="AKZ24" s="0"/>
+      <c r="ALA24" s="0"/>
+      <c r="ALB24" s="0"/>
+      <c r="ALC24" s="0"/>
+      <c r="ALD24" s="0"/>
+      <c r="ALE24" s="0"/>
+      <c r="ALF24" s="0"/>
+      <c r="ALG24" s="0"/>
+      <c r="ALH24" s="0"/>
+      <c r="ALI24" s="0"/>
+      <c r="ALJ24" s="0"/>
+      <c r="ALK24" s="0"/>
+      <c r="ALL24" s="0"/>
+      <c r="ALM24" s="0"/>
+      <c r="ALN24" s="0"/>
+      <c r="ALO24" s="0"/>
+      <c r="ALP24" s="0"/>
+      <c r="ALQ24" s="0"/>
+      <c r="ALR24" s="0"/>
+      <c r="ALS24" s="0"/>
+      <c r="ALT24" s="0"/>
+      <c r="ALU24" s="0"/>
+      <c r="ALV24" s="0"/>
+      <c r="ALW24" s="0"/>
+      <c r="ALX24" s="0"/>
+      <c r="ALY24" s="0"/>
+      <c r="ALZ24" s="0"/>
+      <c r="AMA24" s="0"/>
+      <c r="AMB24" s="0"/>
+      <c r="AMC24" s="0"/>
+      <c r="AMD24" s="0"/>
+      <c r="AME24" s="0"/>
+      <c r="AMF24" s="0"/>
+      <c r="AMG24" s="0"/>
+      <c r="AMH24" s="0"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="0"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0"/>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
-      <c r="AB25" s="0"/>
-      <c r="AC25" s="0"/>
-      <c r="AD25" s="0"/>
-      <c r="AE25" s="0"/>
-      <c r="AF25" s="0"/>
-      <c r="AG25" s="0"/>
-      <c r="AH25" s="0"/>
-      <c r="AI25" s="0"/>
-      <c r="AJ25" s="0"/>
-      <c r="AK25" s="0"/>
-      <c r="AL25" s="0"/>
-      <c r="AM25" s="0"/>
-      <c r="AN25" s="0"/>
-      <c r="AO25" s="0"/>
-      <c r="AP25" s="0"/>
-      <c r="AQ25" s="0"/>
-      <c r="AR25" s="0"/>
-      <c r="AS25" s="0"/>
-      <c r="AT25" s="0"/>
-      <c r="AU25" s="0"/>
-      <c r="AV25" s="0"/>
-      <c r="AW25" s="0"/>
-      <c r="AX25" s="0"/>
-      <c r="AY25" s="0"/>
-      <c r="AZ25" s="0"/>
-      <c r="BA25" s="0"/>
-      <c r="BB25" s="0"/>
-      <c r="BC25" s="0"/>
-      <c r="BD25" s="0"/>
-      <c r="BE25" s="0"/>
-      <c r="BF25" s="0"/>
-      <c r="BG25" s="0"/>
-      <c r="BH25" s="0"/>
-      <c r="BI25" s="0"/>
-      <c r="BJ25" s="0"/>
-      <c r="BK25" s="0"/>
-      <c r="BL25" s="0"/>
-      <c r="BM25" s="0"/>
-      <c r="BN25" s="0"/>
-      <c r="BO25" s="0"/>
-      <c r="BP25" s="0"/>
-      <c r="BQ25" s="0"/>
-      <c r="BR25" s="0"/>
-      <c r="BS25" s="0"/>
-      <c r="BT25" s="0"/>
-      <c r="BU25" s="0"/>
-      <c r="BV25" s="0"/>
-      <c r="BW25" s="0"/>
-      <c r="BX25" s="0"/>
-      <c r="BY25" s="0"/>
-      <c r="BZ25" s="0"/>
-      <c r="CA25" s="0"/>
-      <c r="CB25" s="0"/>
-      <c r="CC25" s="0"/>
-      <c r="CD25" s="0"/>
-      <c r="CE25" s="0"/>
-      <c r="CF25" s="0"/>
-      <c r="CG25" s="0"/>
-      <c r="CH25" s="0"/>
-      <c r="CI25" s="0"/>
-      <c r="CJ25" s="0"/>
-      <c r="CK25" s="0"/>
-      <c r="CL25" s="0"/>
-      <c r="CM25" s="0"/>
-      <c r="CN25" s="0"/>
-      <c r="CO25" s="0"/>
-      <c r="CP25" s="0"/>
-      <c r="CQ25" s="0"/>
-      <c r="CR25" s="0"/>
-      <c r="CS25" s="0"/>
-      <c r="CT25" s="0"/>
-      <c r="CU25" s="0"/>
-      <c r="CV25" s="0"/>
-      <c r="CW25" s="0"/>
-      <c r="CX25" s="0"/>
-      <c r="CY25" s="0"/>
-      <c r="CZ25" s="0"/>
-      <c r="DA25" s="0"/>
-      <c r="DB25" s="0"/>
-      <c r="DC25" s="0"/>
-      <c r="DD25" s="0"/>
-      <c r="DE25" s="0"/>
-      <c r="DF25" s="0"/>
-      <c r="DG25" s="0"/>
-      <c r="DH25" s="0"/>
-      <c r="DI25" s="0"/>
-      <c r="DJ25" s="0"/>
-      <c r="DK25" s="0"/>
-      <c r="DL25" s="0"/>
-      <c r="DM25" s="0"/>
-      <c r="DN25" s="0"/>
-      <c r="DO25" s="0"/>
-      <c r="DP25" s="0"/>
-      <c r="DQ25" s="0"/>
-      <c r="DR25" s="0"/>
-      <c r="DS25" s="0"/>
-      <c r="DT25" s="0"/>
-      <c r="DU25" s="0"/>
-      <c r="DV25" s="0"/>
-      <c r="DW25" s="0"/>
-      <c r="DX25" s="0"/>
-      <c r="DY25" s="0"/>
-      <c r="DZ25" s="0"/>
-      <c r="EA25" s="0"/>
-      <c r="EB25" s="0"/>
-      <c r="EC25" s="0"/>
-      <c r="ED25" s="0"/>
-      <c r="EE25" s="0"/>
-      <c r="EF25" s="0"/>
-      <c r="EG25" s="0"/>
-      <c r="EH25" s="0"/>
-      <c r="EI25" s="0"/>
-      <c r="EJ25" s="0"/>
-      <c r="EK25" s="0"/>
-      <c r="EL25" s="0"/>
-      <c r="EM25" s="0"/>
-      <c r="EN25" s="0"/>
-      <c r="EO25" s="0"/>
-      <c r="EP25" s="0"/>
-      <c r="EQ25" s="0"/>
-      <c r="ER25" s="0"/>
-      <c r="ES25" s="0"/>
-      <c r="ET25" s="0"/>
-      <c r="EU25" s="0"/>
-      <c r="EV25" s="0"/>
-      <c r="EW25" s="0"/>
-      <c r="EX25" s="0"/>
-      <c r="EY25" s="0"/>
-      <c r="EZ25" s="0"/>
-      <c r="FA25" s="0"/>
-      <c r="FB25" s="0"/>
-      <c r="FC25" s="0"/>
-      <c r="FD25" s="0"/>
-      <c r="FE25" s="0"/>
-      <c r="FF25" s="0"/>
-      <c r="FG25" s="0"/>
-      <c r="FH25" s="0"/>
-      <c r="FI25" s="0"/>
-      <c r="FJ25" s="0"/>
-      <c r="FK25" s="0"/>
-      <c r="FL25" s="0"/>
-      <c r="FM25" s="0"/>
-      <c r="FN25" s="0"/>
-      <c r="FO25" s="0"/>
-      <c r="FP25" s="0"/>
-      <c r="FQ25" s="0"/>
-      <c r="FR25" s="0"/>
-      <c r="FS25" s="0"/>
-      <c r="FT25" s="0"/>
-      <c r="FU25" s="0"/>
-      <c r="FV25" s="0"/>
-      <c r="FW25" s="0"/>
-      <c r="FX25" s="0"/>
-      <c r="FY25" s="0"/>
-      <c r="FZ25" s="0"/>
-      <c r="GA25" s="0"/>
-      <c r="GB25" s="0"/>
-      <c r="GC25" s="0"/>
-      <c r="GD25" s="0"/>
-      <c r="GE25" s="0"/>
-      <c r="GF25" s="0"/>
-      <c r="GG25" s="0"/>
-      <c r="GH25" s="0"/>
-      <c r="GI25" s="0"/>
-      <c r="GJ25" s="0"/>
-      <c r="GK25" s="0"/>
-      <c r="GL25" s="0"/>
-      <c r="GM25" s="0"/>
-      <c r="GN25" s="0"/>
-      <c r="GO25" s="0"/>
-      <c r="GP25" s="0"/>
-      <c r="GQ25" s="0"/>
-      <c r="GR25" s="0"/>
-      <c r="GS25" s="0"/>
-      <c r="GT25" s="0"/>
-      <c r="GU25" s="0"/>
-      <c r="GV25" s="0"/>
-      <c r="GW25" s="0"/>
-      <c r="GX25" s="0"/>
-      <c r="GY25" s="0"/>
-      <c r="GZ25" s="0"/>
-      <c r="HA25" s="0"/>
-      <c r="HB25" s="0"/>
-      <c r="HC25" s="0"/>
-      <c r="HD25" s="0"/>
-      <c r="HE25" s="0"/>
-      <c r="HF25" s="0"/>
-      <c r="HG25" s="0"/>
-      <c r="HH25" s="0"/>
-      <c r="HI25" s="0"/>
-      <c r="HJ25" s="0"/>
-      <c r="HK25" s="0"/>
-      <c r="HL25" s="0"/>
-      <c r="HM25" s="0"/>
-      <c r="HN25" s="0"/>
-      <c r="HO25" s="0"/>
-      <c r="HP25" s="0"/>
-      <c r="HQ25" s="0"/>
-      <c r="HR25" s="0"/>
-      <c r="HS25" s="0"/>
-      <c r="HT25" s="0"/>
-      <c r="HU25" s="0"/>
-      <c r="HV25" s="0"/>
-      <c r="HW25" s="0"/>
-      <c r="HX25" s="0"/>
-      <c r="HY25" s="0"/>
-      <c r="HZ25" s="0"/>
-      <c r="IA25" s="0"/>
-      <c r="IB25" s="0"/>
-      <c r="IC25" s="0"/>
-      <c r="ID25" s="0"/>
-      <c r="IE25" s="0"/>
-      <c r="IF25" s="0"/>
-      <c r="IG25" s="0"/>
-      <c r="IH25" s="0"/>
-      <c r="II25" s="0"/>
-      <c r="IJ25" s="0"/>
-      <c r="IK25" s="0"/>
-      <c r="IL25" s="0"/>
-      <c r="IM25" s="0"/>
-      <c r="IN25" s="0"/>
-      <c r="IO25" s="0"/>
-      <c r="IP25" s="0"/>
-      <c r="IQ25" s="0"/>
-      <c r="IR25" s="0"/>
-      <c r="IS25" s="0"/>
-      <c r="IT25" s="0"/>
-      <c r="IU25" s="0"/>
-      <c r="IV25" s="0"/>
-      <c r="IW25" s="0"/>
-      <c r="IX25" s="0"/>
-      <c r="IY25" s="0"/>
-      <c r="IZ25" s="0"/>
-      <c r="JA25" s="0"/>
-      <c r="JB25" s="0"/>
-      <c r="JC25" s="0"/>
-      <c r="JD25" s="0"/>
-      <c r="JE25" s="0"/>
-      <c r="JF25" s="0"/>
-      <c r="JG25" s="0"/>
-      <c r="JH25" s="0"/>
-      <c r="JI25" s="0"/>
-      <c r="JJ25" s="0"/>
-      <c r="JK25" s="0"/>
-      <c r="JL25" s="0"/>
-      <c r="JM25" s="0"/>
-      <c r="JN25" s="0"/>
-      <c r="JO25" s="0"/>
-      <c r="JP25" s="0"/>
-      <c r="JQ25" s="0"/>
-      <c r="JR25" s="0"/>
-      <c r="JS25" s="0"/>
-      <c r="JT25" s="0"/>
-      <c r="JU25" s="0"/>
-      <c r="JV25" s="0"/>
-      <c r="JW25" s="0"/>
-      <c r="JX25" s="0"/>
-      <c r="JY25" s="0"/>
-      <c r="JZ25" s="0"/>
-      <c r="KA25" s="0"/>
-      <c r="KB25" s="0"/>
-      <c r="KC25" s="0"/>
-      <c r="KD25" s="0"/>
-      <c r="KE25" s="0"/>
-      <c r="KF25" s="0"/>
-      <c r="KG25" s="0"/>
-      <c r="KH25" s="0"/>
-      <c r="KI25" s="0"/>
-      <c r="KJ25" s="0"/>
-      <c r="KK25" s="0"/>
-      <c r="KL25" s="0"/>
-      <c r="KM25" s="0"/>
-      <c r="KN25" s="0"/>
-      <c r="KO25" s="0"/>
-      <c r="KP25" s="0"/>
-      <c r="KQ25" s="0"/>
-      <c r="KR25" s="0"/>
-      <c r="KS25" s="0"/>
-      <c r="KT25" s="0"/>
-      <c r="KU25" s="0"/>
-      <c r="KV25" s="0"/>
-      <c r="KW25" s="0"/>
-      <c r="KX25" s="0"/>
-      <c r="KY25" s="0"/>
-      <c r="KZ25" s="0"/>
-      <c r="LA25" s="0"/>
-      <c r="LB25" s="0"/>
-      <c r="LC25" s="0"/>
-      <c r="LD25" s="0"/>
-      <c r="LE25" s="0"/>
-      <c r="LF25" s="0"/>
-      <c r="LG25" s="0"/>
-      <c r="LH25" s="0"/>
-      <c r="LI25" s="0"/>
-      <c r="LJ25" s="0"/>
-      <c r="LK25" s="0"/>
-      <c r="LL25" s="0"/>
-      <c r="LM25" s="0"/>
-      <c r="LN25" s="0"/>
-      <c r="LO25" s="0"/>
-      <c r="LP25" s="0"/>
-      <c r="LQ25" s="0"/>
-      <c r="LR25" s="0"/>
-      <c r="LS25" s="0"/>
-      <c r="LT25" s="0"/>
-      <c r="LU25" s="0"/>
-      <c r="LV25" s="0"/>
-      <c r="LW25" s="0"/>
-      <c r="LX25" s="0"/>
-      <c r="LY25" s="0"/>
-      <c r="LZ25" s="0"/>
-      <c r="MA25" s="0"/>
-      <c r="MB25" s="0"/>
-      <c r="MC25" s="0"/>
-      <c r="MD25" s="0"/>
-      <c r="ME25" s="0"/>
-      <c r="MF25" s="0"/>
-      <c r="MG25" s="0"/>
-      <c r="MH25" s="0"/>
-      <c r="MI25" s="0"/>
-      <c r="MJ25" s="0"/>
-      <c r="MK25" s="0"/>
-      <c r="ML25" s="0"/>
-      <c r="MM25" s="0"/>
-      <c r="MN25" s="0"/>
-      <c r="MO25" s="0"/>
-      <c r="MP25" s="0"/>
-      <c r="MQ25" s="0"/>
-      <c r="MR25" s="0"/>
-      <c r="MS25" s="0"/>
-      <c r="MT25" s="0"/>
-      <c r="MU25" s="0"/>
-      <c r="MV25" s="0"/>
-      <c r="MW25" s="0"/>
-      <c r="MX25" s="0"/>
-      <c r="MY25" s="0"/>
-      <c r="MZ25" s="0"/>
-      <c r="NA25" s="0"/>
-      <c r="NB25" s="0"/>
-      <c r="NC25" s="0"/>
-      <c r="ND25" s="0"/>
-      <c r="NE25" s="0"/>
-      <c r="NF25" s="0"/>
-      <c r="NG25" s="0"/>
-      <c r="NH25" s="0"/>
-      <c r="NI25" s="0"/>
-      <c r="NJ25" s="0"/>
-      <c r="NK25" s="0"/>
-      <c r="NL25" s="0"/>
-      <c r="NM25" s="0"/>
-      <c r="NN25" s="0"/>
-      <c r="NO25" s="0"/>
-      <c r="NP25" s="0"/>
-      <c r="NQ25" s="0"/>
-      <c r="NR25" s="0"/>
-      <c r="NS25" s="0"/>
-      <c r="NT25" s="0"/>
-      <c r="NU25" s="0"/>
-      <c r="NV25" s="0"/>
-      <c r="NW25" s="0"/>
-      <c r="NX25" s="0"/>
-      <c r="NY25" s="0"/>
-      <c r="NZ25" s="0"/>
-      <c r="OA25" s="0"/>
-      <c r="OB25" s="0"/>
-      <c r="OC25" s="0"/>
-      <c r="OD25" s="0"/>
-      <c r="OE25" s="0"/>
-      <c r="OF25" s="0"/>
-      <c r="OG25" s="0"/>
-      <c r="OH25" s="0"/>
-      <c r="OI25" s="0"/>
-      <c r="OJ25" s="0"/>
-      <c r="OK25" s="0"/>
-      <c r="OL25" s="0"/>
-      <c r="OM25" s="0"/>
-      <c r="ON25" s="0"/>
-      <c r="OO25" s="0"/>
-      <c r="OP25" s="0"/>
-      <c r="OQ25" s="0"/>
-      <c r="OR25" s="0"/>
-      <c r="OS25" s="0"/>
-      <c r="OT25" s="0"/>
-      <c r="OU25" s="0"/>
-      <c r="OV25" s="0"/>
-      <c r="OW25" s="0"/>
-      <c r="OX25" s="0"/>
-      <c r="OY25" s="0"/>
-      <c r="OZ25" s="0"/>
-      <c r="PA25" s="0"/>
-      <c r="PB25" s="0"/>
-      <c r="PC25" s="0"/>
-      <c r="PD25" s="0"/>
-      <c r="PE25" s="0"/>
-      <c r="PF25" s="0"/>
-      <c r="PG25" s="0"/>
-      <c r="PH25" s="0"/>
-      <c r="PI25" s="0"/>
-      <c r="PJ25" s="0"/>
-      <c r="PK25" s="0"/>
-      <c r="PL25" s="0"/>
-      <c r="PM25" s="0"/>
-      <c r="PN25" s="0"/>
-      <c r="PO25" s="0"/>
-      <c r="PP25" s="0"/>
-      <c r="PQ25" s="0"/>
-      <c r="PR25" s="0"/>
-      <c r="PS25" s="0"/>
-      <c r="PT25" s="0"/>
-      <c r="PU25" s="0"/>
-      <c r="PV25" s="0"/>
-      <c r="PW25" s="0"/>
-      <c r="PX25" s="0"/>
-      <c r="PY25" s="0"/>
-      <c r="PZ25" s="0"/>
-      <c r="QA25" s="0"/>
-      <c r="QB25" s="0"/>
-      <c r="QC25" s="0"/>
-      <c r="QD25" s="0"/>
-      <c r="QE25" s="0"/>
-      <c r="QF25" s="0"/>
-      <c r="QG25" s="0"/>
-      <c r="QH25" s="0"/>
-      <c r="QI25" s="0"/>
-      <c r="QJ25" s="0"/>
-      <c r="QK25" s="0"/>
-      <c r="QL25" s="0"/>
-      <c r="QM25" s="0"/>
-      <c r="QN25" s="0"/>
-      <c r="QO25" s="0"/>
-      <c r="QP25" s="0"/>
-      <c r="QQ25" s="0"/>
-      <c r="QR25" s="0"/>
-      <c r="QS25" s="0"/>
-      <c r="QT25" s="0"/>
-      <c r="QU25" s="0"/>
-      <c r="QV25" s="0"/>
-      <c r="QW25" s="0"/>
-      <c r="QX25" s="0"/>
-      <c r="QY25" s="0"/>
-      <c r="QZ25" s="0"/>
-      <c r="RA25" s="0"/>
-      <c r="RB25" s="0"/>
-      <c r="RC25" s="0"/>
-      <c r="RD25" s="0"/>
-      <c r="RE25" s="0"/>
-      <c r="RF25" s="0"/>
-      <c r="RG25" s="0"/>
-      <c r="RH25" s="0"/>
-      <c r="RI25" s="0"/>
-      <c r="RJ25" s="0"/>
-      <c r="RK25" s="0"/>
-      <c r="RL25" s="0"/>
-      <c r="RM25" s="0"/>
-      <c r="RN25" s="0"/>
-      <c r="RO25" s="0"/>
-      <c r="RP25" s="0"/>
-      <c r="RQ25" s="0"/>
-      <c r="RR25" s="0"/>
-      <c r="RS25" s="0"/>
-      <c r="RT25" s="0"/>
-      <c r="RU25" s="0"/>
-      <c r="RV25" s="0"/>
-      <c r="RW25" s="0"/>
-      <c r="RX25" s="0"/>
-      <c r="RY25" s="0"/>
-      <c r="RZ25" s="0"/>
-      <c r="SA25" s="0"/>
-      <c r="SB25" s="0"/>
-      <c r="SC25" s="0"/>
-      <c r="SD25" s="0"/>
-      <c r="SE25" s="0"/>
-      <c r="SF25" s="0"/>
-      <c r="SG25" s="0"/>
-      <c r="SH25" s="0"/>
-      <c r="SI25" s="0"/>
-      <c r="SJ25" s="0"/>
-      <c r="SK25" s="0"/>
-      <c r="SL25" s="0"/>
-      <c r="SM25" s="0"/>
-      <c r="SN25" s="0"/>
-      <c r="SO25" s="0"/>
-      <c r="SP25" s="0"/>
-      <c r="SQ25" s="0"/>
-      <c r="SR25" s="0"/>
-      <c r="SS25" s="0"/>
-      <c r="ST25" s="0"/>
-      <c r="SU25" s="0"/>
-      <c r="SV25" s="0"/>
-      <c r="SW25" s="0"/>
-      <c r="SX25" s="0"/>
-      <c r="SY25" s="0"/>
-      <c r="SZ25" s="0"/>
-      <c r="TA25" s="0"/>
-      <c r="TB25" s="0"/>
-      <c r="TC25" s="0"/>
-      <c r="TD25" s="0"/>
-      <c r="TE25" s="0"/>
-      <c r="TF25" s="0"/>
-      <c r="TG25" s="0"/>
-      <c r="TH25" s="0"/>
-      <c r="TI25" s="0"/>
-      <c r="TJ25" s="0"/>
-      <c r="TK25" s="0"/>
-      <c r="TL25" s="0"/>
-      <c r="TM25" s="0"/>
-      <c r="TN25" s="0"/>
-      <c r="TO25" s="0"/>
-      <c r="TP25" s="0"/>
-      <c r="TQ25" s="0"/>
-      <c r="TR25" s="0"/>
-      <c r="TS25" s="0"/>
-      <c r="TT25" s="0"/>
-      <c r="TU25" s="0"/>
-      <c r="TV25" s="0"/>
-      <c r="TW25" s="0"/>
-      <c r="TX25" s="0"/>
-      <c r="TY25" s="0"/>
-      <c r="TZ25" s="0"/>
-      <c r="UA25" s="0"/>
-      <c r="UB25" s="0"/>
-      <c r="UC25" s="0"/>
-      <c r="UD25" s="0"/>
-      <c r="UE25" s="0"/>
-      <c r="UF25" s="0"/>
-      <c r="UG25" s="0"/>
-      <c r="UH25" s="0"/>
-      <c r="UI25" s="0"/>
-      <c r="UJ25" s="0"/>
-      <c r="UK25" s="0"/>
-      <c r="UL25" s="0"/>
-      <c r="UM25" s="0"/>
-      <c r="UN25" s="0"/>
-      <c r="UO25" s="0"/>
-      <c r="UP25" s="0"/>
-      <c r="UQ25" s="0"/>
-      <c r="UR25" s="0"/>
-      <c r="US25" s="0"/>
-      <c r="UT25" s="0"/>
-      <c r="UU25" s="0"/>
-      <c r="UV25" s="0"/>
-      <c r="UW25" s="0"/>
-      <c r="UX25" s="0"/>
-      <c r="UY25" s="0"/>
-      <c r="UZ25" s="0"/>
-      <c r="VA25" s="0"/>
-      <c r="VB25" s="0"/>
-      <c r="VC25" s="0"/>
-      <c r="VD25" s="0"/>
-      <c r="VE25" s="0"/>
-      <c r="VF25" s="0"/>
-      <c r="VG25" s="0"/>
-      <c r="VH25" s="0"/>
-      <c r="VI25" s="0"/>
-      <c r="VJ25" s="0"/>
-      <c r="VK25" s="0"/>
-      <c r="VL25" s="0"/>
-      <c r="VM25" s="0"/>
-      <c r="VN25" s="0"/>
-      <c r="VO25" s="0"/>
-      <c r="VP25" s="0"/>
-      <c r="VQ25" s="0"/>
-      <c r="VR25" s="0"/>
-      <c r="VS25" s="0"/>
-      <c r="VT25" s="0"/>
-      <c r="VU25" s="0"/>
-      <c r="VV25" s="0"/>
-      <c r="VW25" s="0"/>
-      <c r="VX25" s="0"/>
-      <c r="VY25" s="0"/>
-      <c r="VZ25" s="0"/>
-      <c r="WA25" s="0"/>
-      <c r="WB25" s="0"/>
-      <c r="WC25" s="0"/>
-      <c r="WD25" s="0"/>
-      <c r="WE25" s="0"/>
-      <c r="WF25" s="0"/>
-      <c r="WG25" s="0"/>
-      <c r="WH25" s="0"/>
-      <c r="WI25" s="0"/>
-      <c r="WJ25" s="0"/>
-      <c r="WK25" s="0"/>
-      <c r="WL25" s="0"/>
-      <c r="WM25" s="0"/>
-      <c r="WN25" s="0"/>
-      <c r="WO25" s="0"/>
-      <c r="WP25" s="0"/>
-      <c r="WQ25" s="0"/>
-      <c r="WR25" s="0"/>
-      <c r="WS25" s="0"/>
-      <c r="WT25" s="0"/>
-      <c r="WU25" s="0"/>
-      <c r="WV25" s="0"/>
-      <c r="WW25" s="0"/>
-      <c r="WX25" s="0"/>
-      <c r="WY25" s="0"/>
-      <c r="WZ25" s="0"/>
-      <c r="XA25" s="0"/>
-      <c r="XB25" s="0"/>
-      <c r="XC25" s="0"/>
-      <c r="XD25" s="0"/>
-      <c r="XE25" s="0"/>
-      <c r="XF25" s="0"/>
-      <c r="XG25" s="0"/>
-      <c r="XH25" s="0"/>
-      <c r="XI25" s="0"/>
-      <c r="XJ25" s="0"/>
-      <c r="XK25" s="0"/>
-      <c r="XL25" s="0"/>
-      <c r="XM25" s="0"/>
-      <c r="XN25" s="0"/>
-      <c r="XO25" s="0"/>
-      <c r="XP25" s="0"/>
-      <c r="XQ25" s="0"/>
-      <c r="XR25" s="0"/>
-      <c r="XS25" s="0"/>
-      <c r="XT25" s="0"/>
-      <c r="XU25" s="0"/>
-      <c r="XV25" s="0"/>
-      <c r="XW25" s="0"/>
-      <c r="XX25" s="0"/>
-      <c r="XY25" s="0"/>
-      <c r="XZ25" s="0"/>
-      <c r="YA25" s="0"/>
-      <c r="YB25" s="0"/>
-      <c r="YC25" s="0"/>
-      <c r="YD25" s="0"/>
-      <c r="YE25" s="0"/>
-      <c r="YF25" s="0"/>
-      <c r="YG25" s="0"/>
-      <c r="YH25" s="0"/>
-      <c r="YI25" s="0"/>
-      <c r="YJ25" s="0"/>
-      <c r="YK25" s="0"/>
-      <c r="YL25" s="0"/>
-      <c r="YM25" s="0"/>
-      <c r="YN25" s="0"/>
-      <c r="YO25" s="0"/>
-      <c r="YP25" s="0"/>
-      <c r="YQ25" s="0"/>
-      <c r="YR25" s="0"/>
-      <c r="YS25" s="0"/>
-      <c r="YT25" s="0"/>
-      <c r="YU25" s="0"/>
-      <c r="YV25" s="0"/>
-      <c r="YW25" s="0"/>
-      <c r="YX25" s="0"/>
-      <c r="YY25" s="0"/>
-      <c r="YZ25" s="0"/>
-      <c r="ZA25" s="0"/>
-      <c r="ZB25" s="0"/>
-      <c r="ZC25" s="0"/>
-      <c r="ZD25" s="0"/>
-      <c r="ZE25" s="0"/>
-      <c r="ZF25" s="0"/>
-      <c r="ZG25" s="0"/>
-      <c r="ZH25" s="0"/>
-      <c r="ZI25" s="0"/>
-      <c r="ZJ25" s="0"/>
-      <c r="ZK25" s="0"/>
-      <c r="ZL25" s="0"/>
-      <c r="ZM25" s="0"/>
-      <c r="ZN25" s="0"/>
-      <c r="ZO25" s="0"/>
-      <c r="ZP25" s="0"/>
-      <c r="ZQ25" s="0"/>
-      <c r="ZR25" s="0"/>
-      <c r="ZS25" s="0"/>
-      <c r="ZT25" s="0"/>
-      <c r="ZU25" s="0"/>
-      <c r="ZV25" s="0"/>
-      <c r="ZW25" s="0"/>
-      <c r="ZX25" s="0"/>
-      <c r="ZY25" s="0"/>
-      <c r="ZZ25" s="0"/>
-      <c r="AAA25" s="0"/>
-      <c r="AAB25" s="0"/>
-      <c r="AAC25" s="0"/>
-      <c r="AAD25" s="0"/>
-      <c r="AAE25" s="0"/>
-      <c r="AAF25" s="0"/>
-      <c r="AAG25" s="0"/>
-      <c r="AAH25" s="0"/>
-      <c r="AAI25" s="0"/>
-      <c r="AAJ25" s="0"/>
-      <c r="AAK25" s="0"/>
-      <c r="AAL25" s="0"/>
-      <c r="AAM25" s="0"/>
-      <c r="AAN25" s="0"/>
-      <c r="AAO25" s="0"/>
-      <c r="AAP25" s="0"/>
-      <c r="AAQ25" s="0"/>
-      <c r="AAR25" s="0"/>
-      <c r="AAS25" s="0"/>
-      <c r="AAT25" s="0"/>
-      <c r="AAU25" s="0"/>
-      <c r="AAV25" s="0"/>
-      <c r="AAW25" s="0"/>
-      <c r="AAX25" s="0"/>
-      <c r="AAY25" s="0"/>
-      <c r="AAZ25" s="0"/>
-      <c r="ABA25" s="0"/>
-      <c r="ABB25" s="0"/>
-      <c r="ABC25" s="0"/>
-      <c r="ABD25" s="0"/>
-      <c r="ABE25" s="0"/>
-      <c r="ABF25" s="0"/>
-      <c r="ABG25" s="0"/>
-      <c r="ABH25" s="0"/>
-      <c r="ABI25" s="0"/>
-      <c r="ABJ25" s="0"/>
-      <c r="ABK25" s="0"/>
-      <c r="ABL25" s="0"/>
-      <c r="ABM25" s="0"/>
-      <c r="ABN25" s="0"/>
-      <c r="ABO25" s="0"/>
-      <c r="ABP25" s="0"/>
-      <c r="ABQ25" s="0"/>
-      <c r="ABR25" s="0"/>
-      <c r="ABS25" s="0"/>
-      <c r="ABT25" s="0"/>
-      <c r="ABU25" s="0"/>
-      <c r="ABV25" s="0"/>
-      <c r="ABW25" s="0"/>
-      <c r="ABX25" s="0"/>
-      <c r="ABY25" s="0"/>
-      <c r="ABZ25" s="0"/>
-      <c r="ACA25" s="0"/>
-      <c r="ACB25" s="0"/>
-      <c r="ACC25" s="0"/>
-      <c r="ACD25" s="0"/>
-      <c r="ACE25" s="0"/>
-      <c r="ACF25" s="0"/>
-      <c r="ACG25" s="0"/>
-      <c r="ACH25" s="0"/>
-      <c r="ACI25" s="0"/>
-      <c r="ACJ25" s="0"/>
-      <c r="ACK25" s="0"/>
-      <c r="ACL25" s="0"/>
-      <c r="ACM25" s="0"/>
-      <c r="ACN25" s="0"/>
-      <c r="ACO25" s="0"/>
-      <c r="ACP25" s="0"/>
-      <c r="ACQ25" s="0"/>
-      <c r="ACR25" s="0"/>
-      <c r="ACS25" s="0"/>
-      <c r="ACT25" s="0"/>
-      <c r="ACU25" s="0"/>
-      <c r="ACV25" s="0"/>
-      <c r="ACW25" s="0"/>
-      <c r="ACX25" s="0"/>
-      <c r="ACY25" s="0"/>
-      <c r="ACZ25" s="0"/>
-      <c r="ADA25" s="0"/>
-      <c r="ADB25" s="0"/>
-      <c r="ADC25" s="0"/>
-      <c r="ADD25" s="0"/>
-      <c r="ADE25" s="0"/>
-      <c r="ADF25" s="0"/>
-      <c r="ADG25" s="0"/>
-      <c r="ADH25" s="0"/>
-      <c r="ADI25" s="0"/>
-      <c r="ADJ25" s="0"/>
-      <c r="ADK25" s="0"/>
-      <c r="ADL25" s="0"/>
-      <c r="ADM25" s="0"/>
-      <c r="ADN25" s="0"/>
-      <c r="ADO25" s="0"/>
-      <c r="ADP25" s="0"/>
-      <c r="ADQ25" s="0"/>
-      <c r="ADR25" s="0"/>
-      <c r="ADS25" s="0"/>
-      <c r="ADT25" s="0"/>
-      <c r="ADU25" s="0"/>
-      <c r="ADV25" s="0"/>
-      <c r="ADW25" s="0"/>
-      <c r="ADX25" s="0"/>
-      <c r="ADY25" s="0"/>
-      <c r="ADZ25" s="0"/>
-      <c r="AEA25" s="0"/>
-      <c r="AEB25" s="0"/>
-      <c r="AEC25" s="0"/>
-      <c r="AED25" s="0"/>
-      <c r="AEE25" s="0"/>
-      <c r="AEF25" s="0"/>
-      <c r="AEG25" s="0"/>
-      <c r="AEH25" s="0"/>
-      <c r="AEI25" s="0"/>
-      <c r="AEJ25" s="0"/>
-      <c r="AEK25" s="0"/>
-      <c r="AEL25" s="0"/>
-      <c r="AEM25" s="0"/>
-      <c r="AEN25" s="0"/>
-      <c r="AEO25" s="0"/>
-      <c r="AEP25" s="0"/>
-      <c r="AEQ25" s="0"/>
-      <c r="AER25" s="0"/>
-      <c r="AES25" s="0"/>
-      <c r="AET25" s="0"/>
-      <c r="AEU25" s="0"/>
-      <c r="AEV25" s="0"/>
-      <c r="AEW25" s="0"/>
-      <c r="AEX25" s="0"/>
-      <c r="AEY25" s="0"/>
-      <c r="AEZ25" s="0"/>
-      <c r="AFA25" s="0"/>
-      <c r="AFB25" s="0"/>
-      <c r="AFC25" s="0"/>
-      <c r="AFD25" s="0"/>
-      <c r="AFE25" s="0"/>
-      <c r="AFF25" s="0"/>
-      <c r="AFG25" s="0"/>
-      <c r="AFH25" s="0"/>
-      <c r="AFI25" s="0"/>
-      <c r="AFJ25" s="0"/>
-      <c r="AFK25" s="0"/>
-      <c r="AFL25" s="0"/>
-      <c r="AFM25" s="0"/>
-      <c r="AFN25" s="0"/>
-      <c r="AFO25" s="0"/>
-      <c r="AFP25" s="0"/>
-      <c r="AFQ25" s="0"/>
-      <c r="AFR25" s="0"/>
-      <c r="AFS25" s="0"/>
-      <c r="AFT25" s="0"/>
-      <c r="AFU25" s="0"/>
-      <c r="AFV25" s="0"/>
-      <c r="AFW25" s="0"/>
-      <c r="AFX25" s="0"/>
-      <c r="AFY25" s="0"/>
-      <c r="AFZ25" s="0"/>
-      <c r="AGA25" s="0"/>
-      <c r="AGB25" s="0"/>
-      <c r="AGC25" s="0"/>
-      <c r="AGD25" s="0"/>
-      <c r="AGE25" s="0"/>
-      <c r="AGF25" s="0"/>
-      <c r="AGG25" s="0"/>
-      <c r="AGH25" s="0"/>
-      <c r="AGI25" s="0"/>
-      <c r="AGJ25" s="0"/>
-      <c r="AGK25" s="0"/>
-      <c r="AGL25" s="0"/>
-      <c r="AGM25" s="0"/>
-      <c r="AGN25" s="0"/>
-      <c r="AGO25" s="0"/>
-      <c r="AGP25" s="0"/>
-      <c r="AGQ25" s="0"/>
-      <c r="AGR25" s="0"/>
-      <c r="AGS25" s="0"/>
-      <c r="AGT25" s="0"/>
-      <c r="AGU25" s="0"/>
-      <c r="AGV25" s="0"/>
-      <c r="AGW25" s="0"/>
-      <c r="AGX25" s="0"/>
-      <c r="AGY25" s="0"/>
-      <c r="AGZ25" s="0"/>
-      <c r="AHA25" s="0"/>
-      <c r="AHB25" s="0"/>
-      <c r="AHC25" s="0"/>
-      <c r="AHD25" s="0"/>
-      <c r="AHE25" s="0"/>
-      <c r="AHF25" s="0"/>
-      <c r="AHG25" s="0"/>
-      <c r="AHH25" s="0"/>
-      <c r="AHI25" s="0"/>
-      <c r="AHJ25" s="0"/>
-      <c r="AHK25" s="0"/>
-      <c r="AHL25" s="0"/>
-      <c r="AHM25" s="0"/>
-      <c r="AHN25" s="0"/>
-      <c r="AHO25" s="0"/>
-      <c r="AHP25" s="0"/>
-      <c r="AHQ25" s="0"/>
-      <c r="AHR25" s="0"/>
-      <c r="AHS25" s="0"/>
-      <c r="AHT25" s="0"/>
-      <c r="AHU25" s="0"/>
-      <c r="AHV25" s="0"/>
-      <c r="AHW25" s="0"/>
-      <c r="AHX25" s="0"/>
-      <c r="AHY25" s="0"/>
-      <c r="AHZ25" s="0"/>
-      <c r="AIA25" s="0"/>
-      <c r="AIB25" s="0"/>
-      <c r="AIC25" s="0"/>
-      <c r="AID25" s="0"/>
-      <c r="AIE25" s="0"/>
-      <c r="AIF25" s="0"/>
-      <c r="AIG25" s="0"/>
-      <c r="AIH25" s="0"/>
-      <c r="AII25" s="0"/>
-      <c r="AIJ25" s="0"/>
-      <c r="AIK25" s="0"/>
-      <c r="AIL25" s="0"/>
-      <c r="AIM25" s="0"/>
-      <c r="AIN25" s="0"/>
-      <c r="AIO25" s="0"/>
-      <c r="AIP25" s="0"/>
-      <c r="AIQ25" s="0"/>
-      <c r="AIR25" s="0"/>
-      <c r="AIS25" s="0"/>
-      <c r="AIT25" s="0"/>
-      <c r="AIU25" s="0"/>
-      <c r="AIV25" s="0"/>
-      <c r="AIW25" s="0"/>
-      <c r="AIX25" s="0"/>
-      <c r="AIY25" s="0"/>
-      <c r="AIZ25" s="0"/>
-      <c r="AJA25" s="0"/>
-      <c r="AJB25" s="0"/>
-      <c r="AJC25" s="0"/>
-      <c r="AJD25" s="0"/>
-      <c r="AJE25" s="0"/>
-      <c r="AJF25" s="0"/>
-      <c r="AJG25" s="0"/>
-      <c r="AJH25" s="0"/>
-      <c r="AJI25" s="0"/>
-      <c r="AJJ25" s="0"/>
-      <c r="AJK25" s="0"/>
-      <c r="AJL25" s="0"/>
-      <c r="AJM25" s="0"/>
-      <c r="AJN25" s="0"/>
-      <c r="AJO25" s="0"/>
-      <c r="AJP25" s="0"/>
-      <c r="AJQ25" s="0"/>
-      <c r="AJR25" s="0"/>
-      <c r="AJS25" s="0"/>
-      <c r="AJT25" s="0"/>
-      <c r="AJU25" s="0"/>
-      <c r="AJV25" s="0"/>
-      <c r="AJW25" s="0"/>
-      <c r="AJX25" s="0"/>
-      <c r="AJY25" s="0"/>
-      <c r="AJZ25" s="0"/>
-      <c r="AKA25" s="0"/>
-      <c r="AKB25" s="0"/>
-      <c r="AKC25" s="0"/>
-      <c r="AKD25" s="0"/>
-      <c r="AKE25" s="0"/>
-      <c r="AKF25" s="0"/>
-      <c r="AKG25" s="0"/>
-      <c r="AKH25" s="0"/>
-      <c r="AKI25" s="0"/>
-      <c r="AKJ25" s="0"/>
-      <c r="AKK25" s="0"/>
-      <c r="AKL25" s="0"/>
-      <c r="AKM25" s="0"/>
-      <c r="AKN25" s="0"/>
-      <c r="AKO25" s="0"/>
-      <c r="AKP25" s="0"/>
-      <c r="AKQ25" s="0"/>
-      <c r="AKR25" s="0"/>
-      <c r="AKS25" s="0"/>
-      <c r="AKT25" s="0"/>
-      <c r="AKU25" s="0"/>
-      <c r="AKV25" s="0"/>
-      <c r="AKW25" s="0"/>
-      <c r="AKX25" s="0"/>
-      <c r="AKY25" s="0"/>
-      <c r="AKZ25" s="0"/>
-      <c r="ALA25" s="0"/>
-      <c r="ALB25" s="0"/>
-      <c r="ALC25" s="0"/>
-      <c r="ALD25" s="0"/>
-      <c r="ALE25" s="0"/>
-      <c r="ALF25" s="0"/>
-      <c r="ALG25" s="0"/>
-      <c r="ALH25" s="0"/>
-      <c r="ALI25" s="0"/>
-      <c r="ALJ25" s="0"/>
-      <c r="ALK25" s="0"/>
-      <c r="ALL25" s="0"/>
-      <c r="ALM25" s="0"/>
-      <c r="ALN25" s="0"/>
-      <c r="ALO25" s="0"/>
-      <c r="ALP25" s="0"/>
-      <c r="ALQ25" s="0"/>
-      <c r="ALR25" s="0"/>
-      <c r="ALS25" s="0"/>
-      <c r="ALT25" s="0"/>
-      <c r="ALU25" s="0"/>
-      <c r="ALV25" s="0"/>
-      <c r="ALW25" s="0"/>
-      <c r="ALX25" s="0"/>
-      <c r="ALY25" s="0"/>
-      <c r="ALZ25" s="0"/>
-      <c r="AMA25" s="0"/>
-      <c r="AMB25" s="0"/>
-      <c r="AMC25" s="0"/>
-      <c r="AMD25" s="0"/>
-      <c r="AME25" s="0"/>
-      <c r="AMF25" s="0"/>
-      <c r="AMG25" s="0"/>
-      <c r="AMH25" s="0"/>
-      <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C26" s="0"/>
-      <c r="D26" s="0" t="s">
-        <v>26</v>
-      </c>
+      <c r="D26" s="0"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -21004,17 +22068,17 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0" t="s">
+        <v>7</v>
       </c>
-      <c r="D27" s="0"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
@@ -22036,12 +23100,12 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -23068,1045 +24132,1045 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+      <c r="AE29" s="0"/>
+      <c r="AF29" s="0"/>
+      <c r="AG29" s="0"/>
+      <c r="AH29" s="0"/>
+      <c r="AI29" s="0"/>
+      <c r="AJ29" s="0"/>
+      <c r="AK29" s="0"/>
+      <c r="AL29" s="0"/>
+      <c r="AM29" s="0"/>
+      <c r="AN29" s="0"/>
+      <c r="AO29" s="0"/>
+      <c r="AP29" s="0"/>
+      <c r="AQ29" s="0"/>
+      <c r="AR29" s="0"/>
+      <c r="AS29" s="0"/>
+      <c r="AT29" s="0"/>
+      <c r="AU29" s="0"/>
+      <c r="AV29" s="0"/>
+      <c r="AW29" s="0"/>
+      <c r="AX29" s="0"/>
+      <c r="AY29" s="0"/>
+      <c r="AZ29" s="0"/>
+      <c r="BA29" s="0"/>
+      <c r="BB29" s="0"/>
+      <c r="BC29" s="0"/>
+      <c r="BD29" s="0"/>
+      <c r="BE29" s="0"/>
+      <c r="BF29" s="0"/>
+      <c r="BG29" s="0"/>
+      <c r="BH29" s="0"/>
+      <c r="BI29" s="0"/>
+      <c r="BJ29" s="0"/>
+      <c r="BK29" s="0"/>
+      <c r="BL29" s="0"/>
+      <c r="BM29" s="0"/>
+      <c r="BN29" s="0"/>
+      <c r="BO29" s="0"/>
+      <c r="BP29" s="0"/>
+      <c r="BQ29" s="0"/>
+      <c r="BR29" s="0"/>
+      <c r="BS29" s="0"/>
+      <c r="BT29" s="0"/>
+      <c r="BU29" s="0"/>
+      <c r="BV29" s="0"/>
+      <c r="BW29" s="0"/>
+      <c r="BX29" s="0"/>
+      <c r="BY29" s="0"/>
+      <c r="BZ29" s="0"/>
+      <c r="CA29" s="0"/>
+      <c r="CB29" s="0"/>
+      <c r="CC29" s="0"/>
+      <c r="CD29" s="0"/>
+      <c r="CE29" s="0"/>
+      <c r="CF29" s="0"/>
+      <c r="CG29" s="0"/>
+      <c r="CH29" s="0"/>
+      <c r="CI29" s="0"/>
+      <c r="CJ29" s="0"/>
+      <c r="CK29" s="0"/>
+      <c r="CL29" s="0"/>
+      <c r="CM29" s="0"/>
+      <c r="CN29" s="0"/>
+      <c r="CO29" s="0"/>
+      <c r="CP29" s="0"/>
+      <c r="CQ29" s="0"/>
+      <c r="CR29" s="0"/>
+      <c r="CS29" s="0"/>
+      <c r="CT29" s="0"/>
+      <c r="CU29" s="0"/>
+      <c r="CV29" s="0"/>
+      <c r="CW29" s="0"/>
+      <c r="CX29" s="0"/>
+      <c r="CY29" s="0"/>
+      <c r="CZ29" s="0"/>
+      <c r="DA29" s="0"/>
+      <c r="DB29" s="0"/>
+      <c r="DC29" s="0"/>
+      <c r="DD29" s="0"/>
+      <c r="DE29" s="0"/>
+      <c r="DF29" s="0"/>
+      <c r="DG29" s="0"/>
+      <c r="DH29" s="0"/>
+      <c r="DI29" s="0"/>
+      <c r="DJ29" s="0"/>
+      <c r="DK29" s="0"/>
+      <c r="DL29" s="0"/>
+      <c r="DM29" s="0"/>
+      <c r="DN29" s="0"/>
+      <c r="DO29" s="0"/>
+      <c r="DP29" s="0"/>
+      <c r="DQ29" s="0"/>
+      <c r="DR29" s="0"/>
+      <c r="DS29" s="0"/>
+      <c r="DT29" s="0"/>
+      <c r="DU29" s="0"/>
+      <c r="DV29" s="0"/>
+      <c r="DW29" s="0"/>
+      <c r="DX29" s="0"/>
+      <c r="DY29" s="0"/>
+      <c r="DZ29" s="0"/>
+      <c r="EA29" s="0"/>
+      <c r="EB29" s="0"/>
+      <c r="EC29" s="0"/>
+      <c r="ED29" s="0"/>
+      <c r="EE29" s="0"/>
+      <c r="EF29" s="0"/>
+      <c r="EG29" s="0"/>
+      <c r="EH29" s="0"/>
+      <c r="EI29" s="0"/>
+      <c r="EJ29" s="0"/>
+      <c r="EK29" s="0"/>
+      <c r="EL29" s="0"/>
+      <c r="EM29" s="0"/>
+      <c r="EN29" s="0"/>
+      <c r="EO29" s="0"/>
+      <c r="EP29" s="0"/>
+      <c r="EQ29" s="0"/>
+      <c r="ER29" s="0"/>
+      <c r="ES29" s="0"/>
+      <c r="ET29" s="0"/>
+      <c r="EU29" s="0"/>
+      <c r="EV29" s="0"/>
+      <c r="EW29" s="0"/>
+      <c r="EX29" s="0"/>
+      <c r="EY29" s="0"/>
+      <c r="EZ29" s="0"/>
+      <c r="FA29" s="0"/>
+      <c r="FB29" s="0"/>
+      <c r="FC29" s="0"/>
+      <c r="FD29" s="0"/>
+      <c r="FE29" s="0"/>
+      <c r="FF29" s="0"/>
+      <c r="FG29" s="0"/>
+      <c r="FH29" s="0"/>
+      <c r="FI29" s="0"/>
+      <c r="FJ29" s="0"/>
+      <c r="FK29" s="0"/>
+      <c r="FL29" s="0"/>
+      <c r="FM29" s="0"/>
+      <c r="FN29" s="0"/>
+      <c r="FO29" s="0"/>
+      <c r="FP29" s="0"/>
+      <c r="FQ29" s="0"/>
+      <c r="FR29" s="0"/>
+      <c r="FS29" s="0"/>
+      <c r="FT29" s="0"/>
+      <c r="FU29" s="0"/>
+      <c r="FV29" s="0"/>
+      <c r="FW29" s="0"/>
+      <c r="FX29" s="0"/>
+      <c r="FY29" s="0"/>
+      <c r="FZ29" s="0"/>
+      <c r="GA29" s="0"/>
+      <c r="GB29" s="0"/>
+      <c r="GC29" s="0"/>
+      <c r="GD29" s="0"/>
+      <c r="GE29" s="0"/>
+      <c r="GF29" s="0"/>
+      <c r="GG29" s="0"/>
+      <c r="GH29" s="0"/>
+      <c r="GI29" s="0"/>
+      <c r="GJ29" s="0"/>
+      <c r="GK29" s="0"/>
+      <c r="GL29" s="0"/>
+      <c r="GM29" s="0"/>
+      <c r="GN29" s="0"/>
+      <c r="GO29" s="0"/>
+      <c r="GP29" s="0"/>
+      <c r="GQ29" s="0"/>
+      <c r="GR29" s="0"/>
+      <c r="GS29" s="0"/>
+      <c r="GT29" s="0"/>
+      <c r="GU29" s="0"/>
+      <c r="GV29" s="0"/>
+      <c r="GW29" s="0"/>
+      <c r="GX29" s="0"/>
+      <c r="GY29" s="0"/>
+      <c r="GZ29" s="0"/>
+      <c r="HA29" s="0"/>
+      <c r="HB29" s="0"/>
+      <c r="HC29" s="0"/>
+      <c r="HD29" s="0"/>
+      <c r="HE29" s="0"/>
+      <c r="HF29" s="0"/>
+      <c r="HG29" s="0"/>
+      <c r="HH29" s="0"/>
+      <c r="HI29" s="0"/>
+      <c r="HJ29" s="0"/>
+      <c r="HK29" s="0"/>
+      <c r="HL29" s="0"/>
+      <c r="HM29" s="0"/>
+      <c r="HN29" s="0"/>
+      <c r="HO29" s="0"/>
+      <c r="HP29" s="0"/>
+      <c r="HQ29" s="0"/>
+      <c r="HR29" s="0"/>
+      <c r="HS29" s="0"/>
+      <c r="HT29" s="0"/>
+      <c r="HU29" s="0"/>
+      <c r="HV29" s="0"/>
+      <c r="HW29" s="0"/>
+      <c r="HX29" s="0"/>
+      <c r="HY29" s="0"/>
+      <c r="HZ29" s="0"/>
+      <c r="IA29" s="0"/>
+      <c r="IB29" s="0"/>
+      <c r="IC29" s="0"/>
+      <c r="ID29" s="0"/>
+      <c r="IE29" s="0"/>
+      <c r="IF29" s="0"/>
+      <c r="IG29" s="0"/>
+      <c r="IH29" s="0"/>
+      <c r="II29" s="0"/>
+      <c r="IJ29" s="0"/>
+      <c r="IK29" s="0"/>
+      <c r="IL29" s="0"/>
+      <c r="IM29" s="0"/>
+      <c r="IN29" s="0"/>
+      <c r="IO29" s="0"/>
+      <c r="IP29" s="0"/>
+      <c r="IQ29" s="0"/>
+      <c r="IR29" s="0"/>
+      <c r="IS29" s="0"/>
+      <c r="IT29" s="0"/>
+      <c r="IU29" s="0"/>
+      <c r="IV29" s="0"/>
+      <c r="IW29" s="0"/>
+      <c r="IX29" s="0"/>
+      <c r="IY29" s="0"/>
+      <c r="IZ29" s="0"/>
+      <c r="JA29" s="0"/>
+      <c r="JB29" s="0"/>
+      <c r="JC29" s="0"/>
+      <c r="JD29" s="0"/>
+      <c r="JE29" s="0"/>
+      <c r="JF29" s="0"/>
+      <c r="JG29" s="0"/>
+      <c r="JH29" s="0"/>
+      <c r="JI29" s="0"/>
+      <c r="JJ29" s="0"/>
+      <c r="JK29" s="0"/>
+      <c r="JL29" s="0"/>
+      <c r="JM29" s="0"/>
+      <c r="JN29" s="0"/>
+      <c r="JO29" s="0"/>
+      <c r="JP29" s="0"/>
+      <c r="JQ29" s="0"/>
+      <c r="JR29" s="0"/>
+      <c r="JS29" s="0"/>
+      <c r="JT29" s="0"/>
+      <c r="JU29" s="0"/>
+      <c r="JV29" s="0"/>
+      <c r="JW29" s="0"/>
+      <c r="JX29" s="0"/>
+      <c r="JY29" s="0"/>
+      <c r="JZ29" s="0"/>
+      <c r="KA29" s="0"/>
+      <c r="KB29" s="0"/>
+      <c r="KC29" s="0"/>
+      <c r="KD29" s="0"/>
+      <c r="KE29" s="0"/>
+      <c r="KF29" s="0"/>
+      <c r="KG29" s="0"/>
+      <c r="KH29" s="0"/>
+      <c r="KI29" s="0"/>
+      <c r="KJ29" s="0"/>
+      <c r="KK29" s="0"/>
+      <c r="KL29" s="0"/>
+      <c r="KM29" s="0"/>
+      <c r="KN29" s="0"/>
+      <c r="KO29" s="0"/>
+      <c r="KP29" s="0"/>
+      <c r="KQ29" s="0"/>
+      <c r="KR29" s="0"/>
+      <c r="KS29" s="0"/>
+      <c r="KT29" s="0"/>
+      <c r="KU29" s="0"/>
+      <c r="KV29" s="0"/>
+      <c r="KW29" s="0"/>
+      <c r="KX29" s="0"/>
+      <c r="KY29" s="0"/>
+      <c r="KZ29" s="0"/>
+      <c r="LA29" s="0"/>
+      <c r="LB29" s="0"/>
+      <c r="LC29" s="0"/>
+      <c r="LD29" s="0"/>
+      <c r="LE29" s="0"/>
+      <c r="LF29" s="0"/>
+      <c r="LG29" s="0"/>
+      <c r="LH29" s="0"/>
+      <c r="LI29" s="0"/>
+      <c r="LJ29" s="0"/>
+      <c r="LK29" s="0"/>
+      <c r="LL29" s="0"/>
+      <c r="LM29" s="0"/>
+      <c r="LN29" s="0"/>
+      <c r="LO29" s="0"/>
+      <c r="LP29" s="0"/>
+      <c r="LQ29" s="0"/>
+      <c r="LR29" s="0"/>
+      <c r="LS29" s="0"/>
+      <c r="LT29" s="0"/>
+      <c r="LU29" s="0"/>
+      <c r="LV29" s="0"/>
+      <c r="LW29" s="0"/>
+      <c r="LX29" s="0"/>
+      <c r="LY29" s="0"/>
+      <c r="LZ29" s="0"/>
+      <c r="MA29" s="0"/>
+      <c r="MB29" s="0"/>
+      <c r="MC29" s="0"/>
+      <c r="MD29" s="0"/>
+      <c r="ME29" s="0"/>
+      <c r="MF29" s="0"/>
+      <c r="MG29" s="0"/>
+      <c r="MH29" s="0"/>
+      <c r="MI29" s="0"/>
+      <c r="MJ29" s="0"/>
+      <c r="MK29" s="0"/>
+      <c r="ML29" s="0"/>
+      <c r="MM29" s="0"/>
+      <c r="MN29" s="0"/>
+      <c r="MO29" s="0"/>
+      <c r="MP29" s="0"/>
+      <c r="MQ29" s="0"/>
+      <c r="MR29" s="0"/>
+      <c r="MS29" s="0"/>
+      <c r="MT29" s="0"/>
+      <c r="MU29" s="0"/>
+      <c r="MV29" s="0"/>
+      <c r="MW29" s="0"/>
+      <c r="MX29" s="0"/>
+      <c r="MY29" s="0"/>
+      <c r="MZ29" s="0"/>
+      <c r="NA29" s="0"/>
+      <c r="NB29" s="0"/>
+      <c r="NC29" s="0"/>
+      <c r="ND29" s="0"/>
+      <c r="NE29" s="0"/>
+      <c r="NF29" s="0"/>
+      <c r="NG29" s="0"/>
+      <c r="NH29" s="0"/>
+      <c r="NI29" s="0"/>
+      <c r="NJ29" s="0"/>
+      <c r="NK29" s="0"/>
+      <c r="NL29" s="0"/>
+      <c r="NM29" s="0"/>
+      <c r="NN29" s="0"/>
+      <c r="NO29" s="0"/>
+      <c r="NP29" s="0"/>
+      <c r="NQ29" s="0"/>
+      <c r="NR29" s="0"/>
+      <c r="NS29" s="0"/>
+      <c r="NT29" s="0"/>
+      <c r="NU29" s="0"/>
+      <c r="NV29" s="0"/>
+      <c r="NW29" s="0"/>
+      <c r="NX29" s="0"/>
+      <c r="NY29" s="0"/>
+      <c r="NZ29" s="0"/>
+      <c r="OA29" s="0"/>
+      <c r="OB29" s="0"/>
+      <c r="OC29" s="0"/>
+      <c r="OD29" s="0"/>
+      <c r="OE29" s="0"/>
+      <c r="OF29" s="0"/>
+      <c r="OG29" s="0"/>
+      <c r="OH29" s="0"/>
+      <c r="OI29" s="0"/>
+      <c r="OJ29" s="0"/>
+      <c r="OK29" s="0"/>
+      <c r="OL29" s="0"/>
+      <c r="OM29" s="0"/>
+      <c r="ON29" s="0"/>
+      <c r="OO29" s="0"/>
+      <c r="OP29" s="0"/>
+      <c r="OQ29" s="0"/>
+      <c r="OR29" s="0"/>
+      <c r="OS29" s="0"/>
+      <c r="OT29" s="0"/>
+      <c r="OU29" s="0"/>
+      <c r="OV29" s="0"/>
+      <c r="OW29" s="0"/>
+      <c r="OX29" s="0"/>
+      <c r="OY29" s="0"/>
+      <c r="OZ29" s="0"/>
+      <c r="PA29" s="0"/>
+      <c r="PB29" s="0"/>
+      <c r="PC29" s="0"/>
+      <c r="PD29" s="0"/>
+      <c r="PE29" s="0"/>
+      <c r="PF29" s="0"/>
+      <c r="PG29" s="0"/>
+      <c r="PH29" s="0"/>
+      <c r="PI29" s="0"/>
+      <c r="PJ29" s="0"/>
+      <c r="PK29" s="0"/>
+      <c r="PL29" s="0"/>
+      <c r="PM29" s="0"/>
+      <c r="PN29" s="0"/>
+      <c r="PO29" s="0"/>
+      <c r="PP29" s="0"/>
+      <c r="PQ29" s="0"/>
+      <c r="PR29" s="0"/>
+      <c r="PS29" s="0"/>
+      <c r="PT29" s="0"/>
+      <c r="PU29" s="0"/>
+      <c r="PV29" s="0"/>
+      <c r="PW29" s="0"/>
+      <c r="PX29" s="0"/>
+      <c r="PY29" s="0"/>
+      <c r="PZ29" s="0"/>
+      <c r="QA29" s="0"/>
+      <c r="QB29" s="0"/>
+      <c r="QC29" s="0"/>
+      <c r="QD29" s="0"/>
+      <c r="QE29" s="0"/>
+      <c r="QF29" s="0"/>
+      <c r="QG29" s="0"/>
+      <c r="QH29" s="0"/>
+      <c r="QI29" s="0"/>
+      <c r="QJ29" s="0"/>
+      <c r="QK29" s="0"/>
+      <c r="QL29" s="0"/>
+      <c r="QM29" s="0"/>
+      <c r="QN29" s="0"/>
+      <c r="QO29" s="0"/>
+      <c r="QP29" s="0"/>
+      <c r="QQ29" s="0"/>
+      <c r="QR29" s="0"/>
+      <c r="QS29" s="0"/>
+      <c r="QT29" s="0"/>
+      <c r="QU29" s="0"/>
+      <c r="QV29" s="0"/>
+      <c r="QW29" s="0"/>
+      <c r="QX29" s="0"/>
+      <c r="QY29" s="0"/>
+      <c r="QZ29" s="0"/>
+      <c r="RA29" s="0"/>
+      <c r="RB29" s="0"/>
+      <c r="RC29" s="0"/>
+      <c r="RD29" s="0"/>
+      <c r="RE29" s="0"/>
+      <c r="RF29" s="0"/>
+      <c r="RG29" s="0"/>
+      <c r="RH29" s="0"/>
+      <c r="RI29" s="0"/>
+      <c r="RJ29" s="0"/>
+      <c r="RK29" s="0"/>
+      <c r="RL29" s="0"/>
+      <c r="RM29" s="0"/>
+      <c r="RN29" s="0"/>
+      <c r="RO29" s="0"/>
+      <c r="RP29" s="0"/>
+      <c r="RQ29" s="0"/>
+      <c r="RR29" s="0"/>
+      <c r="RS29" s="0"/>
+      <c r="RT29" s="0"/>
+      <c r="RU29" s="0"/>
+      <c r="RV29" s="0"/>
+      <c r="RW29" s="0"/>
+      <c r="RX29" s="0"/>
+      <c r="RY29" s="0"/>
+      <c r="RZ29" s="0"/>
+      <c r="SA29" s="0"/>
+      <c r="SB29" s="0"/>
+      <c r="SC29" s="0"/>
+      <c r="SD29" s="0"/>
+      <c r="SE29" s="0"/>
+      <c r="SF29" s="0"/>
+      <c r="SG29" s="0"/>
+      <c r="SH29" s="0"/>
+      <c r="SI29" s="0"/>
+      <c r="SJ29" s="0"/>
+      <c r="SK29" s="0"/>
+      <c r="SL29" s="0"/>
+      <c r="SM29" s="0"/>
+      <c r="SN29" s="0"/>
+      <c r="SO29" s="0"/>
+      <c r="SP29" s="0"/>
+      <c r="SQ29" s="0"/>
+      <c r="SR29" s="0"/>
+      <c r="SS29" s="0"/>
+      <c r="ST29" s="0"/>
+      <c r="SU29" s="0"/>
+      <c r="SV29" s="0"/>
+      <c r="SW29" s="0"/>
+      <c r="SX29" s="0"/>
+      <c r="SY29" s="0"/>
+      <c r="SZ29" s="0"/>
+      <c r="TA29" s="0"/>
+      <c r="TB29" s="0"/>
+      <c r="TC29" s="0"/>
+      <c r="TD29" s="0"/>
+      <c r="TE29" s="0"/>
+      <c r="TF29" s="0"/>
+      <c r="TG29" s="0"/>
+      <c r="TH29" s="0"/>
+      <c r="TI29" s="0"/>
+      <c r="TJ29" s="0"/>
+      <c r="TK29" s="0"/>
+      <c r="TL29" s="0"/>
+      <c r="TM29" s="0"/>
+      <c r="TN29" s="0"/>
+      <c r="TO29" s="0"/>
+      <c r="TP29" s="0"/>
+      <c r="TQ29" s="0"/>
+      <c r="TR29" s="0"/>
+      <c r="TS29" s="0"/>
+      <c r="TT29" s="0"/>
+      <c r="TU29" s="0"/>
+      <c r="TV29" s="0"/>
+      <c r="TW29" s="0"/>
+      <c r="TX29" s="0"/>
+      <c r="TY29" s="0"/>
+      <c r="TZ29" s="0"/>
+      <c r="UA29" s="0"/>
+      <c r="UB29" s="0"/>
+      <c r="UC29" s="0"/>
+      <c r="UD29" s="0"/>
+      <c r="UE29" s="0"/>
+      <c r="UF29" s="0"/>
+      <c r="UG29" s="0"/>
+      <c r="UH29" s="0"/>
+      <c r="UI29" s="0"/>
+      <c r="UJ29" s="0"/>
+      <c r="UK29" s="0"/>
+      <c r="UL29" s="0"/>
+      <c r="UM29" s="0"/>
+      <c r="UN29" s="0"/>
+      <c r="UO29" s="0"/>
+      <c r="UP29" s="0"/>
+      <c r="UQ29" s="0"/>
+      <c r="UR29" s="0"/>
+      <c r="US29" s="0"/>
+      <c r="UT29" s="0"/>
+      <c r="UU29" s="0"/>
+      <c r="UV29" s="0"/>
+      <c r="UW29" s="0"/>
+      <c r="UX29" s="0"/>
+      <c r="UY29" s="0"/>
+      <c r="UZ29" s="0"/>
+      <c r="VA29" s="0"/>
+      <c r="VB29" s="0"/>
+      <c r="VC29" s="0"/>
+      <c r="VD29" s="0"/>
+      <c r="VE29" s="0"/>
+      <c r="VF29" s="0"/>
+      <c r="VG29" s="0"/>
+      <c r="VH29" s="0"/>
+      <c r="VI29" s="0"/>
+      <c r="VJ29" s="0"/>
+      <c r="VK29" s="0"/>
+      <c r="VL29" s="0"/>
+      <c r="VM29" s="0"/>
+      <c r="VN29" s="0"/>
+      <c r="VO29" s="0"/>
+      <c r="VP29" s="0"/>
+      <c r="VQ29" s="0"/>
+      <c r="VR29" s="0"/>
+      <c r="VS29" s="0"/>
+      <c r="VT29" s="0"/>
+      <c r="VU29" s="0"/>
+      <c r="VV29" s="0"/>
+      <c r="VW29" s="0"/>
+      <c r="VX29" s="0"/>
+      <c r="VY29" s="0"/>
+      <c r="VZ29" s="0"/>
+      <c r="WA29" s="0"/>
+      <c r="WB29" s="0"/>
+      <c r="WC29" s="0"/>
+      <c r="WD29" s="0"/>
+      <c r="WE29" s="0"/>
+      <c r="WF29" s="0"/>
+      <c r="WG29" s="0"/>
+      <c r="WH29" s="0"/>
+      <c r="WI29" s="0"/>
+      <c r="WJ29" s="0"/>
+      <c r="WK29" s="0"/>
+      <c r="WL29" s="0"/>
+      <c r="WM29" s="0"/>
+      <c r="WN29" s="0"/>
+      <c r="WO29" s="0"/>
+      <c r="WP29" s="0"/>
+      <c r="WQ29" s="0"/>
+      <c r="WR29" s="0"/>
+      <c r="WS29" s="0"/>
+      <c r="WT29" s="0"/>
+      <c r="WU29" s="0"/>
+      <c r="WV29" s="0"/>
+      <c r="WW29" s="0"/>
+      <c r="WX29" s="0"/>
+      <c r="WY29" s="0"/>
+      <c r="WZ29" s="0"/>
+      <c r="XA29" s="0"/>
+      <c r="XB29" s="0"/>
+      <c r="XC29" s="0"/>
+      <c r="XD29" s="0"/>
+      <c r="XE29" s="0"/>
+      <c r="XF29" s="0"/>
+      <c r="XG29" s="0"/>
+      <c r="XH29" s="0"/>
+      <c r="XI29" s="0"/>
+      <c r="XJ29" s="0"/>
+      <c r="XK29" s="0"/>
+      <c r="XL29" s="0"/>
+      <c r="XM29" s="0"/>
+      <c r="XN29" s="0"/>
+      <c r="XO29" s="0"/>
+      <c r="XP29" s="0"/>
+      <c r="XQ29" s="0"/>
+      <c r="XR29" s="0"/>
+      <c r="XS29" s="0"/>
+      <c r="XT29" s="0"/>
+      <c r="XU29" s="0"/>
+      <c r="XV29" s="0"/>
+      <c r="XW29" s="0"/>
+      <c r="XX29" s="0"/>
+      <c r="XY29" s="0"/>
+      <c r="XZ29" s="0"/>
+      <c r="YA29" s="0"/>
+      <c r="YB29" s="0"/>
+      <c r="YC29" s="0"/>
+      <c r="YD29" s="0"/>
+      <c r="YE29" s="0"/>
+      <c r="YF29" s="0"/>
+      <c r="YG29" s="0"/>
+      <c r="YH29" s="0"/>
+      <c r="YI29" s="0"/>
+      <c r="YJ29" s="0"/>
+      <c r="YK29" s="0"/>
+      <c r="YL29" s="0"/>
+      <c r="YM29" s="0"/>
+      <c r="YN29" s="0"/>
+      <c r="YO29" s="0"/>
+      <c r="YP29" s="0"/>
+      <c r="YQ29" s="0"/>
+      <c r="YR29" s="0"/>
+      <c r="YS29" s="0"/>
+      <c r="YT29" s="0"/>
+      <c r="YU29" s="0"/>
+      <c r="YV29" s="0"/>
+      <c r="YW29" s="0"/>
+      <c r="YX29" s="0"/>
+      <c r="YY29" s="0"/>
+      <c r="YZ29" s="0"/>
+      <c r="ZA29" s="0"/>
+      <c r="ZB29" s="0"/>
+      <c r="ZC29" s="0"/>
+      <c r="ZD29" s="0"/>
+      <c r="ZE29" s="0"/>
+      <c r="ZF29" s="0"/>
+      <c r="ZG29" s="0"/>
+      <c r="ZH29" s="0"/>
+      <c r="ZI29" s="0"/>
+      <c r="ZJ29" s="0"/>
+      <c r="ZK29" s="0"/>
+      <c r="ZL29" s="0"/>
+      <c r="ZM29" s="0"/>
+      <c r="ZN29" s="0"/>
+      <c r="ZO29" s="0"/>
+      <c r="ZP29" s="0"/>
+      <c r="ZQ29" s="0"/>
+      <c r="ZR29" s="0"/>
+      <c r="ZS29" s="0"/>
+      <c r="ZT29" s="0"/>
+      <c r="ZU29" s="0"/>
+      <c r="ZV29" s="0"/>
+      <c r="ZW29" s="0"/>
+      <c r="ZX29" s="0"/>
+      <c r="ZY29" s="0"/>
+      <c r="ZZ29" s="0"/>
+      <c r="AAA29" s="0"/>
+      <c r="AAB29" s="0"/>
+      <c r="AAC29" s="0"/>
+      <c r="AAD29" s="0"/>
+      <c r="AAE29" s="0"/>
+      <c r="AAF29" s="0"/>
+      <c r="AAG29" s="0"/>
+      <c r="AAH29" s="0"/>
+      <c r="AAI29" s="0"/>
+      <c r="AAJ29" s="0"/>
+      <c r="AAK29" s="0"/>
+      <c r="AAL29" s="0"/>
+      <c r="AAM29" s="0"/>
+      <c r="AAN29" s="0"/>
+      <c r="AAO29" s="0"/>
+      <c r="AAP29" s="0"/>
+      <c r="AAQ29" s="0"/>
+      <c r="AAR29" s="0"/>
+      <c r="AAS29" s="0"/>
+      <c r="AAT29" s="0"/>
+      <c r="AAU29" s="0"/>
+      <c r="AAV29" s="0"/>
+      <c r="AAW29" s="0"/>
+      <c r="AAX29" s="0"/>
+      <c r="AAY29" s="0"/>
+      <c r="AAZ29" s="0"/>
+      <c r="ABA29" s="0"/>
+      <c r="ABB29" s="0"/>
+      <c r="ABC29" s="0"/>
+      <c r="ABD29" s="0"/>
+      <c r="ABE29" s="0"/>
+      <c r="ABF29" s="0"/>
+      <c r="ABG29" s="0"/>
+      <c r="ABH29" s="0"/>
+      <c r="ABI29" s="0"/>
+      <c r="ABJ29" s="0"/>
+      <c r="ABK29" s="0"/>
+      <c r="ABL29" s="0"/>
+      <c r="ABM29" s="0"/>
+      <c r="ABN29" s="0"/>
+      <c r="ABO29" s="0"/>
+      <c r="ABP29" s="0"/>
+      <c r="ABQ29" s="0"/>
+      <c r="ABR29" s="0"/>
+      <c r="ABS29" s="0"/>
+      <c r="ABT29" s="0"/>
+      <c r="ABU29" s="0"/>
+      <c r="ABV29" s="0"/>
+      <c r="ABW29" s="0"/>
+      <c r="ABX29" s="0"/>
+      <c r="ABY29" s="0"/>
+      <c r="ABZ29" s="0"/>
+      <c r="ACA29" s="0"/>
+      <c r="ACB29" s="0"/>
+      <c r="ACC29" s="0"/>
+      <c r="ACD29" s="0"/>
+      <c r="ACE29" s="0"/>
+      <c r="ACF29" s="0"/>
+      <c r="ACG29" s="0"/>
+      <c r="ACH29" s="0"/>
+      <c r="ACI29" s="0"/>
+      <c r="ACJ29" s="0"/>
+      <c r="ACK29" s="0"/>
+      <c r="ACL29" s="0"/>
+      <c r="ACM29" s="0"/>
+      <c r="ACN29" s="0"/>
+      <c r="ACO29" s="0"/>
+      <c r="ACP29" s="0"/>
+      <c r="ACQ29" s="0"/>
+      <c r="ACR29" s="0"/>
+      <c r="ACS29" s="0"/>
+      <c r="ACT29" s="0"/>
+      <c r="ACU29" s="0"/>
+      <c r="ACV29" s="0"/>
+      <c r="ACW29" s="0"/>
+      <c r="ACX29" s="0"/>
+      <c r="ACY29" s="0"/>
+      <c r="ACZ29" s="0"/>
+      <c r="ADA29" s="0"/>
+      <c r="ADB29" s="0"/>
+      <c r="ADC29" s="0"/>
+      <c r="ADD29" s="0"/>
+      <c r="ADE29" s="0"/>
+      <c r="ADF29" s="0"/>
+      <c r="ADG29" s="0"/>
+      <c r="ADH29" s="0"/>
+      <c r="ADI29" s="0"/>
+      <c r="ADJ29" s="0"/>
+      <c r="ADK29" s="0"/>
+      <c r="ADL29" s="0"/>
+      <c r="ADM29" s="0"/>
+      <c r="ADN29" s="0"/>
+      <c r="ADO29" s="0"/>
+      <c r="ADP29" s="0"/>
+      <c r="ADQ29" s="0"/>
+      <c r="ADR29" s="0"/>
+      <c r="ADS29" s="0"/>
+      <c r="ADT29" s="0"/>
+      <c r="ADU29" s="0"/>
+      <c r="ADV29" s="0"/>
+      <c r="ADW29" s="0"/>
+      <c r="ADX29" s="0"/>
+      <c r="ADY29" s="0"/>
+      <c r="ADZ29" s="0"/>
+      <c r="AEA29" s="0"/>
+      <c r="AEB29" s="0"/>
+      <c r="AEC29" s="0"/>
+      <c r="AED29" s="0"/>
+      <c r="AEE29" s="0"/>
+      <c r="AEF29" s="0"/>
+      <c r="AEG29" s="0"/>
+      <c r="AEH29" s="0"/>
+      <c r="AEI29" s="0"/>
+      <c r="AEJ29" s="0"/>
+      <c r="AEK29" s="0"/>
+      <c r="AEL29" s="0"/>
+      <c r="AEM29" s="0"/>
+      <c r="AEN29" s="0"/>
+      <c r="AEO29" s="0"/>
+      <c r="AEP29" s="0"/>
+      <c r="AEQ29" s="0"/>
+      <c r="AER29" s="0"/>
+      <c r="AES29" s="0"/>
+      <c r="AET29" s="0"/>
+      <c r="AEU29" s="0"/>
+      <c r="AEV29" s="0"/>
+      <c r="AEW29" s="0"/>
+      <c r="AEX29" s="0"/>
+      <c r="AEY29" s="0"/>
+      <c r="AEZ29" s="0"/>
+      <c r="AFA29" s="0"/>
+      <c r="AFB29" s="0"/>
+      <c r="AFC29" s="0"/>
+      <c r="AFD29" s="0"/>
+      <c r="AFE29" s="0"/>
+      <c r="AFF29" s="0"/>
+      <c r="AFG29" s="0"/>
+      <c r="AFH29" s="0"/>
+      <c r="AFI29" s="0"/>
+      <c r="AFJ29" s="0"/>
+      <c r="AFK29" s="0"/>
+      <c r="AFL29" s="0"/>
+      <c r="AFM29" s="0"/>
+      <c r="AFN29" s="0"/>
+      <c r="AFO29" s="0"/>
+      <c r="AFP29" s="0"/>
+      <c r="AFQ29" s="0"/>
+      <c r="AFR29" s="0"/>
+      <c r="AFS29" s="0"/>
+      <c r="AFT29" s="0"/>
+      <c r="AFU29" s="0"/>
+      <c r="AFV29" s="0"/>
+      <c r="AFW29" s="0"/>
+      <c r="AFX29" s="0"/>
+      <c r="AFY29" s="0"/>
+      <c r="AFZ29" s="0"/>
+      <c r="AGA29" s="0"/>
+      <c r="AGB29" s="0"/>
+      <c r="AGC29" s="0"/>
+      <c r="AGD29" s="0"/>
+      <c r="AGE29" s="0"/>
+      <c r="AGF29" s="0"/>
+      <c r="AGG29" s="0"/>
+      <c r="AGH29" s="0"/>
+      <c r="AGI29" s="0"/>
+      <c r="AGJ29" s="0"/>
+      <c r="AGK29" s="0"/>
+      <c r="AGL29" s="0"/>
+      <c r="AGM29" s="0"/>
+      <c r="AGN29" s="0"/>
+      <c r="AGO29" s="0"/>
+      <c r="AGP29" s="0"/>
+      <c r="AGQ29" s="0"/>
+      <c r="AGR29" s="0"/>
+      <c r="AGS29" s="0"/>
+      <c r="AGT29" s="0"/>
+      <c r="AGU29" s="0"/>
+      <c r="AGV29" s="0"/>
+      <c r="AGW29" s="0"/>
+      <c r="AGX29" s="0"/>
+      <c r="AGY29" s="0"/>
+      <c r="AGZ29" s="0"/>
+      <c r="AHA29" s="0"/>
+      <c r="AHB29" s="0"/>
+      <c r="AHC29" s="0"/>
+      <c r="AHD29" s="0"/>
+      <c r="AHE29" s="0"/>
+      <c r="AHF29" s="0"/>
+      <c r="AHG29" s="0"/>
+      <c r="AHH29" s="0"/>
+      <c r="AHI29" s="0"/>
+      <c r="AHJ29" s="0"/>
+      <c r="AHK29" s="0"/>
+      <c r="AHL29" s="0"/>
+      <c r="AHM29" s="0"/>
+      <c r="AHN29" s="0"/>
+      <c r="AHO29" s="0"/>
+      <c r="AHP29" s="0"/>
+      <c r="AHQ29" s="0"/>
+      <c r="AHR29" s="0"/>
+      <c r="AHS29" s="0"/>
+      <c r="AHT29" s="0"/>
+      <c r="AHU29" s="0"/>
+      <c r="AHV29" s="0"/>
+      <c r="AHW29" s="0"/>
+      <c r="AHX29" s="0"/>
+      <c r="AHY29" s="0"/>
+      <c r="AHZ29" s="0"/>
+      <c r="AIA29" s="0"/>
+      <c r="AIB29" s="0"/>
+      <c r="AIC29" s="0"/>
+      <c r="AID29" s="0"/>
+      <c r="AIE29" s="0"/>
+      <c r="AIF29" s="0"/>
+      <c r="AIG29" s="0"/>
+      <c r="AIH29" s="0"/>
+      <c r="AII29" s="0"/>
+      <c r="AIJ29" s="0"/>
+      <c r="AIK29" s="0"/>
+      <c r="AIL29" s="0"/>
+      <c r="AIM29" s="0"/>
+      <c r="AIN29" s="0"/>
+      <c r="AIO29" s="0"/>
+      <c r="AIP29" s="0"/>
+      <c r="AIQ29" s="0"/>
+      <c r="AIR29" s="0"/>
+      <c r="AIS29" s="0"/>
+      <c r="AIT29" s="0"/>
+      <c r="AIU29" s="0"/>
+      <c r="AIV29" s="0"/>
+      <c r="AIW29" s="0"/>
+      <c r="AIX29" s="0"/>
+      <c r="AIY29" s="0"/>
+      <c r="AIZ29" s="0"/>
+      <c r="AJA29" s="0"/>
+      <c r="AJB29" s="0"/>
+      <c r="AJC29" s="0"/>
+      <c r="AJD29" s="0"/>
+      <c r="AJE29" s="0"/>
+      <c r="AJF29" s="0"/>
+      <c r="AJG29" s="0"/>
+      <c r="AJH29" s="0"/>
+      <c r="AJI29" s="0"/>
+      <c r="AJJ29" s="0"/>
+      <c r="AJK29" s="0"/>
+      <c r="AJL29" s="0"/>
+      <c r="AJM29" s="0"/>
+      <c r="AJN29" s="0"/>
+      <c r="AJO29" s="0"/>
+      <c r="AJP29" s="0"/>
+      <c r="AJQ29" s="0"/>
+      <c r="AJR29" s="0"/>
+      <c r="AJS29" s="0"/>
+      <c r="AJT29" s="0"/>
+      <c r="AJU29" s="0"/>
+      <c r="AJV29" s="0"/>
+      <c r="AJW29" s="0"/>
+      <c r="AJX29" s="0"/>
+      <c r="AJY29" s="0"/>
+      <c r="AJZ29" s="0"/>
+      <c r="AKA29" s="0"/>
+      <c r="AKB29" s="0"/>
+      <c r="AKC29" s="0"/>
+      <c r="AKD29" s="0"/>
+      <c r="AKE29" s="0"/>
+      <c r="AKF29" s="0"/>
+      <c r="AKG29" s="0"/>
+      <c r="AKH29" s="0"/>
+      <c r="AKI29" s="0"/>
+      <c r="AKJ29" s="0"/>
+      <c r="AKK29" s="0"/>
+      <c r="AKL29" s="0"/>
+      <c r="AKM29" s="0"/>
+      <c r="AKN29" s="0"/>
+      <c r="AKO29" s="0"/>
+      <c r="AKP29" s="0"/>
+      <c r="AKQ29" s="0"/>
+      <c r="AKR29" s="0"/>
+      <c r="AKS29" s="0"/>
+      <c r="AKT29" s="0"/>
+      <c r="AKU29" s="0"/>
+      <c r="AKV29" s="0"/>
+      <c r="AKW29" s="0"/>
+      <c r="AKX29" s="0"/>
+      <c r="AKY29" s="0"/>
+      <c r="AKZ29" s="0"/>
+      <c r="ALA29" s="0"/>
+      <c r="ALB29" s="0"/>
+      <c r="ALC29" s="0"/>
+      <c r="ALD29" s="0"/>
+      <c r="ALE29" s="0"/>
+      <c r="ALF29" s="0"/>
+      <c r="ALG29" s="0"/>
+      <c r="ALH29" s="0"/>
+      <c r="ALI29" s="0"/>
+      <c r="ALJ29" s="0"/>
+      <c r="ALK29" s="0"/>
+      <c r="ALL29" s="0"/>
+      <c r="ALM29" s="0"/>
+      <c r="ALN29" s="0"/>
+      <c r="ALO29" s="0"/>
+      <c r="ALP29" s="0"/>
+      <c r="ALQ29" s="0"/>
+      <c r="ALR29" s="0"/>
+      <c r="ALS29" s="0"/>
+      <c r="ALT29" s="0"/>
+      <c r="ALU29" s="0"/>
+      <c r="ALV29" s="0"/>
+      <c r="ALW29" s="0"/>
+      <c r="ALX29" s="0"/>
+      <c r="ALY29" s="0"/>
+      <c r="ALZ29" s="0"/>
+      <c r="AMA29" s="0"/>
+      <c r="AMB29" s="0"/>
+      <c r="AMC29" s="0"/>
+      <c r="AMD29" s="0"/>
+      <c r="AME29" s="0"/>
+      <c r="AMF29" s="0"/>
+      <c r="AMG29" s="0"/>
+      <c r="AMH29" s="0"/>
+      <c r="AMI29" s="0"/>
+      <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="0"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="0"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0"/>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
-      <c r="AB30" s="0"/>
-      <c r="AC30" s="0"/>
-      <c r="AD30" s="0"/>
-      <c r="AE30" s="0"/>
-      <c r="AF30" s="0"/>
-      <c r="AG30" s="0"/>
-      <c r="AH30" s="0"/>
-      <c r="AI30" s="0"/>
-      <c r="AJ30" s="0"/>
-      <c r="AK30" s="0"/>
-      <c r="AL30" s="0"/>
-      <c r="AM30" s="0"/>
-      <c r="AN30" s="0"/>
-      <c r="AO30" s="0"/>
-      <c r="AP30" s="0"/>
-      <c r="AQ30" s="0"/>
-      <c r="AR30" s="0"/>
-      <c r="AS30" s="0"/>
-      <c r="AT30" s="0"/>
-      <c r="AU30" s="0"/>
-      <c r="AV30" s="0"/>
-      <c r="AW30" s="0"/>
-      <c r="AX30" s="0"/>
-      <c r="AY30" s="0"/>
-      <c r="AZ30" s="0"/>
-      <c r="BA30" s="0"/>
-      <c r="BB30" s="0"/>
-      <c r="BC30" s="0"/>
-      <c r="BD30" s="0"/>
-      <c r="BE30" s="0"/>
-      <c r="BF30" s="0"/>
-      <c r="BG30" s="0"/>
-      <c r="BH30" s="0"/>
-      <c r="BI30" s="0"/>
-      <c r="BJ30" s="0"/>
-      <c r="BK30" s="0"/>
-      <c r="BL30" s="0"/>
-      <c r="BM30" s="0"/>
-      <c r="BN30" s="0"/>
-      <c r="BO30" s="0"/>
-      <c r="BP30" s="0"/>
-      <c r="BQ30" s="0"/>
-      <c r="BR30" s="0"/>
-      <c r="BS30" s="0"/>
-      <c r="BT30" s="0"/>
-      <c r="BU30" s="0"/>
-      <c r="BV30" s="0"/>
-      <c r="BW30" s="0"/>
-      <c r="BX30" s="0"/>
-      <c r="BY30" s="0"/>
-      <c r="BZ30" s="0"/>
-      <c r="CA30" s="0"/>
-      <c r="CB30" s="0"/>
-      <c r="CC30" s="0"/>
-      <c r="CD30" s="0"/>
-      <c r="CE30" s="0"/>
-      <c r="CF30" s="0"/>
-      <c r="CG30" s="0"/>
-      <c r="CH30" s="0"/>
-      <c r="CI30" s="0"/>
-      <c r="CJ30" s="0"/>
-      <c r="CK30" s="0"/>
-      <c r="CL30" s="0"/>
-      <c r="CM30" s="0"/>
-      <c r="CN30" s="0"/>
-      <c r="CO30" s="0"/>
-      <c r="CP30" s="0"/>
-      <c r="CQ30" s="0"/>
-      <c r="CR30" s="0"/>
-      <c r="CS30" s="0"/>
-      <c r="CT30" s="0"/>
-      <c r="CU30" s="0"/>
-      <c r="CV30" s="0"/>
-      <c r="CW30" s="0"/>
-      <c r="CX30" s="0"/>
-      <c r="CY30" s="0"/>
-      <c r="CZ30" s="0"/>
-      <c r="DA30" s="0"/>
-      <c r="DB30" s="0"/>
-      <c r="DC30" s="0"/>
-      <c r="DD30" s="0"/>
-      <c r="DE30" s="0"/>
-      <c r="DF30" s="0"/>
-      <c r="DG30" s="0"/>
-      <c r="DH30" s="0"/>
-      <c r="DI30" s="0"/>
-      <c r="DJ30" s="0"/>
-      <c r="DK30" s="0"/>
-      <c r="DL30" s="0"/>
-      <c r="DM30" s="0"/>
-      <c r="DN30" s="0"/>
-      <c r="DO30" s="0"/>
-      <c r="DP30" s="0"/>
-      <c r="DQ30" s="0"/>
-      <c r="DR30" s="0"/>
-      <c r="DS30" s="0"/>
-      <c r="DT30" s="0"/>
-      <c r="DU30" s="0"/>
-      <c r="DV30" s="0"/>
-      <c r="DW30" s="0"/>
-      <c r="DX30" s="0"/>
-      <c r="DY30" s="0"/>
-      <c r="DZ30" s="0"/>
-      <c r="EA30" s="0"/>
-      <c r="EB30" s="0"/>
-      <c r="EC30" s="0"/>
-      <c r="ED30" s="0"/>
-      <c r="EE30" s="0"/>
-      <c r="EF30" s="0"/>
-      <c r="EG30" s="0"/>
-      <c r="EH30" s="0"/>
-      <c r="EI30" s="0"/>
-      <c r="EJ30" s="0"/>
-      <c r="EK30" s="0"/>
-      <c r="EL30" s="0"/>
-      <c r="EM30" s="0"/>
-      <c r="EN30" s="0"/>
-      <c r="EO30" s="0"/>
-      <c r="EP30" s="0"/>
-      <c r="EQ30" s="0"/>
-      <c r="ER30" s="0"/>
-      <c r="ES30" s="0"/>
-      <c r="ET30" s="0"/>
-      <c r="EU30" s="0"/>
-      <c r="EV30" s="0"/>
-      <c r="EW30" s="0"/>
-      <c r="EX30" s="0"/>
-      <c r="EY30" s="0"/>
-      <c r="EZ30" s="0"/>
-      <c r="FA30" s="0"/>
-      <c r="FB30" s="0"/>
-      <c r="FC30" s="0"/>
-      <c r="FD30" s="0"/>
-      <c r="FE30" s="0"/>
-      <c r="FF30" s="0"/>
-      <c r="FG30" s="0"/>
-      <c r="FH30" s="0"/>
-      <c r="FI30" s="0"/>
-      <c r="FJ30" s="0"/>
-      <c r="FK30" s="0"/>
-      <c r="FL30" s="0"/>
-      <c r="FM30" s="0"/>
-      <c r="FN30" s="0"/>
-      <c r="FO30" s="0"/>
-      <c r="FP30" s="0"/>
-      <c r="FQ30" s="0"/>
-      <c r="FR30" s="0"/>
-      <c r="FS30" s="0"/>
-      <c r="FT30" s="0"/>
-      <c r="FU30" s="0"/>
-      <c r="FV30" s="0"/>
-      <c r="FW30" s="0"/>
-      <c r="FX30" s="0"/>
-      <c r="FY30" s="0"/>
-      <c r="FZ30" s="0"/>
-      <c r="GA30" s="0"/>
-      <c r="GB30" s="0"/>
-      <c r="GC30" s="0"/>
-      <c r="GD30" s="0"/>
-      <c r="GE30" s="0"/>
-      <c r="GF30" s="0"/>
-      <c r="GG30" s="0"/>
-      <c r="GH30" s="0"/>
-      <c r="GI30" s="0"/>
-      <c r="GJ30" s="0"/>
-      <c r="GK30" s="0"/>
-      <c r="GL30" s="0"/>
-      <c r="GM30" s="0"/>
-      <c r="GN30" s="0"/>
-      <c r="GO30" s="0"/>
-      <c r="GP30" s="0"/>
-      <c r="GQ30" s="0"/>
-      <c r="GR30" s="0"/>
-      <c r="GS30" s="0"/>
-      <c r="GT30" s="0"/>
-      <c r="GU30" s="0"/>
-      <c r="GV30" s="0"/>
-      <c r="GW30" s="0"/>
-      <c r="GX30" s="0"/>
-      <c r="GY30" s="0"/>
-      <c r="GZ30" s="0"/>
-      <c r="HA30" s="0"/>
-      <c r="HB30" s="0"/>
-      <c r="HC30" s="0"/>
-      <c r="HD30" s="0"/>
-      <c r="HE30" s="0"/>
-      <c r="HF30" s="0"/>
-      <c r="HG30" s="0"/>
-      <c r="HH30" s="0"/>
-      <c r="HI30" s="0"/>
-      <c r="HJ30" s="0"/>
-      <c r="HK30" s="0"/>
-      <c r="HL30" s="0"/>
-      <c r="HM30" s="0"/>
-      <c r="HN30" s="0"/>
-      <c r="HO30" s="0"/>
-      <c r="HP30" s="0"/>
-      <c r="HQ30" s="0"/>
-      <c r="HR30" s="0"/>
-      <c r="HS30" s="0"/>
-      <c r="HT30" s="0"/>
-      <c r="HU30" s="0"/>
-      <c r="HV30" s="0"/>
-      <c r="HW30" s="0"/>
-      <c r="HX30" s="0"/>
-      <c r="HY30" s="0"/>
-      <c r="HZ30" s="0"/>
-      <c r="IA30" s="0"/>
-      <c r="IB30" s="0"/>
-      <c r="IC30" s="0"/>
-      <c r="ID30" s="0"/>
-      <c r="IE30" s="0"/>
-      <c r="IF30" s="0"/>
-      <c r="IG30" s="0"/>
-      <c r="IH30" s="0"/>
-      <c r="II30" s="0"/>
-      <c r="IJ30" s="0"/>
-      <c r="IK30" s="0"/>
-      <c r="IL30" s="0"/>
-      <c r="IM30" s="0"/>
-      <c r="IN30" s="0"/>
-      <c r="IO30" s="0"/>
-      <c r="IP30" s="0"/>
-      <c r="IQ30" s="0"/>
-      <c r="IR30" s="0"/>
-      <c r="IS30" s="0"/>
-      <c r="IT30" s="0"/>
-      <c r="IU30" s="0"/>
-      <c r="IV30" s="0"/>
-      <c r="IW30" s="0"/>
-      <c r="IX30" s="0"/>
-      <c r="IY30" s="0"/>
-      <c r="IZ30" s="0"/>
-      <c r="JA30" s="0"/>
-      <c r="JB30" s="0"/>
-      <c r="JC30" s="0"/>
-      <c r="JD30" s="0"/>
-      <c r="JE30" s="0"/>
-      <c r="JF30" s="0"/>
-      <c r="JG30" s="0"/>
-      <c r="JH30" s="0"/>
-      <c r="JI30" s="0"/>
-      <c r="JJ30" s="0"/>
-      <c r="JK30" s="0"/>
-      <c r="JL30" s="0"/>
-      <c r="JM30" s="0"/>
-      <c r="JN30" s="0"/>
-      <c r="JO30" s="0"/>
-      <c r="JP30" s="0"/>
-      <c r="JQ30" s="0"/>
-      <c r="JR30" s="0"/>
-      <c r="JS30" s="0"/>
-      <c r="JT30" s="0"/>
-      <c r="JU30" s="0"/>
-      <c r="JV30" s="0"/>
-      <c r="JW30" s="0"/>
-      <c r="JX30" s="0"/>
-      <c r="JY30" s="0"/>
-      <c r="JZ30" s="0"/>
-      <c r="KA30" s="0"/>
-      <c r="KB30" s="0"/>
-      <c r="KC30" s="0"/>
-      <c r="KD30" s="0"/>
-      <c r="KE30" s="0"/>
-      <c r="KF30" s="0"/>
-      <c r="KG30" s="0"/>
-      <c r="KH30" s="0"/>
-      <c r="KI30" s="0"/>
-      <c r="KJ30" s="0"/>
-      <c r="KK30" s="0"/>
-      <c r="KL30" s="0"/>
-      <c r="KM30" s="0"/>
-      <c r="KN30" s="0"/>
-      <c r="KO30" s="0"/>
-      <c r="KP30" s="0"/>
-      <c r="KQ30" s="0"/>
-      <c r="KR30" s="0"/>
-      <c r="KS30" s="0"/>
-      <c r="KT30" s="0"/>
-      <c r="KU30" s="0"/>
-      <c r="KV30" s="0"/>
-      <c r="KW30" s="0"/>
-      <c r="KX30" s="0"/>
-      <c r="KY30" s="0"/>
-      <c r="KZ30" s="0"/>
-      <c r="LA30" s="0"/>
-      <c r="LB30" s="0"/>
-      <c r="LC30" s="0"/>
-      <c r="LD30" s="0"/>
-      <c r="LE30" s="0"/>
-      <c r="LF30" s="0"/>
-      <c r="LG30" s="0"/>
-      <c r="LH30" s="0"/>
-      <c r="LI30" s="0"/>
-      <c r="LJ30" s="0"/>
-      <c r="LK30" s="0"/>
-      <c r="LL30" s="0"/>
-      <c r="LM30" s="0"/>
-      <c r="LN30" s="0"/>
-      <c r="LO30" s="0"/>
-      <c r="LP30" s="0"/>
-      <c r="LQ30" s="0"/>
-      <c r="LR30" s="0"/>
-      <c r="LS30" s="0"/>
-      <c r="LT30" s="0"/>
-      <c r="LU30" s="0"/>
-      <c r="LV30" s="0"/>
-      <c r="LW30" s="0"/>
-      <c r="LX30" s="0"/>
-      <c r="LY30" s="0"/>
-      <c r="LZ30" s="0"/>
-      <c r="MA30" s="0"/>
-      <c r="MB30" s="0"/>
-      <c r="MC30" s="0"/>
-      <c r="MD30" s="0"/>
-      <c r="ME30" s="0"/>
-      <c r="MF30" s="0"/>
-      <c r="MG30" s="0"/>
-      <c r="MH30" s="0"/>
-      <c r="MI30" s="0"/>
-      <c r="MJ30" s="0"/>
-      <c r="MK30" s="0"/>
-      <c r="ML30" s="0"/>
-      <c r="MM30" s="0"/>
-      <c r="MN30" s="0"/>
-      <c r="MO30" s="0"/>
-      <c r="MP30" s="0"/>
-      <c r="MQ30" s="0"/>
-      <c r="MR30" s="0"/>
-      <c r="MS30" s="0"/>
-      <c r="MT30" s="0"/>
-      <c r="MU30" s="0"/>
-      <c r="MV30" s="0"/>
-      <c r="MW30" s="0"/>
-      <c r="MX30" s="0"/>
-      <c r="MY30" s="0"/>
-      <c r="MZ30" s="0"/>
-      <c r="NA30" s="0"/>
-      <c r="NB30" s="0"/>
-      <c r="NC30" s="0"/>
-      <c r="ND30" s="0"/>
-      <c r="NE30" s="0"/>
-      <c r="NF30" s="0"/>
-      <c r="NG30" s="0"/>
-      <c r="NH30" s="0"/>
-      <c r="NI30" s="0"/>
-      <c r="NJ30" s="0"/>
-      <c r="NK30" s="0"/>
-      <c r="NL30" s="0"/>
-      <c r="NM30" s="0"/>
-      <c r="NN30" s="0"/>
-      <c r="NO30" s="0"/>
-      <c r="NP30" s="0"/>
-      <c r="NQ30" s="0"/>
-      <c r="NR30" s="0"/>
-      <c r="NS30" s="0"/>
-      <c r="NT30" s="0"/>
-      <c r="NU30" s="0"/>
-      <c r="NV30" s="0"/>
-      <c r="NW30" s="0"/>
-      <c r="NX30" s="0"/>
-      <c r="NY30" s="0"/>
-      <c r="NZ30" s="0"/>
-      <c r="OA30" s="0"/>
-      <c r="OB30" s="0"/>
-      <c r="OC30" s="0"/>
-      <c r="OD30" s="0"/>
-      <c r="OE30" s="0"/>
-      <c r="OF30" s="0"/>
-      <c r="OG30" s="0"/>
-      <c r="OH30" s="0"/>
-      <c r="OI30" s="0"/>
-      <c r="OJ30" s="0"/>
-      <c r="OK30" s="0"/>
-      <c r="OL30" s="0"/>
-      <c r="OM30" s="0"/>
-      <c r="ON30" s="0"/>
-      <c r="OO30" s="0"/>
-      <c r="OP30" s="0"/>
-      <c r="OQ30" s="0"/>
-      <c r="OR30" s="0"/>
-      <c r="OS30" s="0"/>
-      <c r="OT30" s="0"/>
-      <c r="OU30" s="0"/>
-      <c r="OV30" s="0"/>
-      <c r="OW30" s="0"/>
-      <c r="OX30" s="0"/>
-      <c r="OY30" s="0"/>
-      <c r="OZ30" s="0"/>
-      <c r="PA30" s="0"/>
-      <c r="PB30" s="0"/>
-      <c r="PC30" s="0"/>
-      <c r="PD30" s="0"/>
-      <c r="PE30" s="0"/>
-      <c r="PF30" s="0"/>
-      <c r="PG30" s="0"/>
-      <c r="PH30" s="0"/>
-      <c r="PI30" s="0"/>
-      <c r="PJ30" s="0"/>
-      <c r="PK30" s="0"/>
-      <c r="PL30" s="0"/>
-      <c r="PM30" s="0"/>
-      <c r="PN30" s="0"/>
-      <c r="PO30" s="0"/>
-      <c r="PP30" s="0"/>
-      <c r="PQ30" s="0"/>
-      <c r="PR30" s="0"/>
-      <c r="PS30" s="0"/>
-      <c r="PT30" s="0"/>
-      <c r="PU30" s="0"/>
-      <c r="PV30" s="0"/>
-      <c r="PW30" s="0"/>
-      <c r="PX30" s="0"/>
-      <c r="PY30" s="0"/>
-      <c r="PZ30" s="0"/>
-      <c r="QA30" s="0"/>
-      <c r="QB30" s="0"/>
-      <c r="QC30" s="0"/>
-      <c r="QD30" s="0"/>
-      <c r="QE30" s="0"/>
-      <c r="QF30" s="0"/>
-      <c r="QG30" s="0"/>
-      <c r="QH30" s="0"/>
-      <c r="QI30" s="0"/>
-      <c r="QJ30" s="0"/>
-      <c r="QK30" s="0"/>
-      <c r="QL30" s="0"/>
-      <c r="QM30" s="0"/>
-      <c r="QN30" s="0"/>
-      <c r="QO30" s="0"/>
-      <c r="QP30" s="0"/>
-      <c r="QQ30" s="0"/>
-      <c r="QR30" s="0"/>
-      <c r="QS30" s="0"/>
-      <c r="QT30" s="0"/>
-      <c r="QU30" s="0"/>
-      <c r="QV30" s="0"/>
-      <c r="QW30" s="0"/>
-      <c r="QX30" s="0"/>
-      <c r="QY30" s="0"/>
-      <c r="QZ30" s="0"/>
-      <c r="RA30" s="0"/>
-      <c r="RB30" s="0"/>
-      <c r="RC30" s="0"/>
-      <c r="RD30" s="0"/>
-      <c r="RE30" s="0"/>
-      <c r="RF30" s="0"/>
-      <c r="RG30" s="0"/>
-      <c r="RH30" s="0"/>
-      <c r="RI30" s="0"/>
-      <c r="RJ30" s="0"/>
-      <c r="RK30" s="0"/>
-      <c r="RL30" s="0"/>
-      <c r="RM30" s="0"/>
-      <c r="RN30" s="0"/>
-      <c r="RO30" s="0"/>
-      <c r="RP30" s="0"/>
-      <c r="RQ30" s="0"/>
-      <c r="RR30" s="0"/>
-      <c r="RS30" s="0"/>
-      <c r="RT30" s="0"/>
-      <c r="RU30" s="0"/>
-      <c r="RV30" s="0"/>
-      <c r="RW30" s="0"/>
-      <c r="RX30" s="0"/>
-      <c r="RY30" s="0"/>
-      <c r="RZ30" s="0"/>
-      <c r="SA30" s="0"/>
-      <c r="SB30" s="0"/>
-      <c r="SC30" s="0"/>
-      <c r="SD30" s="0"/>
-      <c r="SE30" s="0"/>
-      <c r="SF30" s="0"/>
-      <c r="SG30" s="0"/>
-      <c r="SH30" s="0"/>
-      <c r="SI30" s="0"/>
-      <c r="SJ30" s="0"/>
-      <c r="SK30" s="0"/>
-      <c r="SL30" s="0"/>
-      <c r="SM30" s="0"/>
-      <c r="SN30" s="0"/>
-      <c r="SO30" s="0"/>
-      <c r="SP30" s="0"/>
-      <c r="SQ30" s="0"/>
-      <c r="SR30" s="0"/>
-      <c r="SS30" s="0"/>
-      <c r="ST30" s="0"/>
-      <c r="SU30" s="0"/>
-      <c r="SV30" s="0"/>
-      <c r="SW30" s="0"/>
-      <c r="SX30" s="0"/>
-      <c r="SY30" s="0"/>
-      <c r="SZ30" s="0"/>
-      <c r="TA30" s="0"/>
-      <c r="TB30" s="0"/>
-      <c r="TC30" s="0"/>
-      <c r="TD30" s="0"/>
-      <c r="TE30" s="0"/>
-      <c r="TF30" s="0"/>
-      <c r="TG30" s="0"/>
-      <c r="TH30" s="0"/>
-      <c r="TI30" s="0"/>
-      <c r="TJ30" s="0"/>
-      <c r="TK30" s="0"/>
-      <c r="TL30" s="0"/>
-      <c r="TM30" s="0"/>
-      <c r="TN30" s="0"/>
-      <c r="TO30" s="0"/>
-      <c r="TP30" s="0"/>
-      <c r="TQ30" s="0"/>
-      <c r="TR30" s="0"/>
-      <c r="TS30" s="0"/>
-      <c r="TT30" s="0"/>
-      <c r="TU30" s="0"/>
-      <c r="TV30" s="0"/>
-      <c r="TW30" s="0"/>
-      <c r="TX30" s="0"/>
-      <c r="TY30" s="0"/>
-      <c r="TZ30" s="0"/>
-      <c r="UA30" s="0"/>
-      <c r="UB30" s="0"/>
-      <c r="UC30" s="0"/>
-      <c r="UD30" s="0"/>
-      <c r="UE30" s="0"/>
-      <c r="UF30" s="0"/>
-      <c r="UG30" s="0"/>
-      <c r="UH30" s="0"/>
-      <c r="UI30" s="0"/>
-      <c r="UJ30" s="0"/>
-      <c r="UK30" s="0"/>
-      <c r="UL30" s="0"/>
-      <c r="UM30" s="0"/>
-      <c r="UN30" s="0"/>
-      <c r="UO30" s="0"/>
-      <c r="UP30" s="0"/>
-      <c r="UQ30" s="0"/>
-      <c r="UR30" s="0"/>
-      <c r="US30" s="0"/>
-      <c r="UT30" s="0"/>
-      <c r="UU30" s="0"/>
-      <c r="UV30" s="0"/>
-      <c r="UW30" s="0"/>
-      <c r="UX30" s="0"/>
-      <c r="UY30" s="0"/>
-      <c r="UZ30" s="0"/>
-      <c r="VA30" s="0"/>
-      <c r="VB30" s="0"/>
-      <c r="VC30" s="0"/>
-      <c r="VD30" s="0"/>
-      <c r="VE30" s="0"/>
-      <c r="VF30" s="0"/>
-      <c r="VG30" s="0"/>
-      <c r="VH30" s="0"/>
-      <c r="VI30" s="0"/>
-      <c r="VJ30" s="0"/>
-      <c r="VK30" s="0"/>
-      <c r="VL30" s="0"/>
-      <c r="VM30" s="0"/>
-      <c r="VN30" s="0"/>
-      <c r="VO30" s="0"/>
-      <c r="VP30" s="0"/>
-      <c r="VQ30" s="0"/>
-      <c r="VR30" s="0"/>
-      <c r="VS30" s="0"/>
-      <c r="VT30" s="0"/>
-      <c r="VU30" s="0"/>
-      <c r="VV30" s="0"/>
-      <c r="VW30" s="0"/>
-      <c r="VX30" s="0"/>
-      <c r="VY30" s="0"/>
-      <c r="VZ30" s="0"/>
-      <c r="WA30" s="0"/>
-      <c r="WB30" s="0"/>
-      <c r="WC30" s="0"/>
-      <c r="WD30" s="0"/>
-      <c r="WE30" s="0"/>
-      <c r="WF30" s="0"/>
-      <c r="WG30" s="0"/>
-      <c r="WH30" s="0"/>
-      <c r="WI30" s="0"/>
-      <c r="WJ30" s="0"/>
-      <c r="WK30" s="0"/>
-      <c r="WL30" s="0"/>
-      <c r="WM30" s="0"/>
-      <c r="WN30" s="0"/>
-      <c r="WO30" s="0"/>
-      <c r="WP30" s="0"/>
-      <c r="WQ30" s="0"/>
-      <c r="WR30" s="0"/>
-      <c r="WS30" s="0"/>
-      <c r="WT30" s="0"/>
-      <c r="WU30" s="0"/>
-      <c r="WV30" s="0"/>
-      <c r="WW30" s="0"/>
-      <c r="WX30" s="0"/>
-      <c r="WY30" s="0"/>
-      <c r="WZ30" s="0"/>
-      <c r="XA30" s="0"/>
-      <c r="XB30" s="0"/>
-      <c r="XC30" s="0"/>
-      <c r="XD30" s="0"/>
-      <c r="XE30" s="0"/>
-      <c r="XF30" s="0"/>
-      <c r="XG30" s="0"/>
-      <c r="XH30" s="0"/>
-      <c r="XI30" s="0"/>
-      <c r="XJ30" s="0"/>
-      <c r="XK30" s="0"/>
-      <c r="XL30" s="0"/>
-      <c r="XM30" s="0"/>
-      <c r="XN30" s="0"/>
-      <c r="XO30" s="0"/>
-      <c r="XP30" s="0"/>
-      <c r="XQ30" s="0"/>
-      <c r="XR30" s="0"/>
-      <c r="XS30" s="0"/>
-      <c r="XT30" s="0"/>
-      <c r="XU30" s="0"/>
-      <c r="XV30" s="0"/>
-      <c r="XW30" s="0"/>
-      <c r="XX30" s="0"/>
-      <c r="XY30" s="0"/>
-      <c r="XZ30" s="0"/>
-      <c r="YA30" s="0"/>
-      <c r="YB30" s="0"/>
-      <c r="YC30" s="0"/>
-      <c r="YD30" s="0"/>
-      <c r="YE30" s="0"/>
-      <c r="YF30" s="0"/>
-      <c r="YG30" s="0"/>
-      <c r="YH30" s="0"/>
-      <c r="YI30" s="0"/>
-      <c r="YJ30" s="0"/>
-      <c r="YK30" s="0"/>
-      <c r="YL30" s="0"/>
-      <c r="YM30" s="0"/>
-      <c r="YN30" s="0"/>
-      <c r="YO30" s="0"/>
-      <c r="YP30" s="0"/>
-      <c r="YQ30" s="0"/>
-      <c r="YR30" s="0"/>
-      <c r="YS30" s="0"/>
-      <c r="YT30" s="0"/>
-      <c r="YU30" s="0"/>
-      <c r="YV30" s="0"/>
-      <c r="YW30" s="0"/>
-      <c r="YX30" s="0"/>
-      <c r="YY30" s="0"/>
-      <c r="YZ30" s="0"/>
-      <c r="ZA30" s="0"/>
-      <c r="ZB30" s="0"/>
-      <c r="ZC30" s="0"/>
-      <c r="ZD30" s="0"/>
-      <c r="ZE30" s="0"/>
-      <c r="ZF30" s="0"/>
-      <c r="ZG30" s="0"/>
-      <c r="ZH30" s="0"/>
-      <c r="ZI30" s="0"/>
-      <c r="ZJ30" s="0"/>
-      <c r="ZK30" s="0"/>
-      <c r="ZL30" s="0"/>
-      <c r="ZM30" s="0"/>
-      <c r="ZN30" s="0"/>
-      <c r="ZO30" s="0"/>
-      <c r="ZP30" s="0"/>
-      <c r="ZQ30" s="0"/>
-      <c r="ZR30" s="0"/>
-      <c r="ZS30" s="0"/>
-      <c r="ZT30" s="0"/>
-      <c r="ZU30" s="0"/>
-      <c r="ZV30" s="0"/>
-      <c r="ZW30" s="0"/>
-      <c r="ZX30" s="0"/>
-      <c r="ZY30" s="0"/>
-      <c r="ZZ30" s="0"/>
-      <c r="AAA30" s="0"/>
-      <c r="AAB30" s="0"/>
-      <c r="AAC30" s="0"/>
-      <c r="AAD30" s="0"/>
-      <c r="AAE30" s="0"/>
-      <c r="AAF30" s="0"/>
-      <c r="AAG30" s="0"/>
-      <c r="AAH30" s="0"/>
-      <c r="AAI30" s="0"/>
-      <c r="AAJ30" s="0"/>
-      <c r="AAK30" s="0"/>
-      <c r="AAL30" s="0"/>
-      <c r="AAM30" s="0"/>
-      <c r="AAN30" s="0"/>
-      <c r="AAO30" s="0"/>
-      <c r="AAP30" s="0"/>
-      <c r="AAQ30" s="0"/>
-      <c r="AAR30" s="0"/>
-      <c r="AAS30" s="0"/>
-      <c r="AAT30" s="0"/>
-      <c r="AAU30" s="0"/>
-      <c r="AAV30" s="0"/>
-      <c r="AAW30" s="0"/>
-      <c r="AAX30" s="0"/>
-      <c r="AAY30" s="0"/>
-      <c r="AAZ30" s="0"/>
-      <c r="ABA30" s="0"/>
-      <c r="ABB30" s="0"/>
-      <c r="ABC30" s="0"/>
-      <c r="ABD30" s="0"/>
-      <c r="ABE30" s="0"/>
-      <c r="ABF30" s="0"/>
-      <c r="ABG30" s="0"/>
-      <c r="ABH30" s="0"/>
-      <c r="ABI30" s="0"/>
-      <c r="ABJ30" s="0"/>
-      <c r="ABK30" s="0"/>
-      <c r="ABL30" s="0"/>
-      <c r="ABM30" s="0"/>
-      <c r="ABN30" s="0"/>
-      <c r="ABO30" s="0"/>
-      <c r="ABP30" s="0"/>
-      <c r="ABQ30" s="0"/>
-      <c r="ABR30" s="0"/>
-      <c r="ABS30" s="0"/>
-      <c r="ABT30" s="0"/>
-      <c r="ABU30" s="0"/>
-      <c r="ABV30" s="0"/>
-      <c r="ABW30" s="0"/>
-      <c r="ABX30" s="0"/>
-      <c r="ABY30" s="0"/>
-      <c r="ABZ30" s="0"/>
-      <c r="ACA30" s="0"/>
-      <c r="ACB30" s="0"/>
-      <c r="ACC30" s="0"/>
-      <c r="ACD30" s="0"/>
-      <c r="ACE30" s="0"/>
-      <c r="ACF30" s="0"/>
-      <c r="ACG30" s="0"/>
-      <c r="ACH30" s="0"/>
-      <c r="ACI30" s="0"/>
-      <c r="ACJ30" s="0"/>
-      <c r="ACK30" s="0"/>
-      <c r="ACL30" s="0"/>
-      <c r="ACM30" s="0"/>
-      <c r="ACN30" s="0"/>
-      <c r="ACO30" s="0"/>
-      <c r="ACP30" s="0"/>
-      <c r="ACQ30" s="0"/>
-      <c r="ACR30" s="0"/>
-      <c r="ACS30" s="0"/>
-      <c r="ACT30" s="0"/>
-      <c r="ACU30" s="0"/>
-      <c r="ACV30" s="0"/>
-      <c r="ACW30" s="0"/>
-      <c r="ACX30" s="0"/>
-      <c r="ACY30" s="0"/>
-      <c r="ACZ30" s="0"/>
-      <c r="ADA30" s="0"/>
-      <c r="ADB30" s="0"/>
-      <c r="ADC30" s="0"/>
-      <c r="ADD30" s="0"/>
-      <c r="ADE30" s="0"/>
-      <c r="ADF30" s="0"/>
-      <c r="ADG30" s="0"/>
-      <c r="ADH30" s="0"/>
-      <c r="ADI30" s="0"/>
-      <c r="ADJ30" s="0"/>
-      <c r="ADK30" s="0"/>
-      <c r="ADL30" s="0"/>
-      <c r="ADM30" s="0"/>
-      <c r="ADN30" s="0"/>
-      <c r="ADO30" s="0"/>
-      <c r="ADP30" s="0"/>
-      <c r="ADQ30" s="0"/>
-      <c r="ADR30" s="0"/>
-      <c r="ADS30" s="0"/>
-      <c r="ADT30" s="0"/>
-      <c r="ADU30" s="0"/>
-      <c r="ADV30" s="0"/>
-      <c r="ADW30" s="0"/>
-      <c r="ADX30" s="0"/>
-      <c r="ADY30" s="0"/>
-      <c r="ADZ30" s="0"/>
-      <c r="AEA30" s="0"/>
-      <c r="AEB30" s="0"/>
-      <c r="AEC30" s="0"/>
-      <c r="AED30" s="0"/>
-      <c r="AEE30" s="0"/>
-      <c r="AEF30" s="0"/>
-      <c r="AEG30" s="0"/>
-      <c r="AEH30" s="0"/>
-      <c r="AEI30" s="0"/>
-      <c r="AEJ30" s="0"/>
-      <c r="AEK30" s="0"/>
-      <c r="AEL30" s="0"/>
-      <c r="AEM30" s="0"/>
-      <c r="AEN30" s="0"/>
-      <c r="AEO30" s="0"/>
-      <c r="AEP30" s="0"/>
-      <c r="AEQ30" s="0"/>
-      <c r="AER30" s="0"/>
-      <c r="AES30" s="0"/>
-      <c r="AET30" s="0"/>
-      <c r="AEU30" s="0"/>
-      <c r="AEV30" s="0"/>
-      <c r="AEW30" s="0"/>
-      <c r="AEX30" s="0"/>
-      <c r="AEY30" s="0"/>
-      <c r="AEZ30" s="0"/>
-      <c r="AFA30" s="0"/>
-      <c r="AFB30" s="0"/>
-      <c r="AFC30" s="0"/>
-      <c r="AFD30" s="0"/>
-      <c r="AFE30" s="0"/>
-      <c r="AFF30" s="0"/>
-      <c r="AFG30" s="0"/>
-      <c r="AFH30" s="0"/>
-      <c r="AFI30" s="0"/>
-      <c r="AFJ30" s="0"/>
-      <c r="AFK30" s="0"/>
-      <c r="AFL30" s="0"/>
-      <c r="AFM30" s="0"/>
-      <c r="AFN30" s="0"/>
-      <c r="AFO30" s="0"/>
-      <c r="AFP30" s="0"/>
-      <c r="AFQ30" s="0"/>
-      <c r="AFR30" s="0"/>
-      <c r="AFS30" s="0"/>
-      <c r="AFT30" s="0"/>
-      <c r="AFU30" s="0"/>
-      <c r="AFV30" s="0"/>
-      <c r="AFW30" s="0"/>
-      <c r="AFX30" s="0"/>
-      <c r="AFY30" s="0"/>
-      <c r="AFZ30" s="0"/>
-      <c r="AGA30" s="0"/>
-      <c r="AGB30" s="0"/>
-      <c r="AGC30" s="0"/>
-      <c r="AGD30" s="0"/>
-      <c r="AGE30" s="0"/>
-      <c r="AGF30" s="0"/>
-      <c r="AGG30" s="0"/>
-      <c r="AGH30" s="0"/>
-      <c r="AGI30" s="0"/>
-      <c r="AGJ30" s="0"/>
-      <c r="AGK30" s="0"/>
-      <c r="AGL30" s="0"/>
-      <c r="AGM30" s="0"/>
-      <c r="AGN30" s="0"/>
-      <c r="AGO30" s="0"/>
-      <c r="AGP30" s="0"/>
-      <c r="AGQ30" s="0"/>
-      <c r="AGR30" s="0"/>
-      <c r="AGS30" s="0"/>
-      <c r="AGT30" s="0"/>
-      <c r="AGU30" s="0"/>
-      <c r="AGV30" s="0"/>
-      <c r="AGW30" s="0"/>
-      <c r="AGX30" s="0"/>
-      <c r="AGY30" s="0"/>
-      <c r="AGZ30" s="0"/>
-      <c r="AHA30" s="0"/>
-      <c r="AHB30" s="0"/>
-      <c r="AHC30" s="0"/>
-      <c r="AHD30" s="0"/>
-      <c r="AHE30" s="0"/>
-      <c r="AHF30" s="0"/>
-      <c r="AHG30" s="0"/>
-      <c r="AHH30" s="0"/>
-      <c r="AHI30" s="0"/>
-      <c r="AHJ30" s="0"/>
-      <c r="AHK30" s="0"/>
-      <c r="AHL30" s="0"/>
-      <c r="AHM30" s="0"/>
-      <c r="AHN30" s="0"/>
-      <c r="AHO30" s="0"/>
-      <c r="AHP30" s="0"/>
-      <c r="AHQ30" s="0"/>
-      <c r="AHR30" s="0"/>
-      <c r="AHS30" s="0"/>
-      <c r="AHT30" s="0"/>
-      <c r="AHU30" s="0"/>
-      <c r="AHV30" s="0"/>
-      <c r="AHW30" s="0"/>
-      <c r="AHX30" s="0"/>
-      <c r="AHY30" s="0"/>
-      <c r="AHZ30" s="0"/>
-      <c r="AIA30" s="0"/>
-      <c r="AIB30" s="0"/>
-      <c r="AIC30" s="0"/>
-      <c r="AID30" s="0"/>
-      <c r="AIE30" s="0"/>
-      <c r="AIF30" s="0"/>
-      <c r="AIG30" s="0"/>
-      <c r="AIH30" s="0"/>
-      <c r="AII30" s="0"/>
-      <c r="AIJ30" s="0"/>
-      <c r="AIK30" s="0"/>
-      <c r="AIL30" s="0"/>
-      <c r="AIM30" s="0"/>
-      <c r="AIN30" s="0"/>
-      <c r="AIO30" s="0"/>
-      <c r="AIP30" s="0"/>
-      <c r="AIQ30" s="0"/>
-      <c r="AIR30" s="0"/>
-      <c r="AIS30" s="0"/>
-      <c r="AIT30" s="0"/>
-      <c r="AIU30" s="0"/>
-      <c r="AIV30" s="0"/>
-      <c r="AIW30" s="0"/>
-      <c r="AIX30" s="0"/>
-      <c r="AIY30" s="0"/>
-      <c r="AIZ30" s="0"/>
-      <c r="AJA30" s="0"/>
-      <c r="AJB30" s="0"/>
-      <c r="AJC30" s="0"/>
-      <c r="AJD30" s="0"/>
-      <c r="AJE30" s="0"/>
-      <c r="AJF30" s="0"/>
-      <c r="AJG30" s="0"/>
-      <c r="AJH30" s="0"/>
-      <c r="AJI30" s="0"/>
-      <c r="AJJ30" s="0"/>
-      <c r="AJK30" s="0"/>
-      <c r="AJL30" s="0"/>
-      <c r="AJM30" s="0"/>
-      <c r="AJN30" s="0"/>
-      <c r="AJO30" s="0"/>
-      <c r="AJP30" s="0"/>
-      <c r="AJQ30" s="0"/>
-      <c r="AJR30" s="0"/>
-      <c r="AJS30" s="0"/>
-      <c r="AJT30" s="0"/>
-      <c r="AJU30" s="0"/>
-      <c r="AJV30" s="0"/>
-      <c r="AJW30" s="0"/>
-      <c r="AJX30" s="0"/>
-      <c r="AJY30" s="0"/>
-      <c r="AJZ30" s="0"/>
-      <c r="AKA30" s="0"/>
-      <c r="AKB30" s="0"/>
-      <c r="AKC30" s="0"/>
-      <c r="AKD30" s="0"/>
-      <c r="AKE30" s="0"/>
-      <c r="AKF30" s="0"/>
-      <c r="AKG30" s="0"/>
-      <c r="AKH30" s="0"/>
-      <c r="AKI30" s="0"/>
-      <c r="AKJ30" s="0"/>
-      <c r="AKK30" s="0"/>
-      <c r="AKL30" s="0"/>
-      <c r="AKM30" s="0"/>
-      <c r="AKN30" s="0"/>
-      <c r="AKO30" s="0"/>
-      <c r="AKP30" s="0"/>
-      <c r="AKQ30" s="0"/>
-      <c r="AKR30" s="0"/>
-      <c r="AKS30" s="0"/>
-      <c r="AKT30" s="0"/>
-      <c r="AKU30" s="0"/>
-      <c r="AKV30" s="0"/>
-      <c r="AKW30" s="0"/>
-      <c r="AKX30" s="0"/>
-      <c r="AKY30" s="0"/>
-      <c r="AKZ30" s="0"/>
-      <c r="ALA30" s="0"/>
-      <c r="ALB30" s="0"/>
-      <c r="ALC30" s="0"/>
-      <c r="ALD30" s="0"/>
-      <c r="ALE30" s="0"/>
-      <c r="ALF30" s="0"/>
-      <c r="ALG30" s="0"/>
-      <c r="ALH30" s="0"/>
-      <c r="ALI30" s="0"/>
-      <c r="ALJ30" s="0"/>
-      <c r="ALK30" s="0"/>
-      <c r="ALL30" s="0"/>
-      <c r="ALM30" s="0"/>
-      <c r="ALN30" s="0"/>
-      <c r="ALO30" s="0"/>
-      <c r="ALP30" s="0"/>
-      <c r="ALQ30" s="0"/>
-      <c r="ALR30" s="0"/>
-      <c r="ALS30" s="0"/>
-      <c r="ALT30" s="0"/>
-      <c r="ALU30" s="0"/>
-      <c r="ALV30" s="0"/>
-      <c r="ALW30" s="0"/>
-      <c r="ALX30" s="0"/>
-      <c r="ALY30" s="0"/>
-      <c r="ALZ30" s="0"/>
-      <c r="AMA30" s="0"/>
-      <c r="AMB30" s="0"/>
-      <c r="AMC30" s="0"/>
-      <c r="AMD30" s="0"/>
-      <c r="AME30" s="0"/>
-      <c r="AMF30" s="0"/>
-      <c r="AMG30" s="0"/>
-      <c r="AMH30" s="0"/>
-      <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -24118,9 +25182,7 @@
       <c r="C31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>50</v>
-      </c>
+      <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -25144,15 +26206,17 @@
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
-      <c r="D32" s="0"/>
+      <c r="D32" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -26174,23 +27238,1055 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+      <c r="AE33" s="0"/>
+      <c r="AF33" s="0"/>
+      <c r="AG33" s="0"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="0"/>
+      <c r="AK33" s="0"/>
+      <c r="AL33" s="0"/>
+      <c r="AM33" s="0"/>
+      <c r="AN33" s="0"/>
+      <c r="AO33" s="0"/>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+      <c r="AR33" s="0"/>
+      <c r="AS33" s="0"/>
+      <c r="AT33" s="0"/>
+      <c r="AU33" s="0"/>
+      <c r="AV33" s="0"/>
+      <c r="AW33" s="0"/>
+      <c r="AX33" s="0"/>
+      <c r="AY33" s="0"/>
+      <c r="AZ33" s="0"/>
+      <c r="BA33" s="0"/>
+      <c r="BB33" s="0"/>
+      <c r="BC33" s="0"/>
+      <c r="BD33" s="0"/>
+      <c r="BE33" s="0"/>
+      <c r="BF33" s="0"/>
+      <c r="BG33" s="0"/>
+      <c r="BH33" s="0"/>
+      <c r="BI33" s="0"/>
+      <c r="BJ33" s="0"/>
+      <c r="BK33" s="0"/>
+      <c r="BL33" s="0"/>
+      <c r="BM33" s="0"/>
+      <c r="BN33" s="0"/>
+      <c r="BO33" s="0"/>
+      <c r="BP33" s="0"/>
+      <c r="BQ33" s="0"/>
+      <c r="BR33" s="0"/>
+      <c r="BS33" s="0"/>
+      <c r="BT33" s="0"/>
+      <c r="BU33" s="0"/>
+      <c r="BV33" s="0"/>
+      <c r="BW33" s="0"/>
+      <c r="BX33" s="0"/>
+      <c r="BY33" s="0"/>
+      <c r="BZ33" s="0"/>
+      <c r="CA33" s="0"/>
+      <c r="CB33" s="0"/>
+      <c r="CC33" s="0"/>
+      <c r="CD33" s="0"/>
+      <c r="CE33" s="0"/>
+      <c r="CF33" s="0"/>
+      <c r="CG33" s="0"/>
+      <c r="CH33" s="0"/>
+      <c r="CI33" s="0"/>
+      <c r="CJ33" s="0"/>
+      <c r="CK33" s="0"/>
+      <c r="CL33" s="0"/>
+      <c r="CM33" s="0"/>
+      <c r="CN33" s="0"/>
+      <c r="CO33" s="0"/>
+      <c r="CP33" s="0"/>
+      <c r="CQ33" s="0"/>
+      <c r="CR33" s="0"/>
+      <c r="CS33" s="0"/>
+      <c r="CT33" s="0"/>
+      <c r="CU33" s="0"/>
+      <c r="CV33" s="0"/>
+      <c r="CW33" s="0"/>
+      <c r="CX33" s="0"/>
+      <c r="CY33" s="0"/>
+      <c r="CZ33" s="0"/>
+      <c r="DA33" s="0"/>
+      <c r="DB33" s="0"/>
+      <c r="DC33" s="0"/>
+      <c r="DD33" s="0"/>
+      <c r="DE33" s="0"/>
+      <c r="DF33" s="0"/>
+      <c r="DG33" s="0"/>
+      <c r="DH33" s="0"/>
+      <c r="DI33" s="0"/>
+      <c r="DJ33" s="0"/>
+      <c r="DK33" s="0"/>
+      <c r="DL33" s="0"/>
+      <c r="DM33" s="0"/>
+      <c r="DN33" s="0"/>
+      <c r="DO33" s="0"/>
+      <c r="DP33" s="0"/>
+      <c r="DQ33" s="0"/>
+      <c r="DR33" s="0"/>
+      <c r="DS33" s="0"/>
+      <c r="DT33" s="0"/>
+      <c r="DU33" s="0"/>
+      <c r="DV33" s="0"/>
+      <c r="DW33" s="0"/>
+      <c r="DX33" s="0"/>
+      <c r="DY33" s="0"/>
+      <c r="DZ33" s="0"/>
+      <c r="EA33" s="0"/>
+      <c r="EB33" s="0"/>
+      <c r="EC33" s="0"/>
+      <c r="ED33" s="0"/>
+      <c r="EE33" s="0"/>
+      <c r="EF33" s="0"/>
+      <c r="EG33" s="0"/>
+      <c r="EH33" s="0"/>
+      <c r="EI33" s="0"/>
+      <c r="EJ33" s="0"/>
+      <c r="EK33" s="0"/>
+      <c r="EL33" s="0"/>
+      <c r="EM33" s="0"/>
+      <c r="EN33" s="0"/>
+      <c r="EO33" s="0"/>
+      <c r="EP33" s="0"/>
+      <c r="EQ33" s="0"/>
+      <c r="ER33" s="0"/>
+      <c r="ES33" s="0"/>
+      <c r="ET33" s="0"/>
+      <c r="EU33" s="0"/>
+      <c r="EV33" s="0"/>
+      <c r="EW33" s="0"/>
+      <c r="EX33" s="0"/>
+      <c r="EY33" s="0"/>
+      <c r="EZ33" s="0"/>
+      <c r="FA33" s="0"/>
+      <c r="FB33" s="0"/>
+      <c r="FC33" s="0"/>
+      <c r="FD33" s="0"/>
+      <c r="FE33" s="0"/>
+      <c r="FF33" s="0"/>
+      <c r="FG33" s="0"/>
+      <c r="FH33" s="0"/>
+      <c r="FI33" s="0"/>
+      <c r="FJ33" s="0"/>
+      <c r="FK33" s="0"/>
+      <c r="FL33" s="0"/>
+      <c r="FM33" s="0"/>
+      <c r="FN33" s="0"/>
+      <c r="FO33" s="0"/>
+      <c r="FP33" s="0"/>
+      <c r="FQ33" s="0"/>
+      <c r="FR33" s="0"/>
+      <c r="FS33" s="0"/>
+      <c r="FT33" s="0"/>
+      <c r="FU33" s="0"/>
+      <c r="FV33" s="0"/>
+      <c r="FW33" s="0"/>
+      <c r="FX33" s="0"/>
+      <c r="FY33" s="0"/>
+      <c r="FZ33" s="0"/>
+      <c r="GA33" s="0"/>
+      <c r="GB33" s="0"/>
+      <c r="GC33" s="0"/>
+      <c r="GD33" s="0"/>
+      <c r="GE33" s="0"/>
+      <c r="GF33" s="0"/>
+      <c r="GG33" s="0"/>
+      <c r="GH33" s="0"/>
+      <c r="GI33" s="0"/>
+      <c r="GJ33" s="0"/>
+      <c r="GK33" s="0"/>
+      <c r="GL33" s="0"/>
+      <c r="GM33" s="0"/>
+      <c r="GN33" s="0"/>
+      <c r="GO33" s="0"/>
+      <c r="GP33" s="0"/>
+      <c r="GQ33" s="0"/>
+      <c r="GR33" s="0"/>
+      <c r="GS33" s="0"/>
+      <c r="GT33" s="0"/>
+      <c r="GU33" s="0"/>
+      <c r="GV33" s="0"/>
+      <c r="GW33" s="0"/>
+      <c r="GX33" s="0"/>
+      <c r="GY33" s="0"/>
+      <c r="GZ33" s="0"/>
+      <c r="HA33" s="0"/>
+      <c r="HB33" s="0"/>
+      <c r="HC33" s="0"/>
+      <c r="HD33" s="0"/>
+      <c r="HE33" s="0"/>
+      <c r="HF33" s="0"/>
+      <c r="HG33" s="0"/>
+      <c r="HH33" s="0"/>
+      <c r="HI33" s="0"/>
+      <c r="HJ33" s="0"/>
+      <c r="HK33" s="0"/>
+      <c r="HL33" s="0"/>
+      <c r="HM33" s="0"/>
+      <c r="HN33" s="0"/>
+      <c r="HO33" s="0"/>
+      <c r="HP33" s="0"/>
+      <c r="HQ33" s="0"/>
+      <c r="HR33" s="0"/>
+      <c r="HS33" s="0"/>
+      <c r="HT33" s="0"/>
+      <c r="HU33" s="0"/>
+      <c r="HV33" s="0"/>
+      <c r="HW33" s="0"/>
+      <c r="HX33" s="0"/>
+      <c r="HY33" s="0"/>
+      <c r="HZ33" s="0"/>
+      <c r="IA33" s="0"/>
+      <c r="IB33" s="0"/>
+      <c r="IC33" s="0"/>
+      <c r="ID33" s="0"/>
+      <c r="IE33" s="0"/>
+      <c r="IF33" s="0"/>
+      <c r="IG33" s="0"/>
+      <c r="IH33" s="0"/>
+      <c r="II33" s="0"/>
+      <c r="IJ33" s="0"/>
+      <c r="IK33" s="0"/>
+      <c r="IL33" s="0"/>
+      <c r="IM33" s="0"/>
+      <c r="IN33" s="0"/>
+      <c r="IO33" s="0"/>
+      <c r="IP33" s="0"/>
+      <c r="IQ33" s="0"/>
+      <c r="IR33" s="0"/>
+      <c r="IS33" s="0"/>
+      <c r="IT33" s="0"/>
+      <c r="IU33" s="0"/>
+      <c r="IV33" s="0"/>
+      <c r="IW33" s="0"/>
+      <c r="IX33" s="0"/>
+      <c r="IY33" s="0"/>
+      <c r="IZ33" s="0"/>
+      <c r="JA33" s="0"/>
+      <c r="JB33" s="0"/>
+      <c r="JC33" s="0"/>
+      <c r="JD33" s="0"/>
+      <c r="JE33" s="0"/>
+      <c r="JF33" s="0"/>
+      <c r="JG33" s="0"/>
+      <c r="JH33" s="0"/>
+      <c r="JI33" s="0"/>
+      <c r="JJ33" s="0"/>
+      <c r="JK33" s="0"/>
+      <c r="JL33" s="0"/>
+      <c r="JM33" s="0"/>
+      <c r="JN33" s="0"/>
+      <c r="JO33" s="0"/>
+      <c r="JP33" s="0"/>
+      <c r="JQ33" s="0"/>
+      <c r="JR33" s="0"/>
+      <c r="JS33" s="0"/>
+      <c r="JT33" s="0"/>
+      <c r="JU33" s="0"/>
+      <c r="JV33" s="0"/>
+      <c r="JW33" s="0"/>
+      <c r="JX33" s="0"/>
+      <c r="JY33" s="0"/>
+      <c r="JZ33" s="0"/>
+      <c r="KA33" s="0"/>
+      <c r="KB33" s="0"/>
+      <c r="KC33" s="0"/>
+      <c r="KD33" s="0"/>
+      <c r="KE33" s="0"/>
+      <c r="KF33" s="0"/>
+      <c r="KG33" s="0"/>
+      <c r="KH33" s="0"/>
+      <c r="KI33" s="0"/>
+      <c r="KJ33" s="0"/>
+      <c r="KK33" s="0"/>
+      <c r="KL33" s="0"/>
+      <c r="KM33" s="0"/>
+      <c r="KN33" s="0"/>
+      <c r="KO33" s="0"/>
+      <c r="KP33" s="0"/>
+      <c r="KQ33" s="0"/>
+      <c r="KR33" s="0"/>
+      <c r="KS33" s="0"/>
+      <c r="KT33" s="0"/>
+      <c r="KU33" s="0"/>
+      <c r="KV33" s="0"/>
+      <c r="KW33" s="0"/>
+      <c r="KX33" s="0"/>
+      <c r="KY33" s="0"/>
+      <c r="KZ33" s="0"/>
+      <c r="LA33" s="0"/>
+      <c r="LB33" s="0"/>
+      <c r="LC33" s="0"/>
+      <c r="LD33" s="0"/>
+      <c r="LE33" s="0"/>
+      <c r="LF33" s="0"/>
+      <c r="LG33" s="0"/>
+      <c r="LH33" s="0"/>
+      <c r="LI33" s="0"/>
+      <c r="LJ33" s="0"/>
+      <c r="LK33" s="0"/>
+      <c r="LL33" s="0"/>
+      <c r="LM33" s="0"/>
+      <c r="LN33" s="0"/>
+      <c r="LO33" s="0"/>
+      <c r="LP33" s="0"/>
+      <c r="LQ33" s="0"/>
+      <c r="LR33" s="0"/>
+      <c r="LS33" s="0"/>
+      <c r="LT33" s="0"/>
+      <c r="LU33" s="0"/>
+      <c r="LV33" s="0"/>
+      <c r="LW33" s="0"/>
+      <c r="LX33" s="0"/>
+      <c r="LY33" s="0"/>
+      <c r="LZ33" s="0"/>
+      <c r="MA33" s="0"/>
+      <c r="MB33" s="0"/>
+      <c r="MC33" s="0"/>
+      <c r="MD33" s="0"/>
+      <c r="ME33" s="0"/>
+      <c r="MF33" s="0"/>
+      <c r="MG33" s="0"/>
+      <c r="MH33" s="0"/>
+      <c r="MI33" s="0"/>
+      <c r="MJ33" s="0"/>
+      <c r="MK33" s="0"/>
+      <c r="ML33" s="0"/>
+      <c r="MM33" s="0"/>
+      <c r="MN33" s="0"/>
+      <c r="MO33" s="0"/>
+      <c r="MP33" s="0"/>
+      <c r="MQ33" s="0"/>
+      <c r="MR33" s="0"/>
+      <c r="MS33" s="0"/>
+      <c r="MT33" s="0"/>
+      <c r="MU33" s="0"/>
+      <c r="MV33" s="0"/>
+      <c r="MW33" s="0"/>
+      <c r="MX33" s="0"/>
+      <c r="MY33" s="0"/>
+      <c r="MZ33" s="0"/>
+      <c r="NA33" s="0"/>
+      <c r="NB33" s="0"/>
+      <c r="NC33" s="0"/>
+      <c r="ND33" s="0"/>
+      <c r="NE33" s="0"/>
+      <c r="NF33" s="0"/>
+      <c r="NG33" s="0"/>
+      <c r="NH33" s="0"/>
+      <c r="NI33" s="0"/>
+      <c r="NJ33" s="0"/>
+      <c r="NK33" s="0"/>
+      <c r="NL33" s="0"/>
+      <c r="NM33" s="0"/>
+      <c r="NN33" s="0"/>
+      <c r="NO33" s="0"/>
+      <c r="NP33" s="0"/>
+      <c r="NQ33" s="0"/>
+      <c r="NR33" s="0"/>
+      <c r="NS33" s="0"/>
+      <c r="NT33" s="0"/>
+      <c r="NU33" s="0"/>
+      <c r="NV33" s="0"/>
+      <c r="NW33" s="0"/>
+      <c r="NX33" s="0"/>
+      <c r="NY33" s="0"/>
+      <c r="NZ33" s="0"/>
+      <c r="OA33" s="0"/>
+      <c r="OB33" s="0"/>
+      <c r="OC33" s="0"/>
+      <c r="OD33" s="0"/>
+      <c r="OE33" s="0"/>
+      <c r="OF33" s="0"/>
+      <c r="OG33" s="0"/>
+      <c r="OH33" s="0"/>
+      <c r="OI33" s="0"/>
+      <c r="OJ33" s="0"/>
+      <c r="OK33" s="0"/>
+      <c r="OL33" s="0"/>
+      <c r="OM33" s="0"/>
+      <c r="ON33" s="0"/>
+      <c r="OO33" s="0"/>
+      <c r="OP33" s="0"/>
+      <c r="OQ33" s="0"/>
+      <c r="OR33" s="0"/>
+      <c r="OS33" s="0"/>
+      <c r="OT33" s="0"/>
+      <c r="OU33" s="0"/>
+      <c r="OV33" s="0"/>
+      <c r="OW33" s="0"/>
+      <c r="OX33" s="0"/>
+      <c r="OY33" s="0"/>
+      <c r="OZ33" s="0"/>
+      <c r="PA33" s="0"/>
+      <c r="PB33" s="0"/>
+      <c r="PC33" s="0"/>
+      <c r="PD33" s="0"/>
+      <c r="PE33" s="0"/>
+      <c r="PF33" s="0"/>
+      <c r="PG33" s="0"/>
+      <c r="PH33" s="0"/>
+      <c r="PI33" s="0"/>
+      <c r="PJ33" s="0"/>
+      <c r="PK33" s="0"/>
+      <c r="PL33" s="0"/>
+      <c r="PM33" s="0"/>
+      <c r="PN33" s="0"/>
+      <c r="PO33" s="0"/>
+      <c r="PP33" s="0"/>
+      <c r="PQ33" s="0"/>
+      <c r="PR33" s="0"/>
+      <c r="PS33" s="0"/>
+      <c r="PT33" s="0"/>
+      <c r="PU33" s="0"/>
+      <c r="PV33" s="0"/>
+      <c r="PW33" s="0"/>
+      <c r="PX33" s="0"/>
+      <c r="PY33" s="0"/>
+      <c r="PZ33" s="0"/>
+      <c r="QA33" s="0"/>
+      <c r="QB33" s="0"/>
+      <c r="QC33" s="0"/>
+      <c r="QD33" s="0"/>
+      <c r="QE33" s="0"/>
+      <c r="QF33" s="0"/>
+      <c r="QG33" s="0"/>
+      <c r="QH33" s="0"/>
+      <c r="QI33" s="0"/>
+      <c r="QJ33" s="0"/>
+      <c r="QK33" s="0"/>
+      <c r="QL33" s="0"/>
+      <c r="QM33" s="0"/>
+      <c r="QN33" s="0"/>
+      <c r="QO33" s="0"/>
+      <c r="QP33" s="0"/>
+      <c r="QQ33" s="0"/>
+      <c r="QR33" s="0"/>
+      <c r="QS33" s="0"/>
+      <c r="QT33" s="0"/>
+      <c r="QU33" s="0"/>
+      <c r="QV33" s="0"/>
+      <c r="QW33" s="0"/>
+      <c r="QX33" s="0"/>
+      <c r="QY33" s="0"/>
+      <c r="QZ33" s="0"/>
+      <c r="RA33" s="0"/>
+      <c r="RB33" s="0"/>
+      <c r="RC33" s="0"/>
+      <c r="RD33" s="0"/>
+      <c r="RE33" s="0"/>
+      <c r="RF33" s="0"/>
+      <c r="RG33" s="0"/>
+      <c r="RH33" s="0"/>
+      <c r="RI33" s="0"/>
+      <c r="RJ33" s="0"/>
+      <c r="RK33" s="0"/>
+      <c r="RL33" s="0"/>
+      <c r="RM33" s="0"/>
+      <c r="RN33" s="0"/>
+      <c r="RO33" s="0"/>
+      <c r="RP33" s="0"/>
+      <c r="RQ33" s="0"/>
+      <c r="RR33" s="0"/>
+      <c r="RS33" s="0"/>
+      <c r="RT33" s="0"/>
+      <c r="RU33" s="0"/>
+      <c r="RV33" s="0"/>
+      <c r="RW33" s="0"/>
+      <c r="RX33" s="0"/>
+      <c r="RY33" s="0"/>
+      <c r="RZ33" s="0"/>
+      <c r="SA33" s="0"/>
+      <c r="SB33" s="0"/>
+      <c r="SC33" s="0"/>
+      <c r="SD33" s="0"/>
+      <c r="SE33" s="0"/>
+      <c r="SF33" s="0"/>
+      <c r="SG33" s="0"/>
+      <c r="SH33" s="0"/>
+      <c r="SI33" s="0"/>
+      <c r="SJ33" s="0"/>
+      <c r="SK33" s="0"/>
+      <c r="SL33" s="0"/>
+      <c r="SM33" s="0"/>
+      <c r="SN33" s="0"/>
+      <c r="SO33" s="0"/>
+      <c r="SP33" s="0"/>
+      <c r="SQ33" s="0"/>
+      <c r="SR33" s="0"/>
+      <c r="SS33" s="0"/>
+      <c r="ST33" s="0"/>
+      <c r="SU33" s="0"/>
+      <c r="SV33" s="0"/>
+      <c r="SW33" s="0"/>
+      <c r="SX33" s="0"/>
+      <c r="SY33" s="0"/>
+      <c r="SZ33" s="0"/>
+      <c r="TA33" s="0"/>
+      <c r="TB33" s="0"/>
+      <c r="TC33" s="0"/>
+      <c r="TD33" s="0"/>
+      <c r="TE33" s="0"/>
+      <c r="TF33" s="0"/>
+      <c r="TG33" s="0"/>
+      <c r="TH33" s="0"/>
+      <c r="TI33" s="0"/>
+      <c r="TJ33" s="0"/>
+      <c r="TK33" s="0"/>
+      <c r="TL33" s="0"/>
+      <c r="TM33" s="0"/>
+      <c r="TN33" s="0"/>
+      <c r="TO33" s="0"/>
+      <c r="TP33" s="0"/>
+      <c r="TQ33" s="0"/>
+      <c r="TR33" s="0"/>
+      <c r="TS33" s="0"/>
+      <c r="TT33" s="0"/>
+      <c r="TU33" s="0"/>
+      <c r="TV33" s="0"/>
+      <c r="TW33" s="0"/>
+      <c r="TX33" s="0"/>
+      <c r="TY33" s="0"/>
+      <c r="TZ33" s="0"/>
+      <c r="UA33" s="0"/>
+      <c r="UB33" s="0"/>
+      <c r="UC33" s="0"/>
+      <c r="UD33" s="0"/>
+      <c r="UE33" s="0"/>
+      <c r="UF33" s="0"/>
+      <c r="UG33" s="0"/>
+      <c r="UH33" s="0"/>
+      <c r="UI33" s="0"/>
+      <c r="UJ33" s="0"/>
+      <c r="UK33" s="0"/>
+      <c r="UL33" s="0"/>
+      <c r="UM33" s="0"/>
+      <c r="UN33" s="0"/>
+      <c r="UO33" s="0"/>
+      <c r="UP33" s="0"/>
+      <c r="UQ33" s="0"/>
+      <c r="UR33" s="0"/>
+      <c r="US33" s="0"/>
+      <c r="UT33" s="0"/>
+      <c r="UU33" s="0"/>
+      <c r="UV33" s="0"/>
+      <c r="UW33" s="0"/>
+      <c r="UX33" s="0"/>
+      <c r="UY33" s="0"/>
+      <c r="UZ33" s="0"/>
+      <c r="VA33" s="0"/>
+      <c r="VB33" s="0"/>
+      <c r="VC33" s="0"/>
+      <c r="VD33" s="0"/>
+      <c r="VE33" s="0"/>
+      <c r="VF33" s="0"/>
+      <c r="VG33" s="0"/>
+      <c r="VH33" s="0"/>
+      <c r="VI33" s="0"/>
+      <c r="VJ33" s="0"/>
+      <c r="VK33" s="0"/>
+      <c r="VL33" s="0"/>
+      <c r="VM33" s="0"/>
+      <c r="VN33" s="0"/>
+      <c r="VO33" s="0"/>
+      <c r="VP33" s="0"/>
+      <c r="VQ33" s="0"/>
+      <c r="VR33" s="0"/>
+      <c r="VS33" s="0"/>
+      <c r="VT33" s="0"/>
+      <c r="VU33" s="0"/>
+      <c r="VV33" s="0"/>
+      <c r="VW33" s="0"/>
+      <c r="VX33" s="0"/>
+      <c r="VY33" s="0"/>
+      <c r="VZ33" s="0"/>
+      <c r="WA33" s="0"/>
+      <c r="WB33" s="0"/>
+      <c r="WC33" s="0"/>
+      <c r="WD33" s="0"/>
+      <c r="WE33" s="0"/>
+      <c r="WF33" s="0"/>
+      <c r="WG33" s="0"/>
+      <c r="WH33" s="0"/>
+      <c r="WI33" s="0"/>
+      <c r="WJ33" s="0"/>
+      <c r="WK33" s="0"/>
+      <c r="WL33" s="0"/>
+      <c r="WM33" s="0"/>
+      <c r="WN33" s="0"/>
+      <c r="WO33" s="0"/>
+      <c r="WP33" s="0"/>
+      <c r="WQ33" s="0"/>
+      <c r="WR33" s="0"/>
+      <c r="WS33" s="0"/>
+      <c r="WT33" s="0"/>
+      <c r="WU33" s="0"/>
+      <c r="WV33" s="0"/>
+      <c r="WW33" s="0"/>
+      <c r="WX33" s="0"/>
+      <c r="WY33" s="0"/>
+      <c r="WZ33" s="0"/>
+      <c r="XA33" s="0"/>
+      <c r="XB33" s="0"/>
+      <c r="XC33" s="0"/>
+      <c r="XD33" s="0"/>
+      <c r="XE33" s="0"/>
+      <c r="XF33" s="0"/>
+      <c r="XG33" s="0"/>
+      <c r="XH33" s="0"/>
+      <c r="XI33" s="0"/>
+      <c r="XJ33" s="0"/>
+      <c r="XK33" s="0"/>
+      <c r="XL33" s="0"/>
+      <c r="XM33" s="0"/>
+      <c r="XN33" s="0"/>
+      <c r="XO33" s="0"/>
+      <c r="XP33" s="0"/>
+      <c r="XQ33" s="0"/>
+      <c r="XR33" s="0"/>
+      <c r="XS33" s="0"/>
+      <c r="XT33" s="0"/>
+      <c r="XU33" s="0"/>
+      <c r="XV33" s="0"/>
+      <c r="XW33" s="0"/>
+      <c r="XX33" s="0"/>
+      <c r="XY33" s="0"/>
+      <c r="XZ33" s="0"/>
+      <c r="YA33" s="0"/>
+      <c r="YB33" s="0"/>
+      <c r="YC33" s="0"/>
+      <c r="YD33" s="0"/>
+      <c r="YE33" s="0"/>
+      <c r="YF33" s="0"/>
+      <c r="YG33" s="0"/>
+      <c r="YH33" s="0"/>
+      <c r="YI33" s="0"/>
+      <c r="YJ33" s="0"/>
+      <c r="YK33" s="0"/>
+      <c r="YL33" s="0"/>
+      <c r="YM33" s="0"/>
+      <c r="YN33" s="0"/>
+      <c r="YO33" s="0"/>
+      <c r="YP33" s="0"/>
+      <c r="YQ33" s="0"/>
+      <c r="YR33" s="0"/>
+      <c r="YS33" s="0"/>
+      <c r="YT33" s="0"/>
+      <c r="YU33" s="0"/>
+      <c r="YV33" s="0"/>
+      <c r="YW33" s="0"/>
+      <c r="YX33" s="0"/>
+      <c r="YY33" s="0"/>
+      <c r="YZ33" s="0"/>
+      <c r="ZA33" s="0"/>
+      <c r="ZB33" s="0"/>
+      <c r="ZC33" s="0"/>
+      <c r="ZD33" s="0"/>
+      <c r="ZE33" s="0"/>
+      <c r="ZF33" s="0"/>
+      <c r="ZG33" s="0"/>
+      <c r="ZH33" s="0"/>
+      <c r="ZI33" s="0"/>
+      <c r="ZJ33" s="0"/>
+      <c r="ZK33" s="0"/>
+      <c r="ZL33" s="0"/>
+      <c r="ZM33" s="0"/>
+      <c r="ZN33" s="0"/>
+      <c r="ZO33" s="0"/>
+      <c r="ZP33" s="0"/>
+      <c r="ZQ33" s="0"/>
+      <c r="ZR33" s="0"/>
+      <c r="ZS33" s="0"/>
+      <c r="ZT33" s="0"/>
+      <c r="ZU33" s="0"/>
+      <c r="ZV33" s="0"/>
+      <c r="ZW33" s="0"/>
+      <c r="ZX33" s="0"/>
+      <c r="ZY33" s="0"/>
+      <c r="ZZ33" s="0"/>
+      <c r="AAA33" s="0"/>
+      <c r="AAB33" s="0"/>
+      <c r="AAC33" s="0"/>
+      <c r="AAD33" s="0"/>
+      <c r="AAE33" s="0"/>
+      <c r="AAF33" s="0"/>
+      <c r="AAG33" s="0"/>
+      <c r="AAH33" s="0"/>
+      <c r="AAI33" s="0"/>
+      <c r="AAJ33" s="0"/>
+      <c r="AAK33" s="0"/>
+      <c r="AAL33" s="0"/>
+      <c r="AAM33" s="0"/>
+      <c r="AAN33" s="0"/>
+      <c r="AAO33" s="0"/>
+      <c r="AAP33" s="0"/>
+      <c r="AAQ33" s="0"/>
+      <c r="AAR33" s="0"/>
+      <c r="AAS33" s="0"/>
+      <c r="AAT33" s="0"/>
+      <c r="AAU33" s="0"/>
+      <c r="AAV33" s="0"/>
+      <c r="AAW33" s="0"/>
+      <c r="AAX33" s="0"/>
+      <c r="AAY33" s="0"/>
+      <c r="AAZ33" s="0"/>
+      <c r="ABA33" s="0"/>
+      <c r="ABB33" s="0"/>
+      <c r="ABC33" s="0"/>
+      <c r="ABD33" s="0"/>
+      <c r="ABE33" s="0"/>
+      <c r="ABF33" s="0"/>
+      <c r="ABG33" s="0"/>
+      <c r="ABH33" s="0"/>
+      <c r="ABI33" s="0"/>
+      <c r="ABJ33" s="0"/>
+      <c r="ABK33" s="0"/>
+      <c r="ABL33" s="0"/>
+      <c r="ABM33" s="0"/>
+      <c r="ABN33" s="0"/>
+      <c r="ABO33" s="0"/>
+      <c r="ABP33" s="0"/>
+      <c r="ABQ33" s="0"/>
+      <c r="ABR33" s="0"/>
+      <c r="ABS33" s="0"/>
+      <c r="ABT33" s="0"/>
+      <c r="ABU33" s="0"/>
+      <c r="ABV33" s="0"/>
+      <c r="ABW33" s="0"/>
+      <c r="ABX33" s="0"/>
+      <c r="ABY33" s="0"/>
+      <c r="ABZ33" s="0"/>
+      <c r="ACA33" s="0"/>
+      <c r="ACB33" s="0"/>
+      <c r="ACC33" s="0"/>
+      <c r="ACD33" s="0"/>
+      <c r="ACE33" s="0"/>
+      <c r="ACF33" s="0"/>
+      <c r="ACG33" s="0"/>
+      <c r="ACH33" s="0"/>
+      <c r="ACI33" s="0"/>
+      <c r="ACJ33" s="0"/>
+      <c r="ACK33" s="0"/>
+      <c r="ACL33" s="0"/>
+      <c r="ACM33" s="0"/>
+      <c r="ACN33" s="0"/>
+      <c r="ACO33" s="0"/>
+      <c r="ACP33" s="0"/>
+      <c r="ACQ33" s="0"/>
+      <c r="ACR33" s="0"/>
+      <c r="ACS33" s="0"/>
+      <c r="ACT33" s="0"/>
+      <c r="ACU33" s="0"/>
+      <c r="ACV33" s="0"/>
+      <c r="ACW33" s="0"/>
+      <c r="ACX33" s="0"/>
+      <c r="ACY33" s="0"/>
+      <c r="ACZ33" s="0"/>
+      <c r="ADA33" s="0"/>
+      <c r="ADB33" s="0"/>
+      <c r="ADC33" s="0"/>
+      <c r="ADD33" s="0"/>
+      <c r="ADE33" s="0"/>
+      <c r="ADF33" s="0"/>
+      <c r="ADG33" s="0"/>
+      <c r="ADH33" s="0"/>
+      <c r="ADI33" s="0"/>
+      <c r="ADJ33" s="0"/>
+      <c r="ADK33" s="0"/>
+      <c r="ADL33" s="0"/>
+      <c r="ADM33" s="0"/>
+      <c r="ADN33" s="0"/>
+      <c r="ADO33" s="0"/>
+      <c r="ADP33" s="0"/>
+      <c r="ADQ33" s="0"/>
+      <c r="ADR33" s="0"/>
+      <c r="ADS33" s="0"/>
+      <c r="ADT33" s="0"/>
+      <c r="ADU33" s="0"/>
+      <c r="ADV33" s="0"/>
+      <c r="ADW33" s="0"/>
+      <c r="ADX33" s="0"/>
+      <c r="ADY33" s="0"/>
+      <c r="ADZ33" s="0"/>
+      <c r="AEA33" s="0"/>
+      <c r="AEB33" s="0"/>
+      <c r="AEC33" s="0"/>
+      <c r="AED33" s="0"/>
+      <c r="AEE33" s="0"/>
+      <c r="AEF33" s="0"/>
+      <c r="AEG33" s="0"/>
+      <c r="AEH33" s="0"/>
+      <c r="AEI33" s="0"/>
+      <c r="AEJ33" s="0"/>
+      <c r="AEK33" s="0"/>
+      <c r="AEL33" s="0"/>
+      <c r="AEM33" s="0"/>
+      <c r="AEN33" s="0"/>
+      <c r="AEO33" s="0"/>
+      <c r="AEP33" s="0"/>
+      <c r="AEQ33" s="0"/>
+      <c r="AER33" s="0"/>
+      <c r="AES33" s="0"/>
+      <c r="AET33" s="0"/>
+      <c r="AEU33" s="0"/>
+      <c r="AEV33" s="0"/>
+      <c r="AEW33" s="0"/>
+      <c r="AEX33" s="0"/>
+      <c r="AEY33" s="0"/>
+      <c r="AEZ33" s="0"/>
+      <c r="AFA33" s="0"/>
+      <c r="AFB33" s="0"/>
+      <c r="AFC33" s="0"/>
+      <c r="AFD33" s="0"/>
+      <c r="AFE33" s="0"/>
+      <c r="AFF33" s="0"/>
+      <c r="AFG33" s="0"/>
+      <c r="AFH33" s="0"/>
+      <c r="AFI33" s="0"/>
+      <c r="AFJ33" s="0"/>
+      <c r="AFK33" s="0"/>
+      <c r="AFL33" s="0"/>
+      <c r="AFM33" s="0"/>
+      <c r="AFN33" s="0"/>
+      <c r="AFO33" s="0"/>
+      <c r="AFP33" s="0"/>
+      <c r="AFQ33" s="0"/>
+      <c r="AFR33" s="0"/>
+      <c r="AFS33" s="0"/>
+      <c r="AFT33" s="0"/>
+      <c r="AFU33" s="0"/>
+      <c r="AFV33" s="0"/>
+      <c r="AFW33" s="0"/>
+      <c r="AFX33" s="0"/>
+      <c r="AFY33" s="0"/>
+      <c r="AFZ33" s="0"/>
+      <c r="AGA33" s="0"/>
+      <c r="AGB33" s="0"/>
+      <c r="AGC33" s="0"/>
+      <c r="AGD33" s="0"/>
+      <c r="AGE33" s="0"/>
+      <c r="AGF33" s="0"/>
+      <c r="AGG33" s="0"/>
+      <c r="AGH33" s="0"/>
+      <c r="AGI33" s="0"/>
+      <c r="AGJ33" s="0"/>
+      <c r="AGK33" s="0"/>
+      <c r="AGL33" s="0"/>
+      <c r="AGM33" s="0"/>
+      <c r="AGN33" s="0"/>
+      <c r="AGO33" s="0"/>
+      <c r="AGP33" s="0"/>
+      <c r="AGQ33" s="0"/>
+      <c r="AGR33" s="0"/>
+      <c r="AGS33" s="0"/>
+      <c r="AGT33" s="0"/>
+      <c r="AGU33" s="0"/>
+      <c r="AGV33" s="0"/>
+      <c r="AGW33" s="0"/>
+      <c r="AGX33" s="0"/>
+      <c r="AGY33" s="0"/>
+      <c r="AGZ33" s="0"/>
+      <c r="AHA33" s="0"/>
+      <c r="AHB33" s="0"/>
+      <c r="AHC33" s="0"/>
+      <c r="AHD33" s="0"/>
+      <c r="AHE33" s="0"/>
+      <c r="AHF33" s="0"/>
+      <c r="AHG33" s="0"/>
+      <c r="AHH33" s="0"/>
+      <c r="AHI33" s="0"/>
+      <c r="AHJ33" s="0"/>
+      <c r="AHK33" s="0"/>
+      <c r="AHL33" s="0"/>
+      <c r="AHM33" s="0"/>
+      <c r="AHN33" s="0"/>
+      <c r="AHO33" s="0"/>
+      <c r="AHP33" s="0"/>
+      <c r="AHQ33" s="0"/>
+      <c r="AHR33" s="0"/>
+      <c r="AHS33" s="0"/>
+      <c r="AHT33" s="0"/>
+      <c r="AHU33" s="0"/>
+      <c r="AHV33" s="0"/>
+      <c r="AHW33" s="0"/>
+      <c r="AHX33" s="0"/>
+      <c r="AHY33" s="0"/>
+      <c r="AHZ33" s="0"/>
+      <c r="AIA33" s="0"/>
+      <c r="AIB33" s="0"/>
+      <c r="AIC33" s="0"/>
+      <c r="AID33" s="0"/>
+      <c r="AIE33" s="0"/>
+      <c r="AIF33" s="0"/>
+      <c r="AIG33" s="0"/>
+      <c r="AIH33" s="0"/>
+      <c r="AII33" s="0"/>
+      <c r="AIJ33" s="0"/>
+      <c r="AIK33" s="0"/>
+      <c r="AIL33" s="0"/>
+      <c r="AIM33" s="0"/>
+      <c r="AIN33" s="0"/>
+      <c r="AIO33" s="0"/>
+      <c r="AIP33" s="0"/>
+      <c r="AIQ33" s="0"/>
+      <c r="AIR33" s="0"/>
+      <c r="AIS33" s="0"/>
+      <c r="AIT33" s="0"/>
+      <c r="AIU33" s="0"/>
+      <c r="AIV33" s="0"/>
+      <c r="AIW33" s="0"/>
+      <c r="AIX33" s="0"/>
+      <c r="AIY33" s="0"/>
+      <c r="AIZ33" s="0"/>
+      <c r="AJA33" s="0"/>
+      <c r="AJB33" s="0"/>
+      <c r="AJC33" s="0"/>
+      <c r="AJD33" s="0"/>
+      <c r="AJE33" s="0"/>
+      <c r="AJF33" s="0"/>
+      <c r="AJG33" s="0"/>
+      <c r="AJH33" s="0"/>
+      <c r="AJI33" s="0"/>
+      <c r="AJJ33" s="0"/>
+      <c r="AJK33" s="0"/>
+      <c r="AJL33" s="0"/>
+      <c r="AJM33" s="0"/>
+      <c r="AJN33" s="0"/>
+      <c r="AJO33" s="0"/>
+      <c r="AJP33" s="0"/>
+      <c r="AJQ33" s="0"/>
+      <c r="AJR33" s="0"/>
+      <c r="AJS33" s="0"/>
+      <c r="AJT33" s="0"/>
+      <c r="AJU33" s="0"/>
+      <c r="AJV33" s="0"/>
+      <c r="AJW33" s="0"/>
+      <c r="AJX33" s="0"/>
+      <c r="AJY33" s="0"/>
+      <c r="AJZ33" s="0"/>
+      <c r="AKA33" s="0"/>
+      <c r="AKB33" s="0"/>
+      <c r="AKC33" s="0"/>
+      <c r="AKD33" s="0"/>
+      <c r="AKE33" s="0"/>
+      <c r="AKF33" s="0"/>
+      <c r="AKG33" s="0"/>
+      <c r="AKH33" s="0"/>
+      <c r="AKI33" s="0"/>
+      <c r="AKJ33" s="0"/>
+      <c r="AKK33" s="0"/>
+      <c r="AKL33" s="0"/>
+      <c r="AKM33" s="0"/>
+      <c r="AKN33" s="0"/>
+      <c r="AKO33" s="0"/>
+      <c r="AKP33" s="0"/>
+      <c r="AKQ33" s="0"/>
+      <c r="AKR33" s="0"/>
+      <c r="AKS33" s="0"/>
+      <c r="AKT33" s="0"/>
+      <c r="AKU33" s="0"/>
+      <c r="AKV33" s="0"/>
+      <c r="AKW33" s="0"/>
+      <c r="AKX33" s="0"/>
+      <c r="AKY33" s="0"/>
+      <c r="AKZ33" s="0"/>
+      <c r="ALA33" s="0"/>
+      <c r="ALB33" s="0"/>
+      <c r="ALC33" s="0"/>
+      <c r="ALD33" s="0"/>
+      <c r="ALE33" s="0"/>
+      <c r="ALF33" s="0"/>
+      <c r="ALG33" s="0"/>
+      <c r="ALH33" s="0"/>
+      <c r="ALI33" s="0"/>
+      <c r="ALJ33" s="0"/>
+      <c r="ALK33" s="0"/>
+      <c r="ALL33" s="0"/>
+      <c r="ALM33" s="0"/>
+      <c r="ALN33" s="0"/>
+      <c r="ALO33" s="0"/>
+      <c r="ALP33" s="0"/>
+      <c r="ALQ33" s="0"/>
+      <c r="ALR33" s="0"/>
+      <c r="ALS33" s="0"/>
+      <c r="ALT33" s="0"/>
+      <c r="ALU33" s="0"/>
+      <c r="ALV33" s="0"/>
+      <c r="ALW33" s="0"/>
+      <c r="ALX33" s="0"/>
+      <c r="ALY33" s="0"/>
+      <c r="ALZ33" s="0"/>
+      <c r="AMA33" s="0"/>
+      <c r="AMB33" s="0"/>
+      <c r="AMC33" s="0"/>
+      <c r="AMD33" s="0"/>
+      <c r="AME33" s="0"/>
+      <c r="AMF33" s="0"/>
+      <c r="AMG33" s="0"/>
+      <c r="AMH33" s="0"/>
+      <c r="AMI33" s="0"/>
+      <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>54</v>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -35,13 +35,16 @@
     <t>medium</t>
   </si>
   <si>
-    <t>database change</t>
+    <t>Screen/field validation change</t>
   </si>
   <si>
     <t>done</t>
   </si>
   <si>
     <t>Allow for entry of weight for total PO to 2 decimal places (ei: 100.25 T)(This is a required field)</t>
+  </si>
+  <si>
+    <t>database change</t>
   </si>
   <si>
     <t>Weight of tonnage calculated into pounds by *2206.7. (ei 100.25 * 2206.7 = 221151.5) however this will be rounded to the nearest 10 lbs, so the example would be 221,152 lbs.</t>
@@ -354,7 +357,7 @@
   <dimension ref="1:35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2442,9 +2445,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
-      <c r="D3" s="0"/>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -3468,7 +3473,7 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -3476,13 +3481,13 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
@@ -4508,13 +4513,13 @@
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>7</v>
@@ -5542,13 +5547,13 @@
     </row>
     <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
@@ -6574,13 +6579,13 @@
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -7606,11 +7611,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -8639,7 +8644,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="3"/>
@@ -9667,15 +9672,17 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
-      <c r="D12" s="0"/>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -10699,13 +10706,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -11731,10 +11738,10 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -11742,13 +11749,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
@@ -12774,13 +12781,13 @@
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
@@ -13806,13 +13813,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
@@ -14838,13 +14845,13 @@
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -15870,11 +15877,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
@@ -16900,13 +16907,13 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -17932,13 +17939,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>7</v>
@@ -18969,7 +18976,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="3"/>
@@ -19997,10 +20004,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0" t="s">
@@ -21029,10 +21036,10 @@
     </row>
     <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -21040,7 +21047,7 @@
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -22070,10 +22077,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" s="0" t="s">
@@ -23102,13 +23109,13 @@
     </row>
     <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
@@ -24134,13 +24141,13 @@
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
@@ -25166,7 +25173,7 @@
     </row>
     <row r="30" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -25174,13 +25181,13 @@
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
@@ -26206,16 +26213,16 @@
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -27240,13 +27247,13 @@
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
@@ -28272,7 +28279,7 @@
     </row>
     <row r="34" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -28280,13 +28287,13 @@
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -80,6 +80,9 @@
     <t>No data is entered if user does nor complete the screen</t>
   </si>
   <si>
+    <t>done?</t>
+  </si>
+  <si>
     <t>The layout below: Check screen</t>
   </si>
   <si>
@@ -110,7 +113,7 @@
     <t>Vendor PO number should be Halliburton TO# (10-15 digits)</t>
   </si>
   <si>
-    <t>need to work on Po #</t>
+    <t>need to work on Po #, integers max is 10 digits, database</t>
   </si>
   <si>
     <t>Purchase order should be a drop down from those PO's that have a remaining balance &gt;100lbs.</t>
@@ -357,7 +360,7 @@
   <dimension ref="1:35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3478,6 +3481,9 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -6587,7 +6593,9 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0"/>
+      <c r="D8" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -7611,11 +7619,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="B9" s="0"/>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -8644,7 +8654,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="3"/>
@@ -9672,7 +9682,7 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -10706,7 +10716,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -10714,7 +10724,9 @@
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="0"/>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -11738,10 +11750,10 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -11749,15 +11761,17 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
-      <c r="D15" s="0"/>
+      <c r="D15" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -12781,13 +12795,13 @@
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
@@ -13813,7 +13827,7 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -15877,11 +15891,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
@@ -16907,13 +16921,13 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -17939,13 +17953,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>7</v>
@@ -18976,7 +18990,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="3"/>
@@ -20004,10 +20018,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0" t="s">
@@ -21036,10 +21050,10 @@
     </row>
     <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -21047,7 +21061,7 @@
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -22077,10 +22091,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" s="0" t="s">
@@ -23109,13 +23123,13 @@
     </row>
     <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
@@ -24141,13 +24155,13 @@
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
@@ -25173,7 +25187,7 @@
     </row>
     <row r="30" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -25181,13 +25195,13 @@
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
@@ -26213,16 +26227,16 @@
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -27247,13 +27261,13 @@
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
@@ -28279,7 +28293,7 @@
     </row>
     <row r="34" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -28287,13 +28301,13 @@
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -119,10 +119,16 @@
     <t>Purchase order should be a drop down from those PO's that have a remaining balance &gt;100lbs.</t>
   </si>
   <si>
+    <t>DB</t>
+  </si>
+  <si>
     <t>UI needs to be a little more pretty.</t>
   </si>
   <si>
-    <t>which screen?</t>
+    <t>Maybe we can remove some fields, what is the min requirement to display?</t>
+  </si>
+  <si>
+    <t>Done </t>
   </si>
   <si>
     <t>Allow for a scanned document to be uploaded.</t>
@@ -206,7 +212,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -228,21 +233,18 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -250,7 +252,6 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -359,8 +360,8 @@
   </sheetPr>
   <dimension ref="1:35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -12803,7 +12804,9 @@
       <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="0"/>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -14857,9 +14860,9 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -15889,15 +15892,17 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
-      <c r="D19" s="0"/>
+      <c r="D19" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -16921,13 +16926,13 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -17953,13 +17958,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>7</v>
@@ -18990,7 +18995,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="3"/>
@@ -20018,7 +20023,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -21050,7 +21055,7 @@
     </row>
     <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -21061,7 +21066,7 @@
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -22091,7 +22096,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
@@ -23123,13 +23128,13 @@
     </row>
     <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
@@ -24155,13 +24160,13 @@
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
@@ -25187,7 +25192,7 @@
     </row>
     <row r="30" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -25195,13 +25200,13 @@
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
@@ -26227,16 +26232,16 @@
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -27261,13 +27266,13 @@
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
@@ -28293,7 +28298,7 @@
     </row>
     <row r="34" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -28301,13 +28306,13 @@
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -41,6 +41,9 @@
     <t>done</t>
   </si>
   <si>
+    <t>Approved</t>
+  </si>
+  <si>
     <t>Allow for entry of weight for total PO to 2 decimal places (ei: 100.25 T)(This is a required field)</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>Weight of tonnage calculated into pounds by *2206.7. (ei 100.25 * 2206.7 = 221151.5) however this will be rounded to the nearest 10 lbs, so the example would be 221,152 lbs.</t>
+  </si>
+  <si>
+    <t>This doesn't round correctly, for 100.25T should read 221160lbs, needs to round to the nearest 10lbs.</t>
   </si>
   <si>
     <t>Drop down menu for “vendor” – and a table that contains them so users can add them.</t>
@@ -74,6 +80,9 @@
     <t>I'll have to check the Access DB how this is done</t>
   </si>
   <si>
+    <t>Calculation is PO# Tonnage - Trailered Tons = Remaining weight</t>
+  </si>
+  <si>
     <t>Not allow for the user to click the back button, I need it to crash/not load a screen.</t>
   </si>
   <si>
@@ -81,6 +90,9 @@
   </si>
   <si>
     <t>done?</t>
+  </si>
+  <si>
+    <t>The back button in the explorer window should not load the page again.</t>
   </si>
   <si>
     <t>The layout below: Check screen</t>
@@ -95,7 +107,13 @@
     <t>Weight on arrival should show “Weight on arrival in Tons”, “Weight at origin in Tons” Needs to allow for two decimal’s .</t>
   </si>
   <si>
+    <t>Errored out / not approved.</t>
+  </si>
+  <si>
     <t>Sand Grade should be a drop down</t>
+  </si>
+  <si>
+    <t>Approved.</t>
   </si>
   <si>
     <t>BOL Number 8-10 digits</t>
@@ -119,6 +137,9 @@
     <t>Purchase order should be a drop down from those PO's that have a remaining balance &gt;100lbs.</t>
   </si>
   <si>
+    <t>Any remaining weight on the PO &gt;100lbs (.5T) display the PO in the drop down.'</t>
+  </si>
+  <si>
     <t>DB</t>
   </si>
   <si>
@@ -128,7 +149,10 @@
     <t>Maybe we can remove some fields, what is the min requirement to display?</t>
   </si>
   <si>
-    <t>Done </t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Approved, but more lateral look vs Vertical.</t>
   </si>
   <si>
     <t>Allow for a scanned document to be uploaded.</t>
@@ -137,16 +161,22 @@
     <t>Need to research on uploads and keeping them on the server for reference</t>
   </si>
   <si>
-    <t>Rails car Nb # </t>
+    <t>Rails car Nb #</t>
   </si>
   <si>
     <t>Mandatory, added by CL</t>
+  </si>
+  <si>
+    <t>Created by/edited by should be automatically entered, system requires entry.</t>
   </si>
   <si>
     <t>New Trailer:</t>
   </si>
   <si>
     <t>Trailer Number (required field)</t>
+  </si>
+  <si>
+    <t>approved</t>
   </si>
   <si>
     <t>Driver name (Required field)</t>
@@ -158,13 +188,13 @@
     <t>BOL number should be entered by the user (required)</t>
   </si>
   <si>
-    <t>Time in and Time out should be buttons, Time in first when clicked time stamp the record, and time out is greyed out. Once time in is clicked time out is allowed to be clicked. (This is HH:MM:SS  DD:MM:YY) format. </t>
+    <t>Time in and Time out should be buttons, Time in first when clicked time stamp the record, and time out is greyed out. Once time in is clicked time out is allowed to be clicked. (This is HH:MM:SS  DD:MM:YY) format.</t>
   </si>
   <si>
     <t>need work on how to work conditionals on screen</t>
   </si>
   <si>
-    <t>Rail car = from rail car screen (with only those rail cars who are not clicked as ‘empty car’). </t>
+    <t>Rail car = from rail car screen (with only those rail cars who are not clicked as ‘empty car’).</t>
   </si>
   <si>
     <t>to research</t>
@@ -188,7 +218,10 @@
     <t>made weight_lbs mandatory</t>
   </si>
   <si>
-    <t>Purchase order should be a drop down based on the entries from the Create new PO screen. </t>
+    <t>Weight in tons should be calculated based on User entry, like with the PO Screen.</t>
+  </si>
+  <si>
+    <t>Purchase order should be a drop down based on the entries from the Create new PO screen.</t>
   </si>
   <si>
     <t>Then once this entry takes place, to subtract the tonnage from the Purchase order, and display the ‘remaining balance’ in the purchase order screen.</t>
@@ -212,6 +245,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -233,18 +267,21 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -252,14 +289,21 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -296,7 +340,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,31 +358,67 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -358,22 +438,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:35"/>
+  <dimension ref="1:36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="46.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="46.4438775510204"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="3" width="18.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="11.5561224489796"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -386,7 +467,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
@@ -1407,20 +1488,22 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0"/>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -2441,20 +2524,22 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -3475,29 +3560,35 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+    <row r="4" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
@@ -4518,20 +4609,22 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+    <row r="6" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="0"/>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
@@ -5552,18 +5645,20 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="7" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
@@ -6584,20 +6679,22 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
+    <row r="8" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>21</v>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
       </c>
-      <c r="E8" s="0"/>
+      <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -7618,18 +7715,18 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
@@ -8650,17 +8747,21 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2"/>
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
@@ -9681,20 +9782,22 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
+    <row r="12" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="0"/>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -10715,20 +10818,22 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="0"/>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -11749,31 +11854,37 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
+      <c r="B14" s="9" t="s">
+        <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="0"/>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -12794,20 +12905,22 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
+    <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -13828,18 +13941,20 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+    <row r="17" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
+      <c r="D17" s="10"/>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
       </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -14860,18 +14975,18 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+    <row r="18" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
+      <c r="B18" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
+      <c r="C18" s="8" t="s">
+        <v>23</v>
       </c>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -15892,18 +16007,20 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+    <row r="19" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8" t="s">
+        <v>43</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>37</v>
+      <c r="D19" s="10" t="s">
+        <v>44</v>
       </c>
-      <c r="E19" s="0"/>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
@@ -16924,18 +17041,20 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
+    <row r="20" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
+      <c r="C20" s="8" t="s">
+        <v>47</v>
       </c>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
@@ -17956,20 +18075,22 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>40</v>
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>48</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>28</v>
+      <c r="B21" s="12" t="s">
+        <v>34</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>41</v>
+      <c r="C21" s="13" t="s">
+        <v>49</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="0"/>
+      <c r="E21" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
@@ -18990,17 +19111,21 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2"/>
+    <row r="22" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="0"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
@@ -20021,18 +20146,14 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="0"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
@@ -21053,27 +21174,35 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>52</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E25" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
       </c>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
@@ -22094,18 +22223,16 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
+    <row r="27" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>55</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>28</v>
+      <c r="B27" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="0"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -23126,18 +23253,20 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
+    <row r="28" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>56</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
+      <c r="B28" s="9" t="s">
+        <v>34</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
+      <c r="E28" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
@@ -24158,18 +24287,18 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>49</v>
+    <row r="29" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>57</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>17</v>
+      <c r="B29" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>50</v>
+      <c r="C29" s="8" t="s">
+        <v>58</v>
       </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
@@ -25190,26 +25319,29 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>51</v>
+    <row r="30" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>59</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
@@ -26230,20 +26362,18 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
+    <row r="32" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
+      <c r="C32" s="8" t="s">
+        <v>63</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="0"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
@@ -27264,18 +27394,22 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
+    <row r="33" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
+      <c r="C33" s="8" t="s">
+        <v>65</v>
       </c>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
+      <c r="D33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
@@ -28296,29 +28430,47 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
+    <row r="34" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>68</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="C34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
+    <row r="35" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>69</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>60</v>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>70</v>
       </c>
+      <c r="B36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -440,8 +440,8 @@
   </sheetPr>
   <dimension ref="1:36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3574,6 +3574,1025 @@
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IP4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
+      <c r="IU4" s="0"/>
+      <c r="IV4" s="0"/>
+      <c r="IW4" s="0"/>
+      <c r="IX4" s="0"/>
+      <c r="IY4" s="0"/>
+      <c r="IZ4" s="0"/>
+      <c r="JA4" s="0"/>
+      <c r="JB4" s="0"/>
+      <c r="JC4" s="0"/>
+      <c r="JD4" s="0"/>
+      <c r="JE4" s="0"/>
+      <c r="JF4" s="0"/>
+      <c r="JG4" s="0"/>
+      <c r="JH4" s="0"/>
+      <c r="JI4" s="0"/>
+      <c r="JJ4" s="0"/>
+      <c r="JK4" s="0"/>
+      <c r="JL4" s="0"/>
+      <c r="JM4" s="0"/>
+      <c r="JN4" s="0"/>
+      <c r="JO4" s="0"/>
+      <c r="JP4" s="0"/>
+      <c r="JQ4" s="0"/>
+      <c r="JR4" s="0"/>
+      <c r="JS4" s="0"/>
+      <c r="JT4" s="0"/>
+      <c r="JU4" s="0"/>
+      <c r="JV4" s="0"/>
+      <c r="JW4" s="0"/>
+      <c r="JX4" s="0"/>
+      <c r="JY4" s="0"/>
+      <c r="JZ4" s="0"/>
+      <c r="KA4" s="0"/>
+      <c r="KB4" s="0"/>
+      <c r="KC4" s="0"/>
+      <c r="KD4" s="0"/>
+      <c r="KE4" s="0"/>
+      <c r="KF4" s="0"/>
+      <c r="KG4" s="0"/>
+      <c r="KH4" s="0"/>
+      <c r="KI4" s="0"/>
+      <c r="KJ4" s="0"/>
+      <c r="KK4" s="0"/>
+      <c r="KL4" s="0"/>
+      <c r="KM4" s="0"/>
+      <c r="KN4" s="0"/>
+      <c r="KO4" s="0"/>
+      <c r="KP4" s="0"/>
+      <c r="KQ4" s="0"/>
+      <c r="KR4" s="0"/>
+      <c r="KS4" s="0"/>
+      <c r="KT4" s="0"/>
+      <c r="KU4" s="0"/>
+      <c r="KV4" s="0"/>
+      <c r="KW4" s="0"/>
+      <c r="KX4" s="0"/>
+      <c r="KY4" s="0"/>
+      <c r="KZ4" s="0"/>
+      <c r="LA4" s="0"/>
+      <c r="LB4" s="0"/>
+      <c r="LC4" s="0"/>
+      <c r="LD4" s="0"/>
+      <c r="LE4" s="0"/>
+      <c r="LF4" s="0"/>
+      <c r="LG4" s="0"/>
+      <c r="LH4" s="0"/>
+      <c r="LI4" s="0"/>
+      <c r="LJ4" s="0"/>
+      <c r="LK4" s="0"/>
+      <c r="LL4" s="0"/>
+      <c r="LM4" s="0"/>
+      <c r="LN4" s="0"/>
+      <c r="LO4" s="0"/>
+      <c r="LP4" s="0"/>
+      <c r="LQ4" s="0"/>
+      <c r="LR4" s="0"/>
+      <c r="LS4" s="0"/>
+      <c r="LT4" s="0"/>
+      <c r="LU4" s="0"/>
+      <c r="LV4" s="0"/>
+      <c r="LW4" s="0"/>
+      <c r="LX4" s="0"/>
+      <c r="LY4" s="0"/>
+      <c r="LZ4" s="0"/>
+      <c r="MA4" s="0"/>
+      <c r="MB4" s="0"/>
+      <c r="MC4" s="0"/>
+      <c r="MD4" s="0"/>
+      <c r="ME4" s="0"/>
+      <c r="MF4" s="0"/>
+      <c r="MG4" s="0"/>
+      <c r="MH4" s="0"/>
+      <c r="MI4" s="0"/>
+      <c r="MJ4" s="0"/>
+      <c r="MK4" s="0"/>
+      <c r="ML4" s="0"/>
+      <c r="MM4" s="0"/>
+      <c r="MN4" s="0"/>
+      <c r="MO4" s="0"/>
+      <c r="MP4" s="0"/>
+      <c r="MQ4" s="0"/>
+      <c r="MR4" s="0"/>
+      <c r="MS4" s="0"/>
+      <c r="MT4" s="0"/>
+      <c r="MU4" s="0"/>
+      <c r="MV4" s="0"/>
+      <c r="MW4" s="0"/>
+      <c r="MX4" s="0"/>
+      <c r="MY4" s="0"/>
+      <c r="MZ4" s="0"/>
+      <c r="NA4" s="0"/>
+      <c r="NB4" s="0"/>
+      <c r="NC4" s="0"/>
+      <c r="ND4" s="0"/>
+      <c r="NE4" s="0"/>
+      <c r="NF4" s="0"/>
+      <c r="NG4" s="0"/>
+      <c r="NH4" s="0"/>
+      <c r="NI4" s="0"/>
+      <c r="NJ4" s="0"/>
+      <c r="NK4" s="0"/>
+      <c r="NL4" s="0"/>
+      <c r="NM4" s="0"/>
+      <c r="NN4" s="0"/>
+      <c r="NO4" s="0"/>
+      <c r="NP4" s="0"/>
+      <c r="NQ4" s="0"/>
+      <c r="NR4" s="0"/>
+      <c r="NS4" s="0"/>
+      <c r="NT4" s="0"/>
+      <c r="NU4" s="0"/>
+      <c r="NV4" s="0"/>
+      <c r="NW4" s="0"/>
+      <c r="NX4" s="0"/>
+      <c r="NY4" s="0"/>
+      <c r="NZ4" s="0"/>
+      <c r="OA4" s="0"/>
+      <c r="OB4" s="0"/>
+      <c r="OC4" s="0"/>
+      <c r="OD4" s="0"/>
+      <c r="OE4" s="0"/>
+      <c r="OF4" s="0"/>
+      <c r="OG4" s="0"/>
+      <c r="OH4" s="0"/>
+      <c r="OI4" s="0"/>
+      <c r="OJ4" s="0"/>
+      <c r="OK4" s="0"/>
+      <c r="OL4" s="0"/>
+      <c r="OM4" s="0"/>
+      <c r="ON4" s="0"/>
+      <c r="OO4" s="0"/>
+      <c r="OP4" s="0"/>
+      <c r="OQ4" s="0"/>
+      <c r="OR4" s="0"/>
+      <c r="OS4" s="0"/>
+      <c r="OT4" s="0"/>
+      <c r="OU4" s="0"/>
+      <c r="OV4" s="0"/>
+      <c r="OW4" s="0"/>
+      <c r="OX4" s="0"/>
+      <c r="OY4" s="0"/>
+      <c r="OZ4" s="0"/>
+      <c r="PA4" s="0"/>
+      <c r="PB4" s="0"/>
+      <c r="PC4" s="0"/>
+      <c r="PD4" s="0"/>
+      <c r="PE4" s="0"/>
+      <c r="PF4" s="0"/>
+      <c r="PG4" s="0"/>
+      <c r="PH4" s="0"/>
+      <c r="PI4" s="0"/>
+      <c r="PJ4" s="0"/>
+      <c r="PK4" s="0"/>
+      <c r="PL4" s="0"/>
+      <c r="PM4" s="0"/>
+      <c r="PN4" s="0"/>
+      <c r="PO4" s="0"/>
+      <c r="PP4" s="0"/>
+      <c r="PQ4" s="0"/>
+      <c r="PR4" s="0"/>
+      <c r="PS4" s="0"/>
+      <c r="PT4" s="0"/>
+      <c r="PU4" s="0"/>
+      <c r="PV4" s="0"/>
+      <c r="PW4" s="0"/>
+      <c r="PX4" s="0"/>
+      <c r="PY4" s="0"/>
+      <c r="PZ4" s="0"/>
+      <c r="QA4" s="0"/>
+      <c r="QB4" s="0"/>
+      <c r="QC4" s="0"/>
+      <c r="QD4" s="0"/>
+      <c r="QE4" s="0"/>
+      <c r="QF4" s="0"/>
+      <c r="QG4" s="0"/>
+      <c r="QH4" s="0"/>
+      <c r="QI4" s="0"/>
+      <c r="QJ4" s="0"/>
+      <c r="QK4" s="0"/>
+      <c r="QL4" s="0"/>
+      <c r="QM4" s="0"/>
+      <c r="QN4" s="0"/>
+      <c r="QO4" s="0"/>
+      <c r="QP4" s="0"/>
+      <c r="QQ4" s="0"/>
+      <c r="QR4" s="0"/>
+      <c r="QS4" s="0"/>
+      <c r="QT4" s="0"/>
+      <c r="QU4" s="0"/>
+      <c r="QV4" s="0"/>
+      <c r="QW4" s="0"/>
+      <c r="QX4" s="0"/>
+      <c r="QY4" s="0"/>
+      <c r="QZ4" s="0"/>
+      <c r="RA4" s="0"/>
+      <c r="RB4" s="0"/>
+      <c r="RC4" s="0"/>
+      <c r="RD4" s="0"/>
+      <c r="RE4" s="0"/>
+      <c r="RF4" s="0"/>
+      <c r="RG4" s="0"/>
+      <c r="RH4" s="0"/>
+      <c r="RI4" s="0"/>
+      <c r="RJ4" s="0"/>
+      <c r="RK4" s="0"/>
+      <c r="RL4" s="0"/>
+      <c r="RM4" s="0"/>
+      <c r="RN4" s="0"/>
+      <c r="RO4" s="0"/>
+      <c r="RP4" s="0"/>
+      <c r="RQ4" s="0"/>
+      <c r="RR4" s="0"/>
+      <c r="RS4" s="0"/>
+      <c r="RT4" s="0"/>
+      <c r="RU4" s="0"/>
+      <c r="RV4" s="0"/>
+      <c r="RW4" s="0"/>
+      <c r="RX4" s="0"/>
+      <c r="RY4" s="0"/>
+      <c r="RZ4" s="0"/>
+      <c r="SA4" s="0"/>
+      <c r="SB4" s="0"/>
+      <c r="SC4" s="0"/>
+      <c r="SD4" s="0"/>
+      <c r="SE4" s="0"/>
+      <c r="SF4" s="0"/>
+      <c r="SG4" s="0"/>
+      <c r="SH4" s="0"/>
+      <c r="SI4" s="0"/>
+      <c r="SJ4" s="0"/>
+      <c r="SK4" s="0"/>
+      <c r="SL4" s="0"/>
+      <c r="SM4" s="0"/>
+      <c r="SN4" s="0"/>
+      <c r="SO4" s="0"/>
+      <c r="SP4" s="0"/>
+      <c r="SQ4" s="0"/>
+      <c r="SR4" s="0"/>
+      <c r="SS4" s="0"/>
+      <c r="ST4" s="0"/>
+      <c r="SU4" s="0"/>
+      <c r="SV4" s="0"/>
+      <c r="SW4" s="0"/>
+      <c r="SX4" s="0"/>
+      <c r="SY4" s="0"/>
+      <c r="SZ4" s="0"/>
+      <c r="TA4" s="0"/>
+      <c r="TB4" s="0"/>
+      <c r="TC4" s="0"/>
+      <c r="TD4" s="0"/>
+      <c r="TE4" s="0"/>
+      <c r="TF4" s="0"/>
+      <c r="TG4" s="0"/>
+      <c r="TH4" s="0"/>
+      <c r="TI4" s="0"/>
+      <c r="TJ4" s="0"/>
+      <c r="TK4" s="0"/>
+      <c r="TL4" s="0"/>
+      <c r="TM4" s="0"/>
+      <c r="TN4" s="0"/>
+      <c r="TO4" s="0"/>
+      <c r="TP4" s="0"/>
+      <c r="TQ4" s="0"/>
+      <c r="TR4" s="0"/>
+      <c r="TS4" s="0"/>
+      <c r="TT4" s="0"/>
+      <c r="TU4" s="0"/>
+      <c r="TV4" s="0"/>
+      <c r="TW4" s="0"/>
+      <c r="TX4" s="0"/>
+      <c r="TY4" s="0"/>
+      <c r="TZ4" s="0"/>
+      <c r="UA4" s="0"/>
+      <c r="UB4" s="0"/>
+      <c r="UC4" s="0"/>
+      <c r="UD4" s="0"/>
+      <c r="UE4" s="0"/>
+      <c r="UF4" s="0"/>
+      <c r="UG4" s="0"/>
+      <c r="UH4" s="0"/>
+      <c r="UI4" s="0"/>
+      <c r="UJ4" s="0"/>
+      <c r="UK4" s="0"/>
+      <c r="UL4" s="0"/>
+      <c r="UM4" s="0"/>
+      <c r="UN4" s="0"/>
+      <c r="UO4" s="0"/>
+      <c r="UP4" s="0"/>
+      <c r="UQ4" s="0"/>
+      <c r="UR4" s="0"/>
+      <c r="US4" s="0"/>
+      <c r="UT4" s="0"/>
+      <c r="UU4" s="0"/>
+      <c r="UV4" s="0"/>
+      <c r="UW4" s="0"/>
+      <c r="UX4" s="0"/>
+      <c r="UY4" s="0"/>
+      <c r="UZ4" s="0"/>
+      <c r="VA4" s="0"/>
+      <c r="VB4" s="0"/>
+      <c r="VC4" s="0"/>
+      <c r="VD4" s="0"/>
+      <c r="VE4" s="0"/>
+      <c r="VF4" s="0"/>
+      <c r="VG4" s="0"/>
+      <c r="VH4" s="0"/>
+      <c r="VI4" s="0"/>
+      <c r="VJ4" s="0"/>
+      <c r="VK4" s="0"/>
+      <c r="VL4" s="0"/>
+      <c r="VM4" s="0"/>
+      <c r="VN4" s="0"/>
+      <c r="VO4" s="0"/>
+      <c r="VP4" s="0"/>
+      <c r="VQ4" s="0"/>
+      <c r="VR4" s="0"/>
+      <c r="VS4" s="0"/>
+      <c r="VT4" s="0"/>
+      <c r="VU4" s="0"/>
+      <c r="VV4" s="0"/>
+      <c r="VW4" s="0"/>
+      <c r="VX4" s="0"/>
+      <c r="VY4" s="0"/>
+      <c r="VZ4" s="0"/>
+      <c r="WA4" s="0"/>
+      <c r="WB4" s="0"/>
+      <c r="WC4" s="0"/>
+      <c r="WD4" s="0"/>
+      <c r="WE4" s="0"/>
+      <c r="WF4" s="0"/>
+      <c r="WG4" s="0"/>
+      <c r="WH4" s="0"/>
+      <c r="WI4" s="0"/>
+      <c r="WJ4" s="0"/>
+      <c r="WK4" s="0"/>
+      <c r="WL4" s="0"/>
+      <c r="WM4" s="0"/>
+      <c r="WN4" s="0"/>
+      <c r="WO4" s="0"/>
+      <c r="WP4" s="0"/>
+      <c r="WQ4" s="0"/>
+      <c r="WR4" s="0"/>
+      <c r="WS4" s="0"/>
+      <c r="WT4" s="0"/>
+      <c r="WU4" s="0"/>
+      <c r="WV4" s="0"/>
+      <c r="WW4" s="0"/>
+      <c r="WX4" s="0"/>
+      <c r="WY4" s="0"/>
+      <c r="WZ4" s="0"/>
+      <c r="XA4" s="0"/>
+      <c r="XB4" s="0"/>
+      <c r="XC4" s="0"/>
+      <c r="XD4" s="0"/>
+      <c r="XE4" s="0"/>
+      <c r="XF4" s="0"/>
+      <c r="XG4" s="0"/>
+      <c r="XH4" s="0"/>
+      <c r="XI4" s="0"/>
+      <c r="XJ4" s="0"/>
+      <c r="XK4" s="0"/>
+      <c r="XL4" s="0"/>
+      <c r="XM4" s="0"/>
+      <c r="XN4" s="0"/>
+      <c r="XO4" s="0"/>
+      <c r="XP4" s="0"/>
+      <c r="XQ4" s="0"/>
+      <c r="XR4" s="0"/>
+      <c r="XS4" s="0"/>
+      <c r="XT4" s="0"/>
+      <c r="XU4" s="0"/>
+      <c r="XV4" s="0"/>
+      <c r="XW4" s="0"/>
+      <c r="XX4" s="0"/>
+      <c r="XY4" s="0"/>
+      <c r="XZ4" s="0"/>
+      <c r="YA4" s="0"/>
+      <c r="YB4" s="0"/>
+      <c r="YC4" s="0"/>
+      <c r="YD4" s="0"/>
+      <c r="YE4" s="0"/>
+      <c r="YF4" s="0"/>
+      <c r="YG4" s="0"/>
+      <c r="YH4" s="0"/>
+      <c r="YI4" s="0"/>
+      <c r="YJ4" s="0"/>
+      <c r="YK4" s="0"/>
+      <c r="YL4" s="0"/>
+      <c r="YM4" s="0"/>
+      <c r="YN4" s="0"/>
+      <c r="YO4" s="0"/>
+      <c r="YP4" s="0"/>
+      <c r="YQ4" s="0"/>
+      <c r="YR4" s="0"/>
+      <c r="YS4" s="0"/>
+      <c r="YT4" s="0"/>
+      <c r="YU4" s="0"/>
+      <c r="YV4" s="0"/>
+      <c r="YW4" s="0"/>
+      <c r="YX4" s="0"/>
+      <c r="YY4" s="0"/>
+      <c r="YZ4" s="0"/>
+      <c r="ZA4" s="0"/>
+      <c r="ZB4" s="0"/>
+      <c r="ZC4" s="0"/>
+      <c r="ZD4" s="0"/>
+      <c r="ZE4" s="0"/>
+      <c r="ZF4" s="0"/>
+      <c r="ZG4" s="0"/>
+      <c r="ZH4" s="0"/>
+      <c r="ZI4" s="0"/>
+      <c r="ZJ4" s="0"/>
+      <c r="ZK4" s="0"/>
+      <c r="ZL4" s="0"/>
+      <c r="ZM4" s="0"/>
+      <c r="ZN4" s="0"/>
+      <c r="ZO4" s="0"/>
+      <c r="ZP4" s="0"/>
+      <c r="ZQ4" s="0"/>
+      <c r="ZR4" s="0"/>
+      <c r="ZS4" s="0"/>
+      <c r="ZT4" s="0"/>
+      <c r="ZU4" s="0"/>
+      <c r="ZV4" s="0"/>
+      <c r="ZW4" s="0"/>
+      <c r="ZX4" s="0"/>
+      <c r="ZY4" s="0"/>
+      <c r="ZZ4" s="0"/>
+      <c r="AAA4" s="0"/>
+      <c r="AAB4" s="0"/>
+      <c r="AAC4" s="0"/>
+      <c r="AAD4" s="0"/>
+      <c r="AAE4" s="0"/>
+      <c r="AAF4" s="0"/>
+      <c r="AAG4" s="0"/>
+      <c r="AAH4" s="0"/>
+      <c r="AAI4" s="0"/>
+      <c r="AAJ4" s="0"/>
+      <c r="AAK4" s="0"/>
+      <c r="AAL4" s="0"/>
+      <c r="AAM4" s="0"/>
+      <c r="AAN4" s="0"/>
+      <c r="AAO4" s="0"/>
+      <c r="AAP4" s="0"/>
+      <c r="AAQ4" s="0"/>
+      <c r="AAR4" s="0"/>
+      <c r="AAS4" s="0"/>
+      <c r="AAT4" s="0"/>
+      <c r="AAU4" s="0"/>
+      <c r="AAV4" s="0"/>
+      <c r="AAW4" s="0"/>
+      <c r="AAX4" s="0"/>
+      <c r="AAY4" s="0"/>
+      <c r="AAZ4" s="0"/>
+      <c r="ABA4" s="0"/>
+      <c r="ABB4" s="0"/>
+      <c r="ABC4" s="0"/>
+      <c r="ABD4" s="0"/>
+      <c r="ABE4" s="0"/>
+      <c r="ABF4" s="0"/>
+      <c r="ABG4" s="0"/>
+      <c r="ABH4" s="0"/>
+      <c r="ABI4" s="0"/>
+      <c r="ABJ4" s="0"/>
+      <c r="ABK4" s="0"/>
+      <c r="ABL4" s="0"/>
+      <c r="ABM4" s="0"/>
+      <c r="ABN4" s="0"/>
+      <c r="ABO4" s="0"/>
+      <c r="ABP4" s="0"/>
+      <c r="ABQ4" s="0"/>
+      <c r="ABR4" s="0"/>
+      <c r="ABS4" s="0"/>
+      <c r="ABT4" s="0"/>
+      <c r="ABU4" s="0"/>
+      <c r="ABV4" s="0"/>
+      <c r="ABW4" s="0"/>
+      <c r="ABX4" s="0"/>
+      <c r="ABY4" s="0"/>
+      <c r="ABZ4" s="0"/>
+      <c r="ACA4" s="0"/>
+      <c r="ACB4" s="0"/>
+      <c r="ACC4" s="0"/>
+      <c r="ACD4" s="0"/>
+      <c r="ACE4" s="0"/>
+      <c r="ACF4" s="0"/>
+      <c r="ACG4" s="0"/>
+      <c r="ACH4" s="0"/>
+      <c r="ACI4" s="0"/>
+      <c r="ACJ4" s="0"/>
+      <c r="ACK4" s="0"/>
+      <c r="ACL4" s="0"/>
+      <c r="ACM4" s="0"/>
+      <c r="ACN4" s="0"/>
+      <c r="ACO4" s="0"/>
+      <c r="ACP4" s="0"/>
+      <c r="ACQ4" s="0"/>
+      <c r="ACR4" s="0"/>
+      <c r="ACS4" s="0"/>
+      <c r="ACT4" s="0"/>
+      <c r="ACU4" s="0"/>
+      <c r="ACV4" s="0"/>
+      <c r="ACW4" s="0"/>
+      <c r="ACX4" s="0"/>
+      <c r="ACY4" s="0"/>
+      <c r="ACZ4" s="0"/>
+      <c r="ADA4" s="0"/>
+      <c r="ADB4" s="0"/>
+      <c r="ADC4" s="0"/>
+      <c r="ADD4" s="0"/>
+      <c r="ADE4" s="0"/>
+      <c r="ADF4" s="0"/>
+      <c r="ADG4" s="0"/>
+      <c r="ADH4" s="0"/>
+      <c r="ADI4" s="0"/>
+      <c r="ADJ4" s="0"/>
+      <c r="ADK4" s="0"/>
+      <c r="ADL4" s="0"/>
+      <c r="ADM4" s="0"/>
+      <c r="ADN4" s="0"/>
+      <c r="ADO4" s="0"/>
+      <c r="ADP4" s="0"/>
+      <c r="ADQ4" s="0"/>
+      <c r="ADR4" s="0"/>
+      <c r="ADS4" s="0"/>
+      <c r="ADT4" s="0"/>
+      <c r="ADU4" s="0"/>
+      <c r="ADV4" s="0"/>
+      <c r="ADW4" s="0"/>
+      <c r="ADX4" s="0"/>
+      <c r="ADY4" s="0"/>
+      <c r="ADZ4" s="0"/>
+      <c r="AEA4" s="0"/>
+      <c r="AEB4" s="0"/>
+      <c r="AEC4" s="0"/>
+      <c r="AED4" s="0"/>
+      <c r="AEE4" s="0"/>
+      <c r="AEF4" s="0"/>
+      <c r="AEG4" s="0"/>
+      <c r="AEH4" s="0"/>
+      <c r="AEI4" s="0"/>
+      <c r="AEJ4" s="0"/>
+      <c r="AEK4" s="0"/>
+      <c r="AEL4" s="0"/>
+      <c r="AEM4" s="0"/>
+      <c r="AEN4" s="0"/>
+      <c r="AEO4" s="0"/>
+      <c r="AEP4" s="0"/>
+      <c r="AEQ4" s="0"/>
+      <c r="AER4" s="0"/>
+      <c r="AES4" s="0"/>
+      <c r="AET4" s="0"/>
+      <c r="AEU4" s="0"/>
+      <c r="AEV4" s="0"/>
+      <c r="AEW4" s="0"/>
+      <c r="AEX4" s="0"/>
+      <c r="AEY4" s="0"/>
+      <c r="AEZ4" s="0"/>
+      <c r="AFA4" s="0"/>
+      <c r="AFB4" s="0"/>
+      <c r="AFC4" s="0"/>
+      <c r="AFD4" s="0"/>
+      <c r="AFE4" s="0"/>
+      <c r="AFF4" s="0"/>
+      <c r="AFG4" s="0"/>
+      <c r="AFH4" s="0"/>
+      <c r="AFI4" s="0"/>
+      <c r="AFJ4" s="0"/>
+      <c r="AFK4" s="0"/>
+      <c r="AFL4" s="0"/>
+      <c r="AFM4" s="0"/>
+      <c r="AFN4" s="0"/>
+      <c r="AFO4" s="0"/>
+      <c r="AFP4" s="0"/>
+      <c r="AFQ4" s="0"/>
+      <c r="AFR4" s="0"/>
+      <c r="AFS4" s="0"/>
+      <c r="AFT4" s="0"/>
+      <c r="AFU4" s="0"/>
+      <c r="AFV4" s="0"/>
+      <c r="AFW4" s="0"/>
+      <c r="AFX4" s="0"/>
+      <c r="AFY4" s="0"/>
+      <c r="AFZ4" s="0"/>
+      <c r="AGA4" s="0"/>
+      <c r="AGB4" s="0"/>
+      <c r="AGC4" s="0"/>
+      <c r="AGD4" s="0"/>
+      <c r="AGE4" s="0"/>
+      <c r="AGF4" s="0"/>
+      <c r="AGG4" s="0"/>
+      <c r="AGH4" s="0"/>
+      <c r="AGI4" s="0"/>
+      <c r="AGJ4" s="0"/>
+      <c r="AGK4" s="0"/>
+      <c r="AGL4" s="0"/>
+      <c r="AGM4" s="0"/>
+      <c r="AGN4" s="0"/>
+      <c r="AGO4" s="0"/>
+      <c r="AGP4" s="0"/>
+      <c r="AGQ4" s="0"/>
+      <c r="AGR4" s="0"/>
+      <c r="AGS4" s="0"/>
+      <c r="AGT4" s="0"/>
+      <c r="AGU4" s="0"/>
+      <c r="AGV4" s="0"/>
+      <c r="AGW4" s="0"/>
+      <c r="AGX4" s="0"/>
+      <c r="AGY4" s="0"/>
+      <c r="AGZ4" s="0"/>
+      <c r="AHA4" s="0"/>
+      <c r="AHB4" s="0"/>
+      <c r="AHC4" s="0"/>
+      <c r="AHD4" s="0"/>
+      <c r="AHE4" s="0"/>
+      <c r="AHF4" s="0"/>
+      <c r="AHG4" s="0"/>
+      <c r="AHH4" s="0"/>
+      <c r="AHI4" s="0"/>
+      <c r="AHJ4" s="0"/>
+      <c r="AHK4" s="0"/>
+      <c r="AHL4" s="0"/>
+      <c r="AHM4" s="0"/>
+      <c r="AHN4" s="0"/>
+      <c r="AHO4" s="0"/>
+      <c r="AHP4" s="0"/>
+      <c r="AHQ4" s="0"/>
+      <c r="AHR4" s="0"/>
+      <c r="AHS4" s="0"/>
+      <c r="AHT4" s="0"/>
+      <c r="AHU4" s="0"/>
+      <c r="AHV4" s="0"/>
+      <c r="AHW4" s="0"/>
+      <c r="AHX4" s="0"/>
+      <c r="AHY4" s="0"/>
+      <c r="AHZ4" s="0"/>
+      <c r="AIA4" s="0"/>
+      <c r="AIB4" s="0"/>
+      <c r="AIC4" s="0"/>
+      <c r="AID4" s="0"/>
+      <c r="AIE4" s="0"/>
+      <c r="AIF4" s="0"/>
+      <c r="AIG4" s="0"/>
+      <c r="AIH4" s="0"/>
+      <c r="AII4" s="0"/>
+      <c r="AIJ4" s="0"/>
+      <c r="AIK4" s="0"/>
+      <c r="AIL4" s="0"/>
+      <c r="AIM4" s="0"/>
+      <c r="AIN4" s="0"/>
+      <c r="AIO4" s="0"/>
+      <c r="AIP4" s="0"/>
+      <c r="AIQ4" s="0"/>
+      <c r="AIR4" s="0"/>
+      <c r="AIS4" s="0"/>
+      <c r="AIT4" s="0"/>
+      <c r="AIU4" s="0"/>
+      <c r="AIV4" s="0"/>
+      <c r="AIW4" s="0"/>
+      <c r="AIX4" s="0"/>
+      <c r="AIY4" s="0"/>
+      <c r="AIZ4" s="0"/>
+      <c r="AJA4" s="0"/>
+      <c r="AJB4" s="0"/>
+      <c r="AJC4" s="0"/>
+      <c r="AJD4" s="0"/>
+      <c r="AJE4" s="0"/>
+      <c r="AJF4" s="0"/>
+      <c r="AJG4" s="0"/>
+      <c r="AJH4" s="0"/>
+      <c r="AJI4" s="0"/>
+      <c r="AJJ4" s="0"/>
+      <c r="AJK4" s="0"/>
+      <c r="AJL4" s="0"/>
+      <c r="AJM4" s="0"/>
+      <c r="AJN4" s="0"/>
+      <c r="AJO4" s="0"/>
+      <c r="AJP4" s="0"/>
+      <c r="AJQ4" s="0"/>
+      <c r="AJR4" s="0"/>
+      <c r="AJS4" s="0"/>
+      <c r="AJT4" s="0"/>
+      <c r="AJU4" s="0"/>
+      <c r="AJV4" s="0"/>
+      <c r="AJW4" s="0"/>
+      <c r="AJX4" s="0"/>
+      <c r="AJY4" s="0"/>
+      <c r="AJZ4" s="0"/>
+      <c r="AKA4" s="0"/>
+      <c r="AKB4" s="0"/>
+      <c r="AKC4" s="0"/>
+      <c r="AKD4" s="0"/>
+      <c r="AKE4" s="0"/>
+      <c r="AKF4" s="0"/>
+      <c r="AKG4" s="0"/>
+      <c r="AKH4" s="0"/>
+      <c r="AKI4" s="0"/>
+      <c r="AKJ4" s="0"/>
+      <c r="AKK4" s="0"/>
+      <c r="AKL4" s="0"/>
+      <c r="AKM4" s="0"/>
+      <c r="AKN4" s="0"/>
+      <c r="AKO4" s="0"/>
+      <c r="AKP4" s="0"/>
+      <c r="AKQ4" s="0"/>
+      <c r="AKR4" s="0"/>
+      <c r="AKS4" s="0"/>
+      <c r="AKT4" s="0"/>
+      <c r="AKU4" s="0"/>
+      <c r="AKV4" s="0"/>
+      <c r="AKW4" s="0"/>
+      <c r="AKX4" s="0"/>
+      <c r="AKY4" s="0"/>
+      <c r="AKZ4" s="0"/>
+      <c r="ALA4" s="0"/>
+      <c r="ALB4" s="0"/>
+      <c r="ALC4" s="0"/>
+      <c r="ALD4" s="0"/>
+      <c r="ALE4" s="0"/>
+      <c r="ALF4" s="0"/>
+      <c r="ALG4" s="0"/>
+      <c r="ALH4" s="0"/>
+      <c r="ALI4" s="0"/>
+      <c r="ALJ4" s="0"/>
+      <c r="ALK4" s="0"/>
+      <c r="ALL4" s="0"/>
+      <c r="ALM4" s="0"/>
+      <c r="ALN4" s="0"/>
+      <c r="ALO4" s="0"/>
+      <c r="ALP4" s="0"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -3585,7 +4604,9 @@
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
@@ -8753,6 +9774,1025 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
+      <c r="AK10" s="0"/>
+      <c r="AL10" s="0"/>
+      <c r="AM10" s="0"/>
+      <c r="AN10" s="0"/>
+      <c r="AO10" s="0"/>
+      <c r="AP10" s="0"/>
+      <c r="AQ10" s="0"/>
+      <c r="AR10" s="0"/>
+      <c r="AS10" s="0"/>
+      <c r="AT10" s="0"/>
+      <c r="AU10" s="0"/>
+      <c r="AV10" s="0"/>
+      <c r="AW10" s="0"/>
+      <c r="AX10" s="0"/>
+      <c r="AY10" s="0"/>
+      <c r="AZ10" s="0"/>
+      <c r="BA10" s="0"/>
+      <c r="BB10" s="0"/>
+      <c r="BC10" s="0"/>
+      <c r="BD10" s="0"/>
+      <c r="BE10" s="0"/>
+      <c r="BF10" s="0"/>
+      <c r="BG10" s="0"/>
+      <c r="BH10" s="0"/>
+      <c r="BI10" s="0"/>
+      <c r="BJ10" s="0"/>
+      <c r="BK10" s="0"/>
+      <c r="BL10" s="0"/>
+      <c r="BM10" s="0"/>
+      <c r="BN10" s="0"/>
+      <c r="BO10" s="0"/>
+      <c r="BP10" s="0"/>
+      <c r="BQ10" s="0"/>
+      <c r="BR10" s="0"/>
+      <c r="BS10" s="0"/>
+      <c r="BT10" s="0"/>
+      <c r="BU10" s="0"/>
+      <c r="BV10" s="0"/>
+      <c r="BW10" s="0"/>
+      <c r="BX10" s="0"/>
+      <c r="BY10" s="0"/>
+      <c r="BZ10" s="0"/>
+      <c r="CA10" s="0"/>
+      <c r="CB10" s="0"/>
+      <c r="CC10" s="0"/>
+      <c r="CD10" s="0"/>
+      <c r="CE10" s="0"/>
+      <c r="CF10" s="0"/>
+      <c r="CG10" s="0"/>
+      <c r="CH10" s="0"/>
+      <c r="CI10" s="0"/>
+      <c r="CJ10" s="0"/>
+      <c r="CK10" s="0"/>
+      <c r="CL10" s="0"/>
+      <c r="CM10" s="0"/>
+      <c r="CN10" s="0"/>
+      <c r="CO10" s="0"/>
+      <c r="CP10" s="0"/>
+      <c r="CQ10" s="0"/>
+      <c r="CR10" s="0"/>
+      <c r="CS10" s="0"/>
+      <c r="CT10" s="0"/>
+      <c r="CU10" s="0"/>
+      <c r="CV10" s="0"/>
+      <c r="CW10" s="0"/>
+      <c r="CX10" s="0"/>
+      <c r="CY10" s="0"/>
+      <c r="CZ10" s="0"/>
+      <c r="DA10" s="0"/>
+      <c r="DB10" s="0"/>
+      <c r="DC10" s="0"/>
+      <c r="DD10" s="0"/>
+      <c r="DE10" s="0"/>
+      <c r="DF10" s="0"/>
+      <c r="DG10" s="0"/>
+      <c r="DH10" s="0"/>
+      <c r="DI10" s="0"/>
+      <c r="DJ10" s="0"/>
+      <c r="DK10" s="0"/>
+      <c r="DL10" s="0"/>
+      <c r="DM10" s="0"/>
+      <c r="DN10" s="0"/>
+      <c r="DO10" s="0"/>
+      <c r="DP10" s="0"/>
+      <c r="DQ10" s="0"/>
+      <c r="DR10" s="0"/>
+      <c r="DS10" s="0"/>
+      <c r="DT10" s="0"/>
+      <c r="DU10" s="0"/>
+      <c r="DV10" s="0"/>
+      <c r="DW10" s="0"/>
+      <c r="DX10" s="0"/>
+      <c r="DY10" s="0"/>
+      <c r="DZ10" s="0"/>
+      <c r="EA10" s="0"/>
+      <c r="EB10" s="0"/>
+      <c r="EC10" s="0"/>
+      <c r="ED10" s="0"/>
+      <c r="EE10" s="0"/>
+      <c r="EF10" s="0"/>
+      <c r="EG10" s="0"/>
+      <c r="EH10" s="0"/>
+      <c r="EI10" s="0"/>
+      <c r="EJ10" s="0"/>
+      <c r="EK10" s="0"/>
+      <c r="EL10" s="0"/>
+      <c r="EM10" s="0"/>
+      <c r="EN10" s="0"/>
+      <c r="EO10" s="0"/>
+      <c r="EP10" s="0"/>
+      <c r="EQ10" s="0"/>
+      <c r="ER10" s="0"/>
+      <c r="ES10" s="0"/>
+      <c r="ET10" s="0"/>
+      <c r="EU10" s="0"/>
+      <c r="EV10" s="0"/>
+      <c r="EW10" s="0"/>
+      <c r="EX10" s="0"/>
+      <c r="EY10" s="0"/>
+      <c r="EZ10" s="0"/>
+      <c r="FA10" s="0"/>
+      <c r="FB10" s="0"/>
+      <c r="FC10" s="0"/>
+      <c r="FD10" s="0"/>
+      <c r="FE10" s="0"/>
+      <c r="FF10" s="0"/>
+      <c r="FG10" s="0"/>
+      <c r="FH10" s="0"/>
+      <c r="FI10" s="0"/>
+      <c r="FJ10" s="0"/>
+      <c r="FK10" s="0"/>
+      <c r="FL10" s="0"/>
+      <c r="FM10" s="0"/>
+      <c r="FN10" s="0"/>
+      <c r="FO10" s="0"/>
+      <c r="FP10" s="0"/>
+      <c r="FQ10" s="0"/>
+      <c r="FR10" s="0"/>
+      <c r="FS10" s="0"/>
+      <c r="FT10" s="0"/>
+      <c r="FU10" s="0"/>
+      <c r="FV10" s="0"/>
+      <c r="FW10" s="0"/>
+      <c r="FX10" s="0"/>
+      <c r="FY10" s="0"/>
+      <c r="FZ10" s="0"/>
+      <c r="GA10" s="0"/>
+      <c r="GB10" s="0"/>
+      <c r="GC10" s="0"/>
+      <c r="GD10" s="0"/>
+      <c r="GE10" s="0"/>
+      <c r="GF10" s="0"/>
+      <c r="GG10" s="0"/>
+      <c r="GH10" s="0"/>
+      <c r="GI10" s="0"/>
+      <c r="GJ10" s="0"/>
+      <c r="GK10" s="0"/>
+      <c r="GL10" s="0"/>
+      <c r="GM10" s="0"/>
+      <c r="GN10" s="0"/>
+      <c r="GO10" s="0"/>
+      <c r="GP10" s="0"/>
+      <c r="GQ10" s="0"/>
+      <c r="GR10" s="0"/>
+      <c r="GS10" s="0"/>
+      <c r="GT10" s="0"/>
+      <c r="GU10" s="0"/>
+      <c r="GV10" s="0"/>
+      <c r="GW10" s="0"/>
+      <c r="GX10" s="0"/>
+      <c r="GY10" s="0"/>
+      <c r="GZ10" s="0"/>
+      <c r="HA10" s="0"/>
+      <c r="HB10" s="0"/>
+      <c r="HC10" s="0"/>
+      <c r="HD10" s="0"/>
+      <c r="HE10" s="0"/>
+      <c r="HF10" s="0"/>
+      <c r="HG10" s="0"/>
+      <c r="HH10" s="0"/>
+      <c r="HI10" s="0"/>
+      <c r="HJ10" s="0"/>
+      <c r="HK10" s="0"/>
+      <c r="HL10" s="0"/>
+      <c r="HM10" s="0"/>
+      <c r="HN10" s="0"/>
+      <c r="HO10" s="0"/>
+      <c r="HP10" s="0"/>
+      <c r="HQ10" s="0"/>
+      <c r="HR10" s="0"/>
+      <c r="HS10" s="0"/>
+      <c r="HT10" s="0"/>
+      <c r="HU10" s="0"/>
+      <c r="HV10" s="0"/>
+      <c r="HW10" s="0"/>
+      <c r="HX10" s="0"/>
+      <c r="HY10" s="0"/>
+      <c r="HZ10" s="0"/>
+      <c r="IA10" s="0"/>
+      <c r="IB10" s="0"/>
+      <c r="IC10" s="0"/>
+      <c r="ID10" s="0"/>
+      <c r="IE10" s="0"/>
+      <c r="IF10" s="0"/>
+      <c r="IG10" s="0"/>
+      <c r="IH10" s="0"/>
+      <c r="II10" s="0"/>
+      <c r="IJ10" s="0"/>
+      <c r="IK10" s="0"/>
+      <c r="IL10" s="0"/>
+      <c r="IM10" s="0"/>
+      <c r="IN10" s="0"/>
+      <c r="IO10" s="0"/>
+      <c r="IP10" s="0"/>
+      <c r="IQ10" s="0"/>
+      <c r="IR10" s="0"/>
+      <c r="IS10" s="0"/>
+      <c r="IT10" s="0"/>
+      <c r="IU10" s="0"/>
+      <c r="IV10" s="0"/>
+      <c r="IW10" s="0"/>
+      <c r="IX10" s="0"/>
+      <c r="IY10" s="0"/>
+      <c r="IZ10" s="0"/>
+      <c r="JA10" s="0"/>
+      <c r="JB10" s="0"/>
+      <c r="JC10" s="0"/>
+      <c r="JD10" s="0"/>
+      <c r="JE10" s="0"/>
+      <c r="JF10" s="0"/>
+      <c r="JG10" s="0"/>
+      <c r="JH10" s="0"/>
+      <c r="JI10" s="0"/>
+      <c r="JJ10" s="0"/>
+      <c r="JK10" s="0"/>
+      <c r="JL10" s="0"/>
+      <c r="JM10" s="0"/>
+      <c r="JN10" s="0"/>
+      <c r="JO10" s="0"/>
+      <c r="JP10" s="0"/>
+      <c r="JQ10" s="0"/>
+      <c r="JR10" s="0"/>
+      <c r="JS10" s="0"/>
+      <c r="JT10" s="0"/>
+      <c r="JU10" s="0"/>
+      <c r="JV10" s="0"/>
+      <c r="JW10" s="0"/>
+      <c r="JX10" s="0"/>
+      <c r="JY10" s="0"/>
+      <c r="JZ10" s="0"/>
+      <c r="KA10" s="0"/>
+      <c r="KB10" s="0"/>
+      <c r="KC10" s="0"/>
+      <c r="KD10" s="0"/>
+      <c r="KE10" s="0"/>
+      <c r="KF10" s="0"/>
+      <c r="KG10" s="0"/>
+      <c r="KH10" s="0"/>
+      <c r="KI10" s="0"/>
+      <c r="KJ10" s="0"/>
+      <c r="KK10" s="0"/>
+      <c r="KL10" s="0"/>
+      <c r="KM10" s="0"/>
+      <c r="KN10" s="0"/>
+      <c r="KO10" s="0"/>
+      <c r="KP10" s="0"/>
+      <c r="KQ10" s="0"/>
+      <c r="KR10" s="0"/>
+      <c r="KS10" s="0"/>
+      <c r="KT10" s="0"/>
+      <c r="KU10" s="0"/>
+      <c r="KV10" s="0"/>
+      <c r="KW10" s="0"/>
+      <c r="KX10" s="0"/>
+      <c r="KY10" s="0"/>
+      <c r="KZ10" s="0"/>
+      <c r="LA10" s="0"/>
+      <c r="LB10" s="0"/>
+      <c r="LC10" s="0"/>
+      <c r="LD10" s="0"/>
+      <c r="LE10" s="0"/>
+      <c r="LF10" s="0"/>
+      <c r="LG10" s="0"/>
+      <c r="LH10" s="0"/>
+      <c r="LI10" s="0"/>
+      <c r="LJ10" s="0"/>
+      <c r="LK10" s="0"/>
+      <c r="LL10" s="0"/>
+      <c r="LM10" s="0"/>
+      <c r="LN10" s="0"/>
+      <c r="LO10" s="0"/>
+      <c r="LP10" s="0"/>
+      <c r="LQ10" s="0"/>
+      <c r="LR10" s="0"/>
+      <c r="LS10" s="0"/>
+      <c r="LT10" s="0"/>
+      <c r="LU10" s="0"/>
+      <c r="LV10" s="0"/>
+      <c r="LW10" s="0"/>
+      <c r="LX10" s="0"/>
+      <c r="LY10" s="0"/>
+      <c r="LZ10" s="0"/>
+      <c r="MA10" s="0"/>
+      <c r="MB10" s="0"/>
+      <c r="MC10" s="0"/>
+      <c r="MD10" s="0"/>
+      <c r="ME10" s="0"/>
+      <c r="MF10" s="0"/>
+      <c r="MG10" s="0"/>
+      <c r="MH10" s="0"/>
+      <c r="MI10" s="0"/>
+      <c r="MJ10" s="0"/>
+      <c r="MK10" s="0"/>
+      <c r="ML10" s="0"/>
+      <c r="MM10" s="0"/>
+      <c r="MN10" s="0"/>
+      <c r="MO10" s="0"/>
+      <c r="MP10" s="0"/>
+      <c r="MQ10" s="0"/>
+      <c r="MR10" s="0"/>
+      <c r="MS10" s="0"/>
+      <c r="MT10" s="0"/>
+      <c r="MU10" s="0"/>
+      <c r="MV10" s="0"/>
+      <c r="MW10" s="0"/>
+      <c r="MX10" s="0"/>
+      <c r="MY10" s="0"/>
+      <c r="MZ10" s="0"/>
+      <c r="NA10" s="0"/>
+      <c r="NB10" s="0"/>
+      <c r="NC10" s="0"/>
+      <c r="ND10" s="0"/>
+      <c r="NE10" s="0"/>
+      <c r="NF10" s="0"/>
+      <c r="NG10" s="0"/>
+      <c r="NH10" s="0"/>
+      <c r="NI10" s="0"/>
+      <c r="NJ10" s="0"/>
+      <c r="NK10" s="0"/>
+      <c r="NL10" s="0"/>
+      <c r="NM10" s="0"/>
+      <c r="NN10" s="0"/>
+      <c r="NO10" s="0"/>
+      <c r="NP10" s="0"/>
+      <c r="NQ10" s="0"/>
+      <c r="NR10" s="0"/>
+      <c r="NS10" s="0"/>
+      <c r="NT10" s="0"/>
+      <c r="NU10" s="0"/>
+      <c r="NV10" s="0"/>
+      <c r="NW10" s="0"/>
+      <c r="NX10" s="0"/>
+      <c r="NY10" s="0"/>
+      <c r="NZ10" s="0"/>
+      <c r="OA10" s="0"/>
+      <c r="OB10" s="0"/>
+      <c r="OC10" s="0"/>
+      <c r="OD10" s="0"/>
+      <c r="OE10" s="0"/>
+      <c r="OF10" s="0"/>
+      <c r="OG10" s="0"/>
+      <c r="OH10" s="0"/>
+      <c r="OI10" s="0"/>
+      <c r="OJ10" s="0"/>
+      <c r="OK10" s="0"/>
+      <c r="OL10" s="0"/>
+      <c r="OM10" s="0"/>
+      <c r="ON10" s="0"/>
+      <c r="OO10" s="0"/>
+      <c r="OP10" s="0"/>
+      <c r="OQ10" s="0"/>
+      <c r="OR10" s="0"/>
+      <c r="OS10" s="0"/>
+      <c r="OT10" s="0"/>
+      <c r="OU10" s="0"/>
+      <c r="OV10" s="0"/>
+      <c r="OW10" s="0"/>
+      <c r="OX10" s="0"/>
+      <c r="OY10" s="0"/>
+      <c r="OZ10" s="0"/>
+      <c r="PA10" s="0"/>
+      <c r="PB10" s="0"/>
+      <c r="PC10" s="0"/>
+      <c r="PD10" s="0"/>
+      <c r="PE10" s="0"/>
+      <c r="PF10" s="0"/>
+      <c r="PG10" s="0"/>
+      <c r="PH10" s="0"/>
+      <c r="PI10" s="0"/>
+      <c r="PJ10" s="0"/>
+      <c r="PK10" s="0"/>
+      <c r="PL10" s="0"/>
+      <c r="PM10" s="0"/>
+      <c r="PN10" s="0"/>
+      <c r="PO10" s="0"/>
+      <c r="PP10" s="0"/>
+      <c r="PQ10" s="0"/>
+      <c r="PR10" s="0"/>
+      <c r="PS10" s="0"/>
+      <c r="PT10" s="0"/>
+      <c r="PU10" s="0"/>
+      <c r="PV10" s="0"/>
+      <c r="PW10" s="0"/>
+      <c r="PX10" s="0"/>
+      <c r="PY10" s="0"/>
+      <c r="PZ10" s="0"/>
+      <c r="QA10" s="0"/>
+      <c r="QB10" s="0"/>
+      <c r="QC10" s="0"/>
+      <c r="QD10" s="0"/>
+      <c r="QE10" s="0"/>
+      <c r="QF10" s="0"/>
+      <c r="QG10" s="0"/>
+      <c r="QH10" s="0"/>
+      <c r="QI10" s="0"/>
+      <c r="QJ10" s="0"/>
+      <c r="QK10" s="0"/>
+      <c r="QL10" s="0"/>
+      <c r="QM10" s="0"/>
+      <c r="QN10" s="0"/>
+      <c r="QO10" s="0"/>
+      <c r="QP10" s="0"/>
+      <c r="QQ10" s="0"/>
+      <c r="QR10" s="0"/>
+      <c r="QS10" s="0"/>
+      <c r="QT10" s="0"/>
+      <c r="QU10" s="0"/>
+      <c r="QV10" s="0"/>
+      <c r="QW10" s="0"/>
+      <c r="QX10" s="0"/>
+      <c r="QY10" s="0"/>
+      <c r="QZ10" s="0"/>
+      <c r="RA10" s="0"/>
+      <c r="RB10" s="0"/>
+      <c r="RC10" s="0"/>
+      <c r="RD10" s="0"/>
+      <c r="RE10" s="0"/>
+      <c r="RF10" s="0"/>
+      <c r="RG10" s="0"/>
+      <c r="RH10" s="0"/>
+      <c r="RI10" s="0"/>
+      <c r="RJ10" s="0"/>
+      <c r="RK10" s="0"/>
+      <c r="RL10" s="0"/>
+      <c r="RM10" s="0"/>
+      <c r="RN10" s="0"/>
+      <c r="RO10" s="0"/>
+      <c r="RP10" s="0"/>
+      <c r="RQ10" s="0"/>
+      <c r="RR10" s="0"/>
+      <c r="RS10" s="0"/>
+      <c r="RT10" s="0"/>
+      <c r="RU10" s="0"/>
+      <c r="RV10" s="0"/>
+      <c r="RW10" s="0"/>
+      <c r="RX10" s="0"/>
+      <c r="RY10" s="0"/>
+      <c r="RZ10" s="0"/>
+      <c r="SA10" s="0"/>
+      <c r="SB10" s="0"/>
+      <c r="SC10" s="0"/>
+      <c r="SD10" s="0"/>
+      <c r="SE10" s="0"/>
+      <c r="SF10" s="0"/>
+      <c r="SG10" s="0"/>
+      <c r="SH10" s="0"/>
+      <c r="SI10" s="0"/>
+      <c r="SJ10" s="0"/>
+      <c r="SK10" s="0"/>
+      <c r="SL10" s="0"/>
+      <c r="SM10" s="0"/>
+      <c r="SN10" s="0"/>
+      <c r="SO10" s="0"/>
+      <c r="SP10" s="0"/>
+      <c r="SQ10" s="0"/>
+      <c r="SR10" s="0"/>
+      <c r="SS10" s="0"/>
+      <c r="ST10" s="0"/>
+      <c r="SU10" s="0"/>
+      <c r="SV10" s="0"/>
+      <c r="SW10" s="0"/>
+      <c r="SX10" s="0"/>
+      <c r="SY10" s="0"/>
+      <c r="SZ10" s="0"/>
+      <c r="TA10" s="0"/>
+      <c r="TB10" s="0"/>
+      <c r="TC10" s="0"/>
+      <c r="TD10" s="0"/>
+      <c r="TE10" s="0"/>
+      <c r="TF10" s="0"/>
+      <c r="TG10" s="0"/>
+      <c r="TH10" s="0"/>
+      <c r="TI10" s="0"/>
+      <c r="TJ10" s="0"/>
+      <c r="TK10" s="0"/>
+      <c r="TL10" s="0"/>
+      <c r="TM10" s="0"/>
+      <c r="TN10" s="0"/>
+      <c r="TO10" s="0"/>
+      <c r="TP10" s="0"/>
+      <c r="TQ10" s="0"/>
+      <c r="TR10" s="0"/>
+      <c r="TS10" s="0"/>
+      <c r="TT10" s="0"/>
+      <c r="TU10" s="0"/>
+      <c r="TV10" s="0"/>
+      <c r="TW10" s="0"/>
+      <c r="TX10" s="0"/>
+      <c r="TY10" s="0"/>
+      <c r="TZ10" s="0"/>
+      <c r="UA10" s="0"/>
+      <c r="UB10" s="0"/>
+      <c r="UC10" s="0"/>
+      <c r="UD10" s="0"/>
+      <c r="UE10" s="0"/>
+      <c r="UF10" s="0"/>
+      <c r="UG10" s="0"/>
+      <c r="UH10" s="0"/>
+      <c r="UI10" s="0"/>
+      <c r="UJ10" s="0"/>
+      <c r="UK10" s="0"/>
+      <c r="UL10" s="0"/>
+      <c r="UM10" s="0"/>
+      <c r="UN10" s="0"/>
+      <c r="UO10" s="0"/>
+      <c r="UP10" s="0"/>
+      <c r="UQ10" s="0"/>
+      <c r="UR10" s="0"/>
+      <c r="US10" s="0"/>
+      <c r="UT10" s="0"/>
+      <c r="UU10" s="0"/>
+      <c r="UV10" s="0"/>
+      <c r="UW10" s="0"/>
+      <c r="UX10" s="0"/>
+      <c r="UY10" s="0"/>
+      <c r="UZ10" s="0"/>
+      <c r="VA10" s="0"/>
+      <c r="VB10" s="0"/>
+      <c r="VC10" s="0"/>
+      <c r="VD10" s="0"/>
+      <c r="VE10" s="0"/>
+      <c r="VF10" s="0"/>
+      <c r="VG10" s="0"/>
+      <c r="VH10" s="0"/>
+      <c r="VI10" s="0"/>
+      <c r="VJ10" s="0"/>
+      <c r="VK10" s="0"/>
+      <c r="VL10" s="0"/>
+      <c r="VM10" s="0"/>
+      <c r="VN10" s="0"/>
+      <c r="VO10" s="0"/>
+      <c r="VP10" s="0"/>
+      <c r="VQ10" s="0"/>
+      <c r="VR10" s="0"/>
+      <c r="VS10" s="0"/>
+      <c r="VT10" s="0"/>
+      <c r="VU10" s="0"/>
+      <c r="VV10" s="0"/>
+      <c r="VW10" s="0"/>
+      <c r="VX10" s="0"/>
+      <c r="VY10" s="0"/>
+      <c r="VZ10" s="0"/>
+      <c r="WA10" s="0"/>
+      <c r="WB10" s="0"/>
+      <c r="WC10" s="0"/>
+      <c r="WD10" s="0"/>
+      <c r="WE10" s="0"/>
+      <c r="WF10" s="0"/>
+      <c r="WG10" s="0"/>
+      <c r="WH10" s="0"/>
+      <c r="WI10" s="0"/>
+      <c r="WJ10" s="0"/>
+      <c r="WK10" s="0"/>
+      <c r="WL10" s="0"/>
+      <c r="WM10" s="0"/>
+      <c r="WN10" s="0"/>
+      <c r="WO10" s="0"/>
+      <c r="WP10" s="0"/>
+      <c r="WQ10" s="0"/>
+      <c r="WR10" s="0"/>
+      <c r="WS10" s="0"/>
+      <c r="WT10" s="0"/>
+      <c r="WU10" s="0"/>
+      <c r="WV10" s="0"/>
+      <c r="WW10" s="0"/>
+      <c r="WX10" s="0"/>
+      <c r="WY10" s="0"/>
+      <c r="WZ10" s="0"/>
+      <c r="XA10" s="0"/>
+      <c r="XB10" s="0"/>
+      <c r="XC10" s="0"/>
+      <c r="XD10" s="0"/>
+      <c r="XE10" s="0"/>
+      <c r="XF10" s="0"/>
+      <c r="XG10" s="0"/>
+      <c r="XH10" s="0"/>
+      <c r="XI10" s="0"/>
+      <c r="XJ10" s="0"/>
+      <c r="XK10" s="0"/>
+      <c r="XL10" s="0"/>
+      <c r="XM10" s="0"/>
+      <c r="XN10" s="0"/>
+      <c r="XO10" s="0"/>
+      <c r="XP10" s="0"/>
+      <c r="XQ10" s="0"/>
+      <c r="XR10" s="0"/>
+      <c r="XS10" s="0"/>
+      <c r="XT10" s="0"/>
+      <c r="XU10" s="0"/>
+      <c r="XV10" s="0"/>
+      <c r="XW10" s="0"/>
+      <c r="XX10" s="0"/>
+      <c r="XY10" s="0"/>
+      <c r="XZ10" s="0"/>
+      <c r="YA10" s="0"/>
+      <c r="YB10" s="0"/>
+      <c r="YC10" s="0"/>
+      <c r="YD10" s="0"/>
+      <c r="YE10" s="0"/>
+      <c r="YF10" s="0"/>
+      <c r="YG10" s="0"/>
+      <c r="YH10" s="0"/>
+      <c r="YI10" s="0"/>
+      <c r="YJ10" s="0"/>
+      <c r="YK10" s="0"/>
+      <c r="YL10" s="0"/>
+      <c r="YM10" s="0"/>
+      <c r="YN10" s="0"/>
+      <c r="YO10" s="0"/>
+      <c r="YP10" s="0"/>
+      <c r="YQ10" s="0"/>
+      <c r="YR10" s="0"/>
+      <c r="YS10" s="0"/>
+      <c r="YT10" s="0"/>
+      <c r="YU10" s="0"/>
+      <c r="YV10" s="0"/>
+      <c r="YW10" s="0"/>
+      <c r="YX10" s="0"/>
+      <c r="YY10" s="0"/>
+      <c r="YZ10" s="0"/>
+      <c r="ZA10" s="0"/>
+      <c r="ZB10" s="0"/>
+      <c r="ZC10" s="0"/>
+      <c r="ZD10" s="0"/>
+      <c r="ZE10" s="0"/>
+      <c r="ZF10" s="0"/>
+      <c r="ZG10" s="0"/>
+      <c r="ZH10" s="0"/>
+      <c r="ZI10" s="0"/>
+      <c r="ZJ10" s="0"/>
+      <c r="ZK10" s="0"/>
+      <c r="ZL10" s="0"/>
+      <c r="ZM10" s="0"/>
+      <c r="ZN10" s="0"/>
+      <c r="ZO10" s="0"/>
+      <c r="ZP10" s="0"/>
+      <c r="ZQ10" s="0"/>
+      <c r="ZR10" s="0"/>
+      <c r="ZS10" s="0"/>
+      <c r="ZT10" s="0"/>
+      <c r="ZU10" s="0"/>
+      <c r="ZV10" s="0"/>
+      <c r="ZW10" s="0"/>
+      <c r="ZX10" s="0"/>
+      <c r="ZY10" s="0"/>
+      <c r="ZZ10" s="0"/>
+      <c r="AAA10" s="0"/>
+      <c r="AAB10" s="0"/>
+      <c r="AAC10" s="0"/>
+      <c r="AAD10" s="0"/>
+      <c r="AAE10" s="0"/>
+      <c r="AAF10" s="0"/>
+      <c r="AAG10" s="0"/>
+      <c r="AAH10" s="0"/>
+      <c r="AAI10" s="0"/>
+      <c r="AAJ10" s="0"/>
+      <c r="AAK10" s="0"/>
+      <c r="AAL10" s="0"/>
+      <c r="AAM10" s="0"/>
+      <c r="AAN10" s="0"/>
+      <c r="AAO10" s="0"/>
+      <c r="AAP10" s="0"/>
+      <c r="AAQ10" s="0"/>
+      <c r="AAR10" s="0"/>
+      <c r="AAS10" s="0"/>
+      <c r="AAT10" s="0"/>
+      <c r="AAU10" s="0"/>
+      <c r="AAV10" s="0"/>
+      <c r="AAW10" s="0"/>
+      <c r="AAX10" s="0"/>
+      <c r="AAY10" s="0"/>
+      <c r="AAZ10" s="0"/>
+      <c r="ABA10" s="0"/>
+      <c r="ABB10" s="0"/>
+      <c r="ABC10" s="0"/>
+      <c r="ABD10" s="0"/>
+      <c r="ABE10" s="0"/>
+      <c r="ABF10" s="0"/>
+      <c r="ABG10" s="0"/>
+      <c r="ABH10" s="0"/>
+      <c r="ABI10" s="0"/>
+      <c r="ABJ10" s="0"/>
+      <c r="ABK10" s="0"/>
+      <c r="ABL10" s="0"/>
+      <c r="ABM10" s="0"/>
+      <c r="ABN10" s="0"/>
+      <c r="ABO10" s="0"/>
+      <c r="ABP10" s="0"/>
+      <c r="ABQ10" s="0"/>
+      <c r="ABR10" s="0"/>
+      <c r="ABS10" s="0"/>
+      <c r="ABT10" s="0"/>
+      <c r="ABU10" s="0"/>
+      <c r="ABV10" s="0"/>
+      <c r="ABW10" s="0"/>
+      <c r="ABX10" s="0"/>
+      <c r="ABY10" s="0"/>
+      <c r="ABZ10" s="0"/>
+      <c r="ACA10" s="0"/>
+      <c r="ACB10" s="0"/>
+      <c r="ACC10" s="0"/>
+      <c r="ACD10" s="0"/>
+      <c r="ACE10" s="0"/>
+      <c r="ACF10" s="0"/>
+      <c r="ACG10" s="0"/>
+      <c r="ACH10" s="0"/>
+      <c r="ACI10" s="0"/>
+      <c r="ACJ10" s="0"/>
+      <c r="ACK10" s="0"/>
+      <c r="ACL10" s="0"/>
+      <c r="ACM10" s="0"/>
+      <c r="ACN10" s="0"/>
+      <c r="ACO10" s="0"/>
+      <c r="ACP10" s="0"/>
+      <c r="ACQ10" s="0"/>
+      <c r="ACR10" s="0"/>
+      <c r="ACS10" s="0"/>
+      <c r="ACT10" s="0"/>
+      <c r="ACU10" s="0"/>
+      <c r="ACV10" s="0"/>
+      <c r="ACW10" s="0"/>
+      <c r="ACX10" s="0"/>
+      <c r="ACY10" s="0"/>
+      <c r="ACZ10" s="0"/>
+      <c r="ADA10" s="0"/>
+      <c r="ADB10" s="0"/>
+      <c r="ADC10" s="0"/>
+      <c r="ADD10" s="0"/>
+      <c r="ADE10" s="0"/>
+      <c r="ADF10" s="0"/>
+      <c r="ADG10" s="0"/>
+      <c r="ADH10" s="0"/>
+      <c r="ADI10" s="0"/>
+      <c r="ADJ10" s="0"/>
+      <c r="ADK10" s="0"/>
+      <c r="ADL10" s="0"/>
+      <c r="ADM10" s="0"/>
+      <c r="ADN10" s="0"/>
+      <c r="ADO10" s="0"/>
+      <c r="ADP10" s="0"/>
+      <c r="ADQ10" s="0"/>
+      <c r="ADR10" s="0"/>
+      <c r="ADS10" s="0"/>
+      <c r="ADT10" s="0"/>
+      <c r="ADU10" s="0"/>
+      <c r="ADV10" s="0"/>
+      <c r="ADW10" s="0"/>
+      <c r="ADX10" s="0"/>
+      <c r="ADY10" s="0"/>
+      <c r="ADZ10" s="0"/>
+      <c r="AEA10" s="0"/>
+      <c r="AEB10" s="0"/>
+      <c r="AEC10" s="0"/>
+      <c r="AED10" s="0"/>
+      <c r="AEE10" s="0"/>
+      <c r="AEF10" s="0"/>
+      <c r="AEG10" s="0"/>
+      <c r="AEH10" s="0"/>
+      <c r="AEI10" s="0"/>
+      <c r="AEJ10" s="0"/>
+      <c r="AEK10" s="0"/>
+      <c r="AEL10" s="0"/>
+      <c r="AEM10" s="0"/>
+      <c r="AEN10" s="0"/>
+      <c r="AEO10" s="0"/>
+      <c r="AEP10" s="0"/>
+      <c r="AEQ10" s="0"/>
+      <c r="AER10" s="0"/>
+      <c r="AES10" s="0"/>
+      <c r="AET10" s="0"/>
+      <c r="AEU10" s="0"/>
+      <c r="AEV10" s="0"/>
+      <c r="AEW10" s="0"/>
+      <c r="AEX10" s="0"/>
+      <c r="AEY10" s="0"/>
+      <c r="AEZ10" s="0"/>
+      <c r="AFA10" s="0"/>
+      <c r="AFB10" s="0"/>
+      <c r="AFC10" s="0"/>
+      <c r="AFD10" s="0"/>
+      <c r="AFE10" s="0"/>
+      <c r="AFF10" s="0"/>
+      <c r="AFG10" s="0"/>
+      <c r="AFH10" s="0"/>
+      <c r="AFI10" s="0"/>
+      <c r="AFJ10" s="0"/>
+      <c r="AFK10" s="0"/>
+      <c r="AFL10" s="0"/>
+      <c r="AFM10" s="0"/>
+      <c r="AFN10" s="0"/>
+      <c r="AFO10" s="0"/>
+      <c r="AFP10" s="0"/>
+      <c r="AFQ10" s="0"/>
+      <c r="AFR10" s="0"/>
+      <c r="AFS10" s="0"/>
+      <c r="AFT10" s="0"/>
+      <c r="AFU10" s="0"/>
+      <c r="AFV10" s="0"/>
+      <c r="AFW10" s="0"/>
+      <c r="AFX10" s="0"/>
+      <c r="AFY10" s="0"/>
+      <c r="AFZ10" s="0"/>
+      <c r="AGA10" s="0"/>
+      <c r="AGB10" s="0"/>
+      <c r="AGC10" s="0"/>
+      <c r="AGD10" s="0"/>
+      <c r="AGE10" s="0"/>
+      <c r="AGF10" s="0"/>
+      <c r="AGG10" s="0"/>
+      <c r="AGH10" s="0"/>
+      <c r="AGI10" s="0"/>
+      <c r="AGJ10" s="0"/>
+      <c r="AGK10" s="0"/>
+      <c r="AGL10" s="0"/>
+      <c r="AGM10" s="0"/>
+      <c r="AGN10" s="0"/>
+      <c r="AGO10" s="0"/>
+      <c r="AGP10" s="0"/>
+      <c r="AGQ10" s="0"/>
+      <c r="AGR10" s="0"/>
+      <c r="AGS10" s="0"/>
+      <c r="AGT10" s="0"/>
+      <c r="AGU10" s="0"/>
+      <c r="AGV10" s="0"/>
+      <c r="AGW10" s="0"/>
+      <c r="AGX10" s="0"/>
+      <c r="AGY10" s="0"/>
+      <c r="AGZ10" s="0"/>
+      <c r="AHA10" s="0"/>
+      <c r="AHB10" s="0"/>
+      <c r="AHC10" s="0"/>
+      <c r="AHD10" s="0"/>
+      <c r="AHE10" s="0"/>
+      <c r="AHF10" s="0"/>
+      <c r="AHG10" s="0"/>
+      <c r="AHH10" s="0"/>
+      <c r="AHI10" s="0"/>
+      <c r="AHJ10" s="0"/>
+      <c r="AHK10" s="0"/>
+      <c r="AHL10" s="0"/>
+      <c r="AHM10" s="0"/>
+      <c r="AHN10" s="0"/>
+      <c r="AHO10" s="0"/>
+      <c r="AHP10" s="0"/>
+      <c r="AHQ10" s="0"/>
+      <c r="AHR10" s="0"/>
+      <c r="AHS10" s="0"/>
+      <c r="AHT10" s="0"/>
+      <c r="AHU10" s="0"/>
+      <c r="AHV10" s="0"/>
+      <c r="AHW10" s="0"/>
+      <c r="AHX10" s="0"/>
+      <c r="AHY10" s="0"/>
+      <c r="AHZ10" s="0"/>
+      <c r="AIA10" s="0"/>
+      <c r="AIB10" s="0"/>
+      <c r="AIC10" s="0"/>
+      <c r="AID10" s="0"/>
+      <c r="AIE10" s="0"/>
+      <c r="AIF10" s="0"/>
+      <c r="AIG10" s="0"/>
+      <c r="AIH10" s="0"/>
+      <c r="AII10" s="0"/>
+      <c r="AIJ10" s="0"/>
+      <c r="AIK10" s="0"/>
+      <c r="AIL10" s="0"/>
+      <c r="AIM10" s="0"/>
+      <c r="AIN10" s="0"/>
+      <c r="AIO10" s="0"/>
+      <c r="AIP10" s="0"/>
+      <c r="AIQ10" s="0"/>
+      <c r="AIR10" s="0"/>
+      <c r="AIS10" s="0"/>
+      <c r="AIT10" s="0"/>
+      <c r="AIU10" s="0"/>
+      <c r="AIV10" s="0"/>
+      <c r="AIW10" s="0"/>
+      <c r="AIX10" s="0"/>
+      <c r="AIY10" s="0"/>
+      <c r="AIZ10" s="0"/>
+      <c r="AJA10" s="0"/>
+      <c r="AJB10" s="0"/>
+      <c r="AJC10" s="0"/>
+      <c r="AJD10" s="0"/>
+      <c r="AJE10" s="0"/>
+      <c r="AJF10" s="0"/>
+      <c r="AJG10" s="0"/>
+      <c r="AJH10" s="0"/>
+      <c r="AJI10" s="0"/>
+      <c r="AJJ10" s="0"/>
+      <c r="AJK10" s="0"/>
+      <c r="AJL10" s="0"/>
+      <c r="AJM10" s="0"/>
+      <c r="AJN10" s="0"/>
+      <c r="AJO10" s="0"/>
+      <c r="AJP10" s="0"/>
+      <c r="AJQ10" s="0"/>
+      <c r="AJR10" s="0"/>
+      <c r="AJS10" s="0"/>
+      <c r="AJT10" s="0"/>
+      <c r="AJU10" s="0"/>
+      <c r="AJV10" s="0"/>
+      <c r="AJW10" s="0"/>
+      <c r="AJX10" s="0"/>
+      <c r="AJY10" s="0"/>
+      <c r="AJZ10" s="0"/>
+      <c r="AKA10" s="0"/>
+      <c r="AKB10" s="0"/>
+      <c r="AKC10" s="0"/>
+      <c r="AKD10" s="0"/>
+      <c r="AKE10" s="0"/>
+      <c r="AKF10" s="0"/>
+      <c r="AKG10" s="0"/>
+      <c r="AKH10" s="0"/>
+      <c r="AKI10" s="0"/>
+      <c r="AKJ10" s="0"/>
+      <c r="AKK10" s="0"/>
+      <c r="AKL10" s="0"/>
+      <c r="AKM10" s="0"/>
+      <c r="AKN10" s="0"/>
+      <c r="AKO10" s="0"/>
+      <c r="AKP10" s="0"/>
+      <c r="AKQ10" s="0"/>
+      <c r="AKR10" s="0"/>
+      <c r="AKS10" s="0"/>
+      <c r="AKT10" s="0"/>
+      <c r="AKU10" s="0"/>
+      <c r="AKV10" s="0"/>
+      <c r="AKW10" s="0"/>
+      <c r="AKX10" s="0"/>
+      <c r="AKY10" s="0"/>
+      <c r="AKZ10" s="0"/>
+      <c r="ALA10" s="0"/>
+      <c r="ALB10" s="0"/>
+      <c r="ALC10" s="0"/>
+      <c r="ALD10" s="0"/>
+      <c r="ALE10" s="0"/>
+      <c r="ALF10" s="0"/>
+      <c r="ALG10" s="0"/>
+      <c r="ALH10" s="0"/>
+      <c r="ALI10" s="0"/>
+      <c r="ALJ10" s="0"/>
+      <c r="ALK10" s="0"/>
+      <c r="ALL10" s="0"/>
+      <c r="ALM10" s="0"/>
+      <c r="ALN10" s="0"/>
+      <c r="ALO10" s="0"/>
+      <c r="ALP10" s="0"/>
+      <c r="ALQ10" s="0"/>
+      <c r="ALR10" s="0"/>
+      <c r="ALS10" s="0"/>
+      <c r="ALT10" s="0"/>
+      <c r="ALU10" s="0"/>
+      <c r="ALV10" s="0"/>
+      <c r="ALW10" s="0"/>
+      <c r="ALX10" s="0"/>
+      <c r="ALY10" s="0"/>
+      <c r="ALZ10" s="0"/>
+      <c r="AMA10" s="0"/>
+      <c r="AMB10" s="0"/>
+      <c r="AMC10" s="0"/>
+      <c r="AMD10" s="0"/>
+      <c r="AME10" s="0"/>
+      <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -11868,6 +13908,1025 @@
       <c r="E14" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+      <c r="AF14" s="0"/>
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
+      <c r="AJ14" s="0"/>
+      <c r="AK14" s="0"/>
+      <c r="AL14" s="0"/>
+      <c r="AM14" s="0"/>
+      <c r="AN14" s="0"/>
+      <c r="AO14" s="0"/>
+      <c r="AP14" s="0"/>
+      <c r="AQ14" s="0"/>
+      <c r="AR14" s="0"/>
+      <c r="AS14" s="0"/>
+      <c r="AT14" s="0"/>
+      <c r="AU14" s="0"/>
+      <c r="AV14" s="0"/>
+      <c r="AW14" s="0"/>
+      <c r="AX14" s="0"/>
+      <c r="AY14" s="0"/>
+      <c r="AZ14" s="0"/>
+      <c r="BA14" s="0"/>
+      <c r="BB14" s="0"/>
+      <c r="BC14" s="0"/>
+      <c r="BD14" s="0"/>
+      <c r="BE14" s="0"/>
+      <c r="BF14" s="0"/>
+      <c r="BG14" s="0"/>
+      <c r="BH14" s="0"/>
+      <c r="BI14" s="0"/>
+      <c r="BJ14" s="0"/>
+      <c r="BK14" s="0"/>
+      <c r="BL14" s="0"/>
+      <c r="BM14" s="0"/>
+      <c r="BN14" s="0"/>
+      <c r="BO14" s="0"/>
+      <c r="BP14" s="0"/>
+      <c r="BQ14" s="0"/>
+      <c r="BR14" s="0"/>
+      <c r="BS14" s="0"/>
+      <c r="BT14" s="0"/>
+      <c r="BU14" s="0"/>
+      <c r="BV14" s="0"/>
+      <c r="BW14" s="0"/>
+      <c r="BX14" s="0"/>
+      <c r="BY14" s="0"/>
+      <c r="BZ14" s="0"/>
+      <c r="CA14" s="0"/>
+      <c r="CB14" s="0"/>
+      <c r="CC14" s="0"/>
+      <c r="CD14" s="0"/>
+      <c r="CE14" s="0"/>
+      <c r="CF14" s="0"/>
+      <c r="CG14" s="0"/>
+      <c r="CH14" s="0"/>
+      <c r="CI14" s="0"/>
+      <c r="CJ14" s="0"/>
+      <c r="CK14" s="0"/>
+      <c r="CL14" s="0"/>
+      <c r="CM14" s="0"/>
+      <c r="CN14" s="0"/>
+      <c r="CO14" s="0"/>
+      <c r="CP14" s="0"/>
+      <c r="CQ14" s="0"/>
+      <c r="CR14" s="0"/>
+      <c r="CS14" s="0"/>
+      <c r="CT14" s="0"/>
+      <c r="CU14" s="0"/>
+      <c r="CV14" s="0"/>
+      <c r="CW14" s="0"/>
+      <c r="CX14" s="0"/>
+      <c r="CY14" s="0"/>
+      <c r="CZ14" s="0"/>
+      <c r="DA14" s="0"/>
+      <c r="DB14" s="0"/>
+      <c r="DC14" s="0"/>
+      <c r="DD14" s="0"/>
+      <c r="DE14" s="0"/>
+      <c r="DF14" s="0"/>
+      <c r="DG14" s="0"/>
+      <c r="DH14" s="0"/>
+      <c r="DI14" s="0"/>
+      <c r="DJ14" s="0"/>
+      <c r="DK14" s="0"/>
+      <c r="DL14" s="0"/>
+      <c r="DM14" s="0"/>
+      <c r="DN14" s="0"/>
+      <c r="DO14" s="0"/>
+      <c r="DP14" s="0"/>
+      <c r="DQ14" s="0"/>
+      <c r="DR14" s="0"/>
+      <c r="DS14" s="0"/>
+      <c r="DT14" s="0"/>
+      <c r="DU14" s="0"/>
+      <c r="DV14" s="0"/>
+      <c r="DW14" s="0"/>
+      <c r="DX14" s="0"/>
+      <c r="DY14" s="0"/>
+      <c r="DZ14" s="0"/>
+      <c r="EA14" s="0"/>
+      <c r="EB14" s="0"/>
+      <c r="EC14" s="0"/>
+      <c r="ED14" s="0"/>
+      <c r="EE14" s="0"/>
+      <c r="EF14" s="0"/>
+      <c r="EG14" s="0"/>
+      <c r="EH14" s="0"/>
+      <c r="EI14" s="0"/>
+      <c r="EJ14" s="0"/>
+      <c r="EK14" s="0"/>
+      <c r="EL14" s="0"/>
+      <c r="EM14" s="0"/>
+      <c r="EN14" s="0"/>
+      <c r="EO14" s="0"/>
+      <c r="EP14" s="0"/>
+      <c r="EQ14" s="0"/>
+      <c r="ER14" s="0"/>
+      <c r="ES14" s="0"/>
+      <c r="ET14" s="0"/>
+      <c r="EU14" s="0"/>
+      <c r="EV14" s="0"/>
+      <c r="EW14" s="0"/>
+      <c r="EX14" s="0"/>
+      <c r="EY14" s="0"/>
+      <c r="EZ14" s="0"/>
+      <c r="FA14" s="0"/>
+      <c r="FB14" s="0"/>
+      <c r="FC14" s="0"/>
+      <c r="FD14" s="0"/>
+      <c r="FE14" s="0"/>
+      <c r="FF14" s="0"/>
+      <c r="FG14" s="0"/>
+      <c r="FH14" s="0"/>
+      <c r="FI14" s="0"/>
+      <c r="FJ14" s="0"/>
+      <c r="FK14" s="0"/>
+      <c r="FL14" s="0"/>
+      <c r="FM14" s="0"/>
+      <c r="FN14" s="0"/>
+      <c r="FO14" s="0"/>
+      <c r="FP14" s="0"/>
+      <c r="FQ14" s="0"/>
+      <c r="FR14" s="0"/>
+      <c r="FS14" s="0"/>
+      <c r="FT14" s="0"/>
+      <c r="FU14" s="0"/>
+      <c r="FV14" s="0"/>
+      <c r="FW14" s="0"/>
+      <c r="FX14" s="0"/>
+      <c r="FY14" s="0"/>
+      <c r="FZ14" s="0"/>
+      <c r="GA14" s="0"/>
+      <c r="GB14" s="0"/>
+      <c r="GC14" s="0"/>
+      <c r="GD14" s="0"/>
+      <c r="GE14" s="0"/>
+      <c r="GF14" s="0"/>
+      <c r="GG14" s="0"/>
+      <c r="GH14" s="0"/>
+      <c r="GI14" s="0"/>
+      <c r="GJ14" s="0"/>
+      <c r="GK14" s="0"/>
+      <c r="GL14" s="0"/>
+      <c r="GM14" s="0"/>
+      <c r="GN14" s="0"/>
+      <c r="GO14" s="0"/>
+      <c r="GP14" s="0"/>
+      <c r="GQ14" s="0"/>
+      <c r="GR14" s="0"/>
+      <c r="GS14" s="0"/>
+      <c r="GT14" s="0"/>
+      <c r="GU14" s="0"/>
+      <c r="GV14" s="0"/>
+      <c r="GW14" s="0"/>
+      <c r="GX14" s="0"/>
+      <c r="GY14" s="0"/>
+      <c r="GZ14" s="0"/>
+      <c r="HA14" s="0"/>
+      <c r="HB14" s="0"/>
+      <c r="HC14" s="0"/>
+      <c r="HD14" s="0"/>
+      <c r="HE14" s="0"/>
+      <c r="HF14" s="0"/>
+      <c r="HG14" s="0"/>
+      <c r="HH14" s="0"/>
+      <c r="HI14" s="0"/>
+      <c r="HJ14" s="0"/>
+      <c r="HK14" s="0"/>
+      <c r="HL14" s="0"/>
+      <c r="HM14" s="0"/>
+      <c r="HN14" s="0"/>
+      <c r="HO14" s="0"/>
+      <c r="HP14" s="0"/>
+      <c r="HQ14" s="0"/>
+      <c r="HR14" s="0"/>
+      <c r="HS14" s="0"/>
+      <c r="HT14" s="0"/>
+      <c r="HU14" s="0"/>
+      <c r="HV14" s="0"/>
+      <c r="HW14" s="0"/>
+      <c r="HX14" s="0"/>
+      <c r="HY14" s="0"/>
+      <c r="HZ14" s="0"/>
+      <c r="IA14" s="0"/>
+      <c r="IB14" s="0"/>
+      <c r="IC14" s="0"/>
+      <c r="ID14" s="0"/>
+      <c r="IE14" s="0"/>
+      <c r="IF14" s="0"/>
+      <c r="IG14" s="0"/>
+      <c r="IH14" s="0"/>
+      <c r="II14" s="0"/>
+      <c r="IJ14" s="0"/>
+      <c r="IK14" s="0"/>
+      <c r="IL14" s="0"/>
+      <c r="IM14" s="0"/>
+      <c r="IN14" s="0"/>
+      <c r="IO14" s="0"/>
+      <c r="IP14" s="0"/>
+      <c r="IQ14" s="0"/>
+      <c r="IR14" s="0"/>
+      <c r="IS14" s="0"/>
+      <c r="IT14" s="0"/>
+      <c r="IU14" s="0"/>
+      <c r="IV14" s="0"/>
+      <c r="IW14" s="0"/>
+      <c r="IX14" s="0"/>
+      <c r="IY14" s="0"/>
+      <c r="IZ14" s="0"/>
+      <c r="JA14" s="0"/>
+      <c r="JB14" s="0"/>
+      <c r="JC14" s="0"/>
+      <c r="JD14" s="0"/>
+      <c r="JE14" s="0"/>
+      <c r="JF14" s="0"/>
+      <c r="JG14" s="0"/>
+      <c r="JH14" s="0"/>
+      <c r="JI14" s="0"/>
+      <c r="JJ14" s="0"/>
+      <c r="JK14" s="0"/>
+      <c r="JL14" s="0"/>
+      <c r="JM14" s="0"/>
+      <c r="JN14" s="0"/>
+      <c r="JO14" s="0"/>
+      <c r="JP14" s="0"/>
+      <c r="JQ14" s="0"/>
+      <c r="JR14" s="0"/>
+      <c r="JS14" s="0"/>
+      <c r="JT14" s="0"/>
+      <c r="JU14" s="0"/>
+      <c r="JV14" s="0"/>
+      <c r="JW14" s="0"/>
+      <c r="JX14" s="0"/>
+      <c r="JY14" s="0"/>
+      <c r="JZ14" s="0"/>
+      <c r="KA14" s="0"/>
+      <c r="KB14" s="0"/>
+      <c r="KC14" s="0"/>
+      <c r="KD14" s="0"/>
+      <c r="KE14" s="0"/>
+      <c r="KF14" s="0"/>
+      <c r="KG14" s="0"/>
+      <c r="KH14" s="0"/>
+      <c r="KI14" s="0"/>
+      <c r="KJ14" s="0"/>
+      <c r="KK14" s="0"/>
+      <c r="KL14" s="0"/>
+      <c r="KM14" s="0"/>
+      <c r="KN14" s="0"/>
+      <c r="KO14" s="0"/>
+      <c r="KP14" s="0"/>
+      <c r="KQ14" s="0"/>
+      <c r="KR14" s="0"/>
+      <c r="KS14" s="0"/>
+      <c r="KT14" s="0"/>
+      <c r="KU14" s="0"/>
+      <c r="KV14" s="0"/>
+      <c r="KW14" s="0"/>
+      <c r="KX14" s="0"/>
+      <c r="KY14" s="0"/>
+      <c r="KZ14" s="0"/>
+      <c r="LA14" s="0"/>
+      <c r="LB14" s="0"/>
+      <c r="LC14" s="0"/>
+      <c r="LD14" s="0"/>
+      <c r="LE14" s="0"/>
+      <c r="LF14" s="0"/>
+      <c r="LG14" s="0"/>
+      <c r="LH14" s="0"/>
+      <c r="LI14" s="0"/>
+      <c r="LJ14" s="0"/>
+      <c r="LK14" s="0"/>
+      <c r="LL14" s="0"/>
+      <c r="LM14" s="0"/>
+      <c r="LN14" s="0"/>
+      <c r="LO14" s="0"/>
+      <c r="LP14" s="0"/>
+      <c r="LQ14" s="0"/>
+      <c r="LR14" s="0"/>
+      <c r="LS14" s="0"/>
+      <c r="LT14" s="0"/>
+      <c r="LU14" s="0"/>
+      <c r="LV14" s="0"/>
+      <c r="LW14" s="0"/>
+      <c r="LX14" s="0"/>
+      <c r="LY14" s="0"/>
+      <c r="LZ14" s="0"/>
+      <c r="MA14" s="0"/>
+      <c r="MB14" s="0"/>
+      <c r="MC14" s="0"/>
+      <c r="MD14" s="0"/>
+      <c r="ME14" s="0"/>
+      <c r="MF14" s="0"/>
+      <c r="MG14" s="0"/>
+      <c r="MH14" s="0"/>
+      <c r="MI14" s="0"/>
+      <c r="MJ14" s="0"/>
+      <c r="MK14" s="0"/>
+      <c r="ML14" s="0"/>
+      <c r="MM14" s="0"/>
+      <c r="MN14" s="0"/>
+      <c r="MO14" s="0"/>
+      <c r="MP14" s="0"/>
+      <c r="MQ14" s="0"/>
+      <c r="MR14" s="0"/>
+      <c r="MS14" s="0"/>
+      <c r="MT14" s="0"/>
+      <c r="MU14" s="0"/>
+      <c r="MV14" s="0"/>
+      <c r="MW14" s="0"/>
+      <c r="MX14" s="0"/>
+      <c r="MY14" s="0"/>
+      <c r="MZ14" s="0"/>
+      <c r="NA14" s="0"/>
+      <c r="NB14" s="0"/>
+      <c r="NC14" s="0"/>
+      <c r="ND14" s="0"/>
+      <c r="NE14" s="0"/>
+      <c r="NF14" s="0"/>
+      <c r="NG14" s="0"/>
+      <c r="NH14" s="0"/>
+      <c r="NI14" s="0"/>
+      <c r="NJ14" s="0"/>
+      <c r="NK14" s="0"/>
+      <c r="NL14" s="0"/>
+      <c r="NM14" s="0"/>
+      <c r="NN14" s="0"/>
+      <c r="NO14" s="0"/>
+      <c r="NP14" s="0"/>
+      <c r="NQ14" s="0"/>
+      <c r="NR14" s="0"/>
+      <c r="NS14" s="0"/>
+      <c r="NT14" s="0"/>
+      <c r="NU14" s="0"/>
+      <c r="NV14" s="0"/>
+      <c r="NW14" s="0"/>
+      <c r="NX14" s="0"/>
+      <c r="NY14" s="0"/>
+      <c r="NZ14" s="0"/>
+      <c r="OA14" s="0"/>
+      <c r="OB14" s="0"/>
+      <c r="OC14" s="0"/>
+      <c r="OD14" s="0"/>
+      <c r="OE14" s="0"/>
+      <c r="OF14" s="0"/>
+      <c r="OG14" s="0"/>
+      <c r="OH14" s="0"/>
+      <c r="OI14" s="0"/>
+      <c r="OJ14" s="0"/>
+      <c r="OK14" s="0"/>
+      <c r="OL14" s="0"/>
+      <c r="OM14" s="0"/>
+      <c r="ON14" s="0"/>
+      <c r="OO14" s="0"/>
+      <c r="OP14" s="0"/>
+      <c r="OQ14" s="0"/>
+      <c r="OR14" s="0"/>
+      <c r="OS14" s="0"/>
+      <c r="OT14" s="0"/>
+      <c r="OU14" s="0"/>
+      <c r="OV14" s="0"/>
+      <c r="OW14" s="0"/>
+      <c r="OX14" s="0"/>
+      <c r="OY14" s="0"/>
+      <c r="OZ14" s="0"/>
+      <c r="PA14" s="0"/>
+      <c r="PB14" s="0"/>
+      <c r="PC14" s="0"/>
+      <c r="PD14" s="0"/>
+      <c r="PE14" s="0"/>
+      <c r="PF14" s="0"/>
+      <c r="PG14" s="0"/>
+      <c r="PH14" s="0"/>
+      <c r="PI14" s="0"/>
+      <c r="PJ14" s="0"/>
+      <c r="PK14" s="0"/>
+      <c r="PL14" s="0"/>
+      <c r="PM14" s="0"/>
+      <c r="PN14" s="0"/>
+      <c r="PO14" s="0"/>
+      <c r="PP14" s="0"/>
+      <c r="PQ14" s="0"/>
+      <c r="PR14" s="0"/>
+      <c r="PS14" s="0"/>
+      <c r="PT14" s="0"/>
+      <c r="PU14" s="0"/>
+      <c r="PV14" s="0"/>
+      <c r="PW14" s="0"/>
+      <c r="PX14" s="0"/>
+      <c r="PY14" s="0"/>
+      <c r="PZ14" s="0"/>
+      <c r="QA14" s="0"/>
+      <c r="QB14" s="0"/>
+      <c r="QC14" s="0"/>
+      <c r="QD14" s="0"/>
+      <c r="QE14" s="0"/>
+      <c r="QF14" s="0"/>
+      <c r="QG14" s="0"/>
+      <c r="QH14" s="0"/>
+      <c r="QI14" s="0"/>
+      <c r="QJ14" s="0"/>
+      <c r="QK14" s="0"/>
+      <c r="QL14" s="0"/>
+      <c r="QM14" s="0"/>
+      <c r="QN14" s="0"/>
+      <c r="QO14" s="0"/>
+      <c r="QP14" s="0"/>
+      <c r="QQ14" s="0"/>
+      <c r="QR14" s="0"/>
+      <c r="QS14" s="0"/>
+      <c r="QT14" s="0"/>
+      <c r="QU14" s="0"/>
+      <c r="QV14" s="0"/>
+      <c r="QW14" s="0"/>
+      <c r="QX14" s="0"/>
+      <c r="QY14" s="0"/>
+      <c r="QZ14" s="0"/>
+      <c r="RA14" s="0"/>
+      <c r="RB14" s="0"/>
+      <c r="RC14" s="0"/>
+      <c r="RD14" s="0"/>
+      <c r="RE14" s="0"/>
+      <c r="RF14" s="0"/>
+      <c r="RG14" s="0"/>
+      <c r="RH14" s="0"/>
+      <c r="RI14" s="0"/>
+      <c r="RJ14" s="0"/>
+      <c r="RK14" s="0"/>
+      <c r="RL14" s="0"/>
+      <c r="RM14" s="0"/>
+      <c r="RN14" s="0"/>
+      <c r="RO14" s="0"/>
+      <c r="RP14" s="0"/>
+      <c r="RQ14" s="0"/>
+      <c r="RR14" s="0"/>
+      <c r="RS14" s="0"/>
+      <c r="RT14" s="0"/>
+      <c r="RU14" s="0"/>
+      <c r="RV14" s="0"/>
+      <c r="RW14" s="0"/>
+      <c r="RX14" s="0"/>
+      <c r="RY14" s="0"/>
+      <c r="RZ14" s="0"/>
+      <c r="SA14" s="0"/>
+      <c r="SB14" s="0"/>
+      <c r="SC14" s="0"/>
+      <c r="SD14" s="0"/>
+      <c r="SE14" s="0"/>
+      <c r="SF14" s="0"/>
+      <c r="SG14" s="0"/>
+      <c r="SH14" s="0"/>
+      <c r="SI14" s="0"/>
+      <c r="SJ14" s="0"/>
+      <c r="SK14" s="0"/>
+      <c r="SL14" s="0"/>
+      <c r="SM14" s="0"/>
+      <c r="SN14" s="0"/>
+      <c r="SO14" s="0"/>
+      <c r="SP14" s="0"/>
+      <c r="SQ14" s="0"/>
+      <c r="SR14" s="0"/>
+      <c r="SS14" s="0"/>
+      <c r="ST14" s="0"/>
+      <c r="SU14" s="0"/>
+      <c r="SV14" s="0"/>
+      <c r="SW14" s="0"/>
+      <c r="SX14" s="0"/>
+      <c r="SY14" s="0"/>
+      <c r="SZ14" s="0"/>
+      <c r="TA14" s="0"/>
+      <c r="TB14" s="0"/>
+      <c r="TC14" s="0"/>
+      <c r="TD14" s="0"/>
+      <c r="TE14" s="0"/>
+      <c r="TF14" s="0"/>
+      <c r="TG14" s="0"/>
+      <c r="TH14" s="0"/>
+      <c r="TI14" s="0"/>
+      <c r="TJ14" s="0"/>
+      <c r="TK14" s="0"/>
+      <c r="TL14" s="0"/>
+      <c r="TM14" s="0"/>
+      <c r="TN14" s="0"/>
+      <c r="TO14" s="0"/>
+      <c r="TP14" s="0"/>
+      <c r="TQ14" s="0"/>
+      <c r="TR14" s="0"/>
+      <c r="TS14" s="0"/>
+      <c r="TT14" s="0"/>
+      <c r="TU14" s="0"/>
+      <c r="TV14" s="0"/>
+      <c r="TW14" s="0"/>
+      <c r="TX14" s="0"/>
+      <c r="TY14" s="0"/>
+      <c r="TZ14" s="0"/>
+      <c r="UA14" s="0"/>
+      <c r="UB14" s="0"/>
+      <c r="UC14" s="0"/>
+      <c r="UD14" s="0"/>
+      <c r="UE14" s="0"/>
+      <c r="UF14" s="0"/>
+      <c r="UG14" s="0"/>
+      <c r="UH14" s="0"/>
+      <c r="UI14" s="0"/>
+      <c r="UJ14" s="0"/>
+      <c r="UK14" s="0"/>
+      <c r="UL14" s="0"/>
+      <c r="UM14" s="0"/>
+      <c r="UN14" s="0"/>
+      <c r="UO14" s="0"/>
+      <c r="UP14" s="0"/>
+      <c r="UQ14" s="0"/>
+      <c r="UR14" s="0"/>
+      <c r="US14" s="0"/>
+      <c r="UT14" s="0"/>
+      <c r="UU14" s="0"/>
+      <c r="UV14" s="0"/>
+      <c r="UW14" s="0"/>
+      <c r="UX14" s="0"/>
+      <c r="UY14" s="0"/>
+      <c r="UZ14" s="0"/>
+      <c r="VA14" s="0"/>
+      <c r="VB14" s="0"/>
+      <c r="VC14" s="0"/>
+      <c r="VD14" s="0"/>
+      <c r="VE14" s="0"/>
+      <c r="VF14" s="0"/>
+      <c r="VG14" s="0"/>
+      <c r="VH14" s="0"/>
+      <c r="VI14" s="0"/>
+      <c r="VJ14" s="0"/>
+      <c r="VK14" s="0"/>
+      <c r="VL14" s="0"/>
+      <c r="VM14" s="0"/>
+      <c r="VN14" s="0"/>
+      <c r="VO14" s="0"/>
+      <c r="VP14" s="0"/>
+      <c r="VQ14" s="0"/>
+      <c r="VR14" s="0"/>
+      <c r="VS14" s="0"/>
+      <c r="VT14" s="0"/>
+      <c r="VU14" s="0"/>
+      <c r="VV14" s="0"/>
+      <c r="VW14" s="0"/>
+      <c r="VX14" s="0"/>
+      <c r="VY14" s="0"/>
+      <c r="VZ14" s="0"/>
+      <c r="WA14" s="0"/>
+      <c r="WB14" s="0"/>
+      <c r="WC14" s="0"/>
+      <c r="WD14" s="0"/>
+      <c r="WE14" s="0"/>
+      <c r="WF14" s="0"/>
+      <c r="WG14" s="0"/>
+      <c r="WH14" s="0"/>
+      <c r="WI14" s="0"/>
+      <c r="WJ14" s="0"/>
+      <c r="WK14" s="0"/>
+      <c r="WL14" s="0"/>
+      <c r="WM14" s="0"/>
+      <c r="WN14" s="0"/>
+      <c r="WO14" s="0"/>
+      <c r="WP14" s="0"/>
+      <c r="WQ14" s="0"/>
+      <c r="WR14" s="0"/>
+      <c r="WS14" s="0"/>
+      <c r="WT14" s="0"/>
+      <c r="WU14" s="0"/>
+      <c r="WV14" s="0"/>
+      <c r="WW14" s="0"/>
+      <c r="WX14" s="0"/>
+      <c r="WY14" s="0"/>
+      <c r="WZ14" s="0"/>
+      <c r="XA14" s="0"/>
+      <c r="XB14" s="0"/>
+      <c r="XC14" s="0"/>
+      <c r="XD14" s="0"/>
+      <c r="XE14" s="0"/>
+      <c r="XF14" s="0"/>
+      <c r="XG14" s="0"/>
+      <c r="XH14" s="0"/>
+      <c r="XI14" s="0"/>
+      <c r="XJ14" s="0"/>
+      <c r="XK14" s="0"/>
+      <c r="XL14" s="0"/>
+      <c r="XM14" s="0"/>
+      <c r="XN14" s="0"/>
+      <c r="XO14" s="0"/>
+      <c r="XP14" s="0"/>
+      <c r="XQ14" s="0"/>
+      <c r="XR14" s="0"/>
+      <c r="XS14" s="0"/>
+      <c r="XT14" s="0"/>
+      <c r="XU14" s="0"/>
+      <c r="XV14" s="0"/>
+      <c r="XW14" s="0"/>
+      <c r="XX14" s="0"/>
+      <c r="XY14" s="0"/>
+      <c r="XZ14" s="0"/>
+      <c r="YA14" s="0"/>
+      <c r="YB14" s="0"/>
+      <c r="YC14" s="0"/>
+      <c r="YD14" s="0"/>
+      <c r="YE14" s="0"/>
+      <c r="YF14" s="0"/>
+      <c r="YG14" s="0"/>
+      <c r="YH14" s="0"/>
+      <c r="YI14" s="0"/>
+      <c r="YJ14" s="0"/>
+      <c r="YK14" s="0"/>
+      <c r="YL14" s="0"/>
+      <c r="YM14" s="0"/>
+      <c r="YN14" s="0"/>
+      <c r="YO14" s="0"/>
+      <c r="YP14" s="0"/>
+      <c r="YQ14" s="0"/>
+      <c r="YR14" s="0"/>
+      <c r="YS14" s="0"/>
+      <c r="YT14" s="0"/>
+      <c r="YU14" s="0"/>
+      <c r="YV14" s="0"/>
+      <c r="YW14" s="0"/>
+      <c r="YX14" s="0"/>
+      <c r="YY14" s="0"/>
+      <c r="YZ14" s="0"/>
+      <c r="ZA14" s="0"/>
+      <c r="ZB14" s="0"/>
+      <c r="ZC14" s="0"/>
+      <c r="ZD14" s="0"/>
+      <c r="ZE14" s="0"/>
+      <c r="ZF14" s="0"/>
+      <c r="ZG14" s="0"/>
+      <c r="ZH14" s="0"/>
+      <c r="ZI14" s="0"/>
+      <c r="ZJ14" s="0"/>
+      <c r="ZK14" s="0"/>
+      <c r="ZL14" s="0"/>
+      <c r="ZM14" s="0"/>
+      <c r="ZN14" s="0"/>
+      <c r="ZO14" s="0"/>
+      <c r="ZP14" s="0"/>
+      <c r="ZQ14" s="0"/>
+      <c r="ZR14" s="0"/>
+      <c r="ZS14" s="0"/>
+      <c r="ZT14" s="0"/>
+      <c r="ZU14" s="0"/>
+      <c r="ZV14" s="0"/>
+      <c r="ZW14" s="0"/>
+      <c r="ZX14" s="0"/>
+      <c r="ZY14" s="0"/>
+      <c r="ZZ14" s="0"/>
+      <c r="AAA14" s="0"/>
+      <c r="AAB14" s="0"/>
+      <c r="AAC14" s="0"/>
+      <c r="AAD14" s="0"/>
+      <c r="AAE14" s="0"/>
+      <c r="AAF14" s="0"/>
+      <c r="AAG14" s="0"/>
+      <c r="AAH14" s="0"/>
+      <c r="AAI14" s="0"/>
+      <c r="AAJ14" s="0"/>
+      <c r="AAK14" s="0"/>
+      <c r="AAL14" s="0"/>
+      <c r="AAM14" s="0"/>
+      <c r="AAN14" s="0"/>
+      <c r="AAO14" s="0"/>
+      <c r="AAP14" s="0"/>
+      <c r="AAQ14" s="0"/>
+      <c r="AAR14" s="0"/>
+      <c r="AAS14" s="0"/>
+      <c r="AAT14" s="0"/>
+      <c r="AAU14" s="0"/>
+      <c r="AAV14" s="0"/>
+      <c r="AAW14" s="0"/>
+      <c r="AAX14" s="0"/>
+      <c r="AAY14" s="0"/>
+      <c r="AAZ14" s="0"/>
+      <c r="ABA14" s="0"/>
+      <c r="ABB14" s="0"/>
+      <c r="ABC14" s="0"/>
+      <c r="ABD14" s="0"/>
+      <c r="ABE14" s="0"/>
+      <c r="ABF14" s="0"/>
+      <c r="ABG14" s="0"/>
+      <c r="ABH14" s="0"/>
+      <c r="ABI14" s="0"/>
+      <c r="ABJ14" s="0"/>
+      <c r="ABK14" s="0"/>
+      <c r="ABL14" s="0"/>
+      <c r="ABM14" s="0"/>
+      <c r="ABN14" s="0"/>
+      <c r="ABO14" s="0"/>
+      <c r="ABP14" s="0"/>
+      <c r="ABQ14" s="0"/>
+      <c r="ABR14" s="0"/>
+      <c r="ABS14" s="0"/>
+      <c r="ABT14" s="0"/>
+      <c r="ABU14" s="0"/>
+      <c r="ABV14" s="0"/>
+      <c r="ABW14" s="0"/>
+      <c r="ABX14" s="0"/>
+      <c r="ABY14" s="0"/>
+      <c r="ABZ14" s="0"/>
+      <c r="ACA14" s="0"/>
+      <c r="ACB14" s="0"/>
+      <c r="ACC14" s="0"/>
+      <c r="ACD14" s="0"/>
+      <c r="ACE14" s="0"/>
+      <c r="ACF14" s="0"/>
+      <c r="ACG14" s="0"/>
+      <c r="ACH14" s="0"/>
+      <c r="ACI14" s="0"/>
+      <c r="ACJ14" s="0"/>
+      <c r="ACK14" s="0"/>
+      <c r="ACL14" s="0"/>
+      <c r="ACM14" s="0"/>
+      <c r="ACN14" s="0"/>
+      <c r="ACO14" s="0"/>
+      <c r="ACP14" s="0"/>
+      <c r="ACQ14" s="0"/>
+      <c r="ACR14" s="0"/>
+      <c r="ACS14" s="0"/>
+      <c r="ACT14" s="0"/>
+      <c r="ACU14" s="0"/>
+      <c r="ACV14" s="0"/>
+      <c r="ACW14" s="0"/>
+      <c r="ACX14" s="0"/>
+      <c r="ACY14" s="0"/>
+      <c r="ACZ14" s="0"/>
+      <c r="ADA14" s="0"/>
+      <c r="ADB14" s="0"/>
+      <c r="ADC14" s="0"/>
+      <c r="ADD14" s="0"/>
+      <c r="ADE14" s="0"/>
+      <c r="ADF14" s="0"/>
+      <c r="ADG14" s="0"/>
+      <c r="ADH14" s="0"/>
+      <c r="ADI14" s="0"/>
+      <c r="ADJ14" s="0"/>
+      <c r="ADK14" s="0"/>
+      <c r="ADL14" s="0"/>
+      <c r="ADM14" s="0"/>
+      <c r="ADN14" s="0"/>
+      <c r="ADO14" s="0"/>
+      <c r="ADP14" s="0"/>
+      <c r="ADQ14" s="0"/>
+      <c r="ADR14" s="0"/>
+      <c r="ADS14" s="0"/>
+      <c r="ADT14" s="0"/>
+      <c r="ADU14" s="0"/>
+      <c r="ADV14" s="0"/>
+      <c r="ADW14" s="0"/>
+      <c r="ADX14" s="0"/>
+      <c r="ADY14" s="0"/>
+      <c r="ADZ14" s="0"/>
+      <c r="AEA14" s="0"/>
+      <c r="AEB14" s="0"/>
+      <c r="AEC14" s="0"/>
+      <c r="AED14" s="0"/>
+      <c r="AEE14" s="0"/>
+      <c r="AEF14" s="0"/>
+      <c r="AEG14" s="0"/>
+      <c r="AEH14" s="0"/>
+      <c r="AEI14" s="0"/>
+      <c r="AEJ14" s="0"/>
+      <c r="AEK14" s="0"/>
+      <c r="AEL14" s="0"/>
+      <c r="AEM14" s="0"/>
+      <c r="AEN14" s="0"/>
+      <c r="AEO14" s="0"/>
+      <c r="AEP14" s="0"/>
+      <c r="AEQ14" s="0"/>
+      <c r="AER14" s="0"/>
+      <c r="AES14" s="0"/>
+      <c r="AET14" s="0"/>
+      <c r="AEU14" s="0"/>
+      <c r="AEV14" s="0"/>
+      <c r="AEW14" s="0"/>
+      <c r="AEX14" s="0"/>
+      <c r="AEY14" s="0"/>
+      <c r="AEZ14" s="0"/>
+      <c r="AFA14" s="0"/>
+      <c r="AFB14" s="0"/>
+      <c r="AFC14" s="0"/>
+      <c r="AFD14" s="0"/>
+      <c r="AFE14" s="0"/>
+      <c r="AFF14" s="0"/>
+      <c r="AFG14" s="0"/>
+      <c r="AFH14" s="0"/>
+      <c r="AFI14" s="0"/>
+      <c r="AFJ14" s="0"/>
+      <c r="AFK14" s="0"/>
+      <c r="AFL14" s="0"/>
+      <c r="AFM14" s="0"/>
+      <c r="AFN14" s="0"/>
+      <c r="AFO14" s="0"/>
+      <c r="AFP14" s="0"/>
+      <c r="AFQ14" s="0"/>
+      <c r="AFR14" s="0"/>
+      <c r="AFS14" s="0"/>
+      <c r="AFT14" s="0"/>
+      <c r="AFU14" s="0"/>
+      <c r="AFV14" s="0"/>
+      <c r="AFW14" s="0"/>
+      <c r="AFX14" s="0"/>
+      <c r="AFY14" s="0"/>
+      <c r="AFZ14" s="0"/>
+      <c r="AGA14" s="0"/>
+      <c r="AGB14" s="0"/>
+      <c r="AGC14" s="0"/>
+      <c r="AGD14" s="0"/>
+      <c r="AGE14" s="0"/>
+      <c r="AGF14" s="0"/>
+      <c r="AGG14" s="0"/>
+      <c r="AGH14" s="0"/>
+      <c r="AGI14" s="0"/>
+      <c r="AGJ14" s="0"/>
+      <c r="AGK14" s="0"/>
+      <c r="AGL14" s="0"/>
+      <c r="AGM14" s="0"/>
+      <c r="AGN14" s="0"/>
+      <c r="AGO14" s="0"/>
+      <c r="AGP14" s="0"/>
+      <c r="AGQ14" s="0"/>
+      <c r="AGR14" s="0"/>
+      <c r="AGS14" s="0"/>
+      <c r="AGT14" s="0"/>
+      <c r="AGU14" s="0"/>
+      <c r="AGV14" s="0"/>
+      <c r="AGW14" s="0"/>
+      <c r="AGX14" s="0"/>
+      <c r="AGY14" s="0"/>
+      <c r="AGZ14" s="0"/>
+      <c r="AHA14" s="0"/>
+      <c r="AHB14" s="0"/>
+      <c r="AHC14" s="0"/>
+      <c r="AHD14" s="0"/>
+      <c r="AHE14" s="0"/>
+      <c r="AHF14" s="0"/>
+      <c r="AHG14" s="0"/>
+      <c r="AHH14" s="0"/>
+      <c r="AHI14" s="0"/>
+      <c r="AHJ14" s="0"/>
+      <c r="AHK14" s="0"/>
+      <c r="AHL14" s="0"/>
+      <c r="AHM14" s="0"/>
+      <c r="AHN14" s="0"/>
+      <c r="AHO14" s="0"/>
+      <c r="AHP14" s="0"/>
+      <c r="AHQ14" s="0"/>
+      <c r="AHR14" s="0"/>
+      <c r="AHS14" s="0"/>
+      <c r="AHT14" s="0"/>
+      <c r="AHU14" s="0"/>
+      <c r="AHV14" s="0"/>
+      <c r="AHW14" s="0"/>
+      <c r="AHX14" s="0"/>
+      <c r="AHY14" s="0"/>
+      <c r="AHZ14" s="0"/>
+      <c r="AIA14" s="0"/>
+      <c r="AIB14" s="0"/>
+      <c r="AIC14" s="0"/>
+      <c r="AID14" s="0"/>
+      <c r="AIE14" s="0"/>
+      <c r="AIF14" s="0"/>
+      <c r="AIG14" s="0"/>
+      <c r="AIH14" s="0"/>
+      <c r="AII14" s="0"/>
+      <c r="AIJ14" s="0"/>
+      <c r="AIK14" s="0"/>
+      <c r="AIL14" s="0"/>
+      <c r="AIM14" s="0"/>
+      <c r="AIN14" s="0"/>
+      <c r="AIO14" s="0"/>
+      <c r="AIP14" s="0"/>
+      <c r="AIQ14" s="0"/>
+      <c r="AIR14" s="0"/>
+      <c r="AIS14" s="0"/>
+      <c r="AIT14" s="0"/>
+      <c r="AIU14" s="0"/>
+      <c r="AIV14" s="0"/>
+      <c r="AIW14" s="0"/>
+      <c r="AIX14" s="0"/>
+      <c r="AIY14" s="0"/>
+      <c r="AIZ14" s="0"/>
+      <c r="AJA14" s="0"/>
+      <c r="AJB14" s="0"/>
+      <c r="AJC14" s="0"/>
+      <c r="AJD14" s="0"/>
+      <c r="AJE14" s="0"/>
+      <c r="AJF14" s="0"/>
+      <c r="AJG14" s="0"/>
+      <c r="AJH14" s="0"/>
+      <c r="AJI14" s="0"/>
+      <c r="AJJ14" s="0"/>
+      <c r="AJK14" s="0"/>
+      <c r="AJL14" s="0"/>
+      <c r="AJM14" s="0"/>
+      <c r="AJN14" s="0"/>
+      <c r="AJO14" s="0"/>
+      <c r="AJP14" s="0"/>
+      <c r="AJQ14" s="0"/>
+      <c r="AJR14" s="0"/>
+      <c r="AJS14" s="0"/>
+      <c r="AJT14" s="0"/>
+      <c r="AJU14" s="0"/>
+      <c r="AJV14" s="0"/>
+      <c r="AJW14" s="0"/>
+      <c r="AJX14" s="0"/>
+      <c r="AJY14" s="0"/>
+      <c r="AJZ14" s="0"/>
+      <c r="AKA14" s="0"/>
+      <c r="AKB14" s="0"/>
+      <c r="AKC14" s="0"/>
+      <c r="AKD14" s="0"/>
+      <c r="AKE14" s="0"/>
+      <c r="AKF14" s="0"/>
+      <c r="AKG14" s="0"/>
+      <c r="AKH14" s="0"/>
+      <c r="AKI14" s="0"/>
+      <c r="AKJ14" s="0"/>
+      <c r="AKK14" s="0"/>
+      <c r="AKL14" s="0"/>
+      <c r="AKM14" s="0"/>
+      <c r="AKN14" s="0"/>
+      <c r="AKO14" s="0"/>
+      <c r="AKP14" s="0"/>
+      <c r="AKQ14" s="0"/>
+      <c r="AKR14" s="0"/>
+      <c r="AKS14" s="0"/>
+      <c r="AKT14" s="0"/>
+      <c r="AKU14" s="0"/>
+      <c r="AKV14" s="0"/>
+      <c r="AKW14" s="0"/>
+      <c r="AKX14" s="0"/>
+      <c r="AKY14" s="0"/>
+      <c r="AKZ14" s="0"/>
+      <c r="ALA14" s="0"/>
+      <c r="ALB14" s="0"/>
+      <c r="ALC14" s="0"/>
+      <c r="ALD14" s="0"/>
+      <c r="ALE14" s="0"/>
+      <c r="ALF14" s="0"/>
+      <c r="ALG14" s="0"/>
+      <c r="ALH14" s="0"/>
+      <c r="ALI14" s="0"/>
+      <c r="ALJ14" s="0"/>
+      <c r="ALK14" s="0"/>
+      <c r="ALL14" s="0"/>
+      <c r="ALM14" s="0"/>
+      <c r="ALN14" s="0"/>
+      <c r="ALO14" s="0"/>
+      <c r="ALP14" s="0"/>
+      <c r="ALQ14" s="0"/>
+      <c r="ALR14" s="0"/>
+      <c r="ALS14" s="0"/>
+      <c r="ALT14" s="0"/>
+      <c r="ALU14" s="0"/>
+      <c r="ALV14" s="0"/>
+      <c r="ALW14" s="0"/>
+      <c r="ALX14" s="0"/>
+      <c r="ALY14" s="0"/>
+      <c r="ALZ14" s="0"/>
+      <c r="AMA14" s="0"/>
+      <c r="AMB14" s="0"/>
+      <c r="AMC14" s="0"/>
+      <c r="AMD14" s="0"/>
+      <c r="AME14" s="0"/>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
@@ -19119,6 +22178,1025 @@
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+      <c r="AE22" s="0"/>
+      <c r="AF22" s="0"/>
+      <c r="AG22" s="0"/>
+      <c r="AH22" s="0"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
+      <c r="AK22" s="0"/>
+      <c r="AL22" s="0"/>
+      <c r="AM22" s="0"/>
+      <c r="AN22" s="0"/>
+      <c r="AO22" s="0"/>
+      <c r="AP22" s="0"/>
+      <c r="AQ22" s="0"/>
+      <c r="AR22" s="0"/>
+      <c r="AS22" s="0"/>
+      <c r="AT22" s="0"/>
+      <c r="AU22" s="0"/>
+      <c r="AV22" s="0"/>
+      <c r="AW22" s="0"/>
+      <c r="AX22" s="0"/>
+      <c r="AY22" s="0"/>
+      <c r="AZ22" s="0"/>
+      <c r="BA22" s="0"/>
+      <c r="BB22" s="0"/>
+      <c r="BC22" s="0"/>
+      <c r="BD22" s="0"/>
+      <c r="BE22" s="0"/>
+      <c r="BF22" s="0"/>
+      <c r="BG22" s="0"/>
+      <c r="BH22" s="0"/>
+      <c r="BI22" s="0"/>
+      <c r="BJ22" s="0"/>
+      <c r="BK22" s="0"/>
+      <c r="BL22" s="0"/>
+      <c r="BM22" s="0"/>
+      <c r="BN22" s="0"/>
+      <c r="BO22" s="0"/>
+      <c r="BP22" s="0"/>
+      <c r="BQ22" s="0"/>
+      <c r="BR22" s="0"/>
+      <c r="BS22" s="0"/>
+      <c r="BT22" s="0"/>
+      <c r="BU22" s="0"/>
+      <c r="BV22" s="0"/>
+      <c r="BW22" s="0"/>
+      <c r="BX22" s="0"/>
+      <c r="BY22" s="0"/>
+      <c r="BZ22" s="0"/>
+      <c r="CA22" s="0"/>
+      <c r="CB22" s="0"/>
+      <c r="CC22" s="0"/>
+      <c r="CD22" s="0"/>
+      <c r="CE22" s="0"/>
+      <c r="CF22" s="0"/>
+      <c r="CG22" s="0"/>
+      <c r="CH22" s="0"/>
+      <c r="CI22" s="0"/>
+      <c r="CJ22" s="0"/>
+      <c r="CK22" s="0"/>
+      <c r="CL22" s="0"/>
+      <c r="CM22" s="0"/>
+      <c r="CN22" s="0"/>
+      <c r="CO22" s="0"/>
+      <c r="CP22" s="0"/>
+      <c r="CQ22" s="0"/>
+      <c r="CR22" s="0"/>
+      <c r="CS22" s="0"/>
+      <c r="CT22" s="0"/>
+      <c r="CU22" s="0"/>
+      <c r="CV22" s="0"/>
+      <c r="CW22" s="0"/>
+      <c r="CX22" s="0"/>
+      <c r="CY22" s="0"/>
+      <c r="CZ22" s="0"/>
+      <c r="DA22" s="0"/>
+      <c r="DB22" s="0"/>
+      <c r="DC22" s="0"/>
+      <c r="DD22" s="0"/>
+      <c r="DE22" s="0"/>
+      <c r="DF22" s="0"/>
+      <c r="DG22" s="0"/>
+      <c r="DH22" s="0"/>
+      <c r="DI22" s="0"/>
+      <c r="DJ22" s="0"/>
+      <c r="DK22" s="0"/>
+      <c r="DL22" s="0"/>
+      <c r="DM22" s="0"/>
+      <c r="DN22" s="0"/>
+      <c r="DO22" s="0"/>
+      <c r="DP22" s="0"/>
+      <c r="DQ22" s="0"/>
+      <c r="DR22" s="0"/>
+      <c r="DS22" s="0"/>
+      <c r="DT22" s="0"/>
+      <c r="DU22" s="0"/>
+      <c r="DV22" s="0"/>
+      <c r="DW22" s="0"/>
+      <c r="DX22" s="0"/>
+      <c r="DY22" s="0"/>
+      <c r="DZ22" s="0"/>
+      <c r="EA22" s="0"/>
+      <c r="EB22" s="0"/>
+      <c r="EC22" s="0"/>
+      <c r="ED22" s="0"/>
+      <c r="EE22" s="0"/>
+      <c r="EF22" s="0"/>
+      <c r="EG22" s="0"/>
+      <c r="EH22" s="0"/>
+      <c r="EI22" s="0"/>
+      <c r="EJ22" s="0"/>
+      <c r="EK22" s="0"/>
+      <c r="EL22" s="0"/>
+      <c r="EM22" s="0"/>
+      <c r="EN22" s="0"/>
+      <c r="EO22" s="0"/>
+      <c r="EP22" s="0"/>
+      <c r="EQ22" s="0"/>
+      <c r="ER22" s="0"/>
+      <c r="ES22" s="0"/>
+      <c r="ET22" s="0"/>
+      <c r="EU22" s="0"/>
+      <c r="EV22" s="0"/>
+      <c r="EW22" s="0"/>
+      <c r="EX22" s="0"/>
+      <c r="EY22" s="0"/>
+      <c r="EZ22" s="0"/>
+      <c r="FA22" s="0"/>
+      <c r="FB22" s="0"/>
+      <c r="FC22" s="0"/>
+      <c r="FD22" s="0"/>
+      <c r="FE22" s="0"/>
+      <c r="FF22" s="0"/>
+      <c r="FG22" s="0"/>
+      <c r="FH22" s="0"/>
+      <c r="FI22" s="0"/>
+      <c r="FJ22" s="0"/>
+      <c r="FK22" s="0"/>
+      <c r="FL22" s="0"/>
+      <c r="FM22" s="0"/>
+      <c r="FN22" s="0"/>
+      <c r="FO22" s="0"/>
+      <c r="FP22" s="0"/>
+      <c r="FQ22" s="0"/>
+      <c r="FR22" s="0"/>
+      <c r="FS22" s="0"/>
+      <c r="FT22" s="0"/>
+      <c r="FU22" s="0"/>
+      <c r="FV22" s="0"/>
+      <c r="FW22" s="0"/>
+      <c r="FX22" s="0"/>
+      <c r="FY22" s="0"/>
+      <c r="FZ22" s="0"/>
+      <c r="GA22" s="0"/>
+      <c r="GB22" s="0"/>
+      <c r="GC22" s="0"/>
+      <c r="GD22" s="0"/>
+      <c r="GE22" s="0"/>
+      <c r="GF22" s="0"/>
+      <c r="GG22" s="0"/>
+      <c r="GH22" s="0"/>
+      <c r="GI22" s="0"/>
+      <c r="GJ22" s="0"/>
+      <c r="GK22" s="0"/>
+      <c r="GL22" s="0"/>
+      <c r="GM22" s="0"/>
+      <c r="GN22" s="0"/>
+      <c r="GO22" s="0"/>
+      <c r="GP22" s="0"/>
+      <c r="GQ22" s="0"/>
+      <c r="GR22" s="0"/>
+      <c r="GS22" s="0"/>
+      <c r="GT22" s="0"/>
+      <c r="GU22" s="0"/>
+      <c r="GV22" s="0"/>
+      <c r="GW22" s="0"/>
+      <c r="GX22" s="0"/>
+      <c r="GY22" s="0"/>
+      <c r="GZ22" s="0"/>
+      <c r="HA22" s="0"/>
+      <c r="HB22" s="0"/>
+      <c r="HC22" s="0"/>
+      <c r="HD22" s="0"/>
+      <c r="HE22" s="0"/>
+      <c r="HF22" s="0"/>
+      <c r="HG22" s="0"/>
+      <c r="HH22" s="0"/>
+      <c r="HI22" s="0"/>
+      <c r="HJ22" s="0"/>
+      <c r="HK22" s="0"/>
+      <c r="HL22" s="0"/>
+      <c r="HM22" s="0"/>
+      <c r="HN22" s="0"/>
+      <c r="HO22" s="0"/>
+      <c r="HP22" s="0"/>
+      <c r="HQ22" s="0"/>
+      <c r="HR22" s="0"/>
+      <c r="HS22" s="0"/>
+      <c r="HT22" s="0"/>
+      <c r="HU22" s="0"/>
+      <c r="HV22" s="0"/>
+      <c r="HW22" s="0"/>
+      <c r="HX22" s="0"/>
+      <c r="HY22" s="0"/>
+      <c r="HZ22" s="0"/>
+      <c r="IA22" s="0"/>
+      <c r="IB22" s="0"/>
+      <c r="IC22" s="0"/>
+      <c r="ID22" s="0"/>
+      <c r="IE22" s="0"/>
+      <c r="IF22" s="0"/>
+      <c r="IG22" s="0"/>
+      <c r="IH22" s="0"/>
+      <c r="II22" s="0"/>
+      <c r="IJ22" s="0"/>
+      <c r="IK22" s="0"/>
+      <c r="IL22" s="0"/>
+      <c r="IM22" s="0"/>
+      <c r="IN22" s="0"/>
+      <c r="IO22" s="0"/>
+      <c r="IP22" s="0"/>
+      <c r="IQ22" s="0"/>
+      <c r="IR22" s="0"/>
+      <c r="IS22" s="0"/>
+      <c r="IT22" s="0"/>
+      <c r="IU22" s="0"/>
+      <c r="IV22" s="0"/>
+      <c r="IW22" s="0"/>
+      <c r="IX22" s="0"/>
+      <c r="IY22" s="0"/>
+      <c r="IZ22" s="0"/>
+      <c r="JA22" s="0"/>
+      <c r="JB22" s="0"/>
+      <c r="JC22" s="0"/>
+      <c r="JD22" s="0"/>
+      <c r="JE22" s="0"/>
+      <c r="JF22" s="0"/>
+      <c r="JG22" s="0"/>
+      <c r="JH22" s="0"/>
+      <c r="JI22" s="0"/>
+      <c r="JJ22" s="0"/>
+      <c r="JK22" s="0"/>
+      <c r="JL22" s="0"/>
+      <c r="JM22" s="0"/>
+      <c r="JN22" s="0"/>
+      <c r="JO22" s="0"/>
+      <c r="JP22" s="0"/>
+      <c r="JQ22" s="0"/>
+      <c r="JR22" s="0"/>
+      <c r="JS22" s="0"/>
+      <c r="JT22" s="0"/>
+      <c r="JU22" s="0"/>
+      <c r="JV22" s="0"/>
+      <c r="JW22" s="0"/>
+      <c r="JX22" s="0"/>
+      <c r="JY22" s="0"/>
+      <c r="JZ22" s="0"/>
+      <c r="KA22" s="0"/>
+      <c r="KB22" s="0"/>
+      <c r="KC22" s="0"/>
+      <c r="KD22" s="0"/>
+      <c r="KE22" s="0"/>
+      <c r="KF22" s="0"/>
+      <c r="KG22" s="0"/>
+      <c r="KH22" s="0"/>
+      <c r="KI22" s="0"/>
+      <c r="KJ22" s="0"/>
+      <c r="KK22" s="0"/>
+      <c r="KL22" s="0"/>
+      <c r="KM22" s="0"/>
+      <c r="KN22" s="0"/>
+      <c r="KO22" s="0"/>
+      <c r="KP22" s="0"/>
+      <c r="KQ22" s="0"/>
+      <c r="KR22" s="0"/>
+      <c r="KS22" s="0"/>
+      <c r="KT22" s="0"/>
+      <c r="KU22" s="0"/>
+      <c r="KV22" s="0"/>
+      <c r="KW22" s="0"/>
+      <c r="KX22" s="0"/>
+      <c r="KY22" s="0"/>
+      <c r="KZ22" s="0"/>
+      <c r="LA22" s="0"/>
+      <c r="LB22" s="0"/>
+      <c r="LC22" s="0"/>
+      <c r="LD22" s="0"/>
+      <c r="LE22" s="0"/>
+      <c r="LF22" s="0"/>
+      <c r="LG22" s="0"/>
+      <c r="LH22" s="0"/>
+      <c r="LI22" s="0"/>
+      <c r="LJ22" s="0"/>
+      <c r="LK22" s="0"/>
+      <c r="LL22" s="0"/>
+      <c r="LM22" s="0"/>
+      <c r="LN22" s="0"/>
+      <c r="LO22" s="0"/>
+      <c r="LP22" s="0"/>
+      <c r="LQ22" s="0"/>
+      <c r="LR22" s="0"/>
+      <c r="LS22" s="0"/>
+      <c r="LT22" s="0"/>
+      <c r="LU22" s="0"/>
+      <c r="LV22" s="0"/>
+      <c r="LW22" s="0"/>
+      <c r="LX22" s="0"/>
+      <c r="LY22" s="0"/>
+      <c r="LZ22" s="0"/>
+      <c r="MA22" s="0"/>
+      <c r="MB22" s="0"/>
+      <c r="MC22" s="0"/>
+      <c r="MD22" s="0"/>
+      <c r="ME22" s="0"/>
+      <c r="MF22" s="0"/>
+      <c r="MG22" s="0"/>
+      <c r="MH22" s="0"/>
+      <c r="MI22" s="0"/>
+      <c r="MJ22" s="0"/>
+      <c r="MK22" s="0"/>
+      <c r="ML22" s="0"/>
+      <c r="MM22" s="0"/>
+      <c r="MN22" s="0"/>
+      <c r="MO22" s="0"/>
+      <c r="MP22" s="0"/>
+      <c r="MQ22" s="0"/>
+      <c r="MR22" s="0"/>
+      <c r="MS22" s="0"/>
+      <c r="MT22" s="0"/>
+      <c r="MU22" s="0"/>
+      <c r="MV22" s="0"/>
+      <c r="MW22" s="0"/>
+      <c r="MX22" s="0"/>
+      <c r="MY22" s="0"/>
+      <c r="MZ22" s="0"/>
+      <c r="NA22" s="0"/>
+      <c r="NB22" s="0"/>
+      <c r="NC22" s="0"/>
+      <c r="ND22" s="0"/>
+      <c r="NE22" s="0"/>
+      <c r="NF22" s="0"/>
+      <c r="NG22" s="0"/>
+      <c r="NH22" s="0"/>
+      <c r="NI22" s="0"/>
+      <c r="NJ22" s="0"/>
+      <c r="NK22" s="0"/>
+      <c r="NL22" s="0"/>
+      <c r="NM22" s="0"/>
+      <c r="NN22" s="0"/>
+      <c r="NO22" s="0"/>
+      <c r="NP22" s="0"/>
+      <c r="NQ22" s="0"/>
+      <c r="NR22" s="0"/>
+      <c r="NS22" s="0"/>
+      <c r="NT22" s="0"/>
+      <c r="NU22" s="0"/>
+      <c r="NV22" s="0"/>
+      <c r="NW22" s="0"/>
+      <c r="NX22" s="0"/>
+      <c r="NY22" s="0"/>
+      <c r="NZ22" s="0"/>
+      <c r="OA22" s="0"/>
+      <c r="OB22" s="0"/>
+      <c r="OC22" s="0"/>
+      <c r="OD22" s="0"/>
+      <c r="OE22" s="0"/>
+      <c r="OF22" s="0"/>
+      <c r="OG22" s="0"/>
+      <c r="OH22" s="0"/>
+      <c r="OI22" s="0"/>
+      <c r="OJ22" s="0"/>
+      <c r="OK22" s="0"/>
+      <c r="OL22" s="0"/>
+      <c r="OM22" s="0"/>
+      <c r="ON22" s="0"/>
+      <c r="OO22" s="0"/>
+      <c r="OP22" s="0"/>
+      <c r="OQ22" s="0"/>
+      <c r="OR22" s="0"/>
+      <c r="OS22" s="0"/>
+      <c r="OT22" s="0"/>
+      <c r="OU22" s="0"/>
+      <c r="OV22" s="0"/>
+      <c r="OW22" s="0"/>
+      <c r="OX22" s="0"/>
+      <c r="OY22" s="0"/>
+      <c r="OZ22" s="0"/>
+      <c r="PA22" s="0"/>
+      <c r="PB22" s="0"/>
+      <c r="PC22" s="0"/>
+      <c r="PD22" s="0"/>
+      <c r="PE22" s="0"/>
+      <c r="PF22" s="0"/>
+      <c r="PG22" s="0"/>
+      <c r="PH22" s="0"/>
+      <c r="PI22" s="0"/>
+      <c r="PJ22" s="0"/>
+      <c r="PK22" s="0"/>
+      <c r="PL22" s="0"/>
+      <c r="PM22" s="0"/>
+      <c r="PN22" s="0"/>
+      <c r="PO22" s="0"/>
+      <c r="PP22" s="0"/>
+      <c r="PQ22" s="0"/>
+      <c r="PR22" s="0"/>
+      <c r="PS22" s="0"/>
+      <c r="PT22" s="0"/>
+      <c r="PU22" s="0"/>
+      <c r="PV22" s="0"/>
+      <c r="PW22" s="0"/>
+      <c r="PX22" s="0"/>
+      <c r="PY22" s="0"/>
+      <c r="PZ22" s="0"/>
+      <c r="QA22" s="0"/>
+      <c r="QB22" s="0"/>
+      <c r="QC22" s="0"/>
+      <c r="QD22" s="0"/>
+      <c r="QE22" s="0"/>
+      <c r="QF22" s="0"/>
+      <c r="QG22" s="0"/>
+      <c r="QH22" s="0"/>
+      <c r="QI22" s="0"/>
+      <c r="QJ22" s="0"/>
+      <c r="QK22" s="0"/>
+      <c r="QL22" s="0"/>
+      <c r="QM22" s="0"/>
+      <c r="QN22" s="0"/>
+      <c r="QO22" s="0"/>
+      <c r="QP22" s="0"/>
+      <c r="QQ22" s="0"/>
+      <c r="QR22" s="0"/>
+      <c r="QS22" s="0"/>
+      <c r="QT22" s="0"/>
+      <c r="QU22" s="0"/>
+      <c r="QV22" s="0"/>
+      <c r="QW22" s="0"/>
+      <c r="QX22" s="0"/>
+      <c r="QY22" s="0"/>
+      <c r="QZ22" s="0"/>
+      <c r="RA22" s="0"/>
+      <c r="RB22" s="0"/>
+      <c r="RC22" s="0"/>
+      <c r="RD22" s="0"/>
+      <c r="RE22" s="0"/>
+      <c r="RF22" s="0"/>
+      <c r="RG22" s="0"/>
+      <c r="RH22" s="0"/>
+      <c r="RI22" s="0"/>
+      <c r="RJ22" s="0"/>
+      <c r="RK22" s="0"/>
+      <c r="RL22" s="0"/>
+      <c r="RM22" s="0"/>
+      <c r="RN22" s="0"/>
+      <c r="RO22" s="0"/>
+      <c r="RP22" s="0"/>
+      <c r="RQ22" s="0"/>
+      <c r="RR22" s="0"/>
+      <c r="RS22" s="0"/>
+      <c r="RT22" s="0"/>
+      <c r="RU22" s="0"/>
+      <c r="RV22" s="0"/>
+      <c r="RW22" s="0"/>
+      <c r="RX22" s="0"/>
+      <c r="RY22" s="0"/>
+      <c r="RZ22" s="0"/>
+      <c r="SA22" s="0"/>
+      <c r="SB22" s="0"/>
+      <c r="SC22" s="0"/>
+      <c r="SD22" s="0"/>
+      <c r="SE22" s="0"/>
+      <c r="SF22" s="0"/>
+      <c r="SG22" s="0"/>
+      <c r="SH22" s="0"/>
+      <c r="SI22" s="0"/>
+      <c r="SJ22" s="0"/>
+      <c r="SK22" s="0"/>
+      <c r="SL22" s="0"/>
+      <c r="SM22" s="0"/>
+      <c r="SN22" s="0"/>
+      <c r="SO22" s="0"/>
+      <c r="SP22" s="0"/>
+      <c r="SQ22" s="0"/>
+      <c r="SR22" s="0"/>
+      <c r="SS22" s="0"/>
+      <c r="ST22" s="0"/>
+      <c r="SU22" s="0"/>
+      <c r="SV22" s="0"/>
+      <c r="SW22" s="0"/>
+      <c r="SX22" s="0"/>
+      <c r="SY22" s="0"/>
+      <c r="SZ22" s="0"/>
+      <c r="TA22" s="0"/>
+      <c r="TB22" s="0"/>
+      <c r="TC22" s="0"/>
+      <c r="TD22" s="0"/>
+      <c r="TE22" s="0"/>
+      <c r="TF22" s="0"/>
+      <c r="TG22" s="0"/>
+      <c r="TH22" s="0"/>
+      <c r="TI22" s="0"/>
+      <c r="TJ22" s="0"/>
+      <c r="TK22" s="0"/>
+      <c r="TL22" s="0"/>
+      <c r="TM22" s="0"/>
+      <c r="TN22" s="0"/>
+      <c r="TO22" s="0"/>
+      <c r="TP22" s="0"/>
+      <c r="TQ22" s="0"/>
+      <c r="TR22" s="0"/>
+      <c r="TS22" s="0"/>
+      <c r="TT22" s="0"/>
+      <c r="TU22" s="0"/>
+      <c r="TV22" s="0"/>
+      <c r="TW22" s="0"/>
+      <c r="TX22" s="0"/>
+      <c r="TY22" s="0"/>
+      <c r="TZ22" s="0"/>
+      <c r="UA22" s="0"/>
+      <c r="UB22" s="0"/>
+      <c r="UC22" s="0"/>
+      <c r="UD22" s="0"/>
+      <c r="UE22" s="0"/>
+      <c r="UF22" s="0"/>
+      <c r="UG22" s="0"/>
+      <c r="UH22" s="0"/>
+      <c r="UI22" s="0"/>
+      <c r="UJ22" s="0"/>
+      <c r="UK22" s="0"/>
+      <c r="UL22" s="0"/>
+      <c r="UM22" s="0"/>
+      <c r="UN22" s="0"/>
+      <c r="UO22" s="0"/>
+      <c r="UP22" s="0"/>
+      <c r="UQ22" s="0"/>
+      <c r="UR22" s="0"/>
+      <c r="US22" s="0"/>
+      <c r="UT22" s="0"/>
+      <c r="UU22" s="0"/>
+      <c r="UV22" s="0"/>
+      <c r="UW22" s="0"/>
+      <c r="UX22" s="0"/>
+      <c r="UY22" s="0"/>
+      <c r="UZ22" s="0"/>
+      <c r="VA22" s="0"/>
+      <c r="VB22" s="0"/>
+      <c r="VC22" s="0"/>
+      <c r="VD22" s="0"/>
+      <c r="VE22" s="0"/>
+      <c r="VF22" s="0"/>
+      <c r="VG22" s="0"/>
+      <c r="VH22" s="0"/>
+      <c r="VI22" s="0"/>
+      <c r="VJ22" s="0"/>
+      <c r="VK22" s="0"/>
+      <c r="VL22" s="0"/>
+      <c r="VM22" s="0"/>
+      <c r="VN22" s="0"/>
+      <c r="VO22" s="0"/>
+      <c r="VP22" s="0"/>
+      <c r="VQ22" s="0"/>
+      <c r="VR22" s="0"/>
+      <c r="VS22" s="0"/>
+      <c r="VT22" s="0"/>
+      <c r="VU22" s="0"/>
+      <c r="VV22" s="0"/>
+      <c r="VW22" s="0"/>
+      <c r="VX22" s="0"/>
+      <c r="VY22" s="0"/>
+      <c r="VZ22" s="0"/>
+      <c r="WA22" s="0"/>
+      <c r="WB22" s="0"/>
+      <c r="WC22" s="0"/>
+      <c r="WD22" s="0"/>
+      <c r="WE22" s="0"/>
+      <c r="WF22" s="0"/>
+      <c r="WG22" s="0"/>
+      <c r="WH22" s="0"/>
+      <c r="WI22" s="0"/>
+      <c r="WJ22" s="0"/>
+      <c r="WK22" s="0"/>
+      <c r="WL22" s="0"/>
+      <c r="WM22" s="0"/>
+      <c r="WN22" s="0"/>
+      <c r="WO22" s="0"/>
+      <c r="WP22" s="0"/>
+      <c r="WQ22" s="0"/>
+      <c r="WR22" s="0"/>
+      <c r="WS22" s="0"/>
+      <c r="WT22" s="0"/>
+      <c r="WU22" s="0"/>
+      <c r="WV22" s="0"/>
+      <c r="WW22" s="0"/>
+      <c r="WX22" s="0"/>
+      <c r="WY22" s="0"/>
+      <c r="WZ22" s="0"/>
+      <c r="XA22" s="0"/>
+      <c r="XB22" s="0"/>
+      <c r="XC22" s="0"/>
+      <c r="XD22" s="0"/>
+      <c r="XE22" s="0"/>
+      <c r="XF22" s="0"/>
+      <c r="XG22" s="0"/>
+      <c r="XH22" s="0"/>
+      <c r="XI22" s="0"/>
+      <c r="XJ22" s="0"/>
+      <c r="XK22" s="0"/>
+      <c r="XL22" s="0"/>
+      <c r="XM22" s="0"/>
+      <c r="XN22" s="0"/>
+      <c r="XO22" s="0"/>
+      <c r="XP22" s="0"/>
+      <c r="XQ22" s="0"/>
+      <c r="XR22" s="0"/>
+      <c r="XS22" s="0"/>
+      <c r="XT22" s="0"/>
+      <c r="XU22" s="0"/>
+      <c r="XV22" s="0"/>
+      <c r="XW22" s="0"/>
+      <c r="XX22" s="0"/>
+      <c r="XY22" s="0"/>
+      <c r="XZ22" s="0"/>
+      <c r="YA22" s="0"/>
+      <c r="YB22" s="0"/>
+      <c r="YC22" s="0"/>
+      <c r="YD22" s="0"/>
+      <c r="YE22" s="0"/>
+      <c r="YF22" s="0"/>
+      <c r="YG22" s="0"/>
+      <c r="YH22" s="0"/>
+      <c r="YI22" s="0"/>
+      <c r="YJ22" s="0"/>
+      <c r="YK22" s="0"/>
+      <c r="YL22" s="0"/>
+      <c r="YM22" s="0"/>
+      <c r="YN22" s="0"/>
+      <c r="YO22" s="0"/>
+      <c r="YP22" s="0"/>
+      <c r="YQ22" s="0"/>
+      <c r="YR22" s="0"/>
+      <c r="YS22" s="0"/>
+      <c r="YT22" s="0"/>
+      <c r="YU22" s="0"/>
+      <c r="YV22" s="0"/>
+      <c r="YW22" s="0"/>
+      <c r="YX22" s="0"/>
+      <c r="YY22" s="0"/>
+      <c r="YZ22" s="0"/>
+      <c r="ZA22" s="0"/>
+      <c r="ZB22" s="0"/>
+      <c r="ZC22" s="0"/>
+      <c r="ZD22" s="0"/>
+      <c r="ZE22" s="0"/>
+      <c r="ZF22" s="0"/>
+      <c r="ZG22" s="0"/>
+      <c r="ZH22" s="0"/>
+      <c r="ZI22" s="0"/>
+      <c r="ZJ22" s="0"/>
+      <c r="ZK22" s="0"/>
+      <c r="ZL22" s="0"/>
+      <c r="ZM22" s="0"/>
+      <c r="ZN22" s="0"/>
+      <c r="ZO22" s="0"/>
+      <c r="ZP22" s="0"/>
+      <c r="ZQ22" s="0"/>
+      <c r="ZR22" s="0"/>
+      <c r="ZS22" s="0"/>
+      <c r="ZT22" s="0"/>
+      <c r="ZU22" s="0"/>
+      <c r="ZV22" s="0"/>
+      <c r="ZW22" s="0"/>
+      <c r="ZX22" s="0"/>
+      <c r="ZY22" s="0"/>
+      <c r="ZZ22" s="0"/>
+      <c r="AAA22" s="0"/>
+      <c r="AAB22" s="0"/>
+      <c r="AAC22" s="0"/>
+      <c r="AAD22" s="0"/>
+      <c r="AAE22" s="0"/>
+      <c r="AAF22" s="0"/>
+      <c r="AAG22" s="0"/>
+      <c r="AAH22" s="0"/>
+      <c r="AAI22" s="0"/>
+      <c r="AAJ22" s="0"/>
+      <c r="AAK22" s="0"/>
+      <c r="AAL22" s="0"/>
+      <c r="AAM22" s="0"/>
+      <c r="AAN22" s="0"/>
+      <c r="AAO22" s="0"/>
+      <c r="AAP22" s="0"/>
+      <c r="AAQ22" s="0"/>
+      <c r="AAR22" s="0"/>
+      <c r="AAS22" s="0"/>
+      <c r="AAT22" s="0"/>
+      <c r="AAU22" s="0"/>
+      <c r="AAV22" s="0"/>
+      <c r="AAW22" s="0"/>
+      <c r="AAX22" s="0"/>
+      <c r="AAY22" s="0"/>
+      <c r="AAZ22" s="0"/>
+      <c r="ABA22" s="0"/>
+      <c r="ABB22" s="0"/>
+      <c r="ABC22" s="0"/>
+      <c r="ABD22" s="0"/>
+      <c r="ABE22" s="0"/>
+      <c r="ABF22" s="0"/>
+      <c r="ABG22" s="0"/>
+      <c r="ABH22" s="0"/>
+      <c r="ABI22" s="0"/>
+      <c r="ABJ22" s="0"/>
+      <c r="ABK22" s="0"/>
+      <c r="ABL22" s="0"/>
+      <c r="ABM22" s="0"/>
+      <c r="ABN22" s="0"/>
+      <c r="ABO22" s="0"/>
+      <c r="ABP22" s="0"/>
+      <c r="ABQ22" s="0"/>
+      <c r="ABR22" s="0"/>
+      <c r="ABS22" s="0"/>
+      <c r="ABT22" s="0"/>
+      <c r="ABU22" s="0"/>
+      <c r="ABV22" s="0"/>
+      <c r="ABW22" s="0"/>
+      <c r="ABX22" s="0"/>
+      <c r="ABY22" s="0"/>
+      <c r="ABZ22" s="0"/>
+      <c r="ACA22" s="0"/>
+      <c r="ACB22" s="0"/>
+      <c r="ACC22" s="0"/>
+      <c r="ACD22" s="0"/>
+      <c r="ACE22" s="0"/>
+      <c r="ACF22" s="0"/>
+      <c r="ACG22" s="0"/>
+      <c r="ACH22" s="0"/>
+      <c r="ACI22" s="0"/>
+      <c r="ACJ22" s="0"/>
+      <c r="ACK22" s="0"/>
+      <c r="ACL22" s="0"/>
+      <c r="ACM22" s="0"/>
+      <c r="ACN22" s="0"/>
+      <c r="ACO22" s="0"/>
+      <c r="ACP22" s="0"/>
+      <c r="ACQ22" s="0"/>
+      <c r="ACR22" s="0"/>
+      <c r="ACS22" s="0"/>
+      <c r="ACT22" s="0"/>
+      <c r="ACU22" s="0"/>
+      <c r="ACV22" s="0"/>
+      <c r="ACW22" s="0"/>
+      <c r="ACX22" s="0"/>
+      <c r="ACY22" s="0"/>
+      <c r="ACZ22" s="0"/>
+      <c r="ADA22" s="0"/>
+      <c r="ADB22" s="0"/>
+      <c r="ADC22" s="0"/>
+      <c r="ADD22" s="0"/>
+      <c r="ADE22" s="0"/>
+      <c r="ADF22" s="0"/>
+      <c r="ADG22" s="0"/>
+      <c r="ADH22" s="0"/>
+      <c r="ADI22" s="0"/>
+      <c r="ADJ22" s="0"/>
+      <c r="ADK22" s="0"/>
+      <c r="ADL22" s="0"/>
+      <c r="ADM22" s="0"/>
+      <c r="ADN22" s="0"/>
+      <c r="ADO22" s="0"/>
+      <c r="ADP22" s="0"/>
+      <c r="ADQ22" s="0"/>
+      <c r="ADR22" s="0"/>
+      <c r="ADS22" s="0"/>
+      <c r="ADT22" s="0"/>
+      <c r="ADU22" s="0"/>
+      <c r="ADV22" s="0"/>
+      <c r="ADW22" s="0"/>
+      <c r="ADX22" s="0"/>
+      <c r="ADY22" s="0"/>
+      <c r="ADZ22" s="0"/>
+      <c r="AEA22" s="0"/>
+      <c r="AEB22" s="0"/>
+      <c r="AEC22" s="0"/>
+      <c r="AED22" s="0"/>
+      <c r="AEE22" s="0"/>
+      <c r="AEF22" s="0"/>
+      <c r="AEG22" s="0"/>
+      <c r="AEH22" s="0"/>
+      <c r="AEI22" s="0"/>
+      <c r="AEJ22" s="0"/>
+      <c r="AEK22" s="0"/>
+      <c r="AEL22" s="0"/>
+      <c r="AEM22" s="0"/>
+      <c r="AEN22" s="0"/>
+      <c r="AEO22" s="0"/>
+      <c r="AEP22" s="0"/>
+      <c r="AEQ22" s="0"/>
+      <c r="AER22" s="0"/>
+      <c r="AES22" s="0"/>
+      <c r="AET22" s="0"/>
+      <c r="AEU22" s="0"/>
+      <c r="AEV22" s="0"/>
+      <c r="AEW22" s="0"/>
+      <c r="AEX22" s="0"/>
+      <c r="AEY22" s="0"/>
+      <c r="AEZ22" s="0"/>
+      <c r="AFA22" s="0"/>
+      <c r="AFB22" s="0"/>
+      <c r="AFC22" s="0"/>
+      <c r="AFD22" s="0"/>
+      <c r="AFE22" s="0"/>
+      <c r="AFF22" s="0"/>
+      <c r="AFG22" s="0"/>
+      <c r="AFH22" s="0"/>
+      <c r="AFI22" s="0"/>
+      <c r="AFJ22" s="0"/>
+      <c r="AFK22" s="0"/>
+      <c r="AFL22" s="0"/>
+      <c r="AFM22" s="0"/>
+      <c r="AFN22" s="0"/>
+      <c r="AFO22" s="0"/>
+      <c r="AFP22" s="0"/>
+      <c r="AFQ22" s="0"/>
+      <c r="AFR22" s="0"/>
+      <c r="AFS22" s="0"/>
+      <c r="AFT22" s="0"/>
+      <c r="AFU22" s="0"/>
+      <c r="AFV22" s="0"/>
+      <c r="AFW22" s="0"/>
+      <c r="AFX22" s="0"/>
+      <c r="AFY22" s="0"/>
+      <c r="AFZ22" s="0"/>
+      <c r="AGA22" s="0"/>
+      <c r="AGB22" s="0"/>
+      <c r="AGC22" s="0"/>
+      <c r="AGD22" s="0"/>
+      <c r="AGE22" s="0"/>
+      <c r="AGF22" s="0"/>
+      <c r="AGG22" s="0"/>
+      <c r="AGH22" s="0"/>
+      <c r="AGI22" s="0"/>
+      <c r="AGJ22" s="0"/>
+      <c r="AGK22" s="0"/>
+      <c r="AGL22" s="0"/>
+      <c r="AGM22" s="0"/>
+      <c r="AGN22" s="0"/>
+      <c r="AGO22" s="0"/>
+      <c r="AGP22" s="0"/>
+      <c r="AGQ22" s="0"/>
+      <c r="AGR22" s="0"/>
+      <c r="AGS22" s="0"/>
+      <c r="AGT22" s="0"/>
+      <c r="AGU22" s="0"/>
+      <c r="AGV22" s="0"/>
+      <c r="AGW22" s="0"/>
+      <c r="AGX22" s="0"/>
+      <c r="AGY22" s="0"/>
+      <c r="AGZ22" s="0"/>
+      <c r="AHA22" s="0"/>
+      <c r="AHB22" s="0"/>
+      <c r="AHC22" s="0"/>
+      <c r="AHD22" s="0"/>
+      <c r="AHE22" s="0"/>
+      <c r="AHF22" s="0"/>
+      <c r="AHG22" s="0"/>
+      <c r="AHH22" s="0"/>
+      <c r="AHI22" s="0"/>
+      <c r="AHJ22" s="0"/>
+      <c r="AHK22" s="0"/>
+      <c r="AHL22" s="0"/>
+      <c r="AHM22" s="0"/>
+      <c r="AHN22" s="0"/>
+      <c r="AHO22" s="0"/>
+      <c r="AHP22" s="0"/>
+      <c r="AHQ22" s="0"/>
+      <c r="AHR22" s="0"/>
+      <c r="AHS22" s="0"/>
+      <c r="AHT22" s="0"/>
+      <c r="AHU22" s="0"/>
+      <c r="AHV22" s="0"/>
+      <c r="AHW22" s="0"/>
+      <c r="AHX22" s="0"/>
+      <c r="AHY22" s="0"/>
+      <c r="AHZ22" s="0"/>
+      <c r="AIA22" s="0"/>
+      <c r="AIB22" s="0"/>
+      <c r="AIC22" s="0"/>
+      <c r="AID22" s="0"/>
+      <c r="AIE22" s="0"/>
+      <c r="AIF22" s="0"/>
+      <c r="AIG22" s="0"/>
+      <c r="AIH22" s="0"/>
+      <c r="AII22" s="0"/>
+      <c r="AIJ22" s="0"/>
+      <c r="AIK22" s="0"/>
+      <c r="AIL22" s="0"/>
+      <c r="AIM22" s="0"/>
+      <c r="AIN22" s="0"/>
+      <c r="AIO22" s="0"/>
+      <c r="AIP22" s="0"/>
+      <c r="AIQ22" s="0"/>
+      <c r="AIR22" s="0"/>
+      <c r="AIS22" s="0"/>
+      <c r="AIT22" s="0"/>
+      <c r="AIU22" s="0"/>
+      <c r="AIV22" s="0"/>
+      <c r="AIW22" s="0"/>
+      <c r="AIX22" s="0"/>
+      <c r="AIY22" s="0"/>
+      <c r="AIZ22" s="0"/>
+      <c r="AJA22" s="0"/>
+      <c r="AJB22" s="0"/>
+      <c r="AJC22" s="0"/>
+      <c r="AJD22" s="0"/>
+      <c r="AJE22" s="0"/>
+      <c r="AJF22" s="0"/>
+      <c r="AJG22" s="0"/>
+      <c r="AJH22" s="0"/>
+      <c r="AJI22" s="0"/>
+      <c r="AJJ22" s="0"/>
+      <c r="AJK22" s="0"/>
+      <c r="AJL22" s="0"/>
+      <c r="AJM22" s="0"/>
+      <c r="AJN22" s="0"/>
+      <c r="AJO22" s="0"/>
+      <c r="AJP22" s="0"/>
+      <c r="AJQ22" s="0"/>
+      <c r="AJR22" s="0"/>
+      <c r="AJS22" s="0"/>
+      <c r="AJT22" s="0"/>
+      <c r="AJU22" s="0"/>
+      <c r="AJV22" s="0"/>
+      <c r="AJW22" s="0"/>
+      <c r="AJX22" s="0"/>
+      <c r="AJY22" s="0"/>
+      <c r="AJZ22" s="0"/>
+      <c r="AKA22" s="0"/>
+      <c r="AKB22" s="0"/>
+      <c r="AKC22" s="0"/>
+      <c r="AKD22" s="0"/>
+      <c r="AKE22" s="0"/>
+      <c r="AKF22" s="0"/>
+      <c r="AKG22" s="0"/>
+      <c r="AKH22" s="0"/>
+      <c r="AKI22" s="0"/>
+      <c r="AKJ22" s="0"/>
+      <c r="AKK22" s="0"/>
+      <c r="AKL22" s="0"/>
+      <c r="AKM22" s="0"/>
+      <c r="AKN22" s="0"/>
+      <c r="AKO22" s="0"/>
+      <c r="AKP22" s="0"/>
+      <c r="AKQ22" s="0"/>
+      <c r="AKR22" s="0"/>
+      <c r="AKS22" s="0"/>
+      <c r="AKT22" s="0"/>
+      <c r="AKU22" s="0"/>
+      <c r="AKV22" s="0"/>
+      <c r="AKW22" s="0"/>
+      <c r="AKX22" s="0"/>
+      <c r="AKY22" s="0"/>
+      <c r="AKZ22" s="0"/>
+      <c r="ALA22" s="0"/>
+      <c r="ALB22" s="0"/>
+      <c r="ALC22" s="0"/>
+      <c r="ALD22" s="0"/>
+      <c r="ALE22" s="0"/>
+      <c r="ALF22" s="0"/>
+      <c r="ALG22" s="0"/>
+      <c r="ALH22" s="0"/>
+      <c r="ALI22" s="0"/>
+      <c r="ALJ22" s="0"/>
+      <c r="ALK22" s="0"/>
+      <c r="ALL22" s="0"/>
+      <c r="ALM22" s="0"/>
+      <c r="ALN22" s="0"/>
+      <c r="ALO22" s="0"/>
+      <c r="ALP22" s="0"/>
+      <c r="ALQ22" s="0"/>
+      <c r="ALR22" s="0"/>
+      <c r="ALS22" s="0"/>
+      <c r="ALT22" s="0"/>
+      <c r="ALU22" s="0"/>
+      <c r="ALV22" s="0"/>
+      <c r="ALW22" s="0"/>
+      <c r="ALX22" s="0"/>
+      <c r="ALY22" s="0"/>
+      <c r="ALZ22" s="0"/>
+      <c r="AMA22" s="0"/>
+      <c r="AMB22" s="0"/>
+      <c r="AMC22" s="0"/>
+      <c r="AMD22" s="0"/>
+      <c r="AME22" s="0"/>
+      <c r="AMF22" s="0"/>
+      <c r="AMG22" s="0"/>
+      <c r="AMH22" s="0"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
@@ -21188,6 +25266,1025 @@
       <c r="E25" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+      <c r="AE25" s="0"/>
+      <c r="AF25" s="0"/>
+      <c r="AG25" s="0"/>
+      <c r="AH25" s="0"/>
+      <c r="AI25" s="0"/>
+      <c r="AJ25" s="0"/>
+      <c r="AK25" s="0"/>
+      <c r="AL25" s="0"/>
+      <c r="AM25" s="0"/>
+      <c r="AN25" s="0"/>
+      <c r="AO25" s="0"/>
+      <c r="AP25" s="0"/>
+      <c r="AQ25" s="0"/>
+      <c r="AR25" s="0"/>
+      <c r="AS25" s="0"/>
+      <c r="AT25" s="0"/>
+      <c r="AU25" s="0"/>
+      <c r="AV25" s="0"/>
+      <c r="AW25" s="0"/>
+      <c r="AX25" s="0"/>
+      <c r="AY25" s="0"/>
+      <c r="AZ25" s="0"/>
+      <c r="BA25" s="0"/>
+      <c r="BB25" s="0"/>
+      <c r="BC25" s="0"/>
+      <c r="BD25" s="0"/>
+      <c r="BE25" s="0"/>
+      <c r="BF25" s="0"/>
+      <c r="BG25" s="0"/>
+      <c r="BH25" s="0"/>
+      <c r="BI25" s="0"/>
+      <c r="BJ25" s="0"/>
+      <c r="BK25" s="0"/>
+      <c r="BL25" s="0"/>
+      <c r="BM25" s="0"/>
+      <c r="BN25" s="0"/>
+      <c r="BO25" s="0"/>
+      <c r="BP25" s="0"/>
+      <c r="BQ25" s="0"/>
+      <c r="BR25" s="0"/>
+      <c r="BS25" s="0"/>
+      <c r="BT25" s="0"/>
+      <c r="BU25" s="0"/>
+      <c r="BV25" s="0"/>
+      <c r="BW25" s="0"/>
+      <c r="BX25" s="0"/>
+      <c r="BY25" s="0"/>
+      <c r="BZ25" s="0"/>
+      <c r="CA25" s="0"/>
+      <c r="CB25" s="0"/>
+      <c r="CC25" s="0"/>
+      <c r="CD25" s="0"/>
+      <c r="CE25" s="0"/>
+      <c r="CF25" s="0"/>
+      <c r="CG25" s="0"/>
+      <c r="CH25" s="0"/>
+      <c r="CI25" s="0"/>
+      <c r="CJ25" s="0"/>
+      <c r="CK25" s="0"/>
+      <c r="CL25" s="0"/>
+      <c r="CM25" s="0"/>
+      <c r="CN25" s="0"/>
+      <c r="CO25" s="0"/>
+      <c r="CP25" s="0"/>
+      <c r="CQ25" s="0"/>
+      <c r="CR25" s="0"/>
+      <c r="CS25" s="0"/>
+      <c r="CT25" s="0"/>
+      <c r="CU25" s="0"/>
+      <c r="CV25" s="0"/>
+      <c r="CW25" s="0"/>
+      <c r="CX25" s="0"/>
+      <c r="CY25" s="0"/>
+      <c r="CZ25" s="0"/>
+      <c r="DA25" s="0"/>
+      <c r="DB25" s="0"/>
+      <c r="DC25" s="0"/>
+      <c r="DD25" s="0"/>
+      <c r="DE25" s="0"/>
+      <c r="DF25" s="0"/>
+      <c r="DG25" s="0"/>
+      <c r="DH25" s="0"/>
+      <c r="DI25" s="0"/>
+      <c r="DJ25" s="0"/>
+      <c r="DK25" s="0"/>
+      <c r="DL25" s="0"/>
+      <c r="DM25" s="0"/>
+      <c r="DN25" s="0"/>
+      <c r="DO25" s="0"/>
+      <c r="DP25" s="0"/>
+      <c r="DQ25" s="0"/>
+      <c r="DR25" s="0"/>
+      <c r="DS25" s="0"/>
+      <c r="DT25" s="0"/>
+      <c r="DU25" s="0"/>
+      <c r="DV25" s="0"/>
+      <c r="DW25" s="0"/>
+      <c r="DX25" s="0"/>
+      <c r="DY25" s="0"/>
+      <c r="DZ25" s="0"/>
+      <c r="EA25" s="0"/>
+      <c r="EB25" s="0"/>
+      <c r="EC25" s="0"/>
+      <c r="ED25" s="0"/>
+      <c r="EE25" s="0"/>
+      <c r="EF25" s="0"/>
+      <c r="EG25" s="0"/>
+      <c r="EH25" s="0"/>
+      <c r="EI25" s="0"/>
+      <c r="EJ25" s="0"/>
+      <c r="EK25" s="0"/>
+      <c r="EL25" s="0"/>
+      <c r="EM25" s="0"/>
+      <c r="EN25" s="0"/>
+      <c r="EO25" s="0"/>
+      <c r="EP25" s="0"/>
+      <c r="EQ25" s="0"/>
+      <c r="ER25" s="0"/>
+      <c r="ES25" s="0"/>
+      <c r="ET25" s="0"/>
+      <c r="EU25" s="0"/>
+      <c r="EV25" s="0"/>
+      <c r="EW25" s="0"/>
+      <c r="EX25" s="0"/>
+      <c r="EY25" s="0"/>
+      <c r="EZ25" s="0"/>
+      <c r="FA25" s="0"/>
+      <c r="FB25" s="0"/>
+      <c r="FC25" s="0"/>
+      <c r="FD25" s="0"/>
+      <c r="FE25" s="0"/>
+      <c r="FF25" s="0"/>
+      <c r="FG25" s="0"/>
+      <c r="FH25" s="0"/>
+      <c r="FI25" s="0"/>
+      <c r="FJ25" s="0"/>
+      <c r="FK25" s="0"/>
+      <c r="FL25" s="0"/>
+      <c r="FM25" s="0"/>
+      <c r="FN25" s="0"/>
+      <c r="FO25" s="0"/>
+      <c r="FP25" s="0"/>
+      <c r="FQ25" s="0"/>
+      <c r="FR25" s="0"/>
+      <c r="FS25" s="0"/>
+      <c r="FT25" s="0"/>
+      <c r="FU25" s="0"/>
+      <c r="FV25" s="0"/>
+      <c r="FW25" s="0"/>
+      <c r="FX25" s="0"/>
+      <c r="FY25" s="0"/>
+      <c r="FZ25" s="0"/>
+      <c r="GA25" s="0"/>
+      <c r="GB25" s="0"/>
+      <c r="GC25" s="0"/>
+      <c r="GD25" s="0"/>
+      <c r="GE25" s="0"/>
+      <c r="GF25" s="0"/>
+      <c r="GG25" s="0"/>
+      <c r="GH25" s="0"/>
+      <c r="GI25" s="0"/>
+      <c r="GJ25" s="0"/>
+      <c r="GK25" s="0"/>
+      <c r="GL25" s="0"/>
+      <c r="GM25" s="0"/>
+      <c r="GN25" s="0"/>
+      <c r="GO25" s="0"/>
+      <c r="GP25" s="0"/>
+      <c r="GQ25" s="0"/>
+      <c r="GR25" s="0"/>
+      <c r="GS25" s="0"/>
+      <c r="GT25" s="0"/>
+      <c r="GU25" s="0"/>
+      <c r="GV25" s="0"/>
+      <c r="GW25" s="0"/>
+      <c r="GX25" s="0"/>
+      <c r="GY25" s="0"/>
+      <c r="GZ25" s="0"/>
+      <c r="HA25" s="0"/>
+      <c r="HB25" s="0"/>
+      <c r="HC25" s="0"/>
+      <c r="HD25" s="0"/>
+      <c r="HE25" s="0"/>
+      <c r="HF25" s="0"/>
+      <c r="HG25" s="0"/>
+      <c r="HH25" s="0"/>
+      <c r="HI25" s="0"/>
+      <c r="HJ25" s="0"/>
+      <c r="HK25" s="0"/>
+      <c r="HL25" s="0"/>
+      <c r="HM25" s="0"/>
+      <c r="HN25" s="0"/>
+      <c r="HO25" s="0"/>
+      <c r="HP25" s="0"/>
+      <c r="HQ25" s="0"/>
+      <c r="HR25" s="0"/>
+      <c r="HS25" s="0"/>
+      <c r="HT25" s="0"/>
+      <c r="HU25" s="0"/>
+      <c r="HV25" s="0"/>
+      <c r="HW25" s="0"/>
+      <c r="HX25" s="0"/>
+      <c r="HY25" s="0"/>
+      <c r="HZ25" s="0"/>
+      <c r="IA25" s="0"/>
+      <c r="IB25" s="0"/>
+      <c r="IC25" s="0"/>
+      <c r="ID25" s="0"/>
+      <c r="IE25" s="0"/>
+      <c r="IF25" s="0"/>
+      <c r="IG25" s="0"/>
+      <c r="IH25" s="0"/>
+      <c r="II25" s="0"/>
+      <c r="IJ25" s="0"/>
+      <c r="IK25" s="0"/>
+      <c r="IL25" s="0"/>
+      <c r="IM25" s="0"/>
+      <c r="IN25" s="0"/>
+      <c r="IO25" s="0"/>
+      <c r="IP25" s="0"/>
+      <c r="IQ25" s="0"/>
+      <c r="IR25" s="0"/>
+      <c r="IS25" s="0"/>
+      <c r="IT25" s="0"/>
+      <c r="IU25" s="0"/>
+      <c r="IV25" s="0"/>
+      <c r="IW25" s="0"/>
+      <c r="IX25" s="0"/>
+      <c r="IY25" s="0"/>
+      <c r="IZ25" s="0"/>
+      <c r="JA25" s="0"/>
+      <c r="JB25" s="0"/>
+      <c r="JC25" s="0"/>
+      <c r="JD25" s="0"/>
+      <c r="JE25" s="0"/>
+      <c r="JF25" s="0"/>
+      <c r="JG25" s="0"/>
+      <c r="JH25" s="0"/>
+      <c r="JI25" s="0"/>
+      <c r="JJ25" s="0"/>
+      <c r="JK25" s="0"/>
+      <c r="JL25" s="0"/>
+      <c r="JM25" s="0"/>
+      <c r="JN25" s="0"/>
+      <c r="JO25" s="0"/>
+      <c r="JP25" s="0"/>
+      <c r="JQ25" s="0"/>
+      <c r="JR25" s="0"/>
+      <c r="JS25" s="0"/>
+      <c r="JT25" s="0"/>
+      <c r="JU25" s="0"/>
+      <c r="JV25" s="0"/>
+      <c r="JW25" s="0"/>
+      <c r="JX25" s="0"/>
+      <c r="JY25" s="0"/>
+      <c r="JZ25" s="0"/>
+      <c r="KA25" s="0"/>
+      <c r="KB25" s="0"/>
+      <c r="KC25" s="0"/>
+      <c r="KD25" s="0"/>
+      <c r="KE25" s="0"/>
+      <c r="KF25" s="0"/>
+      <c r="KG25" s="0"/>
+      <c r="KH25" s="0"/>
+      <c r="KI25" s="0"/>
+      <c r="KJ25" s="0"/>
+      <c r="KK25" s="0"/>
+      <c r="KL25" s="0"/>
+      <c r="KM25" s="0"/>
+      <c r="KN25" s="0"/>
+      <c r="KO25" s="0"/>
+      <c r="KP25" s="0"/>
+      <c r="KQ25" s="0"/>
+      <c r="KR25" s="0"/>
+      <c r="KS25" s="0"/>
+      <c r="KT25" s="0"/>
+      <c r="KU25" s="0"/>
+      <c r="KV25" s="0"/>
+      <c r="KW25" s="0"/>
+      <c r="KX25" s="0"/>
+      <c r="KY25" s="0"/>
+      <c r="KZ25" s="0"/>
+      <c r="LA25" s="0"/>
+      <c r="LB25" s="0"/>
+      <c r="LC25" s="0"/>
+      <c r="LD25" s="0"/>
+      <c r="LE25" s="0"/>
+      <c r="LF25" s="0"/>
+      <c r="LG25" s="0"/>
+      <c r="LH25" s="0"/>
+      <c r="LI25" s="0"/>
+      <c r="LJ25" s="0"/>
+      <c r="LK25" s="0"/>
+      <c r="LL25" s="0"/>
+      <c r="LM25" s="0"/>
+      <c r="LN25" s="0"/>
+      <c r="LO25" s="0"/>
+      <c r="LP25" s="0"/>
+      <c r="LQ25" s="0"/>
+      <c r="LR25" s="0"/>
+      <c r="LS25" s="0"/>
+      <c r="LT25" s="0"/>
+      <c r="LU25" s="0"/>
+      <c r="LV25" s="0"/>
+      <c r="LW25" s="0"/>
+      <c r="LX25" s="0"/>
+      <c r="LY25" s="0"/>
+      <c r="LZ25" s="0"/>
+      <c r="MA25" s="0"/>
+      <c r="MB25" s="0"/>
+      <c r="MC25" s="0"/>
+      <c r="MD25" s="0"/>
+      <c r="ME25" s="0"/>
+      <c r="MF25" s="0"/>
+      <c r="MG25" s="0"/>
+      <c r="MH25" s="0"/>
+      <c r="MI25" s="0"/>
+      <c r="MJ25" s="0"/>
+      <c r="MK25" s="0"/>
+      <c r="ML25" s="0"/>
+      <c r="MM25" s="0"/>
+      <c r="MN25" s="0"/>
+      <c r="MO25" s="0"/>
+      <c r="MP25" s="0"/>
+      <c r="MQ25" s="0"/>
+      <c r="MR25" s="0"/>
+      <c r="MS25" s="0"/>
+      <c r="MT25" s="0"/>
+      <c r="MU25" s="0"/>
+      <c r="MV25" s="0"/>
+      <c r="MW25" s="0"/>
+      <c r="MX25" s="0"/>
+      <c r="MY25" s="0"/>
+      <c r="MZ25" s="0"/>
+      <c r="NA25" s="0"/>
+      <c r="NB25" s="0"/>
+      <c r="NC25" s="0"/>
+      <c r="ND25" s="0"/>
+      <c r="NE25" s="0"/>
+      <c r="NF25" s="0"/>
+      <c r="NG25" s="0"/>
+      <c r="NH25" s="0"/>
+      <c r="NI25" s="0"/>
+      <c r="NJ25" s="0"/>
+      <c r="NK25" s="0"/>
+      <c r="NL25" s="0"/>
+      <c r="NM25" s="0"/>
+      <c r="NN25" s="0"/>
+      <c r="NO25" s="0"/>
+      <c r="NP25" s="0"/>
+      <c r="NQ25" s="0"/>
+      <c r="NR25" s="0"/>
+      <c r="NS25" s="0"/>
+      <c r="NT25" s="0"/>
+      <c r="NU25" s="0"/>
+      <c r="NV25" s="0"/>
+      <c r="NW25" s="0"/>
+      <c r="NX25" s="0"/>
+      <c r="NY25" s="0"/>
+      <c r="NZ25" s="0"/>
+      <c r="OA25" s="0"/>
+      <c r="OB25" s="0"/>
+      <c r="OC25" s="0"/>
+      <c r="OD25" s="0"/>
+      <c r="OE25" s="0"/>
+      <c r="OF25" s="0"/>
+      <c r="OG25" s="0"/>
+      <c r="OH25" s="0"/>
+      <c r="OI25" s="0"/>
+      <c r="OJ25" s="0"/>
+      <c r="OK25" s="0"/>
+      <c r="OL25" s="0"/>
+      <c r="OM25" s="0"/>
+      <c r="ON25" s="0"/>
+      <c r="OO25" s="0"/>
+      <c r="OP25" s="0"/>
+      <c r="OQ25" s="0"/>
+      <c r="OR25" s="0"/>
+      <c r="OS25" s="0"/>
+      <c r="OT25" s="0"/>
+      <c r="OU25" s="0"/>
+      <c r="OV25" s="0"/>
+      <c r="OW25" s="0"/>
+      <c r="OX25" s="0"/>
+      <c r="OY25" s="0"/>
+      <c r="OZ25" s="0"/>
+      <c r="PA25" s="0"/>
+      <c r="PB25" s="0"/>
+      <c r="PC25" s="0"/>
+      <c r="PD25" s="0"/>
+      <c r="PE25" s="0"/>
+      <c r="PF25" s="0"/>
+      <c r="PG25" s="0"/>
+      <c r="PH25" s="0"/>
+      <c r="PI25" s="0"/>
+      <c r="PJ25" s="0"/>
+      <c r="PK25" s="0"/>
+      <c r="PL25" s="0"/>
+      <c r="PM25" s="0"/>
+      <c r="PN25" s="0"/>
+      <c r="PO25" s="0"/>
+      <c r="PP25" s="0"/>
+      <c r="PQ25" s="0"/>
+      <c r="PR25" s="0"/>
+      <c r="PS25" s="0"/>
+      <c r="PT25" s="0"/>
+      <c r="PU25" s="0"/>
+      <c r="PV25" s="0"/>
+      <c r="PW25" s="0"/>
+      <c r="PX25" s="0"/>
+      <c r="PY25" s="0"/>
+      <c r="PZ25" s="0"/>
+      <c r="QA25" s="0"/>
+      <c r="QB25" s="0"/>
+      <c r="QC25" s="0"/>
+      <c r="QD25" s="0"/>
+      <c r="QE25" s="0"/>
+      <c r="QF25" s="0"/>
+      <c r="QG25" s="0"/>
+      <c r="QH25" s="0"/>
+      <c r="QI25" s="0"/>
+      <c r="QJ25" s="0"/>
+      <c r="QK25" s="0"/>
+      <c r="QL25" s="0"/>
+      <c r="QM25" s="0"/>
+      <c r="QN25" s="0"/>
+      <c r="QO25" s="0"/>
+      <c r="QP25" s="0"/>
+      <c r="QQ25" s="0"/>
+      <c r="QR25" s="0"/>
+      <c r="QS25" s="0"/>
+      <c r="QT25" s="0"/>
+      <c r="QU25" s="0"/>
+      <c r="QV25" s="0"/>
+      <c r="QW25" s="0"/>
+      <c r="QX25" s="0"/>
+      <c r="QY25" s="0"/>
+      <c r="QZ25" s="0"/>
+      <c r="RA25" s="0"/>
+      <c r="RB25" s="0"/>
+      <c r="RC25" s="0"/>
+      <c r="RD25" s="0"/>
+      <c r="RE25" s="0"/>
+      <c r="RF25" s="0"/>
+      <c r="RG25" s="0"/>
+      <c r="RH25" s="0"/>
+      <c r="RI25" s="0"/>
+      <c r="RJ25" s="0"/>
+      <c r="RK25" s="0"/>
+      <c r="RL25" s="0"/>
+      <c r="RM25" s="0"/>
+      <c r="RN25" s="0"/>
+      <c r="RO25" s="0"/>
+      <c r="RP25" s="0"/>
+      <c r="RQ25" s="0"/>
+      <c r="RR25" s="0"/>
+      <c r="RS25" s="0"/>
+      <c r="RT25" s="0"/>
+      <c r="RU25" s="0"/>
+      <c r="RV25" s="0"/>
+      <c r="RW25" s="0"/>
+      <c r="RX25" s="0"/>
+      <c r="RY25" s="0"/>
+      <c r="RZ25" s="0"/>
+      <c r="SA25" s="0"/>
+      <c r="SB25" s="0"/>
+      <c r="SC25" s="0"/>
+      <c r="SD25" s="0"/>
+      <c r="SE25" s="0"/>
+      <c r="SF25" s="0"/>
+      <c r="SG25" s="0"/>
+      <c r="SH25" s="0"/>
+      <c r="SI25" s="0"/>
+      <c r="SJ25" s="0"/>
+      <c r="SK25" s="0"/>
+      <c r="SL25" s="0"/>
+      <c r="SM25" s="0"/>
+      <c r="SN25" s="0"/>
+      <c r="SO25" s="0"/>
+      <c r="SP25" s="0"/>
+      <c r="SQ25" s="0"/>
+      <c r="SR25" s="0"/>
+      <c r="SS25" s="0"/>
+      <c r="ST25" s="0"/>
+      <c r="SU25" s="0"/>
+      <c r="SV25" s="0"/>
+      <c r="SW25" s="0"/>
+      <c r="SX25" s="0"/>
+      <c r="SY25" s="0"/>
+      <c r="SZ25" s="0"/>
+      <c r="TA25" s="0"/>
+      <c r="TB25" s="0"/>
+      <c r="TC25" s="0"/>
+      <c r="TD25" s="0"/>
+      <c r="TE25" s="0"/>
+      <c r="TF25" s="0"/>
+      <c r="TG25" s="0"/>
+      <c r="TH25" s="0"/>
+      <c r="TI25" s="0"/>
+      <c r="TJ25" s="0"/>
+      <c r="TK25" s="0"/>
+      <c r="TL25" s="0"/>
+      <c r="TM25" s="0"/>
+      <c r="TN25" s="0"/>
+      <c r="TO25" s="0"/>
+      <c r="TP25" s="0"/>
+      <c r="TQ25" s="0"/>
+      <c r="TR25" s="0"/>
+      <c r="TS25" s="0"/>
+      <c r="TT25" s="0"/>
+      <c r="TU25" s="0"/>
+      <c r="TV25" s="0"/>
+      <c r="TW25" s="0"/>
+      <c r="TX25" s="0"/>
+      <c r="TY25" s="0"/>
+      <c r="TZ25" s="0"/>
+      <c r="UA25" s="0"/>
+      <c r="UB25" s="0"/>
+      <c r="UC25" s="0"/>
+      <c r="UD25" s="0"/>
+      <c r="UE25" s="0"/>
+      <c r="UF25" s="0"/>
+      <c r="UG25" s="0"/>
+      <c r="UH25" s="0"/>
+      <c r="UI25" s="0"/>
+      <c r="UJ25" s="0"/>
+      <c r="UK25" s="0"/>
+      <c r="UL25" s="0"/>
+      <c r="UM25" s="0"/>
+      <c r="UN25" s="0"/>
+      <c r="UO25" s="0"/>
+      <c r="UP25" s="0"/>
+      <c r="UQ25" s="0"/>
+      <c r="UR25" s="0"/>
+      <c r="US25" s="0"/>
+      <c r="UT25" s="0"/>
+      <c r="UU25" s="0"/>
+      <c r="UV25" s="0"/>
+      <c r="UW25" s="0"/>
+      <c r="UX25" s="0"/>
+      <c r="UY25" s="0"/>
+      <c r="UZ25" s="0"/>
+      <c r="VA25" s="0"/>
+      <c r="VB25" s="0"/>
+      <c r="VC25" s="0"/>
+      <c r="VD25" s="0"/>
+      <c r="VE25" s="0"/>
+      <c r="VF25" s="0"/>
+      <c r="VG25" s="0"/>
+      <c r="VH25" s="0"/>
+      <c r="VI25" s="0"/>
+      <c r="VJ25" s="0"/>
+      <c r="VK25" s="0"/>
+      <c r="VL25" s="0"/>
+      <c r="VM25" s="0"/>
+      <c r="VN25" s="0"/>
+      <c r="VO25" s="0"/>
+      <c r="VP25" s="0"/>
+      <c r="VQ25" s="0"/>
+      <c r="VR25" s="0"/>
+      <c r="VS25" s="0"/>
+      <c r="VT25" s="0"/>
+      <c r="VU25" s="0"/>
+      <c r="VV25" s="0"/>
+      <c r="VW25" s="0"/>
+      <c r="VX25" s="0"/>
+      <c r="VY25" s="0"/>
+      <c r="VZ25" s="0"/>
+      <c r="WA25" s="0"/>
+      <c r="WB25" s="0"/>
+      <c r="WC25" s="0"/>
+      <c r="WD25" s="0"/>
+      <c r="WE25" s="0"/>
+      <c r="WF25" s="0"/>
+      <c r="WG25" s="0"/>
+      <c r="WH25" s="0"/>
+      <c r="WI25" s="0"/>
+      <c r="WJ25" s="0"/>
+      <c r="WK25" s="0"/>
+      <c r="WL25" s="0"/>
+      <c r="WM25" s="0"/>
+      <c r="WN25" s="0"/>
+      <c r="WO25" s="0"/>
+      <c r="WP25" s="0"/>
+      <c r="WQ25" s="0"/>
+      <c r="WR25" s="0"/>
+      <c r="WS25" s="0"/>
+      <c r="WT25" s="0"/>
+      <c r="WU25" s="0"/>
+      <c r="WV25" s="0"/>
+      <c r="WW25" s="0"/>
+      <c r="WX25" s="0"/>
+      <c r="WY25" s="0"/>
+      <c r="WZ25" s="0"/>
+      <c r="XA25" s="0"/>
+      <c r="XB25" s="0"/>
+      <c r="XC25" s="0"/>
+      <c r="XD25" s="0"/>
+      <c r="XE25" s="0"/>
+      <c r="XF25" s="0"/>
+      <c r="XG25" s="0"/>
+      <c r="XH25" s="0"/>
+      <c r="XI25" s="0"/>
+      <c r="XJ25" s="0"/>
+      <c r="XK25" s="0"/>
+      <c r="XL25" s="0"/>
+      <c r="XM25" s="0"/>
+      <c r="XN25" s="0"/>
+      <c r="XO25" s="0"/>
+      <c r="XP25" s="0"/>
+      <c r="XQ25" s="0"/>
+      <c r="XR25" s="0"/>
+      <c r="XS25" s="0"/>
+      <c r="XT25" s="0"/>
+      <c r="XU25" s="0"/>
+      <c r="XV25" s="0"/>
+      <c r="XW25" s="0"/>
+      <c r="XX25" s="0"/>
+      <c r="XY25" s="0"/>
+      <c r="XZ25" s="0"/>
+      <c r="YA25" s="0"/>
+      <c r="YB25" s="0"/>
+      <c r="YC25" s="0"/>
+      <c r="YD25" s="0"/>
+      <c r="YE25" s="0"/>
+      <c r="YF25" s="0"/>
+      <c r="YG25" s="0"/>
+      <c r="YH25" s="0"/>
+      <c r="YI25" s="0"/>
+      <c r="YJ25" s="0"/>
+      <c r="YK25" s="0"/>
+      <c r="YL25" s="0"/>
+      <c r="YM25" s="0"/>
+      <c r="YN25" s="0"/>
+      <c r="YO25" s="0"/>
+      <c r="YP25" s="0"/>
+      <c r="YQ25" s="0"/>
+      <c r="YR25" s="0"/>
+      <c r="YS25" s="0"/>
+      <c r="YT25" s="0"/>
+      <c r="YU25" s="0"/>
+      <c r="YV25" s="0"/>
+      <c r="YW25" s="0"/>
+      <c r="YX25" s="0"/>
+      <c r="YY25" s="0"/>
+      <c r="YZ25" s="0"/>
+      <c r="ZA25" s="0"/>
+      <c r="ZB25" s="0"/>
+      <c r="ZC25" s="0"/>
+      <c r="ZD25" s="0"/>
+      <c r="ZE25" s="0"/>
+      <c r="ZF25" s="0"/>
+      <c r="ZG25" s="0"/>
+      <c r="ZH25" s="0"/>
+      <c r="ZI25" s="0"/>
+      <c r="ZJ25" s="0"/>
+      <c r="ZK25" s="0"/>
+      <c r="ZL25" s="0"/>
+      <c r="ZM25" s="0"/>
+      <c r="ZN25" s="0"/>
+      <c r="ZO25" s="0"/>
+      <c r="ZP25" s="0"/>
+      <c r="ZQ25" s="0"/>
+      <c r="ZR25" s="0"/>
+      <c r="ZS25" s="0"/>
+      <c r="ZT25" s="0"/>
+      <c r="ZU25" s="0"/>
+      <c r="ZV25" s="0"/>
+      <c r="ZW25" s="0"/>
+      <c r="ZX25" s="0"/>
+      <c r="ZY25" s="0"/>
+      <c r="ZZ25" s="0"/>
+      <c r="AAA25" s="0"/>
+      <c r="AAB25" s="0"/>
+      <c r="AAC25" s="0"/>
+      <c r="AAD25" s="0"/>
+      <c r="AAE25" s="0"/>
+      <c r="AAF25" s="0"/>
+      <c r="AAG25" s="0"/>
+      <c r="AAH25" s="0"/>
+      <c r="AAI25" s="0"/>
+      <c r="AAJ25" s="0"/>
+      <c r="AAK25" s="0"/>
+      <c r="AAL25" s="0"/>
+      <c r="AAM25" s="0"/>
+      <c r="AAN25" s="0"/>
+      <c r="AAO25" s="0"/>
+      <c r="AAP25" s="0"/>
+      <c r="AAQ25" s="0"/>
+      <c r="AAR25" s="0"/>
+      <c r="AAS25" s="0"/>
+      <c r="AAT25" s="0"/>
+      <c r="AAU25" s="0"/>
+      <c r="AAV25" s="0"/>
+      <c r="AAW25" s="0"/>
+      <c r="AAX25" s="0"/>
+      <c r="AAY25" s="0"/>
+      <c r="AAZ25" s="0"/>
+      <c r="ABA25" s="0"/>
+      <c r="ABB25" s="0"/>
+      <c r="ABC25" s="0"/>
+      <c r="ABD25" s="0"/>
+      <c r="ABE25" s="0"/>
+      <c r="ABF25" s="0"/>
+      <c r="ABG25" s="0"/>
+      <c r="ABH25" s="0"/>
+      <c r="ABI25" s="0"/>
+      <c r="ABJ25" s="0"/>
+      <c r="ABK25" s="0"/>
+      <c r="ABL25" s="0"/>
+      <c r="ABM25" s="0"/>
+      <c r="ABN25" s="0"/>
+      <c r="ABO25" s="0"/>
+      <c r="ABP25" s="0"/>
+      <c r="ABQ25" s="0"/>
+      <c r="ABR25" s="0"/>
+      <c r="ABS25" s="0"/>
+      <c r="ABT25" s="0"/>
+      <c r="ABU25" s="0"/>
+      <c r="ABV25" s="0"/>
+      <c r="ABW25" s="0"/>
+      <c r="ABX25" s="0"/>
+      <c r="ABY25" s="0"/>
+      <c r="ABZ25" s="0"/>
+      <c r="ACA25" s="0"/>
+      <c r="ACB25" s="0"/>
+      <c r="ACC25" s="0"/>
+      <c r="ACD25" s="0"/>
+      <c r="ACE25" s="0"/>
+      <c r="ACF25" s="0"/>
+      <c r="ACG25" s="0"/>
+      <c r="ACH25" s="0"/>
+      <c r="ACI25" s="0"/>
+      <c r="ACJ25" s="0"/>
+      <c r="ACK25" s="0"/>
+      <c r="ACL25" s="0"/>
+      <c r="ACM25" s="0"/>
+      <c r="ACN25" s="0"/>
+      <c r="ACO25" s="0"/>
+      <c r="ACP25" s="0"/>
+      <c r="ACQ25" s="0"/>
+      <c r="ACR25" s="0"/>
+      <c r="ACS25" s="0"/>
+      <c r="ACT25" s="0"/>
+      <c r="ACU25" s="0"/>
+      <c r="ACV25" s="0"/>
+      <c r="ACW25" s="0"/>
+      <c r="ACX25" s="0"/>
+      <c r="ACY25" s="0"/>
+      <c r="ACZ25" s="0"/>
+      <c r="ADA25" s="0"/>
+      <c r="ADB25" s="0"/>
+      <c r="ADC25" s="0"/>
+      <c r="ADD25" s="0"/>
+      <c r="ADE25" s="0"/>
+      <c r="ADF25" s="0"/>
+      <c r="ADG25" s="0"/>
+      <c r="ADH25" s="0"/>
+      <c r="ADI25" s="0"/>
+      <c r="ADJ25" s="0"/>
+      <c r="ADK25" s="0"/>
+      <c r="ADL25" s="0"/>
+      <c r="ADM25" s="0"/>
+      <c r="ADN25" s="0"/>
+      <c r="ADO25" s="0"/>
+      <c r="ADP25" s="0"/>
+      <c r="ADQ25" s="0"/>
+      <c r="ADR25" s="0"/>
+      <c r="ADS25" s="0"/>
+      <c r="ADT25" s="0"/>
+      <c r="ADU25" s="0"/>
+      <c r="ADV25" s="0"/>
+      <c r="ADW25" s="0"/>
+      <c r="ADX25" s="0"/>
+      <c r="ADY25" s="0"/>
+      <c r="ADZ25" s="0"/>
+      <c r="AEA25" s="0"/>
+      <c r="AEB25" s="0"/>
+      <c r="AEC25" s="0"/>
+      <c r="AED25" s="0"/>
+      <c r="AEE25" s="0"/>
+      <c r="AEF25" s="0"/>
+      <c r="AEG25" s="0"/>
+      <c r="AEH25" s="0"/>
+      <c r="AEI25" s="0"/>
+      <c r="AEJ25" s="0"/>
+      <c r="AEK25" s="0"/>
+      <c r="AEL25" s="0"/>
+      <c r="AEM25" s="0"/>
+      <c r="AEN25" s="0"/>
+      <c r="AEO25" s="0"/>
+      <c r="AEP25" s="0"/>
+      <c r="AEQ25" s="0"/>
+      <c r="AER25" s="0"/>
+      <c r="AES25" s="0"/>
+      <c r="AET25" s="0"/>
+      <c r="AEU25" s="0"/>
+      <c r="AEV25" s="0"/>
+      <c r="AEW25" s="0"/>
+      <c r="AEX25" s="0"/>
+      <c r="AEY25" s="0"/>
+      <c r="AEZ25" s="0"/>
+      <c r="AFA25" s="0"/>
+      <c r="AFB25" s="0"/>
+      <c r="AFC25" s="0"/>
+      <c r="AFD25" s="0"/>
+      <c r="AFE25" s="0"/>
+      <c r="AFF25" s="0"/>
+      <c r="AFG25" s="0"/>
+      <c r="AFH25" s="0"/>
+      <c r="AFI25" s="0"/>
+      <c r="AFJ25" s="0"/>
+      <c r="AFK25" s="0"/>
+      <c r="AFL25" s="0"/>
+      <c r="AFM25" s="0"/>
+      <c r="AFN25" s="0"/>
+      <c r="AFO25" s="0"/>
+      <c r="AFP25" s="0"/>
+      <c r="AFQ25" s="0"/>
+      <c r="AFR25" s="0"/>
+      <c r="AFS25" s="0"/>
+      <c r="AFT25" s="0"/>
+      <c r="AFU25" s="0"/>
+      <c r="AFV25" s="0"/>
+      <c r="AFW25" s="0"/>
+      <c r="AFX25" s="0"/>
+      <c r="AFY25" s="0"/>
+      <c r="AFZ25" s="0"/>
+      <c r="AGA25" s="0"/>
+      <c r="AGB25" s="0"/>
+      <c r="AGC25" s="0"/>
+      <c r="AGD25" s="0"/>
+      <c r="AGE25" s="0"/>
+      <c r="AGF25" s="0"/>
+      <c r="AGG25" s="0"/>
+      <c r="AGH25" s="0"/>
+      <c r="AGI25" s="0"/>
+      <c r="AGJ25" s="0"/>
+      <c r="AGK25" s="0"/>
+      <c r="AGL25" s="0"/>
+      <c r="AGM25" s="0"/>
+      <c r="AGN25" s="0"/>
+      <c r="AGO25" s="0"/>
+      <c r="AGP25" s="0"/>
+      <c r="AGQ25" s="0"/>
+      <c r="AGR25" s="0"/>
+      <c r="AGS25" s="0"/>
+      <c r="AGT25" s="0"/>
+      <c r="AGU25" s="0"/>
+      <c r="AGV25" s="0"/>
+      <c r="AGW25" s="0"/>
+      <c r="AGX25" s="0"/>
+      <c r="AGY25" s="0"/>
+      <c r="AGZ25" s="0"/>
+      <c r="AHA25" s="0"/>
+      <c r="AHB25" s="0"/>
+      <c r="AHC25" s="0"/>
+      <c r="AHD25" s="0"/>
+      <c r="AHE25" s="0"/>
+      <c r="AHF25" s="0"/>
+      <c r="AHG25" s="0"/>
+      <c r="AHH25" s="0"/>
+      <c r="AHI25" s="0"/>
+      <c r="AHJ25" s="0"/>
+      <c r="AHK25" s="0"/>
+      <c r="AHL25" s="0"/>
+      <c r="AHM25" s="0"/>
+      <c r="AHN25" s="0"/>
+      <c r="AHO25" s="0"/>
+      <c r="AHP25" s="0"/>
+      <c r="AHQ25" s="0"/>
+      <c r="AHR25" s="0"/>
+      <c r="AHS25" s="0"/>
+      <c r="AHT25" s="0"/>
+      <c r="AHU25" s="0"/>
+      <c r="AHV25" s="0"/>
+      <c r="AHW25" s="0"/>
+      <c r="AHX25" s="0"/>
+      <c r="AHY25" s="0"/>
+      <c r="AHZ25" s="0"/>
+      <c r="AIA25" s="0"/>
+      <c r="AIB25" s="0"/>
+      <c r="AIC25" s="0"/>
+      <c r="AID25" s="0"/>
+      <c r="AIE25" s="0"/>
+      <c r="AIF25" s="0"/>
+      <c r="AIG25" s="0"/>
+      <c r="AIH25" s="0"/>
+      <c r="AII25" s="0"/>
+      <c r="AIJ25" s="0"/>
+      <c r="AIK25" s="0"/>
+      <c r="AIL25" s="0"/>
+      <c r="AIM25" s="0"/>
+      <c r="AIN25" s="0"/>
+      <c r="AIO25" s="0"/>
+      <c r="AIP25" s="0"/>
+      <c r="AIQ25" s="0"/>
+      <c r="AIR25" s="0"/>
+      <c r="AIS25" s="0"/>
+      <c r="AIT25" s="0"/>
+      <c r="AIU25" s="0"/>
+      <c r="AIV25" s="0"/>
+      <c r="AIW25" s="0"/>
+      <c r="AIX25" s="0"/>
+      <c r="AIY25" s="0"/>
+      <c r="AIZ25" s="0"/>
+      <c r="AJA25" s="0"/>
+      <c r="AJB25" s="0"/>
+      <c r="AJC25" s="0"/>
+      <c r="AJD25" s="0"/>
+      <c r="AJE25" s="0"/>
+      <c r="AJF25" s="0"/>
+      <c r="AJG25" s="0"/>
+      <c r="AJH25" s="0"/>
+      <c r="AJI25" s="0"/>
+      <c r="AJJ25" s="0"/>
+      <c r="AJK25" s="0"/>
+      <c r="AJL25" s="0"/>
+      <c r="AJM25" s="0"/>
+      <c r="AJN25" s="0"/>
+      <c r="AJO25" s="0"/>
+      <c r="AJP25" s="0"/>
+      <c r="AJQ25" s="0"/>
+      <c r="AJR25" s="0"/>
+      <c r="AJS25" s="0"/>
+      <c r="AJT25" s="0"/>
+      <c r="AJU25" s="0"/>
+      <c r="AJV25" s="0"/>
+      <c r="AJW25" s="0"/>
+      <c r="AJX25" s="0"/>
+      <c r="AJY25" s="0"/>
+      <c r="AJZ25" s="0"/>
+      <c r="AKA25" s="0"/>
+      <c r="AKB25" s="0"/>
+      <c r="AKC25" s="0"/>
+      <c r="AKD25" s="0"/>
+      <c r="AKE25" s="0"/>
+      <c r="AKF25" s="0"/>
+      <c r="AKG25" s="0"/>
+      <c r="AKH25" s="0"/>
+      <c r="AKI25" s="0"/>
+      <c r="AKJ25" s="0"/>
+      <c r="AKK25" s="0"/>
+      <c r="AKL25" s="0"/>
+      <c r="AKM25" s="0"/>
+      <c r="AKN25" s="0"/>
+      <c r="AKO25" s="0"/>
+      <c r="AKP25" s="0"/>
+      <c r="AKQ25" s="0"/>
+      <c r="AKR25" s="0"/>
+      <c r="AKS25" s="0"/>
+      <c r="AKT25" s="0"/>
+      <c r="AKU25" s="0"/>
+      <c r="AKV25" s="0"/>
+      <c r="AKW25" s="0"/>
+      <c r="AKX25" s="0"/>
+      <c r="AKY25" s="0"/>
+      <c r="AKZ25" s="0"/>
+      <c r="ALA25" s="0"/>
+      <c r="ALB25" s="0"/>
+      <c r="ALC25" s="0"/>
+      <c r="ALD25" s="0"/>
+      <c r="ALE25" s="0"/>
+      <c r="ALF25" s="0"/>
+      <c r="ALG25" s="0"/>
+      <c r="ALH25" s="0"/>
+      <c r="ALI25" s="0"/>
+      <c r="ALJ25" s="0"/>
+      <c r="ALK25" s="0"/>
+      <c r="ALL25" s="0"/>
+      <c r="ALM25" s="0"/>
+      <c r="ALN25" s="0"/>
+      <c r="ALO25" s="0"/>
+      <c r="ALP25" s="0"/>
+      <c r="ALQ25" s="0"/>
+      <c r="ALR25" s="0"/>
+      <c r="ALS25" s="0"/>
+      <c r="ALT25" s="0"/>
+      <c r="ALU25" s="0"/>
+      <c r="ALV25" s="0"/>
+      <c r="ALW25" s="0"/>
+      <c r="ALX25" s="0"/>
+      <c r="ALY25" s="0"/>
+      <c r="ALZ25" s="0"/>
+      <c r="AMA25" s="0"/>
+      <c r="AMB25" s="0"/>
+      <c r="AMC25" s="0"/>
+      <c r="AMD25" s="0"/>
+      <c r="AME25" s="0"/>
+      <c r="AMF25" s="0"/>
+      <c r="AMG25" s="0"/>
+      <c r="AMH25" s="0"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
@@ -25331,6 +30428,1025 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="7"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" s="0"/>
+      <c r="AF30" s="0"/>
+      <c r="AG30" s="0"/>
+      <c r="AH30" s="0"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="0"/>
+      <c r="AK30" s="0"/>
+      <c r="AL30" s="0"/>
+      <c r="AM30" s="0"/>
+      <c r="AN30" s="0"/>
+      <c r="AO30" s="0"/>
+      <c r="AP30" s="0"/>
+      <c r="AQ30" s="0"/>
+      <c r="AR30" s="0"/>
+      <c r="AS30" s="0"/>
+      <c r="AT30" s="0"/>
+      <c r="AU30" s="0"/>
+      <c r="AV30" s="0"/>
+      <c r="AW30" s="0"/>
+      <c r="AX30" s="0"/>
+      <c r="AY30" s="0"/>
+      <c r="AZ30" s="0"/>
+      <c r="BA30" s="0"/>
+      <c r="BB30" s="0"/>
+      <c r="BC30" s="0"/>
+      <c r="BD30" s="0"/>
+      <c r="BE30" s="0"/>
+      <c r="BF30" s="0"/>
+      <c r="BG30" s="0"/>
+      <c r="BH30" s="0"/>
+      <c r="BI30" s="0"/>
+      <c r="BJ30" s="0"/>
+      <c r="BK30" s="0"/>
+      <c r="BL30" s="0"/>
+      <c r="BM30" s="0"/>
+      <c r="BN30" s="0"/>
+      <c r="BO30" s="0"/>
+      <c r="BP30" s="0"/>
+      <c r="BQ30" s="0"/>
+      <c r="BR30" s="0"/>
+      <c r="BS30" s="0"/>
+      <c r="BT30" s="0"/>
+      <c r="BU30" s="0"/>
+      <c r="BV30" s="0"/>
+      <c r="BW30" s="0"/>
+      <c r="BX30" s="0"/>
+      <c r="BY30" s="0"/>
+      <c r="BZ30" s="0"/>
+      <c r="CA30" s="0"/>
+      <c r="CB30" s="0"/>
+      <c r="CC30" s="0"/>
+      <c r="CD30" s="0"/>
+      <c r="CE30" s="0"/>
+      <c r="CF30" s="0"/>
+      <c r="CG30" s="0"/>
+      <c r="CH30" s="0"/>
+      <c r="CI30" s="0"/>
+      <c r="CJ30" s="0"/>
+      <c r="CK30" s="0"/>
+      <c r="CL30" s="0"/>
+      <c r="CM30" s="0"/>
+      <c r="CN30" s="0"/>
+      <c r="CO30" s="0"/>
+      <c r="CP30" s="0"/>
+      <c r="CQ30" s="0"/>
+      <c r="CR30" s="0"/>
+      <c r="CS30" s="0"/>
+      <c r="CT30" s="0"/>
+      <c r="CU30" s="0"/>
+      <c r="CV30" s="0"/>
+      <c r="CW30" s="0"/>
+      <c r="CX30" s="0"/>
+      <c r="CY30" s="0"/>
+      <c r="CZ30" s="0"/>
+      <c r="DA30" s="0"/>
+      <c r="DB30" s="0"/>
+      <c r="DC30" s="0"/>
+      <c r="DD30" s="0"/>
+      <c r="DE30" s="0"/>
+      <c r="DF30" s="0"/>
+      <c r="DG30" s="0"/>
+      <c r="DH30" s="0"/>
+      <c r="DI30" s="0"/>
+      <c r="DJ30" s="0"/>
+      <c r="DK30" s="0"/>
+      <c r="DL30" s="0"/>
+      <c r="DM30" s="0"/>
+      <c r="DN30" s="0"/>
+      <c r="DO30" s="0"/>
+      <c r="DP30" s="0"/>
+      <c r="DQ30" s="0"/>
+      <c r="DR30" s="0"/>
+      <c r="DS30" s="0"/>
+      <c r="DT30" s="0"/>
+      <c r="DU30" s="0"/>
+      <c r="DV30" s="0"/>
+      <c r="DW30" s="0"/>
+      <c r="DX30" s="0"/>
+      <c r="DY30" s="0"/>
+      <c r="DZ30" s="0"/>
+      <c r="EA30" s="0"/>
+      <c r="EB30" s="0"/>
+      <c r="EC30" s="0"/>
+      <c r="ED30" s="0"/>
+      <c r="EE30" s="0"/>
+      <c r="EF30" s="0"/>
+      <c r="EG30" s="0"/>
+      <c r="EH30" s="0"/>
+      <c r="EI30" s="0"/>
+      <c r="EJ30" s="0"/>
+      <c r="EK30" s="0"/>
+      <c r="EL30" s="0"/>
+      <c r="EM30" s="0"/>
+      <c r="EN30" s="0"/>
+      <c r="EO30" s="0"/>
+      <c r="EP30" s="0"/>
+      <c r="EQ30" s="0"/>
+      <c r="ER30" s="0"/>
+      <c r="ES30" s="0"/>
+      <c r="ET30" s="0"/>
+      <c r="EU30" s="0"/>
+      <c r="EV30" s="0"/>
+      <c r="EW30" s="0"/>
+      <c r="EX30" s="0"/>
+      <c r="EY30" s="0"/>
+      <c r="EZ30" s="0"/>
+      <c r="FA30" s="0"/>
+      <c r="FB30" s="0"/>
+      <c r="FC30" s="0"/>
+      <c r="FD30" s="0"/>
+      <c r="FE30" s="0"/>
+      <c r="FF30" s="0"/>
+      <c r="FG30" s="0"/>
+      <c r="FH30" s="0"/>
+      <c r="FI30" s="0"/>
+      <c r="FJ30" s="0"/>
+      <c r="FK30" s="0"/>
+      <c r="FL30" s="0"/>
+      <c r="FM30" s="0"/>
+      <c r="FN30" s="0"/>
+      <c r="FO30" s="0"/>
+      <c r="FP30" s="0"/>
+      <c r="FQ30" s="0"/>
+      <c r="FR30" s="0"/>
+      <c r="FS30" s="0"/>
+      <c r="FT30" s="0"/>
+      <c r="FU30" s="0"/>
+      <c r="FV30" s="0"/>
+      <c r="FW30" s="0"/>
+      <c r="FX30" s="0"/>
+      <c r="FY30" s="0"/>
+      <c r="FZ30" s="0"/>
+      <c r="GA30" s="0"/>
+      <c r="GB30" s="0"/>
+      <c r="GC30" s="0"/>
+      <c r="GD30" s="0"/>
+      <c r="GE30" s="0"/>
+      <c r="GF30" s="0"/>
+      <c r="GG30" s="0"/>
+      <c r="GH30" s="0"/>
+      <c r="GI30" s="0"/>
+      <c r="GJ30" s="0"/>
+      <c r="GK30" s="0"/>
+      <c r="GL30" s="0"/>
+      <c r="GM30" s="0"/>
+      <c r="GN30" s="0"/>
+      <c r="GO30" s="0"/>
+      <c r="GP30" s="0"/>
+      <c r="GQ30" s="0"/>
+      <c r="GR30" s="0"/>
+      <c r="GS30" s="0"/>
+      <c r="GT30" s="0"/>
+      <c r="GU30" s="0"/>
+      <c r="GV30" s="0"/>
+      <c r="GW30" s="0"/>
+      <c r="GX30" s="0"/>
+      <c r="GY30" s="0"/>
+      <c r="GZ30" s="0"/>
+      <c r="HA30" s="0"/>
+      <c r="HB30" s="0"/>
+      <c r="HC30" s="0"/>
+      <c r="HD30" s="0"/>
+      <c r="HE30" s="0"/>
+      <c r="HF30" s="0"/>
+      <c r="HG30" s="0"/>
+      <c r="HH30" s="0"/>
+      <c r="HI30" s="0"/>
+      <c r="HJ30" s="0"/>
+      <c r="HK30" s="0"/>
+      <c r="HL30" s="0"/>
+      <c r="HM30" s="0"/>
+      <c r="HN30" s="0"/>
+      <c r="HO30" s="0"/>
+      <c r="HP30" s="0"/>
+      <c r="HQ30" s="0"/>
+      <c r="HR30" s="0"/>
+      <c r="HS30" s="0"/>
+      <c r="HT30" s="0"/>
+      <c r="HU30" s="0"/>
+      <c r="HV30" s="0"/>
+      <c r="HW30" s="0"/>
+      <c r="HX30" s="0"/>
+      <c r="HY30" s="0"/>
+      <c r="HZ30" s="0"/>
+      <c r="IA30" s="0"/>
+      <c r="IB30" s="0"/>
+      <c r="IC30" s="0"/>
+      <c r="ID30" s="0"/>
+      <c r="IE30" s="0"/>
+      <c r="IF30" s="0"/>
+      <c r="IG30" s="0"/>
+      <c r="IH30" s="0"/>
+      <c r="II30" s="0"/>
+      <c r="IJ30" s="0"/>
+      <c r="IK30" s="0"/>
+      <c r="IL30" s="0"/>
+      <c r="IM30" s="0"/>
+      <c r="IN30" s="0"/>
+      <c r="IO30" s="0"/>
+      <c r="IP30" s="0"/>
+      <c r="IQ30" s="0"/>
+      <c r="IR30" s="0"/>
+      <c r="IS30" s="0"/>
+      <c r="IT30" s="0"/>
+      <c r="IU30" s="0"/>
+      <c r="IV30" s="0"/>
+      <c r="IW30" s="0"/>
+      <c r="IX30" s="0"/>
+      <c r="IY30" s="0"/>
+      <c r="IZ30" s="0"/>
+      <c r="JA30" s="0"/>
+      <c r="JB30" s="0"/>
+      <c r="JC30" s="0"/>
+      <c r="JD30" s="0"/>
+      <c r="JE30" s="0"/>
+      <c r="JF30" s="0"/>
+      <c r="JG30" s="0"/>
+      <c r="JH30" s="0"/>
+      <c r="JI30" s="0"/>
+      <c r="JJ30" s="0"/>
+      <c r="JK30" s="0"/>
+      <c r="JL30" s="0"/>
+      <c r="JM30" s="0"/>
+      <c r="JN30" s="0"/>
+      <c r="JO30" s="0"/>
+      <c r="JP30" s="0"/>
+      <c r="JQ30" s="0"/>
+      <c r="JR30" s="0"/>
+      <c r="JS30" s="0"/>
+      <c r="JT30" s="0"/>
+      <c r="JU30" s="0"/>
+      <c r="JV30" s="0"/>
+      <c r="JW30" s="0"/>
+      <c r="JX30" s="0"/>
+      <c r="JY30" s="0"/>
+      <c r="JZ30" s="0"/>
+      <c r="KA30" s="0"/>
+      <c r="KB30" s="0"/>
+      <c r="KC30" s="0"/>
+      <c r="KD30" s="0"/>
+      <c r="KE30" s="0"/>
+      <c r="KF30" s="0"/>
+      <c r="KG30" s="0"/>
+      <c r="KH30" s="0"/>
+      <c r="KI30" s="0"/>
+      <c r="KJ30" s="0"/>
+      <c r="KK30" s="0"/>
+      <c r="KL30" s="0"/>
+      <c r="KM30" s="0"/>
+      <c r="KN30" s="0"/>
+      <c r="KO30" s="0"/>
+      <c r="KP30" s="0"/>
+      <c r="KQ30" s="0"/>
+      <c r="KR30" s="0"/>
+      <c r="KS30" s="0"/>
+      <c r="KT30" s="0"/>
+      <c r="KU30" s="0"/>
+      <c r="KV30" s="0"/>
+      <c r="KW30" s="0"/>
+      <c r="KX30" s="0"/>
+      <c r="KY30" s="0"/>
+      <c r="KZ30" s="0"/>
+      <c r="LA30" s="0"/>
+      <c r="LB30" s="0"/>
+      <c r="LC30" s="0"/>
+      <c r="LD30" s="0"/>
+      <c r="LE30" s="0"/>
+      <c r="LF30" s="0"/>
+      <c r="LG30" s="0"/>
+      <c r="LH30" s="0"/>
+      <c r="LI30" s="0"/>
+      <c r="LJ30" s="0"/>
+      <c r="LK30" s="0"/>
+      <c r="LL30" s="0"/>
+      <c r="LM30" s="0"/>
+      <c r="LN30" s="0"/>
+      <c r="LO30" s="0"/>
+      <c r="LP30" s="0"/>
+      <c r="LQ30" s="0"/>
+      <c r="LR30" s="0"/>
+      <c r="LS30" s="0"/>
+      <c r="LT30" s="0"/>
+      <c r="LU30" s="0"/>
+      <c r="LV30" s="0"/>
+      <c r="LW30" s="0"/>
+      <c r="LX30" s="0"/>
+      <c r="LY30" s="0"/>
+      <c r="LZ30" s="0"/>
+      <c r="MA30" s="0"/>
+      <c r="MB30" s="0"/>
+      <c r="MC30" s="0"/>
+      <c r="MD30" s="0"/>
+      <c r="ME30" s="0"/>
+      <c r="MF30" s="0"/>
+      <c r="MG30" s="0"/>
+      <c r="MH30" s="0"/>
+      <c r="MI30" s="0"/>
+      <c r="MJ30" s="0"/>
+      <c r="MK30" s="0"/>
+      <c r="ML30" s="0"/>
+      <c r="MM30" s="0"/>
+      <c r="MN30" s="0"/>
+      <c r="MO30" s="0"/>
+      <c r="MP30" s="0"/>
+      <c r="MQ30" s="0"/>
+      <c r="MR30" s="0"/>
+      <c r="MS30" s="0"/>
+      <c r="MT30" s="0"/>
+      <c r="MU30" s="0"/>
+      <c r="MV30" s="0"/>
+      <c r="MW30" s="0"/>
+      <c r="MX30" s="0"/>
+      <c r="MY30" s="0"/>
+      <c r="MZ30" s="0"/>
+      <c r="NA30" s="0"/>
+      <c r="NB30" s="0"/>
+      <c r="NC30" s="0"/>
+      <c r="ND30" s="0"/>
+      <c r="NE30" s="0"/>
+      <c r="NF30" s="0"/>
+      <c r="NG30" s="0"/>
+      <c r="NH30" s="0"/>
+      <c r="NI30" s="0"/>
+      <c r="NJ30" s="0"/>
+      <c r="NK30" s="0"/>
+      <c r="NL30" s="0"/>
+      <c r="NM30" s="0"/>
+      <c r="NN30" s="0"/>
+      <c r="NO30" s="0"/>
+      <c r="NP30" s="0"/>
+      <c r="NQ30" s="0"/>
+      <c r="NR30" s="0"/>
+      <c r="NS30" s="0"/>
+      <c r="NT30" s="0"/>
+      <c r="NU30" s="0"/>
+      <c r="NV30" s="0"/>
+      <c r="NW30" s="0"/>
+      <c r="NX30" s="0"/>
+      <c r="NY30" s="0"/>
+      <c r="NZ30" s="0"/>
+      <c r="OA30" s="0"/>
+      <c r="OB30" s="0"/>
+      <c r="OC30" s="0"/>
+      <c r="OD30" s="0"/>
+      <c r="OE30" s="0"/>
+      <c r="OF30" s="0"/>
+      <c r="OG30" s="0"/>
+      <c r="OH30" s="0"/>
+      <c r="OI30" s="0"/>
+      <c r="OJ30" s="0"/>
+      <c r="OK30" s="0"/>
+      <c r="OL30" s="0"/>
+      <c r="OM30" s="0"/>
+      <c r="ON30" s="0"/>
+      <c r="OO30" s="0"/>
+      <c r="OP30" s="0"/>
+      <c r="OQ30" s="0"/>
+      <c r="OR30" s="0"/>
+      <c r="OS30" s="0"/>
+      <c r="OT30" s="0"/>
+      <c r="OU30" s="0"/>
+      <c r="OV30" s="0"/>
+      <c r="OW30" s="0"/>
+      <c r="OX30" s="0"/>
+      <c r="OY30" s="0"/>
+      <c r="OZ30" s="0"/>
+      <c r="PA30" s="0"/>
+      <c r="PB30" s="0"/>
+      <c r="PC30" s="0"/>
+      <c r="PD30" s="0"/>
+      <c r="PE30" s="0"/>
+      <c r="PF30" s="0"/>
+      <c r="PG30" s="0"/>
+      <c r="PH30" s="0"/>
+      <c r="PI30" s="0"/>
+      <c r="PJ30" s="0"/>
+      <c r="PK30" s="0"/>
+      <c r="PL30" s="0"/>
+      <c r="PM30" s="0"/>
+      <c r="PN30" s="0"/>
+      <c r="PO30" s="0"/>
+      <c r="PP30" s="0"/>
+      <c r="PQ30" s="0"/>
+      <c r="PR30" s="0"/>
+      <c r="PS30" s="0"/>
+      <c r="PT30" s="0"/>
+      <c r="PU30" s="0"/>
+      <c r="PV30" s="0"/>
+      <c r="PW30" s="0"/>
+      <c r="PX30" s="0"/>
+      <c r="PY30" s="0"/>
+      <c r="PZ30" s="0"/>
+      <c r="QA30" s="0"/>
+      <c r="QB30" s="0"/>
+      <c r="QC30" s="0"/>
+      <c r="QD30" s="0"/>
+      <c r="QE30" s="0"/>
+      <c r="QF30" s="0"/>
+      <c r="QG30" s="0"/>
+      <c r="QH30" s="0"/>
+      <c r="QI30" s="0"/>
+      <c r="QJ30" s="0"/>
+      <c r="QK30" s="0"/>
+      <c r="QL30" s="0"/>
+      <c r="QM30" s="0"/>
+      <c r="QN30" s="0"/>
+      <c r="QO30" s="0"/>
+      <c r="QP30" s="0"/>
+      <c r="QQ30" s="0"/>
+      <c r="QR30" s="0"/>
+      <c r="QS30" s="0"/>
+      <c r="QT30" s="0"/>
+      <c r="QU30" s="0"/>
+      <c r="QV30" s="0"/>
+      <c r="QW30" s="0"/>
+      <c r="QX30" s="0"/>
+      <c r="QY30" s="0"/>
+      <c r="QZ30" s="0"/>
+      <c r="RA30" s="0"/>
+      <c r="RB30" s="0"/>
+      <c r="RC30" s="0"/>
+      <c r="RD30" s="0"/>
+      <c r="RE30" s="0"/>
+      <c r="RF30" s="0"/>
+      <c r="RG30" s="0"/>
+      <c r="RH30" s="0"/>
+      <c r="RI30" s="0"/>
+      <c r="RJ30" s="0"/>
+      <c r="RK30" s="0"/>
+      <c r="RL30" s="0"/>
+      <c r="RM30" s="0"/>
+      <c r="RN30" s="0"/>
+      <c r="RO30" s="0"/>
+      <c r="RP30" s="0"/>
+      <c r="RQ30" s="0"/>
+      <c r="RR30" s="0"/>
+      <c r="RS30" s="0"/>
+      <c r="RT30" s="0"/>
+      <c r="RU30" s="0"/>
+      <c r="RV30" s="0"/>
+      <c r="RW30" s="0"/>
+      <c r="RX30" s="0"/>
+      <c r="RY30" s="0"/>
+      <c r="RZ30" s="0"/>
+      <c r="SA30" s="0"/>
+      <c r="SB30" s="0"/>
+      <c r="SC30" s="0"/>
+      <c r="SD30" s="0"/>
+      <c r="SE30" s="0"/>
+      <c r="SF30" s="0"/>
+      <c r="SG30" s="0"/>
+      <c r="SH30" s="0"/>
+      <c r="SI30" s="0"/>
+      <c r="SJ30" s="0"/>
+      <c r="SK30" s="0"/>
+      <c r="SL30" s="0"/>
+      <c r="SM30" s="0"/>
+      <c r="SN30" s="0"/>
+      <c r="SO30" s="0"/>
+      <c r="SP30" s="0"/>
+      <c r="SQ30" s="0"/>
+      <c r="SR30" s="0"/>
+      <c r="SS30" s="0"/>
+      <c r="ST30" s="0"/>
+      <c r="SU30" s="0"/>
+      <c r="SV30" s="0"/>
+      <c r="SW30" s="0"/>
+      <c r="SX30" s="0"/>
+      <c r="SY30" s="0"/>
+      <c r="SZ30" s="0"/>
+      <c r="TA30" s="0"/>
+      <c r="TB30" s="0"/>
+      <c r="TC30" s="0"/>
+      <c r="TD30" s="0"/>
+      <c r="TE30" s="0"/>
+      <c r="TF30" s="0"/>
+      <c r="TG30" s="0"/>
+      <c r="TH30" s="0"/>
+      <c r="TI30" s="0"/>
+      <c r="TJ30" s="0"/>
+      <c r="TK30" s="0"/>
+      <c r="TL30" s="0"/>
+      <c r="TM30" s="0"/>
+      <c r="TN30" s="0"/>
+      <c r="TO30" s="0"/>
+      <c r="TP30" s="0"/>
+      <c r="TQ30" s="0"/>
+      <c r="TR30" s="0"/>
+      <c r="TS30" s="0"/>
+      <c r="TT30" s="0"/>
+      <c r="TU30" s="0"/>
+      <c r="TV30" s="0"/>
+      <c r="TW30" s="0"/>
+      <c r="TX30" s="0"/>
+      <c r="TY30" s="0"/>
+      <c r="TZ30" s="0"/>
+      <c r="UA30" s="0"/>
+      <c r="UB30" s="0"/>
+      <c r="UC30" s="0"/>
+      <c r="UD30" s="0"/>
+      <c r="UE30" s="0"/>
+      <c r="UF30" s="0"/>
+      <c r="UG30" s="0"/>
+      <c r="UH30" s="0"/>
+      <c r="UI30" s="0"/>
+      <c r="UJ30" s="0"/>
+      <c r="UK30" s="0"/>
+      <c r="UL30" s="0"/>
+      <c r="UM30" s="0"/>
+      <c r="UN30" s="0"/>
+      <c r="UO30" s="0"/>
+      <c r="UP30" s="0"/>
+      <c r="UQ30" s="0"/>
+      <c r="UR30" s="0"/>
+      <c r="US30" s="0"/>
+      <c r="UT30" s="0"/>
+      <c r="UU30" s="0"/>
+      <c r="UV30" s="0"/>
+      <c r="UW30" s="0"/>
+      <c r="UX30" s="0"/>
+      <c r="UY30" s="0"/>
+      <c r="UZ30" s="0"/>
+      <c r="VA30" s="0"/>
+      <c r="VB30" s="0"/>
+      <c r="VC30" s="0"/>
+      <c r="VD30" s="0"/>
+      <c r="VE30" s="0"/>
+      <c r="VF30" s="0"/>
+      <c r="VG30" s="0"/>
+      <c r="VH30" s="0"/>
+      <c r="VI30" s="0"/>
+      <c r="VJ30" s="0"/>
+      <c r="VK30" s="0"/>
+      <c r="VL30" s="0"/>
+      <c r="VM30" s="0"/>
+      <c r="VN30" s="0"/>
+      <c r="VO30" s="0"/>
+      <c r="VP30" s="0"/>
+      <c r="VQ30" s="0"/>
+      <c r="VR30" s="0"/>
+      <c r="VS30" s="0"/>
+      <c r="VT30" s="0"/>
+      <c r="VU30" s="0"/>
+      <c r="VV30" s="0"/>
+      <c r="VW30" s="0"/>
+      <c r="VX30" s="0"/>
+      <c r="VY30" s="0"/>
+      <c r="VZ30" s="0"/>
+      <c r="WA30" s="0"/>
+      <c r="WB30" s="0"/>
+      <c r="WC30" s="0"/>
+      <c r="WD30" s="0"/>
+      <c r="WE30" s="0"/>
+      <c r="WF30" s="0"/>
+      <c r="WG30" s="0"/>
+      <c r="WH30" s="0"/>
+      <c r="WI30" s="0"/>
+      <c r="WJ30" s="0"/>
+      <c r="WK30" s="0"/>
+      <c r="WL30" s="0"/>
+      <c r="WM30" s="0"/>
+      <c r="WN30" s="0"/>
+      <c r="WO30" s="0"/>
+      <c r="WP30" s="0"/>
+      <c r="WQ30" s="0"/>
+      <c r="WR30" s="0"/>
+      <c r="WS30" s="0"/>
+      <c r="WT30" s="0"/>
+      <c r="WU30" s="0"/>
+      <c r="WV30" s="0"/>
+      <c r="WW30" s="0"/>
+      <c r="WX30" s="0"/>
+      <c r="WY30" s="0"/>
+      <c r="WZ30" s="0"/>
+      <c r="XA30" s="0"/>
+      <c r="XB30" s="0"/>
+      <c r="XC30" s="0"/>
+      <c r="XD30" s="0"/>
+      <c r="XE30" s="0"/>
+      <c r="XF30" s="0"/>
+      <c r="XG30" s="0"/>
+      <c r="XH30" s="0"/>
+      <c r="XI30" s="0"/>
+      <c r="XJ30" s="0"/>
+      <c r="XK30" s="0"/>
+      <c r="XL30" s="0"/>
+      <c r="XM30" s="0"/>
+      <c r="XN30" s="0"/>
+      <c r="XO30" s="0"/>
+      <c r="XP30" s="0"/>
+      <c r="XQ30" s="0"/>
+      <c r="XR30" s="0"/>
+      <c r="XS30" s="0"/>
+      <c r="XT30" s="0"/>
+      <c r="XU30" s="0"/>
+      <c r="XV30" s="0"/>
+      <c r="XW30" s="0"/>
+      <c r="XX30" s="0"/>
+      <c r="XY30" s="0"/>
+      <c r="XZ30" s="0"/>
+      <c r="YA30" s="0"/>
+      <c r="YB30" s="0"/>
+      <c r="YC30" s="0"/>
+      <c r="YD30" s="0"/>
+      <c r="YE30" s="0"/>
+      <c r="YF30" s="0"/>
+      <c r="YG30" s="0"/>
+      <c r="YH30" s="0"/>
+      <c r="YI30" s="0"/>
+      <c r="YJ30" s="0"/>
+      <c r="YK30" s="0"/>
+      <c r="YL30" s="0"/>
+      <c r="YM30" s="0"/>
+      <c r="YN30" s="0"/>
+      <c r="YO30" s="0"/>
+      <c r="YP30" s="0"/>
+      <c r="YQ30" s="0"/>
+      <c r="YR30" s="0"/>
+      <c r="YS30" s="0"/>
+      <c r="YT30" s="0"/>
+      <c r="YU30" s="0"/>
+      <c r="YV30" s="0"/>
+      <c r="YW30" s="0"/>
+      <c r="YX30" s="0"/>
+      <c r="YY30" s="0"/>
+      <c r="YZ30" s="0"/>
+      <c r="ZA30" s="0"/>
+      <c r="ZB30" s="0"/>
+      <c r="ZC30" s="0"/>
+      <c r="ZD30" s="0"/>
+      <c r="ZE30" s="0"/>
+      <c r="ZF30" s="0"/>
+      <c r="ZG30" s="0"/>
+      <c r="ZH30" s="0"/>
+      <c r="ZI30" s="0"/>
+      <c r="ZJ30" s="0"/>
+      <c r="ZK30" s="0"/>
+      <c r="ZL30" s="0"/>
+      <c r="ZM30" s="0"/>
+      <c r="ZN30" s="0"/>
+      <c r="ZO30" s="0"/>
+      <c r="ZP30" s="0"/>
+      <c r="ZQ30" s="0"/>
+      <c r="ZR30" s="0"/>
+      <c r="ZS30" s="0"/>
+      <c r="ZT30" s="0"/>
+      <c r="ZU30" s="0"/>
+      <c r="ZV30" s="0"/>
+      <c r="ZW30" s="0"/>
+      <c r="ZX30" s="0"/>
+      <c r="ZY30" s="0"/>
+      <c r="ZZ30" s="0"/>
+      <c r="AAA30" s="0"/>
+      <c r="AAB30" s="0"/>
+      <c r="AAC30" s="0"/>
+      <c r="AAD30" s="0"/>
+      <c r="AAE30" s="0"/>
+      <c r="AAF30" s="0"/>
+      <c r="AAG30" s="0"/>
+      <c r="AAH30" s="0"/>
+      <c r="AAI30" s="0"/>
+      <c r="AAJ30" s="0"/>
+      <c r="AAK30" s="0"/>
+      <c r="AAL30" s="0"/>
+      <c r="AAM30" s="0"/>
+      <c r="AAN30" s="0"/>
+      <c r="AAO30" s="0"/>
+      <c r="AAP30" s="0"/>
+      <c r="AAQ30" s="0"/>
+      <c r="AAR30" s="0"/>
+      <c r="AAS30" s="0"/>
+      <c r="AAT30" s="0"/>
+      <c r="AAU30" s="0"/>
+      <c r="AAV30" s="0"/>
+      <c r="AAW30" s="0"/>
+      <c r="AAX30" s="0"/>
+      <c r="AAY30" s="0"/>
+      <c r="AAZ30" s="0"/>
+      <c r="ABA30" s="0"/>
+      <c r="ABB30" s="0"/>
+      <c r="ABC30" s="0"/>
+      <c r="ABD30" s="0"/>
+      <c r="ABE30" s="0"/>
+      <c r="ABF30" s="0"/>
+      <c r="ABG30" s="0"/>
+      <c r="ABH30" s="0"/>
+      <c r="ABI30" s="0"/>
+      <c r="ABJ30" s="0"/>
+      <c r="ABK30" s="0"/>
+      <c r="ABL30" s="0"/>
+      <c r="ABM30" s="0"/>
+      <c r="ABN30" s="0"/>
+      <c r="ABO30" s="0"/>
+      <c r="ABP30" s="0"/>
+      <c r="ABQ30" s="0"/>
+      <c r="ABR30" s="0"/>
+      <c r="ABS30" s="0"/>
+      <c r="ABT30" s="0"/>
+      <c r="ABU30" s="0"/>
+      <c r="ABV30" s="0"/>
+      <c r="ABW30" s="0"/>
+      <c r="ABX30" s="0"/>
+      <c r="ABY30" s="0"/>
+      <c r="ABZ30" s="0"/>
+      <c r="ACA30" s="0"/>
+      <c r="ACB30" s="0"/>
+      <c r="ACC30" s="0"/>
+      <c r="ACD30" s="0"/>
+      <c r="ACE30" s="0"/>
+      <c r="ACF30" s="0"/>
+      <c r="ACG30" s="0"/>
+      <c r="ACH30" s="0"/>
+      <c r="ACI30" s="0"/>
+      <c r="ACJ30" s="0"/>
+      <c r="ACK30" s="0"/>
+      <c r="ACL30" s="0"/>
+      <c r="ACM30" s="0"/>
+      <c r="ACN30" s="0"/>
+      <c r="ACO30" s="0"/>
+      <c r="ACP30" s="0"/>
+      <c r="ACQ30" s="0"/>
+      <c r="ACR30" s="0"/>
+      <c r="ACS30" s="0"/>
+      <c r="ACT30" s="0"/>
+      <c r="ACU30" s="0"/>
+      <c r="ACV30" s="0"/>
+      <c r="ACW30" s="0"/>
+      <c r="ACX30" s="0"/>
+      <c r="ACY30" s="0"/>
+      <c r="ACZ30" s="0"/>
+      <c r="ADA30" s="0"/>
+      <c r="ADB30" s="0"/>
+      <c r="ADC30" s="0"/>
+      <c r="ADD30" s="0"/>
+      <c r="ADE30" s="0"/>
+      <c r="ADF30" s="0"/>
+      <c r="ADG30" s="0"/>
+      <c r="ADH30" s="0"/>
+      <c r="ADI30" s="0"/>
+      <c r="ADJ30" s="0"/>
+      <c r="ADK30" s="0"/>
+      <c r="ADL30" s="0"/>
+      <c r="ADM30" s="0"/>
+      <c r="ADN30" s="0"/>
+      <c r="ADO30" s="0"/>
+      <c r="ADP30" s="0"/>
+      <c r="ADQ30" s="0"/>
+      <c r="ADR30" s="0"/>
+      <c r="ADS30" s="0"/>
+      <c r="ADT30" s="0"/>
+      <c r="ADU30" s="0"/>
+      <c r="ADV30" s="0"/>
+      <c r="ADW30" s="0"/>
+      <c r="ADX30" s="0"/>
+      <c r="ADY30" s="0"/>
+      <c r="ADZ30" s="0"/>
+      <c r="AEA30" s="0"/>
+      <c r="AEB30" s="0"/>
+      <c r="AEC30" s="0"/>
+      <c r="AED30" s="0"/>
+      <c r="AEE30" s="0"/>
+      <c r="AEF30" s="0"/>
+      <c r="AEG30" s="0"/>
+      <c r="AEH30" s="0"/>
+      <c r="AEI30" s="0"/>
+      <c r="AEJ30" s="0"/>
+      <c r="AEK30" s="0"/>
+      <c r="AEL30" s="0"/>
+      <c r="AEM30" s="0"/>
+      <c r="AEN30" s="0"/>
+      <c r="AEO30" s="0"/>
+      <c r="AEP30" s="0"/>
+      <c r="AEQ30" s="0"/>
+      <c r="AER30" s="0"/>
+      <c r="AES30" s="0"/>
+      <c r="AET30" s="0"/>
+      <c r="AEU30" s="0"/>
+      <c r="AEV30" s="0"/>
+      <c r="AEW30" s="0"/>
+      <c r="AEX30" s="0"/>
+      <c r="AEY30" s="0"/>
+      <c r="AEZ30" s="0"/>
+      <c r="AFA30" s="0"/>
+      <c r="AFB30" s="0"/>
+      <c r="AFC30" s="0"/>
+      <c r="AFD30" s="0"/>
+      <c r="AFE30" s="0"/>
+      <c r="AFF30" s="0"/>
+      <c r="AFG30" s="0"/>
+      <c r="AFH30" s="0"/>
+      <c r="AFI30" s="0"/>
+      <c r="AFJ30" s="0"/>
+      <c r="AFK30" s="0"/>
+      <c r="AFL30" s="0"/>
+      <c r="AFM30" s="0"/>
+      <c r="AFN30" s="0"/>
+      <c r="AFO30" s="0"/>
+      <c r="AFP30" s="0"/>
+      <c r="AFQ30" s="0"/>
+      <c r="AFR30" s="0"/>
+      <c r="AFS30" s="0"/>
+      <c r="AFT30" s="0"/>
+      <c r="AFU30" s="0"/>
+      <c r="AFV30" s="0"/>
+      <c r="AFW30" s="0"/>
+      <c r="AFX30" s="0"/>
+      <c r="AFY30" s="0"/>
+      <c r="AFZ30" s="0"/>
+      <c r="AGA30" s="0"/>
+      <c r="AGB30" s="0"/>
+      <c r="AGC30" s="0"/>
+      <c r="AGD30" s="0"/>
+      <c r="AGE30" s="0"/>
+      <c r="AGF30" s="0"/>
+      <c r="AGG30" s="0"/>
+      <c r="AGH30" s="0"/>
+      <c r="AGI30" s="0"/>
+      <c r="AGJ30" s="0"/>
+      <c r="AGK30" s="0"/>
+      <c r="AGL30" s="0"/>
+      <c r="AGM30" s="0"/>
+      <c r="AGN30" s="0"/>
+      <c r="AGO30" s="0"/>
+      <c r="AGP30" s="0"/>
+      <c r="AGQ30" s="0"/>
+      <c r="AGR30" s="0"/>
+      <c r="AGS30" s="0"/>
+      <c r="AGT30" s="0"/>
+      <c r="AGU30" s="0"/>
+      <c r="AGV30" s="0"/>
+      <c r="AGW30" s="0"/>
+      <c r="AGX30" s="0"/>
+      <c r="AGY30" s="0"/>
+      <c r="AGZ30" s="0"/>
+      <c r="AHA30" s="0"/>
+      <c r="AHB30" s="0"/>
+      <c r="AHC30" s="0"/>
+      <c r="AHD30" s="0"/>
+      <c r="AHE30" s="0"/>
+      <c r="AHF30" s="0"/>
+      <c r="AHG30" s="0"/>
+      <c r="AHH30" s="0"/>
+      <c r="AHI30" s="0"/>
+      <c r="AHJ30" s="0"/>
+      <c r="AHK30" s="0"/>
+      <c r="AHL30" s="0"/>
+      <c r="AHM30" s="0"/>
+      <c r="AHN30" s="0"/>
+      <c r="AHO30" s="0"/>
+      <c r="AHP30" s="0"/>
+      <c r="AHQ30" s="0"/>
+      <c r="AHR30" s="0"/>
+      <c r="AHS30" s="0"/>
+      <c r="AHT30" s="0"/>
+      <c r="AHU30" s="0"/>
+      <c r="AHV30" s="0"/>
+      <c r="AHW30" s="0"/>
+      <c r="AHX30" s="0"/>
+      <c r="AHY30" s="0"/>
+      <c r="AHZ30" s="0"/>
+      <c r="AIA30" s="0"/>
+      <c r="AIB30" s="0"/>
+      <c r="AIC30" s="0"/>
+      <c r="AID30" s="0"/>
+      <c r="AIE30" s="0"/>
+      <c r="AIF30" s="0"/>
+      <c r="AIG30" s="0"/>
+      <c r="AIH30" s="0"/>
+      <c r="AII30" s="0"/>
+      <c r="AIJ30" s="0"/>
+      <c r="AIK30" s="0"/>
+      <c r="AIL30" s="0"/>
+      <c r="AIM30" s="0"/>
+      <c r="AIN30" s="0"/>
+      <c r="AIO30" s="0"/>
+      <c r="AIP30" s="0"/>
+      <c r="AIQ30" s="0"/>
+      <c r="AIR30" s="0"/>
+      <c r="AIS30" s="0"/>
+      <c r="AIT30" s="0"/>
+      <c r="AIU30" s="0"/>
+      <c r="AIV30" s="0"/>
+      <c r="AIW30" s="0"/>
+      <c r="AIX30" s="0"/>
+      <c r="AIY30" s="0"/>
+      <c r="AIZ30" s="0"/>
+      <c r="AJA30" s="0"/>
+      <c r="AJB30" s="0"/>
+      <c r="AJC30" s="0"/>
+      <c r="AJD30" s="0"/>
+      <c r="AJE30" s="0"/>
+      <c r="AJF30" s="0"/>
+      <c r="AJG30" s="0"/>
+      <c r="AJH30" s="0"/>
+      <c r="AJI30" s="0"/>
+      <c r="AJJ30" s="0"/>
+      <c r="AJK30" s="0"/>
+      <c r="AJL30" s="0"/>
+      <c r="AJM30" s="0"/>
+      <c r="AJN30" s="0"/>
+      <c r="AJO30" s="0"/>
+      <c r="AJP30" s="0"/>
+      <c r="AJQ30" s="0"/>
+      <c r="AJR30" s="0"/>
+      <c r="AJS30" s="0"/>
+      <c r="AJT30" s="0"/>
+      <c r="AJU30" s="0"/>
+      <c r="AJV30" s="0"/>
+      <c r="AJW30" s="0"/>
+      <c r="AJX30" s="0"/>
+      <c r="AJY30" s="0"/>
+      <c r="AJZ30" s="0"/>
+      <c r="AKA30" s="0"/>
+      <c r="AKB30" s="0"/>
+      <c r="AKC30" s="0"/>
+      <c r="AKD30" s="0"/>
+      <c r="AKE30" s="0"/>
+      <c r="AKF30" s="0"/>
+      <c r="AKG30" s="0"/>
+      <c r="AKH30" s="0"/>
+      <c r="AKI30" s="0"/>
+      <c r="AKJ30" s="0"/>
+      <c r="AKK30" s="0"/>
+      <c r="AKL30" s="0"/>
+      <c r="AKM30" s="0"/>
+      <c r="AKN30" s="0"/>
+      <c r="AKO30" s="0"/>
+      <c r="AKP30" s="0"/>
+      <c r="AKQ30" s="0"/>
+      <c r="AKR30" s="0"/>
+      <c r="AKS30" s="0"/>
+      <c r="AKT30" s="0"/>
+      <c r="AKU30" s="0"/>
+      <c r="AKV30" s="0"/>
+      <c r="AKW30" s="0"/>
+      <c r="AKX30" s="0"/>
+      <c r="AKY30" s="0"/>
+      <c r="AKZ30" s="0"/>
+      <c r="ALA30" s="0"/>
+      <c r="ALB30" s="0"/>
+      <c r="ALC30" s="0"/>
+      <c r="ALD30" s="0"/>
+      <c r="ALE30" s="0"/>
+      <c r="ALF30" s="0"/>
+      <c r="ALG30" s="0"/>
+      <c r="ALH30" s="0"/>
+      <c r="ALI30" s="0"/>
+      <c r="ALJ30" s="0"/>
+      <c r="ALK30" s="0"/>
+      <c r="ALL30" s="0"/>
+      <c r="ALM30" s="0"/>
+      <c r="ALN30" s="0"/>
+      <c r="ALO30" s="0"/>
+      <c r="ALP30" s="0"/>
+      <c r="ALQ30" s="0"/>
+      <c r="ALR30" s="0"/>
+      <c r="ALS30" s="0"/>
+      <c r="ALT30" s="0"/>
+      <c r="ALU30" s="0"/>
+      <c r="ALV30" s="0"/>
+      <c r="ALW30" s="0"/>
+      <c r="ALX30" s="0"/>
+      <c r="ALY30" s="0"/>
+      <c r="ALZ30" s="0"/>
+      <c r="AMA30" s="0"/>
+      <c r="AMB30" s="0"/>
+      <c r="AMC30" s="0"/>
+      <c r="AMD30" s="0"/>
+      <c r="AME30" s="0"/>
+      <c r="AMF30" s="0"/>
+      <c r="AMG30" s="0"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
@@ -28464,7 +34580,9 @@
       <c r="C36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E36" s="8"/>
     </row>
   </sheetData>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -134,7 +134,7 @@
     <t>need to work on Po #, integers max is 10 digits, database</t>
   </si>
   <si>
-    <t>Purchase order should be a drop down from those PO's that have a remaining balance &gt;100lbs.</t>
+    <t>git </t>
   </si>
   <si>
     <t>Any remaining weight on the PO &gt;100lbs (.5T) display the PO in the drop down.'</t>
@@ -441,7 +441,7 @@
   <dimension ref="1:36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -17000,7 +17000,7 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
@@ -22176,7 +22176,9 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="E22" s="19"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -440,8 +440,8 @@
   </sheetPr>
   <dimension ref="1:36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -34558,7 +34558,9 @@
       <c r="C34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>Weight of tonnage calculated into pounds by *2206.7. (ei 100.25 * 2206.7 = 221151.5) however this will be rounded to the nearest 10 lbs, so the example would be 221,152 lbs.</t>
+  </si>
+  <si>
+    <r>
+      <t>did with rounding to nearest 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> decimal – done</t>
+    </r>
   </si>
   <si>
     <t>This doesn't round correctly, for 100.25T should read 221160lbs, needs to round to the nearest 10lbs.</t>
@@ -89,9 +113,6 @@
     <t>No data is entered if user does nor complete the screen</t>
   </si>
   <si>
-    <t>done?</t>
-  </si>
-  <si>
     <t>The back button in the explorer window should not load the page again.</t>
   </si>
   <si>
@@ -104,7 +125,10 @@
     <t>Rail car:</t>
   </si>
   <si>
-    <t>Weight on arrival should show “Weight on arrival in Tons”, “Weight at origin in Tons” Needs to allow for two decimal’s .</t>
+    <t>railcars;</t>
+  </si>
+  <si>
+    <t>Done – converted to decimal</t>
   </si>
   <si>
     <t>Errored out / not approved.</t>
@@ -141,6 +165,9 @@
   </si>
   <si>
     <t>DB</t>
+  </si>
+  <si>
+    <t>done- automatically done by Rails and sql</t>
   </si>
   <si>
     <t>UI needs to be a little more pretty.</t>
@@ -240,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -271,6 +298,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -385,35 +419,35 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,8 +474,8 @@
   </sheetPr>
   <dimension ref="1:36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3560,7 +3594,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -3568,11 +3602,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -4596,13 +4630,13 @@
     </row>
     <row r="5" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
@@ -5632,13 +5666,13 @@
     </row>
     <row r="6" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>7</v>
@@ -6668,17 +6702,17 @@
     </row>
     <row r="7" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -7702,16 +7736,16 @@
     </row>
     <row r="8" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>25</v>
@@ -8746,7 +8780,9 @@
       <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -11822,7 +11858,7 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -11832,11 +11868,11 @@
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>7</v>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -12860,19 +12896,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -13896,17 +13932,17 @@
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -14930,19 +14966,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -15966,19 +16002,19 @@
     </row>
     <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -17002,17 +17038,17 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -18034,17 +18070,19 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -19068,17 +19106,17 @@
     </row>
     <row r="19" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -20102,13 +20140,13 @@
     </row>
     <row r="20" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>7</v>
@@ -21136,19 +21174,19 @@
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -22172,7 +22210,7 @@
     </row>
     <row r="22" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
@@ -24228,7 +24266,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -25256,17 +25294,17 @@
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -26290,10 +26328,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
@@ -27324,7 +27362,7 @@
     </row>
     <row r="27" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>5</v>
@@ -28354,17 +28392,17 @@
     </row>
     <row r="28" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
@@ -29388,13 +29426,13 @@
     </row>
     <row r="29" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="7"/>
@@ -30420,13 +30458,13 @@
     </row>
     <row r="30" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="7"/>
@@ -31452,7 +31490,7 @@
     </row>
     <row r="31" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>5</v>
@@ -32482,13 +32520,13 @@
     </row>
     <row r="32" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="7"/>
@@ -33514,19 +33552,19 @@
     </row>
     <row r="33" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
@@ -34550,13 +34588,13 @@
     </row>
     <row r="34" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>7</v>
@@ -34565,7 +34603,7 @@
     </row>
     <row r="35" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>5</v>
@@ -34576,13 +34614,13 @@
     </row>
     <row r="36" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>7</v>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -158,7 +158,7 @@
     <t>need to work on Po #, integers max is 10 digits, database</t>
   </si>
   <si>
-    <t>git </t>
+    <t>Purchase order should be a drop down from those PO's that have a remanining balance &gt; 100 lbs</t>
   </si>
   <si>
     <t>Any remaining weight on the PO &gt;100lbs (.5T) display the PO in the drop down.'</t>
@@ -474,8 +474,8 @@
   </sheetPr>
   <dimension ref="1:36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -62,7 +62,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>th</t>
     </r>
@@ -71,7 +70,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t> decimal – done</t>
     </r>
@@ -101,7 +99,7 @@
     <t>difficult</t>
   </si>
   <si>
-    <t>I'll have to check the Access DB how this is done</t>
+    <t>I'll have to check the Access DB how this is done. Completed added functionality that weight cannot be changed on updates and can only be entered, otherwise remaining weight does not match.</t>
   </si>
   <si>
     <t>Calculation is PO# Tonnage - Trailered Tons = Remaining weight</t>
@@ -110,7 +108,7 @@
     <t>Not allow for the user to click the back button, I need it to crash/not load a screen.</t>
   </si>
   <si>
-    <t>No data is entered if user does nor complete the screen</t>
+    <t>No data is entered if user does nor complete the screen.  </t>
   </si>
   <si>
     <t>The back button in the explorer window should not load the page again.</t>
@@ -122,10 +120,25 @@
     <t>check if all the fields are handled</t>
   </si>
   <si>
+    <t>make po_nbr a foreign key</t>
+  </si>
+  <si>
+    <t>speed up searches by po nbr</t>
+  </si>
+  <si>
+    <t>make remaining_weight_tons a foreign key</t>
+  </si>
+  <si>
+    <t>PO # needs to be big int</t>
+  </si>
+  <si>
+    <t>reg integer is too small</t>
+  </si>
+  <si>
     <t>Rail car:</t>
   </si>
   <si>
-    <t>railcars;</t>
+    <t>Weight on arrival should show “Weight on arrival in Tons”, “Weight at origin in Tons” Needs to allow for two decimal’s .</t>
   </si>
   <si>
     <t>Done – converted to decimal</t>
@@ -161,10 +174,13 @@
     <t>Purchase order should be a drop down from those PO's that have a remanining balance &gt; 100 lbs</t>
   </si>
   <si>
-    <t>Any remaining weight on the PO &gt;100lbs (.5T) display the PO in the drop down.'</t>
+    <t>rema</t>
   </si>
   <si>
     <t>DB</t>
+  </si>
+  <si>
+    <t>No data is entered if user does nor complete the screen</t>
   </si>
   <si>
     <t>done- automatically done by Rails and sql</t>
@@ -259,6 +275,12 @@
   <si>
     <t>Once I figure out how to do it for Rail Car, I can use the same logic</t>
   </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>display messages on screens rather than logs, like record not found</t>
+  </si>
 </sst>
 </file>
 
@@ -267,12 +289,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -294,20 +315,23 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -315,7 +339,6 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -323,7 +346,6 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -374,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -420,39 +442,47 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -472,10 +502,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:36"/>
+  <dimension ref="1:42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6700,7 +6730,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -6710,7 +6740,9 @@
       <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
@@ -7734,7 +7766,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
@@ -9804,10 +9836,16 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
       <c r="F10" s="0"/>
@@ -10830,14 +10868,18 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>30</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
@@ -11858,22 +11900,18 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>29</v>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -12894,22 +12932,14 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="7" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -13930,19 +13960,21 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>33</v>
+      <c r="E14" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -14964,21 +14996,21 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -16000,21 +16032,19 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>33</v>
+      <c r="E16" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -17036,19 +17066,21 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -18070,20 +18102,22 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>24</v>
+      <c r="C18" s="10" t="s">
+        <v>44</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>43</v>
+      <c r="D18" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -19104,19 +19138,19 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -20138,18 +20172,18 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="0"/>
@@ -21172,21 +21206,19 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+    <row r="21" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>7</v>
+      <c r="D21" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -22209,15 +22241,19 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>52</v>
+      <c r="A22" s="8" t="s">
+        <v>54</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+      <c r="B22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
@@ -23239,11 +23275,21 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
@@ -24264,14 +24310,16 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
+    <row r="24" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>58</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="20"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
@@ -25293,19 +25341,11 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
@@ -26326,20 +26366,14 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>56</v>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>59</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
@@ -27360,16 +27394,20 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -28390,19 +28428,19 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>33</v>
+      <c r="E28" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
@@ -29424,16 +29462,14 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="7"/>
       <c r="F29" s="0"/>
@@ -30458,16 +30494,18 @@
     </row>
     <row r="30" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>62</v>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
@@ -31488,16 +31526,18 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
@@ -32520,13 +32560,13 @@
     </row>
     <row r="32" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="7"/>
@@ -33550,22 +33590,16 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
@@ -34594,27 +34628,2069 @@
         <v>5</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="D34" s="10"/>
       <c r="E34" s="7"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="0"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0"/>
+      <c r="X34" s="0"/>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+      <c r="AC34" s="0"/>
+      <c r="AD34" s="0"/>
+      <c r="AE34" s="0"/>
+      <c r="AF34" s="0"/>
+      <c r="AG34" s="0"/>
+      <c r="AH34" s="0"/>
+      <c r="AI34" s="0"/>
+      <c r="AJ34" s="0"/>
+      <c r="AK34" s="0"/>
+      <c r="AL34" s="0"/>
+      <c r="AM34" s="0"/>
+      <c r="AN34" s="0"/>
+      <c r="AO34" s="0"/>
+      <c r="AP34" s="0"/>
+      <c r="AQ34" s="0"/>
+      <c r="AR34" s="0"/>
+      <c r="AS34" s="0"/>
+      <c r="AT34" s="0"/>
+      <c r="AU34" s="0"/>
+      <c r="AV34" s="0"/>
+      <c r="AW34" s="0"/>
+      <c r="AX34" s="0"/>
+      <c r="AY34" s="0"/>
+      <c r="AZ34" s="0"/>
+      <c r="BA34" s="0"/>
+      <c r="BB34" s="0"/>
+      <c r="BC34" s="0"/>
+      <c r="BD34" s="0"/>
+      <c r="BE34" s="0"/>
+      <c r="BF34" s="0"/>
+      <c r="BG34" s="0"/>
+      <c r="BH34" s="0"/>
+      <c r="BI34" s="0"/>
+      <c r="BJ34" s="0"/>
+      <c r="BK34" s="0"/>
+      <c r="BL34" s="0"/>
+      <c r="BM34" s="0"/>
+      <c r="BN34" s="0"/>
+      <c r="BO34" s="0"/>
+      <c r="BP34" s="0"/>
+      <c r="BQ34" s="0"/>
+      <c r="BR34" s="0"/>
+      <c r="BS34" s="0"/>
+      <c r="BT34" s="0"/>
+      <c r="BU34" s="0"/>
+      <c r="BV34" s="0"/>
+      <c r="BW34" s="0"/>
+      <c r="BX34" s="0"/>
+      <c r="BY34" s="0"/>
+      <c r="BZ34" s="0"/>
+      <c r="CA34" s="0"/>
+      <c r="CB34" s="0"/>
+      <c r="CC34" s="0"/>
+      <c r="CD34" s="0"/>
+      <c r="CE34" s="0"/>
+      <c r="CF34" s="0"/>
+      <c r="CG34" s="0"/>
+      <c r="CH34" s="0"/>
+      <c r="CI34" s="0"/>
+      <c r="CJ34" s="0"/>
+      <c r="CK34" s="0"/>
+      <c r="CL34" s="0"/>
+      <c r="CM34" s="0"/>
+      <c r="CN34" s="0"/>
+      <c r="CO34" s="0"/>
+      <c r="CP34" s="0"/>
+      <c r="CQ34" s="0"/>
+      <c r="CR34" s="0"/>
+      <c r="CS34" s="0"/>
+      <c r="CT34" s="0"/>
+      <c r="CU34" s="0"/>
+      <c r="CV34" s="0"/>
+      <c r="CW34" s="0"/>
+      <c r="CX34" s="0"/>
+      <c r="CY34" s="0"/>
+      <c r="CZ34" s="0"/>
+      <c r="DA34" s="0"/>
+      <c r="DB34" s="0"/>
+      <c r="DC34" s="0"/>
+      <c r="DD34" s="0"/>
+      <c r="DE34" s="0"/>
+      <c r="DF34" s="0"/>
+      <c r="DG34" s="0"/>
+      <c r="DH34" s="0"/>
+      <c r="DI34" s="0"/>
+      <c r="DJ34" s="0"/>
+      <c r="DK34" s="0"/>
+      <c r="DL34" s="0"/>
+      <c r="DM34" s="0"/>
+      <c r="DN34" s="0"/>
+      <c r="DO34" s="0"/>
+      <c r="DP34" s="0"/>
+      <c r="DQ34" s="0"/>
+      <c r="DR34" s="0"/>
+      <c r="DS34" s="0"/>
+      <c r="DT34" s="0"/>
+      <c r="DU34" s="0"/>
+      <c r="DV34" s="0"/>
+      <c r="DW34" s="0"/>
+      <c r="DX34" s="0"/>
+      <c r="DY34" s="0"/>
+      <c r="DZ34" s="0"/>
+      <c r="EA34" s="0"/>
+      <c r="EB34" s="0"/>
+      <c r="EC34" s="0"/>
+      <c r="ED34" s="0"/>
+      <c r="EE34" s="0"/>
+      <c r="EF34" s="0"/>
+      <c r="EG34" s="0"/>
+      <c r="EH34" s="0"/>
+      <c r="EI34" s="0"/>
+      <c r="EJ34" s="0"/>
+      <c r="EK34" s="0"/>
+      <c r="EL34" s="0"/>
+      <c r="EM34" s="0"/>
+      <c r="EN34" s="0"/>
+      <c r="EO34" s="0"/>
+      <c r="EP34" s="0"/>
+      <c r="EQ34" s="0"/>
+      <c r="ER34" s="0"/>
+      <c r="ES34" s="0"/>
+      <c r="ET34" s="0"/>
+      <c r="EU34" s="0"/>
+      <c r="EV34" s="0"/>
+      <c r="EW34" s="0"/>
+      <c r="EX34" s="0"/>
+      <c r="EY34" s="0"/>
+      <c r="EZ34" s="0"/>
+      <c r="FA34" s="0"/>
+      <c r="FB34" s="0"/>
+      <c r="FC34" s="0"/>
+      <c r="FD34" s="0"/>
+      <c r="FE34" s="0"/>
+      <c r="FF34" s="0"/>
+      <c r="FG34" s="0"/>
+      <c r="FH34" s="0"/>
+      <c r="FI34" s="0"/>
+      <c r="FJ34" s="0"/>
+      <c r="FK34" s="0"/>
+      <c r="FL34" s="0"/>
+      <c r="FM34" s="0"/>
+      <c r="FN34" s="0"/>
+      <c r="FO34" s="0"/>
+      <c r="FP34" s="0"/>
+      <c r="FQ34" s="0"/>
+      <c r="FR34" s="0"/>
+      <c r="FS34" s="0"/>
+      <c r="FT34" s="0"/>
+      <c r="FU34" s="0"/>
+      <c r="FV34" s="0"/>
+      <c r="FW34" s="0"/>
+      <c r="FX34" s="0"/>
+      <c r="FY34" s="0"/>
+      <c r="FZ34" s="0"/>
+      <c r="GA34" s="0"/>
+      <c r="GB34" s="0"/>
+      <c r="GC34" s="0"/>
+      <c r="GD34" s="0"/>
+      <c r="GE34" s="0"/>
+      <c r="GF34" s="0"/>
+      <c r="GG34" s="0"/>
+      <c r="GH34" s="0"/>
+      <c r="GI34" s="0"/>
+      <c r="GJ34" s="0"/>
+      <c r="GK34" s="0"/>
+      <c r="GL34" s="0"/>
+      <c r="GM34" s="0"/>
+      <c r="GN34" s="0"/>
+      <c r="GO34" s="0"/>
+      <c r="GP34" s="0"/>
+      <c r="GQ34" s="0"/>
+      <c r="GR34" s="0"/>
+      <c r="GS34" s="0"/>
+      <c r="GT34" s="0"/>
+      <c r="GU34" s="0"/>
+      <c r="GV34" s="0"/>
+      <c r="GW34" s="0"/>
+      <c r="GX34" s="0"/>
+      <c r="GY34" s="0"/>
+      <c r="GZ34" s="0"/>
+      <c r="HA34" s="0"/>
+      <c r="HB34" s="0"/>
+      <c r="HC34" s="0"/>
+      <c r="HD34" s="0"/>
+      <c r="HE34" s="0"/>
+      <c r="HF34" s="0"/>
+      <c r="HG34" s="0"/>
+      <c r="HH34" s="0"/>
+      <c r="HI34" s="0"/>
+      <c r="HJ34" s="0"/>
+      <c r="HK34" s="0"/>
+      <c r="HL34" s="0"/>
+      <c r="HM34" s="0"/>
+      <c r="HN34" s="0"/>
+      <c r="HO34" s="0"/>
+      <c r="HP34" s="0"/>
+      <c r="HQ34" s="0"/>
+      <c r="HR34" s="0"/>
+      <c r="HS34" s="0"/>
+      <c r="HT34" s="0"/>
+      <c r="HU34" s="0"/>
+      <c r="HV34" s="0"/>
+      <c r="HW34" s="0"/>
+      <c r="HX34" s="0"/>
+      <c r="HY34" s="0"/>
+      <c r="HZ34" s="0"/>
+      <c r="IA34" s="0"/>
+      <c r="IB34" s="0"/>
+      <c r="IC34" s="0"/>
+      <c r="ID34" s="0"/>
+      <c r="IE34" s="0"/>
+      <c r="IF34" s="0"/>
+      <c r="IG34" s="0"/>
+      <c r="IH34" s="0"/>
+      <c r="II34" s="0"/>
+      <c r="IJ34" s="0"/>
+      <c r="IK34" s="0"/>
+      <c r="IL34" s="0"/>
+      <c r="IM34" s="0"/>
+      <c r="IN34" s="0"/>
+      <c r="IO34" s="0"/>
+      <c r="IP34" s="0"/>
+      <c r="IQ34" s="0"/>
+      <c r="IR34" s="0"/>
+      <c r="IS34" s="0"/>
+      <c r="IT34" s="0"/>
+      <c r="IU34" s="0"/>
+      <c r="IV34" s="0"/>
+      <c r="IW34" s="0"/>
+      <c r="IX34" s="0"/>
+      <c r="IY34" s="0"/>
+      <c r="IZ34" s="0"/>
+      <c r="JA34" s="0"/>
+      <c r="JB34" s="0"/>
+      <c r="JC34" s="0"/>
+      <c r="JD34" s="0"/>
+      <c r="JE34" s="0"/>
+      <c r="JF34" s="0"/>
+      <c r="JG34" s="0"/>
+      <c r="JH34" s="0"/>
+      <c r="JI34" s="0"/>
+      <c r="JJ34" s="0"/>
+      <c r="JK34" s="0"/>
+      <c r="JL34" s="0"/>
+      <c r="JM34" s="0"/>
+      <c r="JN34" s="0"/>
+      <c r="JO34" s="0"/>
+      <c r="JP34" s="0"/>
+      <c r="JQ34" s="0"/>
+      <c r="JR34" s="0"/>
+      <c r="JS34" s="0"/>
+      <c r="JT34" s="0"/>
+      <c r="JU34" s="0"/>
+      <c r="JV34" s="0"/>
+      <c r="JW34" s="0"/>
+      <c r="JX34" s="0"/>
+      <c r="JY34" s="0"/>
+      <c r="JZ34" s="0"/>
+      <c r="KA34" s="0"/>
+      <c r="KB34" s="0"/>
+      <c r="KC34" s="0"/>
+      <c r="KD34" s="0"/>
+      <c r="KE34" s="0"/>
+      <c r="KF34" s="0"/>
+      <c r="KG34" s="0"/>
+      <c r="KH34" s="0"/>
+      <c r="KI34" s="0"/>
+      <c r="KJ34" s="0"/>
+      <c r="KK34" s="0"/>
+      <c r="KL34" s="0"/>
+      <c r="KM34" s="0"/>
+      <c r="KN34" s="0"/>
+      <c r="KO34" s="0"/>
+      <c r="KP34" s="0"/>
+      <c r="KQ34" s="0"/>
+      <c r="KR34" s="0"/>
+      <c r="KS34" s="0"/>
+      <c r="KT34" s="0"/>
+      <c r="KU34" s="0"/>
+      <c r="KV34" s="0"/>
+      <c r="KW34" s="0"/>
+      <c r="KX34" s="0"/>
+      <c r="KY34" s="0"/>
+      <c r="KZ34" s="0"/>
+      <c r="LA34" s="0"/>
+      <c r="LB34" s="0"/>
+      <c r="LC34" s="0"/>
+      <c r="LD34" s="0"/>
+      <c r="LE34" s="0"/>
+      <c r="LF34" s="0"/>
+      <c r="LG34" s="0"/>
+      <c r="LH34" s="0"/>
+      <c r="LI34" s="0"/>
+      <c r="LJ34" s="0"/>
+      <c r="LK34" s="0"/>
+      <c r="LL34" s="0"/>
+      <c r="LM34" s="0"/>
+      <c r="LN34" s="0"/>
+      <c r="LO34" s="0"/>
+      <c r="LP34" s="0"/>
+      <c r="LQ34" s="0"/>
+      <c r="LR34" s="0"/>
+      <c r="LS34" s="0"/>
+      <c r="LT34" s="0"/>
+      <c r="LU34" s="0"/>
+      <c r="LV34" s="0"/>
+      <c r="LW34" s="0"/>
+      <c r="LX34" s="0"/>
+      <c r="LY34" s="0"/>
+      <c r="LZ34" s="0"/>
+      <c r="MA34" s="0"/>
+      <c r="MB34" s="0"/>
+      <c r="MC34" s="0"/>
+      <c r="MD34" s="0"/>
+      <c r="ME34" s="0"/>
+      <c r="MF34" s="0"/>
+      <c r="MG34" s="0"/>
+      <c r="MH34" s="0"/>
+      <c r="MI34" s="0"/>
+      <c r="MJ34" s="0"/>
+      <c r="MK34" s="0"/>
+      <c r="ML34" s="0"/>
+      <c r="MM34" s="0"/>
+      <c r="MN34" s="0"/>
+      <c r="MO34" s="0"/>
+      <c r="MP34" s="0"/>
+      <c r="MQ34" s="0"/>
+      <c r="MR34" s="0"/>
+      <c r="MS34" s="0"/>
+      <c r="MT34" s="0"/>
+      <c r="MU34" s="0"/>
+      <c r="MV34" s="0"/>
+      <c r="MW34" s="0"/>
+      <c r="MX34" s="0"/>
+      <c r="MY34" s="0"/>
+      <c r="MZ34" s="0"/>
+      <c r="NA34" s="0"/>
+      <c r="NB34" s="0"/>
+      <c r="NC34" s="0"/>
+      <c r="ND34" s="0"/>
+      <c r="NE34" s="0"/>
+      <c r="NF34" s="0"/>
+      <c r="NG34" s="0"/>
+      <c r="NH34" s="0"/>
+      <c r="NI34" s="0"/>
+      <c r="NJ34" s="0"/>
+      <c r="NK34" s="0"/>
+      <c r="NL34" s="0"/>
+      <c r="NM34" s="0"/>
+      <c r="NN34" s="0"/>
+      <c r="NO34" s="0"/>
+      <c r="NP34" s="0"/>
+      <c r="NQ34" s="0"/>
+      <c r="NR34" s="0"/>
+      <c r="NS34" s="0"/>
+      <c r="NT34" s="0"/>
+      <c r="NU34" s="0"/>
+      <c r="NV34" s="0"/>
+      <c r="NW34" s="0"/>
+      <c r="NX34" s="0"/>
+      <c r="NY34" s="0"/>
+      <c r="NZ34" s="0"/>
+      <c r="OA34" s="0"/>
+      <c r="OB34" s="0"/>
+      <c r="OC34" s="0"/>
+      <c r="OD34" s="0"/>
+      <c r="OE34" s="0"/>
+      <c r="OF34" s="0"/>
+      <c r="OG34" s="0"/>
+      <c r="OH34" s="0"/>
+      <c r="OI34" s="0"/>
+      <c r="OJ34" s="0"/>
+      <c r="OK34" s="0"/>
+      <c r="OL34" s="0"/>
+      <c r="OM34" s="0"/>
+      <c r="ON34" s="0"/>
+      <c r="OO34" s="0"/>
+      <c r="OP34" s="0"/>
+      <c r="OQ34" s="0"/>
+      <c r="OR34" s="0"/>
+      <c r="OS34" s="0"/>
+      <c r="OT34" s="0"/>
+      <c r="OU34" s="0"/>
+      <c r="OV34" s="0"/>
+      <c r="OW34" s="0"/>
+      <c r="OX34" s="0"/>
+      <c r="OY34" s="0"/>
+      <c r="OZ34" s="0"/>
+      <c r="PA34" s="0"/>
+      <c r="PB34" s="0"/>
+      <c r="PC34" s="0"/>
+      <c r="PD34" s="0"/>
+      <c r="PE34" s="0"/>
+      <c r="PF34" s="0"/>
+      <c r="PG34" s="0"/>
+      <c r="PH34" s="0"/>
+      <c r="PI34" s="0"/>
+      <c r="PJ34" s="0"/>
+      <c r="PK34" s="0"/>
+      <c r="PL34" s="0"/>
+      <c r="PM34" s="0"/>
+      <c r="PN34" s="0"/>
+      <c r="PO34" s="0"/>
+      <c r="PP34" s="0"/>
+      <c r="PQ34" s="0"/>
+      <c r="PR34" s="0"/>
+      <c r="PS34" s="0"/>
+      <c r="PT34" s="0"/>
+      <c r="PU34" s="0"/>
+      <c r="PV34" s="0"/>
+      <c r="PW34" s="0"/>
+      <c r="PX34" s="0"/>
+      <c r="PY34" s="0"/>
+      <c r="PZ34" s="0"/>
+      <c r="QA34" s="0"/>
+      <c r="QB34" s="0"/>
+      <c r="QC34" s="0"/>
+      <c r="QD34" s="0"/>
+      <c r="QE34" s="0"/>
+      <c r="QF34" s="0"/>
+      <c r="QG34" s="0"/>
+      <c r="QH34" s="0"/>
+      <c r="QI34" s="0"/>
+      <c r="QJ34" s="0"/>
+      <c r="QK34" s="0"/>
+      <c r="QL34" s="0"/>
+      <c r="QM34" s="0"/>
+      <c r="QN34" s="0"/>
+      <c r="QO34" s="0"/>
+      <c r="QP34" s="0"/>
+      <c r="QQ34" s="0"/>
+      <c r="QR34" s="0"/>
+      <c r="QS34" s="0"/>
+      <c r="QT34" s="0"/>
+      <c r="QU34" s="0"/>
+      <c r="QV34" s="0"/>
+      <c r="QW34" s="0"/>
+      <c r="QX34" s="0"/>
+      <c r="QY34" s="0"/>
+      <c r="QZ34" s="0"/>
+      <c r="RA34" s="0"/>
+      <c r="RB34" s="0"/>
+      <c r="RC34" s="0"/>
+      <c r="RD34" s="0"/>
+      <c r="RE34" s="0"/>
+      <c r="RF34" s="0"/>
+      <c r="RG34" s="0"/>
+      <c r="RH34" s="0"/>
+      <c r="RI34" s="0"/>
+      <c r="RJ34" s="0"/>
+      <c r="RK34" s="0"/>
+      <c r="RL34" s="0"/>
+      <c r="RM34" s="0"/>
+      <c r="RN34" s="0"/>
+      <c r="RO34" s="0"/>
+      <c r="RP34" s="0"/>
+      <c r="RQ34" s="0"/>
+      <c r="RR34" s="0"/>
+      <c r="RS34" s="0"/>
+      <c r="RT34" s="0"/>
+      <c r="RU34" s="0"/>
+      <c r="RV34" s="0"/>
+      <c r="RW34" s="0"/>
+      <c r="RX34" s="0"/>
+      <c r="RY34" s="0"/>
+      <c r="RZ34" s="0"/>
+      <c r="SA34" s="0"/>
+      <c r="SB34" s="0"/>
+      <c r="SC34" s="0"/>
+      <c r="SD34" s="0"/>
+      <c r="SE34" s="0"/>
+      <c r="SF34" s="0"/>
+      <c r="SG34" s="0"/>
+      <c r="SH34" s="0"/>
+      <c r="SI34" s="0"/>
+      <c r="SJ34" s="0"/>
+      <c r="SK34" s="0"/>
+      <c r="SL34" s="0"/>
+      <c r="SM34" s="0"/>
+      <c r="SN34" s="0"/>
+      <c r="SO34" s="0"/>
+      <c r="SP34" s="0"/>
+      <c r="SQ34" s="0"/>
+      <c r="SR34" s="0"/>
+      <c r="SS34" s="0"/>
+      <c r="ST34" s="0"/>
+      <c r="SU34" s="0"/>
+      <c r="SV34" s="0"/>
+      <c r="SW34" s="0"/>
+      <c r="SX34" s="0"/>
+      <c r="SY34" s="0"/>
+      <c r="SZ34" s="0"/>
+      <c r="TA34" s="0"/>
+      <c r="TB34" s="0"/>
+      <c r="TC34" s="0"/>
+      <c r="TD34" s="0"/>
+      <c r="TE34" s="0"/>
+      <c r="TF34" s="0"/>
+      <c r="TG34" s="0"/>
+      <c r="TH34" s="0"/>
+      <c r="TI34" s="0"/>
+      <c r="TJ34" s="0"/>
+      <c r="TK34" s="0"/>
+      <c r="TL34" s="0"/>
+      <c r="TM34" s="0"/>
+      <c r="TN34" s="0"/>
+      <c r="TO34" s="0"/>
+      <c r="TP34" s="0"/>
+      <c r="TQ34" s="0"/>
+      <c r="TR34" s="0"/>
+      <c r="TS34" s="0"/>
+      <c r="TT34" s="0"/>
+      <c r="TU34" s="0"/>
+      <c r="TV34" s="0"/>
+      <c r="TW34" s="0"/>
+      <c r="TX34" s="0"/>
+      <c r="TY34" s="0"/>
+      <c r="TZ34" s="0"/>
+      <c r="UA34" s="0"/>
+      <c r="UB34" s="0"/>
+      <c r="UC34" s="0"/>
+      <c r="UD34" s="0"/>
+      <c r="UE34" s="0"/>
+      <c r="UF34" s="0"/>
+      <c r="UG34" s="0"/>
+      <c r="UH34" s="0"/>
+      <c r="UI34" s="0"/>
+      <c r="UJ34" s="0"/>
+      <c r="UK34" s="0"/>
+      <c r="UL34" s="0"/>
+      <c r="UM34" s="0"/>
+      <c r="UN34" s="0"/>
+      <c r="UO34" s="0"/>
+      <c r="UP34" s="0"/>
+      <c r="UQ34" s="0"/>
+      <c r="UR34" s="0"/>
+      <c r="US34" s="0"/>
+      <c r="UT34" s="0"/>
+      <c r="UU34" s="0"/>
+      <c r="UV34" s="0"/>
+      <c r="UW34" s="0"/>
+      <c r="UX34" s="0"/>
+      <c r="UY34" s="0"/>
+      <c r="UZ34" s="0"/>
+      <c r="VA34" s="0"/>
+      <c r="VB34" s="0"/>
+      <c r="VC34" s="0"/>
+      <c r="VD34" s="0"/>
+      <c r="VE34" s="0"/>
+      <c r="VF34" s="0"/>
+      <c r="VG34" s="0"/>
+      <c r="VH34" s="0"/>
+      <c r="VI34" s="0"/>
+      <c r="VJ34" s="0"/>
+      <c r="VK34" s="0"/>
+      <c r="VL34" s="0"/>
+      <c r="VM34" s="0"/>
+      <c r="VN34" s="0"/>
+      <c r="VO34" s="0"/>
+      <c r="VP34" s="0"/>
+      <c r="VQ34" s="0"/>
+      <c r="VR34" s="0"/>
+      <c r="VS34" s="0"/>
+      <c r="VT34" s="0"/>
+      <c r="VU34" s="0"/>
+      <c r="VV34" s="0"/>
+      <c r="VW34" s="0"/>
+      <c r="VX34" s="0"/>
+      <c r="VY34" s="0"/>
+      <c r="VZ34" s="0"/>
+      <c r="WA34" s="0"/>
+      <c r="WB34" s="0"/>
+      <c r="WC34" s="0"/>
+      <c r="WD34" s="0"/>
+      <c r="WE34" s="0"/>
+      <c r="WF34" s="0"/>
+      <c r="WG34" s="0"/>
+      <c r="WH34" s="0"/>
+      <c r="WI34" s="0"/>
+      <c r="WJ34" s="0"/>
+      <c r="WK34" s="0"/>
+      <c r="WL34" s="0"/>
+      <c r="WM34" s="0"/>
+      <c r="WN34" s="0"/>
+      <c r="WO34" s="0"/>
+      <c r="WP34" s="0"/>
+      <c r="WQ34" s="0"/>
+      <c r="WR34" s="0"/>
+      <c r="WS34" s="0"/>
+      <c r="WT34" s="0"/>
+      <c r="WU34" s="0"/>
+      <c r="WV34" s="0"/>
+      <c r="WW34" s="0"/>
+      <c r="WX34" s="0"/>
+      <c r="WY34" s="0"/>
+      <c r="WZ34" s="0"/>
+      <c r="XA34" s="0"/>
+      <c r="XB34" s="0"/>
+      <c r="XC34" s="0"/>
+      <c r="XD34" s="0"/>
+      <c r="XE34" s="0"/>
+      <c r="XF34" s="0"/>
+      <c r="XG34" s="0"/>
+      <c r="XH34" s="0"/>
+      <c r="XI34" s="0"/>
+      <c r="XJ34" s="0"/>
+      <c r="XK34" s="0"/>
+      <c r="XL34" s="0"/>
+      <c r="XM34" s="0"/>
+      <c r="XN34" s="0"/>
+      <c r="XO34" s="0"/>
+      <c r="XP34" s="0"/>
+      <c r="XQ34" s="0"/>
+      <c r="XR34" s="0"/>
+      <c r="XS34" s="0"/>
+      <c r="XT34" s="0"/>
+      <c r="XU34" s="0"/>
+      <c r="XV34" s="0"/>
+      <c r="XW34" s="0"/>
+      <c r="XX34" s="0"/>
+      <c r="XY34" s="0"/>
+      <c r="XZ34" s="0"/>
+      <c r="YA34" s="0"/>
+      <c r="YB34" s="0"/>
+      <c r="YC34" s="0"/>
+      <c r="YD34" s="0"/>
+      <c r="YE34" s="0"/>
+      <c r="YF34" s="0"/>
+      <c r="YG34" s="0"/>
+      <c r="YH34" s="0"/>
+      <c r="YI34" s="0"/>
+      <c r="YJ34" s="0"/>
+      <c r="YK34" s="0"/>
+      <c r="YL34" s="0"/>
+      <c r="YM34" s="0"/>
+      <c r="YN34" s="0"/>
+      <c r="YO34" s="0"/>
+      <c r="YP34" s="0"/>
+      <c r="YQ34" s="0"/>
+      <c r="YR34" s="0"/>
+      <c r="YS34" s="0"/>
+      <c r="YT34" s="0"/>
+      <c r="YU34" s="0"/>
+      <c r="YV34" s="0"/>
+      <c r="YW34" s="0"/>
+      <c r="YX34" s="0"/>
+      <c r="YY34" s="0"/>
+      <c r="YZ34" s="0"/>
+      <c r="ZA34" s="0"/>
+      <c r="ZB34" s="0"/>
+      <c r="ZC34" s="0"/>
+      <c r="ZD34" s="0"/>
+      <c r="ZE34" s="0"/>
+      <c r="ZF34" s="0"/>
+      <c r="ZG34" s="0"/>
+      <c r="ZH34" s="0"/>
+      <c r="ZI34" s="0"/>
+      <c r="ZJ34" s="0"/>
+      <c r="ZK34" s="0"/>
+      <c r="ZL34" s="0"/>
+      <c r="ZM34" s="0"/>
+      <c r="ZN34" s="0"/>
+      <c r="ZO34" s="0"/>
+      <c r="ZP34" s="0"/>
+      <c r="ZQ34" s="0"/>
+      <c r="ZR34" s="0"/>
+      <c r="ZS34" s="0"/>
+      <c r="ZT34" s="0"/>
+      <c r="ZU34" s="0"/>
+      <c r="ZV34" s="0"/>
+      <c r="ZW34" s="0"/>
+      <c r="ZX34" s="0"/>
+      <c r="ZY34" s="0"/>
+      <c r="ZZ34" s="0"/>
+      <c r="AAA34" s="0"/>
+      <c r="AAB34" s="0"/>
+      <c r="AAC34" s="0"/>
+      <c r="AAD34" s="0"/>
+      <c r="AAE34" s="0"/>
+      <c r="AAF34" s="0"/>
+      <c r="AAG34" s="0"/>
+      <c r="AAH34" s="0"/>
+      <c r="AAI34" s="0"/>
+      <c r="AAJ34" s="0"/>
+      <c r="AAK34" s="0"/>
+      <c r="AAL34" s="0"/>
+      <c r="AAM34" s="0"/>
+      <c r="AAN34" s="0"/>
+      <c r="AAO34" s="0"/>
+      <c r="AAP34" s="0"/>
+      <c r="AAQ34" s="0"/>
+      <c r="AAR34" s="0"/>
+      <c r="AAS34" s="0"/>
+      <c r="AAT34" s="0"/>
+      <c r="AAU34" s="0"/>
+      <c r="AAV34" s="0"/>
+      <c r="AAW34" s="0"/>
+      <c r="AAX34" s="0"/>
+      <c r="AAY34" s="0"/>
+      <c r="AAZ34" s="0"/>
+      <c r="ABA34" s="0"/>
+      <c r="ABB34" s="0"/>
+      <c r="ABC34" s="0"/>
+      <c r="ABD34" s="0"/>
+      <c r="ABE34" s="0"/>
+      <c r="ABF34" s="0"/>
+      <c r="ABG34" s="0"/>
+      <c r="ABH34" s="0"/>
+      <c r="ABI34" s="0"/>
+      <c r="ABJ34" s="0"/>
+      <c r="ABK34" s="0"/>
+      <c r="ABL34" s="0"/>
+      <c r="ABM34" s="0"/>
+      <c r="ABN34" s="0"/>
+      <c r="ABO34" s="0"/>
+      <c r="ABP34" s="0"/>
+      <c r="ABQ34" s="0"/>
+      <c r="ABR34" s="0"/>
+      <c r="ABS34" s="0"/>
+      <c r="ABT34" s="0"/>
+      <c r="ABU34" s="0"/>
+      <c r="ABV34" s="0"/>
+      <c r="ABW34" s="0"/>
+      <c r="ABX34" s="0"/>
+      <c r="ABY34" s="0"/>
+      <c r="ABZ34" s="0"/>
+      <c r="ACA34" s="0"/>
+      <c r="ACB34" s="0"/>
+      <c r="ACC34" s="0"/>
+      <c r="ACD34" s="0"/>
+      <c r="ACE34" s="0"/>
+      <c r="ACF34" s="0"/>
+      <c r="ACG34" s="0"/>
+      <c r="ACH34" s="0"/>
+      <c r="ACI34" s="0"/>
+      <c r="ACJ34" s="0"/>
+      <c r="ACK34" s="0"/>
+      <c r="ACL34" s="0"/>
+      <c r="ACM34" s="0"/>
+      <c r="ACN34" s="0"/>
+      <c r="ACO34" s="0"/>
+      <c r="ACP34" s="0"/>
+      <c r="ACQ34" s="0"/>
+      <c r="ACR34" s="0"/>
+      <c r="ACS34" s="0"/>
+      <c r="ACT34" s="0"/>
+      <c r="ACU34" s="0"/>
+      <c r="ACV34" s="0"/>
+      <c r="ACW34" s="0"/>
+      <c r="ACX34" s="0"/>
+      <c r="ACY34" s="0"/>
+      <c r="ACZ34" s="0"/>
+      <c r="ADA34" s="0"/>
+      <c r="ADB34" s="0"/>
+      <c r="ADC34" s="0"/>
+      <c r="ADD34" s="0"/>
+      <c r="ADE34" s="0"/>
+      <c r="ADF34" s="0"/>
+      <c r="ADG34" s="0"/>
+      <c r="ADH34" s="0"/>
+      <c r="ADI34" s="0"/>
+      <c r="ADJ34" s="0"/>
+      <c r="ADK34" s="0"/>
+      <c r="ADL34" s="0"/>
+      <c r="ADM34" s="0"/>
+      <c r="ADN34" s="0"/>
+      <c r="ADO34" s="0"/>
+      <c r="ADP34" s="0"/>
+      <c r="ADQ34" s="0"/>
+      <c r="ADR34" s="0"/>
+      <c r="ADS34" s="0"/>
+      <c r="ADT34" s="0"/>
+      <c r="ADU34" s="0"/>
+      <c r="ADV34" s="0"/>
+      <c r="ADW34" s="0"/>
+      <c r="ADX34" s="0"/>
+      <c r="ADY34" s="0"/>
+      <c r="ADZ34" s="0"/>
+      <c r="AEA34" s="0"/>
+      <c r="AEB34" s="0"/>
+      <c r="AEC34" s="0"/>
+      <c r="AED34" s="0"/>
+      <c r="AEE34" s="0"/>
+      <c r="AEF34" s="0"/>
+      <c r="AEG34" s="0"/>
+      <c r="AEH34" s="0"/>
+      <c r="AEI34" s="0"/>
+      <c r="AEJ34" s="0"/>
+      <c r="AEK34" s="0"/>
+      <c r="AEL34" s="0"/>
+      <c r="AEM34" s="0"/>
+      <c r="AEN34" s="0"/>
+      <c r="AEO34" s="0"/>
+      <c r="AEP34" s="0"/>
+      <c r="AEQ34" s="0"/>
+      <c r="AER34" s="0"/>
+      <c r="AES34" s="0"/>
+      <c r="AET34" s="0"/>
+      <c r="AEU34" s="0"/>
+      <c r="AEV34" s="0"/>
+      <c r="AEW34" s="0"/>
+      <c r="AEX34" s="0"/>
+      <c r="AEY34" s="0"/>
+      <c r="AEZ34" s="0"/>
+      <c r="AFA34" s="0"/>
+      <c r="AFB34" s="0"/>
+      <c r="AFC34" s="0"/>
+      <c r="AFD34" s="0"/>
+      <c r="AFE34" s="0"/>
+      <c r="AFF34" s="0"/>
+      <c r="AFG34" s="0"/>
+      <c r="AFH34" s="0"/>
+      <c r="AFI34" s="0"/>
+      <c r="AFJ34" s="0"/>
+      <c r="AFK34" s="0"/>
+      <c r="AFL34" s="0"/>
+      <c r="AFM34" s="0"/>
+      <c r="AFN34" s="0"/>
+      <c r="AFO34" s="0"/>
+      <c r="AFP34" s="0"/>
+      <c r="AFQ34" s="0"/>
+      <c r="AFR34" s="0"/>
+      <c r="AFS34" s="0"/>
+      <c r="AFT34" s="0"/>
+      <c r="AFU34" s="0"/>
+      <c r="AFV34" s="0"/>
+      <c r="AFW34" s="0"/>
+      <c r="AFX34" s="0"/>
+      <c r="AFY34" s="0"/>
+      <c r="AFZ34" s="0"/>
+      <c r="AGA34" s="0"/>
+      <c r="AGB34" s="0"/>
+      <c r="AGC34" s="0"/>
+      <c r="AGD34" s="0"/>
+      <c r="AGE34" s="0"/>
+      <c r="AGF34" s="0"/>
+      <c r="AGG34" s="0"/>
+      <c r="AGH34" s="0"/>
+      <c r="AGI34" s="0"/>
+      <c r="AGJ34" s="0"/>
+      <c r="AGK34" s="0"/>
+      <c r="AGL34" s="0"/>
+      <c r="AGM34" s="0"/>
+      <c r="AGN34" s="0"/>
+      <c r="AGO34" s="0"/>
+      <c r="AGP34" s="0"/>
+      <c r="AGQ34" s="0"/>
+      <c r="AGR34" s="0"/>
+      <c r="AGS34" s="0"/>
+      <c r="AGT34" s="0"/>
+      <c r="AGU34" s="0"/>
+      <c r="AGV34" s="0"/>
+      <c r="AGW34" s="0"/>
+      <c r="AGX34" s="0"/>
+      <c r="AGY34" s="0"/>
+      <c r="AGZ34" s="0"/>
+      <c r="AHA34" s="0"/>
+      <c r="AHB34" s="0"/>
+      <c r="AHC34" s="0"/>
+      <c r="AHD34" s="0"/>
+      <c r="AHE34" s="0"/>
+      <c r="AHF34" s="0"/>
+      <c r="AHG34" s="0"/>
+      <c r="AHH34" s="0"/>
+      <c r="AHI34" s="0"/>
+      <c r="AHJ34" s="0"/>
+      <c r="AHK34" s="0"/>
+      <c r="AHL34" s="0"/>
+      <c r="AHM34" s="0"/>
+      <c r="AHN34" s="0"/>
+      <c r="AHO34" s="0"/>
+      <c r="AHP34" s="0"/>
+      <c r="AHQ34" s="0"/>
+      <c r="AHR34" s="0"/>
+      <c r="AHS34" s="0"/>
+      <c r="AHT34" s="0"/>
+      <c r="AHU34" s="0"/>
+      <c r="AHV34" s="0"/>
+      <c r="AHW34" s="0"/>
+      <c r="AHX34" s="0"/>
+      <c r="AHY34" s="0"/>
+      <c r="AHZ34" s="0"/>
+      <c r="AIA34" s="0"/>
+      <c r="AIB34" s="0"/>
+      <c r="AIC34" s="0"/>
+      <c r="AID34" s="0"/>
+      <c r="AIE34" s="0"/>
+      <c r="AIF34" s="0"/>
+      <c r="AIG34" s="0"/>
+      <c r="AIH34" s="0"/>
+      <c r="AII34" s="0"/>
+      <c r="AIJ34" s="0"/>
+      <c r="AIK34" s="0"/>
+      <c r="AIL34" s="0"/>
+      <c r="AIM34" s="0"/>
+      <c r="AIN34" s="0"/>
+      <c r="AIO34" s="0"/>
+      <c r="AIP34" s="0"/>
+      <c r="AIQ34" s="0"/>
+      <c r="AIR34" s="0"/>
+      <c r="AIS34" s="0"/>
+      <c r="AIT34" s="0"/>
+      <c r="AIU34" s="0"/>
+      <c r="AIV34" s="0"/>
+      <c r="AIW34" s="0"/>
+      <c r="AIX34" s="0"/>
+      <c r="AIY34" s="0"/>
+      <c r="AIZ34" s="0"/>
+      <c r="AJA34" s="0"/>
+      <c r="AJB34" s="0"/>
+      <c r="AJC34" s="0"/>
+      <c r="AJD34" s="0"/>
+      <c r="AJE34" s="0"/>
+      <c r="AJF34" s="0"/>
+      <c r="AJG34" s="0"/>
+      <c r="AJH34" s="0"/>
+      <c r="AJI34" s="0"/>
+      <c r="AJJ34" s="0"/>
+      <c r="AJK34" s="0"/>
+      <c r="AJL34" s="0"/>
+      <c r="AJM34" s="0"/>
+      <c r="AJN34" s="0"/>
+      <c r="AJO34" s="0"/>
+      <c r="AJP34" s="0"/>
+      <c r="AJQ34" s="0"/>
+      <c r="AJR34" s="0"/>
+      <c r="AJS34" s="0"/>
+      <c r="AJT34" s="0"/>
+      <c r="AJU34" s="0"/>
+      <c r="AJV34" s="0"/>
+      <c r="AJW34" s="0"/>
+      <c r="AJX34" s="0"/>
+      <c r="AJY34" s="0"/>
+      <c r="AJZ34" s="0"/>
+      <c r="AKA34" s="0"/>
+      <c r="AKB34" s="0"/>
+      <c r="AKC34" s="0"/>
+      <c r="AKD34" s="0"/>
+      <c r="AKE34" s="0"/>
+      <c r="AKF34" s="0"/>
+      <c r="AKG34" s="0"/>
+      <c r="AKH34" s="0"/>
+      <c r="AKI34" s="0"/>
+      <c r="AKJ34" s="0"/>
+      <c r="AKK34" s="0"/>
+      <c r="AKL34" s="0"/>
+      <c r="AKM34" s="0"/>
+      <c r="AKN34" s="0"/>
+      <c r="AKO34" s="0"/>
+      <c r="AKP34" s="0"/>
+      <c r="AKQ34" s="0"/>
+      <c r="AKR34" s="0"/>
+      <c r="AKS34" s="0"/>
+      <c r="AKT34" s="0"/>
+      <c r="AKU34" s="0"/>
+      <c r="AKV34" s="0"/>
+      <c r="AKW34" s="0"/>
+      <c r="AKX34" s="0"/>
+      <c r="AKY34" s="0"/>
+      <c r="AKZ34" s="0"/>
+      <c r="ALA34" s="0"/>
+      <c r="ALB34" s="0"/>
+      <c r="ALC34" s="0"/>
+      <c r="ALD34" s="0"/>
+      <c r="ALE34" s="0"/>
+      <c r="ALF34" s="0"/>
+      <c r="ALG34" s="0"/>
+      <c r="ALH34" s="0"/>
+      <c r="ALI34" s="0"/>
+      <c r="ALJ34" s="0"/>
+      <c r="ALK34" s="0"/>
+      <c r="ALL34" s="0"/>
+      <c r="ALM34" s="0"/>
+      <c r="ALN34" s="0"/>
+      <c r="ALO34" s="0"/>
+      <c r="ALP34" s="0"/>
+      <c r="ALQ34" s="0"/>
+      <c r="ALR34" s="0"/>
+      <c r="ALS34" s="0"/>
+      <c r="ALT34" s="0"/>
+      <c r="ALU34" s="0"/>
+      <c r="ALV34" s="0"/>
+      <c r="ALW34" s="0"/>
+      <c r="ALX34" s="0"/>
+      <c r="ALY34" s="0"/>
+      <c r="ALZ34" s="0"/>
+      <c r="AMA34" s="0"/>
+      <c r="AMB34" s="0"/>
+      <c r="AMC34" s="0"/>
+      <c r="AMD34" s="0"/>
+      <c r="AME34" s="0"/>
+      <c r="AMF34" s="0"/>
+      <c r="AMG34" s="0"/>
+      <c r="AMH34" s="0"/>
+      <c r="AMI34" s="0"/>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="0"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
+      <c r="X35" s="0"/>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+      <c r="AE35" s="0"/>
+      <c r="AF35" s="0"/>
+      <c r="AG35" s="0"/>
+      <c r="AH35" s="0"/>
+      <c r="AI35" s="0"/>
+      <c r="AJ35" s="0"/>
+      <c r="AK35" s="0"/>
+      <c r="AL35" s="0"/>
+      <c r="AM35" s="0"/>
+      <c r="AN35" s="0"/>
+      <c r="AO35" s="0"/>
+      <c r="AP35" s="0"/>
+      <c r="AQ35" s="0"/>
+      <c r="AR35" s="0"/>
+      <c r="AS35" s="0"/>
+      <c r="AT35" s="0"/>
+      <c r="AU35" s="0"/>
+      <c r="AV35" s="0"/>
+      <c r="AW35" s="0"/>
+      <c r="AX35" s="0"/>
+      <c r="AY35" s="0"/>
+      <c r="AZ35" s="0"/>
+      <c r="BA35" s="0"/>
+      <c r="BB35" s="0"/>
+      <c r="BC35" s="0"/>
+      <c r="BD35" s="0"/>
+      <c r="BE35" s="0"/>
+      <c r="BF35" s="0"/>
+      <c r="BG35" s="0"/>
+      <c r="BH35" s="0"/>
+      <c r="BI35" s="0"/>
+      <c r="BJ35" s="0"/>
+      <c r="BK35" s="0"/>
+      <c r="BL35" s="0"/>
+      <c r="BM35" s="0"/>
+      <c r="BN35" s="0"/>
+      <c r="BO35" s="0"/>
+      <c r="BP35" s="0"/>
+      <c r="BQ35" s="0"/>
+      <c r="BR35" s="0"/>
+      <c r="BS35" s="0"/>
+      <c r="BT35" s="0"/>
+      <c r="BU35" s="0"/>
+      <c r="BV35" s="0"/>
+      <c r="BW35" s="0"/>
+      <c r="BX35" s="0"/>
+      <c r="BY35" s="0"/>
+      <c r="BZ35" s="0"/>
+      <c r="CA35" s="0"/>
+      <c r="CB35" s="0"/>
+      <c r="CC35" s="0"/>
+      <c r="CD35" s="0"/>
+      <c r="CE35" s="0"/>
+      <c r="CF35" s="0"/>
+      <c r="CG35" s="0"/>
+      <c r="CH35" s="0"/>
+      <c r="CI35" s="0"/>
+      <c r="CJ35" s="0"/>
+      <c r="CK35" s="0"/>
+      <c r="CL35" s="0"/>
+      <c r="CM35" s="0"/>
+      <c r="CN35" s="0"/>
+      <c r="CO35" s="0"/>
+      <c r="CP35" s="0"/>
+      <c r="CQ35" s="0"/>
+      <c r="CR35" s="0"/>
+      <c r="CS35" s="0"/>
+      <c r="CT35" s="0"/>
+      <c r="CU35" s="0"/>
+      <c r="CV35" s="0"/>
+      <c r="CW35" s="0"/>
+      <c r="CX35" s="0"/>
+      <c r="CY35" s="0"/>
+      <c r="CZ35" s="0"/>
+      <c r="DA35" s="0"/>
+      <c r="DB35" s="0"/>
+      <c r="DC35" s="0"/>
+      <c r="DD35" s="0"/>
+      <c r="DE35" s="0"/>
+      <c r="DF35" s="0"/>
+      <c r="DG35" s="0"/>
+      <c r="DH35" s="0"/>
+      <c r="DI35" s="0"/>
+      <c r="DJ35" s="0"/>
+      <c r="DK35" s="0"/>
+      <c r="DL35" s="0"/>
+      <c r="DM35" s="0"/>
+      <c r="DN35" s="0"/>
+      <c r="DO35" s="0"/>
+      <c r="DP35" s="0"/>
+      <c r="DQ35" s="0"/>
+      <c r="DR35" s="0"/>
+      <c r="DS35" s="0"/>
+      <c r="DT35" s="0"/>
+      <c r="DU35" s="0"/>
+      <c r="DV35" s="0"/>
+      <c r="DW35" s="0"/>
+      <c r="DX35" s="0"/>
+      <c r="DY35" s="0"/>
+      <c r="DZ35" s="0"/>
+      <c r="EA35" s="0"/>
+      <c r="EB35" s="0"/>
+      <c r="EC35" s="0"/>
+      <c r="ED35" s="0"/>
+      <c r="EE35" s="0"/>
+      <c r="EF35" s="0"/>
+      <c r="EG35" s="0"/>
+      <c r="EH35" s="0"/>
+      <c r="EI35" s="0"/>
+      <c r="EJ35" s="0"/>
+      <c r="EK35" s="0"/>
+      <c r="EL35" s="0"/>
+      <c r="EM35" s="0"/>
+      <c r="EN35" s="0"/>
+      <c r="EO35" s="0"/>
+      <c r="EP35" s="0"/>
+      <c r="EQ35" s="0"/>
+      <c r="ER35" s="0"/>
+      <c r="ES35" s="0"/>
+      <c r="ET35" s="0"/>
+      <c r="EU35" s="0"/>
+      <c r="EV35" s="0"/>
+      <c r="EW35" s="0"/>
+      <c r="EX35" s="0"/>
+      <c r="EY35" s="0"/>
+      <c r="EZ35" s="0"/>
+      <c r="FA35" s="0"/>
+      <c r="FB35" s="0"/>
+      <c r="FC35" s="0"/>
+      <c r="FD35" s="0"/>
+      <c r="FE35" s="0"/>
+      <c r="FF35" s="0"/>
+      <c r="FG35" s="0"/>
+      <c r="FH35" s="0"/>
+      <c r="FI35" s="0"/>
+      <c r="FJ35" s="0"/>
+      <c r="FK35" s="0"/>
+      <c r="FL35" s="0"/>
+      <c r="FM35" s="0"/>
+      <c r="FN35" s="0"/>
+      <c r="FO35" s="0"/>
+      <c r="FP35" s="0"/>
+      <c r="FQ35" s="0"/>
+      <c r="FR35" s="0"/>
+      <c r="FS35" s="0"/>
+      <c r="FT35" s="0"/>
+      <c r="FU35" s="0"/>
+      <c r="FV35" s="0"/>
+      <c r="FW35" s="0"/>
+      <c r="FX35" s="0"/>
+      <c r="FY35" s="0"/>
+      <c r="FZ35" s="0"/>
+      <c r="GA35" s="0"/>
+      <c r="GB35" s="0"/>
+      <c r="GC35" s="0"/>
+      <c r="GD35" s="0"/>
+      <c r="GE35" s="0"/>
+      <c r="GF35" s="0"/>
+      <c r="GG35" s="0"/>
+      <c r="GH35" s="0"/>
+      <c r="GI35" s="0"/>
+      <c r="GJ35" s="0"/>
+      <c r="GK35" s="0"/>
+      <c r="GL35" s="0"/>
+      <c r="GM35" s="0"/>
+      <c r="GN35" s="0"/>
+      <c r="GO35" s="0"/>
+      <c r="GP35" s="0"/>
+      <c r="GQ35" s="0"/>
+      <c r="GR35" s="0"/>
+      <c r="GS35" s="0"/>
+      <c r="GT35" s="0"/>
+      <c r="GU35" s="0"/>
+      <c r="GV35" s="0"/>
+      <c r="GW35" s="0"/>
+      <c r="GX35" s="0"/>
+      <c r="GY35" s="0"/>
+      <c r="GZ35" s="0"/>
+      <c r="HA35" s="0"/>
+      <c r="HB35" s="0"/>
+      <c r="HC35" s="0"/>
+      <c r="HD35" s="0"/>
+      <c r="HE35" s="0"/>
+      <c r="HF35" s="0"/>
+      <c r="HG35" s="0"/>
+      <c r="HH35" s="0"/>
+      <c r="HI35" s="0"/>
+      <c r="HJ35" s="0"/>
+      <c r="HK35" s="0"/>
+      <c r="HL35" s="0"/>
+      <c r="HM35" s="0"/>
+      <c r="HN35" s="0"/>
+      <c r="HO35" s="0"/>
+      <c r="HP35" s="0"/>
+      <c r="HQ35" s="0"/>
+      <c r="HR35" s="0"/>
+      <c r="HS35" s="0"/>
+      <c r="HT35" s="0"/>
+      <c r="HU35" s="0"/>
+      <c r="HV35" s="0"/>
+      <c r="HW35" s="0"/>
+      <c r="HX35" s="0"/>
+      <c r="HY35" s="0"/>
+      <c r="HZ35" s="0"/>
+      <c r="IA35" s="0"/>
+      <c r="IB35" s="0"/>
+      <c r="IC35" s="0"/>
+      <c r="ID35" s="0"/>
+      <c r="IE35" s="0"/>
+      <c r="IF35" s="0"/>
+      <c r="IG35" s="0"/>
+      <c r="IH35" s="0"/>
+      <c r="II35" s="0"/>
+      <c r="IJ35" s="0"/>
+      <c r="IK35" s="0"/>
+      <c r="IL35" s="0"/>
+      <c r="IM35" s="0"/>
+      <c r="IN35" s="0"/>
+      <c r="IO35" s="0"/>
+      <c r="IP35" s="0"/>
+      <c r="IQ35" s="0"/>
+      <c r="IR35" s="0"/>
+      <c r="IS35" s="0"/>
+      <c r="IT35" s="0"/>
+      <c r="IU35" s="0"/>
+      <c r="IV35" s="0"/>
+      <c r="IW35" s="0"/>
+      <c r="IX35" s="0"/>
+      <c r="IY35" s="0"/>
+      <c r="IZ35" s="0"/>
+      <c r="JA35" s="0"/>
+      <c r="JB35" s="0"/>
+      <c r="JC35" s="0"/>
+      <c r="JD35" s="0"/>
+      <c r="JE35" s="0"/>
+      <c r="JF35" s="0"/>
+      <c r="JG35" s="0"/>
+      <c r="JH35" s="0"/>
+      <c r="JI35" s="0"/>
+      <c r="JJ35" s="0"/>
+      <c r="JK35" s="0"/>
+      <c r="JL35" s="0"/>
+      <c r="JM35" s="0"/>
+      <c r="JN35" s="0"/>
+      <c r="JO35" s="0"/>
+      <c r="JP35" s="0"/>
+      <c r="JQ35" s="0"/>
+      <c r="JR35" s="0"/>
+      <c r="JS35" s="0"/>
+      <c r="JT35" s="0"/>
+      <c r="JU35" s="0"/>
+      <c r="JV35" s="0"/>
+      <c r="JW35" s="0"/>
+      <c r="JX35" s="0"/>
+      <c r="JY35" s="0"/>
+      <c r="JZ35" s="0"/>
+      <c r="KA35" s="0"/>
+      <c r="KB35" s="0"/>
+      <c r="KC35" s="0"/>
+      <c r="KD35" s="0"/>
+      <c r="KE35" s="0"/>
+      <c r="KF35" s="0"/>
+      <c r="KG35" s="0"/>
+      <c r="KH35" s="0"/>
+      <c r="KI35" s="0"/>
+      <c r="KJ35" s="0"/>
+      <c r="KK35" s="0"/>
+      <c r="KL35" s="0"/>
+      <c r="KM35" s="0"/>
+      <c r="KN35" s="0"/>
+      <c r="KO35" s="0"/>
+      <c r="KP35" s="0"/>
+      <c r="KQ35" s="0"/>
+      <c r="KR35" s="0"/>
+      <c r="KS35" s="0"/>
+      <c r="KT35" s="0"/>
+      <c r="KU35" s="0"/>
+      <c r="KV35" s="0"/>
+      <c r="KW35" s="0"/>
+      <c r="KX35" s="0"/>
+      <c r="KY35" s="0"/>
+      <c r="KZ35" s="0"/>
+      <c r="LA35" s="0"/>
+      <c r="LB35" s="0"/>
+      <c r="LC35" s="0"/>
+      <c r="LD35" s="0"/>
+      <c r="LE35" s="0"/>
+      <c r="LF35" s="0"/>
+      <c r="LG35" s="0"/>
+      <c r="LH35" s="0"/>
+      <c r="LI35" s="0"/>
+      <c r="LJ35" s="0"/>
+      <c r="LK35" s="0"/>
+      <c r="LL35" s="0"/>
+      <c r="LM35" s="0"/>
+      <c r="LN35" s="0"/>
+      <c r="LO35" s="0"/>
+      <c r="LP35" s="0"/>
+      <c r="LQ35" s="0"/>
+      <c r="LR35" s="0"/>
+      <c r="LS35" s="0"/>
+      <c r="LT35" s="0"/>
+      <c r="LU35" s="0"/>
+      <c r="LV35" s="0"/>
+      <c r="LW35" s="0"/>
+      <c r="LX35" s="0"/>
+      <c r="LY35" s="0"/>
+      <c r="LZ35" s="0"/>
+      <c r="MA35" s="0"/>
+      <c r="MB35" s="0"/>
+      <c r="MC35" s="0"/>
+      <c r="MD35" s="0"/>
+      <c r="ME35" s="0"/>
+      <c r="MF35" s="0"/>
+      <c r="MG35" s="0"/>
+      <c r="MH35" s="0"/>
+      <c r="MI35" s="0"/>
+      <c r="MJ35" s="0"/>
+      <c r="MK35" s="0"/>
+      <c r="ML35" s="0"/>
+      <c r="MM35" s="0"/>
+      <c r="MN35" s="0"/>
+      <c r="MO35" s="0"/>
+      <c r="MP35" s="0"/>
+      <c r="MQ35" s="0"/>
+      <c r="MR35" s="0"/>
+      <c r="MS35" s="0"/>
+      <c r="MT35" s="0"/>
+      <c r="MU35" s="0"/>
+      <c r="MV35" s="0"/>
+      <c r="MW35" s="0"/>
+      <c r="MX35" s="0"/>
+      <c r="MY35" s="0"/>
+      <c r="MZ35" s="0"/>
+      <c r="NA35" s="0"/>
+      <c r="NB35" s="0"/>
+      <c r="NC35" s="0"/>
+      <c r="ND35" s="0"/>
+      <c r="NE35" s="0"/>
+      <c r="NF35" s="0"/>
+      <c r="NG35" s="0"/>
+      <c r="NH35" s="0"/>
+      <c r="NI35" s="0"/>
+      <c r="NJ35" s="0"/>
+      <c r="NK35" s="0"/>
+      <c r="NL35" s="0"/>
+      <c r="NM35" s="0"/>
+      <c r="NN35" s="0"/>
+      <c r="NO35" s="0"/>
+      <c r="NP35" s="0"/>
+      <c r="NQ35" s="0"/>
+      <c r="NR35" s="0"/>
+      <c r="NS35" s="0"/>
+      <c r="NT35" s="0"/>
+      <c r="NU35" s="0"/>
+      <c r="NV35" s="0"/>
+      <c r="NW35" s="0"/>
+      <c r="NX35" s="0"/>
+      <c r="NY35" s="0"/>
+      <c r="NZ35" s="0"/>
+      <c r="OA35" s="0"/>
+      <c r="OB35" s="0"/>
+      <c r="OC35" s="0"/>
+      <c r="OD35" s="0"/>
+      <c r="OE35" s="0"/>
+      <c r="OF35" s="0"/>
+      <c r="OG35" s="0"/>
+      <c r="OH35" s="0"/>
+      <c r="OI35" s="0"/>
+      <c r="OJ35" s="0"/>
+      <c r="OK35" s="0"/>
+      <c r="OL35" s="0"/>
+      <c r="OM35" s="0"/>
+      <c r="ON35" s="0"/>
+      <c r="OO35" s="0"/>
+      <c r="OP35" s="0"/>
+      <c r="OQ35" s="0"/>
+      <c r="OR35" s="0"/>
+      <c r="OS35" s="0"/>
+      <c r="OT35" s="0"/>
+      <c r="OU35" s="0"/>
+      <c r="OV35" s="0"/>
+      <c r="OW35" s="0"/>
+      <c r="OX35" s="0"/>
+      <c r="OY35" s="0"/>
+      <c r="OZ35" s="0"/>
+      <c r="PA35" s="0"/>
+      <c r="PB35" s="0"/>
+      <c r="PC35" s="0"/>
+      <c r="PD35" s="0"/>
+      <c r="PE35" s="0"/>
+      <c r="PF35" s="0"/>
+      <c r="PG35" s="0"/>
+      <c r="PH35" s="0"/>
+      <c r="PI35" s="0"/>
+      <c r="PJ35" s="0"/>
+      <c r="PK35" s="0"/>
+      <c r="PL35" s="0"/>
+      <c r="PM35" s="0"/>
+      <c r="PN35" s="0"/>
+      <c r="PO35" s="0"/>
+      <c r="PP35" s="0"/>
+      <c r="PQ35" s="0"/>
+      <c r="PR35" s="0"/>
+      <c r="PS35" s="0"/>
+      <c r="PT35" s="0"/>
+      <c r="PU35" s="0"/>
+      <c r="PV35" s="0"/>
+      <c r="PW35" s="0"/>
+      <c r="PX35" s="0"/>
+      <c r="PY35" s="0"/>
+      <c r="PZ35" s="0"/>
+      <c r="QA35" s="0"/>
+      <c r="QB35" s="0"/>
+      <c r="QC35" s="0"/>
+      <c r="QD35" s="0"/>
+      <c r="QE35" s="0"/>
+      <c r="QF35" s="0"/>
+      <c r="QG35" s="0"/>
+      <c r="QH35" s="0"/>
+      <c r="QI35" s="0"/>
+      <c r="QJ35" s="0"/>
+      <c r="QK35" s="0"/>
+      <c r="QL35" s="0"/>
+      <c r="QM35" s="0"/>
+      <c r="QN35" s="0"/>
+      <c r="QO35" s="0"/>
+      <c r="QP35" s="0"/>
+      <c r="QQ35" s="0"/>
+      <c r="QR35" s="0"/>
+      <c r="QS35" s="0"/>
+      <c r="QT35" s="0"/>
+      <c r="QU35" s="0"/>
+      <c r="QV35" s="0"/>
+      <c r="QW35" s="0"/>
+      <c r="QX35" s="0"/>
+      <c r="QY35" s="0"/>
+      <c r="QZ35" s="0"/>
+      <c r="RA35" s="0"/>
+      <c r="RB35" s="0"/>
+      <c r="RC35" s="0"/>
+      <c r="RD35" s="0"/>
+      <c r="RE35" s="0"/>
+      <c r="RF35" s="0"/>
+      <c r="RG35" s="0"/>
+      <c r="RH35" s="0"/>
+      <c r="RI35" s="0"/>
+      <c r="RJ35" s="0"/>
+      <c r="RK35" s="0"/>
+      <c r="RL35" s="0"/>
+      <c r="RM35" s="0"/>
+      <c r="RN35" s="0"/>
+      <c r="RO35" s="0"/>
+      <c r="RP35" s="0"/>
+      <c r="RQ35" s="0"/>
+      <c r="RR35" s="0"/>
+      <c r="RS35" s="0"/>
+      <c r="RT35" s="0"/>
+      <c r="RU35" s="0"/>
+      <c r="RV35" s="0"/>
+      <c r="RW35" s="0"/>
+      <c r="RX35" s="0"/>
+      <c r="RY35" s="0"/>
+      <c r="RZ35" s="0"/>
+      <c r="SA35" s="0"/>
+      <c r="SB35" s="0"/>
+      <c r="SC35" s="0"/>
+      <c r="SD35" s="0"/>
+      <c r="SE35" s="0"/>
+      <c r="SF35" s="0"/>
+      <c r="SG35" s="0"/>
+      <c r="SH35" s="0"/>
+      <c r="SI35" s="0"/>
+      <c r="SJ35" s="0"/>
+      <c r="SK35" s="0"/>
+      <c r="SL35" s="0"/>
+      <c r="SM35" s="0"/>
+      <c r="SN35" s="0"/>
+      <c r="SO35" s="0"/>
+      <c r="SP35" s="0"/>
+      <c r="SQ35" s="0"/>
+      <c r="SR35" s="0"/>
+      <c r="SS35" s="0"/>
+      <c r="ST35" s="0"/>
+      <c r="SU35" s="0"/>
+      <c r="SV35" s="0"/>
+      <c r="SW35" s="0"/>
+      <c r="SX35" s="0"/>
+      <c r="SY35" s="0"/>
+      <c r="SZ35" s="0"/>
+      <c r="TA35" s="0"/>
+      <c r="TB35" s="0"/>
+      <c r="TC35" s="0"/>
+      <c r="TD35" s="0"/>
+      <c r="TE35" s="0"/>
+      <c r="TF35" s="0"/>
+      <c r="TG35" s="0"/>
+      <c r="TH35" s="0"/>
+      <c r="TI35" s="0"/>
+      <c r="TJ35" s="0"/>
+      <c r="TK35" s="0"/>
+      <c r="TL35" s="0"/>
+      <c r="TM35" s="0"/>
+      <c r="TN35" s="0"/>
+      <c r="TO35" s="0"/>
+      <c r="TP35" s="0"/>
+      <c r="TQ35" s="0"/>
+      <c r="TR35" s="0"/>
+      <c r="TS35" s="0"/>
+      <c r="TT35" s="0"/>
+      <c r="TU35" s="0"/>
+      <c r="TV35" s="0"/>
+      <c r="TW35" s="0"/>
+      <c r="TX35" s="0"/>
+      <c r="TY35" s="0"/>
+      <c r="TZ35" s="0"/>
+      <c r="UA35" s="0"/>
+      <c r="UB35" s="0"/>
+      <c r="UC35" s="0"/>
+      <c r="UD35" s="0"/>
+      <c r="UE35" s="0"/>
+      <c r="UF35" s="0"/>
+      <c r="UG35" s="0"/>
+      <c r="UH35" s="0"/>
+      <c r="UI35" s="0"/>
+      <c r="UJ35" s="0"/>
+      <c r="UK35" s="0"/>
+      <c r="UL35" s="0"/>
+      <c r="UM35" s="0"/>
+      <c r="UN35" s="0"/>
+      <c r="UO35" s="0"/>
+      <c r="UP35" s="0"/>
+      <c r="UQ35" s="0"/>
+      <c r="UR35" s="0"/>
+      <c r="US35" s="0"/>
+      <c r="UT35" s="0"/>
+      <c r="UU35" s="0"/>
+      <c r="UV35" s="0"/>
+      <c r="UW35" s="0"/>
+      <c r="UX35" s="0"/>
+      <c r="UY35" s="0"/>
+      <c r="UZ35" s="0"/>
+      <c r="VA35" s="0"/>
+      <c r="VB35" s="0"/>
+      <c r="VC35" s="0"/>
+      <c r="VD35" s="0"/>
+      <c r="VE35" s="0"/>
+      <c r="VF35" s="0"/>
+      <c r="VG35" s="0"/>
+      <c r="VH35" s="0"/>
+      <c r="VI35" s="0"/>
+      <c r="VJ35" s="0"/>
+      <c r="VK35" s="0"/>
+      <c r="VL35" s="0"/>
+      <c r="VM35" s="0"/>
+      <c r="VN35" s="0"/>
+      <c r="VO35" s="0"/>
+      <c r="VP35" s="0"/>
+      <c r="VQ35" s="0"/>
+      <c r="VR35" s="0"/>
+      <c r="VS35" s="0"/>
+      <c r="VT35" s="0"/>
+      <c r="VU35" s="0"/>
+      <c r="VV35" s="0"/>
+      <c r="VW35" s="0"/>
+      <c r="VX35" s="0"/>
+      <c r="VY35" s="0"/>
+      <c r="VZ35" s="0"/>
+      <c r="WA35" s="0"/>
+      <c r="WB35" s="0"/>
+      <c r="WC35" s="0"/>
+      <c r="WD35" s="0"/>
+      <c r="WE35" s="0"/>
+      <c r="WF35" s="0"/>
+      <c r="WG35" s="0"/>
+      <c r="WH35" s="0"/>
+      <c r="WI35" s="0"/>
+      <c r="WJ35" s="0"/>
+      <c r="WK35" s="0"/>
+      <c r="WL35" s="0"/>
+      <c r="WM35" s="0"/>
+      <c r="WN35" s="0"/>
+      <c r="WO35" s="0"/>
+      <c r="WP35" s="0"/>
+      <c r="WQ35" s="0"/>
+      <c r="WR35" s="0"/>
+      <c r="WS35" s="0"/>
+      <c r="WT35" s="0"/>
+      <c r="WU35" s="0"/>
+      <c r="WV35" s="0"/>
+      <c r="WW35" s="0"/>
+      <c r="WX35" s="0"/>
+      <c r="WY35" s="0"/>
+      <c r="WZ35" s="0"/>
+      <c r="XA35" s="0"/>
+      <c r="XB35" s="0"/>
+      <c r="XC35" s="0"/>
+      <c r="XD35" s="0"/>
+      <c r="XE35" s="0"/>
+      <c r="XF35" s="0"/>
+      <c r="XG35" s="0"/>
+      <c r="XH35" s="0"/>
+      <c r="XI35" s="0"/>
+      <c r="XJ35" s="0"/>
+      <c r="XK35" s="0"/>
+      <c r="XL35" s="0"/>
+      <c r="XM35" s="0"/>
+      <c r="XN35" s="0"/>
+      <c r="XO35" s="0"/>
+      <c r="XP35" s="0"/>
+      <c r="XQ35" s="0"/>
+      <c r="XR35" s="0"/>
+      <c r="XS35" s="0"/>
+      <c r="XT35" s="0"/>
+      <c r="XU35" s="0"/>
+      <c r="XV35" s="0"/>
+      <c r="XW35" s="0"/>
+      <c r="XX35" s="0"/>
+      <c r="XY35" s="0"/>
+      <c r="XZ35" s="0"/>
+      <c r="YA35" s="0"/>
+      <c r="YB35" s="0"/>
+      <c r="YC35" s="0"/>
+      <c r="YD35" s="0"/>
+      <c r="YE35" s="0"/>
+      <c r="YF35" s="0"/>
+      <c r="YG35" s="0"/>
+      <c r="YH35" s="0"/>
+      <c r="YI35" s="0"/>
+      <c r="YJ35" s="0"/>
+      <c r="YK35" s="0"/>
+      <c r="YL35" s="0"/>
+      <c r="YM35" s="0"/>
+      <c r="YN35" s="0"/>
+      <c r="YO35" s="0"/>
+      <c r="YP35" s="0"/>
+      <c r="YQ35" s="0"/>
+      <c r="YR35" s="0"/>
+      <c r="YS35" s="0"/>
+      <c r="YT35" s="0"/>
+      <c r="YU35" s="0"/>
+      <c r="YV35" s="0"/>
+      <c r="YW35" s="0"/>
+      <c r="YX35" s="0"/>
+      <c r="YY35" s="0"/>
+      <c r="YZ35" s="0"/>
+      <c r="ZA35" s="0"/>
+      <c r="ZB35" s="0"/>
+      <c r="ZC35" s="0"/>
+      <c r="ZD35" s="0"/>
+      <c r="ZE35" s="0"/>
+      <c r="ZF35" s="0"/>
+      <c r="ZG35" s="0"/>
+      <c r="ZH35" s="0"/>
+      <c r="ZI35" s="0"/>
+      <c r="ZJ35" s="0"/>
+      <c r="ZK35" s="0"/>
+      <c r="ZL35" s="0"/>
+      <c r="ZM35" s="0"/>
+      <c r="ZN35" s="0"/>
+      <c r="ZO35" s="0"/>
+      <c r="ZP35" s="0"/>
+      <c r="ZQ35" s="0"/>
+      <c r="ZR35" s="0"/>
+      <c r="ZS35" s="0"/>
+      <c r="ZT35" s="0"/>
+      <c r="ZU35" s="0"/>
+      <c r="ZV35" s="0"/>
+      <c r="ZW35" s="0"/>
+      <c r="ZX35" s="0"/>
+      <c r="ZY35" s="0"/>
+      <c r="ZZ35" s="0"/>
+      <c r="AAA35" s="0"/>
+      <c r="AAB35" s="0"/>
+      <c r="AAC35" s="0"/>
+      <c r="AAD35" s="0"/>
+      <c r="AAE35" s="0"/>
+      <c r="AAF35" s="0"/>
+      <c r="AAG35" s="0"/>
+      <c r="AAH35" s="0"/>
+      <c r="AAI35" s="0"/>
+      <c r="AAJ35" s="0"/>
+      <c r="AAK35" s="0"/>
+      <c r="AAL35" s="0"/>
+      <c r="AAM35" s="0"/>
+      <c r="AAN35" s="0"/>
+      <c r="AAO35" s="0"/>
+      <c r="AAP35" s="0"/>
+      <c r="AAQ35" s="0"/>
+      <c r="AAR35" s="0"/>
+      <c r="AAS35" s="0"/>
+      <c r="AAT35" s="0"/>
+      <c r="AAU35" s="0"/>
+      <c r="AAV35" s="0"/>
+      <c r="AAW35" s="0"/>
+      <c r="AAX35" s="0"/>
+      <c r="AAY35" s="0"/>
+      <c r="AAZ35" s="0"/>
+      <c r="ABA35" s="0"/>
+      <c r="ABB35" s="0"/>
+      <c r="ABC35" s="0"/>
+      <c r="ABD35" s="0"/>
+      <c r="ABE35" s="0"/>
+      <c r="ABF35" s="0"/>
+      <c r="ABG35" s="0"/>
+      <c r="ABH35" s="0"/>
+      <c r="ABI35" s="0"/>
+      <c r="ABJ35" s="0"/>
+      <c r="ABK35" s="0"/>
+      <c r="ABL35" s="0"/>
+      <c r="ABM35" s="0"/>
+      <c r="ABN35" s="0"/>
+      <c r="ABO35" s="0"/>
+      <c r="ABP35" s="0"/>
+      <c r="ABQ35" s="0"/>
+      <c r="ABR35" s="0"/>
+      <c r="ABS35" s="0"/>
+      <c r="ABT35" s="0"/>
+      <c r="ABU35" s="0"/>
+      <c r="ABV35" s="0"/>
+      <c r="ABW35" s="0"/>
+      <c r="ABX35" s="0"/>
+      <c r="ABY35" s="0"/>
+      <c r="ABZ35" s="0"/>
+      <c r="ACA35" s="0"/>
+      <c r="ACB35" s="0"/>
+      <c r="ACC35" s="0"/>
+      <c r="ACD35" s="0"/>
+      <c r="ACE35" s="0"/>
+      <c r="ACF35" s="0"/>
+      <c r="ACG35" s="0"/>
+      <c r="ACH35" s="0"/>
+      <c r="ACI35" s="0"/>
+      <c r="ACJ35" s="0"/>
+      <c r="ACK35" s="0"/>
+      <c r="ACL35" s="0"/>
+      <c r="ACM35" s="0"/>
+      <c r="ACN35" s="0"/>
+      <c r="ACO35" s="0"/>
+      <c r="ACP35" s="0"/>
+      <c r="ACQ35" s="0"/>
+      <c r="ACR35" s="0"/>
+      <c r="ACS35" s="0"/>
+      <c r="ACT35" s="0"/>
+      <c r="ACU35" s="0"/>
+      <c r="ACV35" s="0"/>
+      <c r="ACW35" s="0"/>
+      <c r="ACX35" s="0"/>
+      <c r="ACY35" s="0"/>
+      <c r="ACZ35" s="0"/>
+      <c r="ADA35" s="0"/>
+      <c r="ADB35" s="0"/>
+      <c r="ADC35" s="0"/>
+      <c r="ADD35" s="0"/>
+      <c r="ADE35" s="0"/>
+      <c r="ADF35" s="0"/>
+      <c r="ADG35" s="0"/>
+      <c r="ADH35" s="0"/>
+      <c r="ADI35" s="0"/>
+      <c r="ADJ35" s="0"/>
+      <c r="ADK35" s="0"/>
+      <c r="ADL35" s="0"/>
+      <c r="ADM35" s="0"/>
+      <c r="ADN35" s="0"/>
+      <c r="ADO35" s="0"/>
+      <c r="ADP35" s="0"/>
+      <c r="ADQ35" s="0"/>
+      <c r="ADR35" s="0"/>
+      <c r="ADS35" s="0"/>
+      <c r="ADT35" s="0"/>
+      <c r="ADU35" s="0"/>
+      <c r="ADV35" s="0"/>
+      <c r="ADW35" s="0"/>
+      <c r="ADX35" s="0"/>
+      <c r="ADY35" s="0"/>
+      <c r="ADZ35" s="0"/>
+      <c r="AEA35" s="0"/>
+      <c r="AEB35" s="0"/>
+      <c r="AEC35" s="0"/>
+      <c r="AED35" s="0"/>
+      <c r="AEE35" s="0"/>
+      <c r="AEF35" s="0"/>
+      <c r="AEG35" s="0"/>
+      <c r="AEH35" s="0"/>
+      <c r="AEI35" s="0"/>
+      <c r="AEJ35" s="0"/>
+      <c r="AEK35" s="0"/>
+      <c r="AEL35" s="0"/>
+      <c r="AEM35" s="0"/>
+      <c r="AEN35" s="0"/>
+      <c r="AEO35" s="0"/>
+      <c r="AEP35" s="0"/>
+      <c r="AEQ35" s="0"/>
+      <c r="AER35" s="0"/>
+      <c r="AES35" s="0"/>
+      <c r="AET35" s="0"/>
+      <c r="AEU35" s="0"/>
+      <c r="AEV35" s="0"/>
+      <c r="AEW35" s="0"/>
+      <c r="AEX35" s="0"/>
+      <c r="AEY35" s="0"/>
+      <c r="AEZ35" s="0"/>
+      <c r="AFA35" s="0"/>
+      <c r="AFB35" s="0"/>
+      <c r="AFC35" s="0"/>
+      <c r="AFD35" s="0"/>
+      <c r="AFE35" s="0"/>
+      <c r="AFF35" s="0"/>
+      <c r="AFG35" s="0"/>
+      <c r="AFH35" s="0"/>
+      <c r="AFI35" s="0"/>
+      <c r="AFJ35" s="0"/>
+      <c r="AFK35" s="0"/>
+      <c r="AFL35" s="0"/>
+      <c r="AFM35" s="0"/>
+      <c r="AFN35" s="0"/>
+      <c r="AFO35" s="0"/>
+      <c r="AFP35" s="0"/>
+      <c r="AFQ35" s="0"/>
+      <c r="AFR35" s="0"/>
+      <c r="AFS35" s="0"/>
+      <c r="AFT35" s="0"/>
+      <c r="AFU35" s="0"/>
+      <c r="AFV35" s="0"/>
+      <c r="AFW35" s="0"/>
+      <c r="AFX35" s="0"/>
+      <c r="AFY35" s="0"/>
+      <c r="AFZ35" s="0"/>
+      <c r="AGA35" s="0"/>
+      <c r="AGB35" s="0"/>
+      <c r="AGC35" s="0"/>
+      <c r="AGD35" s="0"/>
+      <c r="AGE35" s="0"/>
+      <c r="AGF35" s="0"/>
+      <c r="AGG35" s="0"/>
+      <c r="AGH35" s="0"/>
+      <c r="AGI35" s="0"/>
+      <c r="AGJ35" s="0"/>
+      <c r="AGK35" s="0"/>
+      <c r="AGL35" s="0"/>
+      <c r="AGM35" s="0"/>
+      <c r="AGN35" s="0"/>
+      <c r="AGO35" s="0"/>
+      <c r="AGP35" s="0"/>
+      <c r="AGQ35" s="0"/>
+      <c r="AGR35" s="0"/>
+      <c r="AGS35" s="0"/>
+      <c r="AGT35" s="0"/>
+      <c r="AGU35" s="0"/>
+      <c r="AGV35" s="0"/>
+      <c r="AGW35" s="0"/>
+      <c r="AGX35" s="0"/>
+      <c r="AGY35" s="0"/>
+      <c r="AGZ35" s="0"/>
+      <c r="AHA35" s="0"/>
+      <c r="AHB35" s="0"/>
+      <c r="AHC35" s="0"/>
+      <c r="AHD35" s="0"/>
+      <c r="AHE35" s="0"/>
+      <c r="AHF35" s="0"/>
+      <c r="AHG35" s="0"/>
+      <c r="AHH35" s="0"/>
+      <c r="AHI35" s="0"/>
+      <c r="AHJ35" s="0"/>
+      <c r="AHK35" s="0"/>
+      <c r="AHL35" s="0"/>
+      <c r="AHM35" s="0"/>
+      <c r="AHN35" s="0"/>
+      <c r="AHO35" s="0"/>
+      <c r="AHP35" s="0"/>
+      <c r="AHQ35" s="0"/>
+      <c r="AHR35" s="0"/>
+      <c r="AHS35" s="0"/>
+      <c r="AHT35" s="0"/>
+      <c r="AHU35" s="0"/>
+      <c r="AHV35" s="0"/>
+      <c r="AHW35" s="0"/>
+      <c r="AHX35" s="0"/>
+      <c r="AHY35" s="0"/>
+      <c r="AHZ35" s="0"/>
+      <c r="AIA35" s="0"/>
+      <c r="AIB35" s="0"/>
+      <c r="AIC35" s="0"/>
+      <c r="AID35" s="0"/>
+      <c r="AIE35" s="0"/>
+      <c r="AIF35" s="0"/>
+      <c r="AIG35" s="0"/>
+      <c r="AIH35" s="0"/>
+      <c r="AII35" s="0"/>
+      <c r="AIJ35" s="0"/>
+      <c r="AIK35" s="0"/>
+      <c r="AIL35" s="0"/>
+      <c r="AIM35" s="0"/>
+      <c r="AIN35" s="0"/>
+      <c r="AIO35" s="0"/>
+      <c r="AIP35" s="0"/>
+      <c r="AIQ35" s="0"/>
+      <c r="AIR35" s="0"/>
+      <c r="AIS35" s="0"/>
+      <c r="AIT35" s="0"/>
+      <c r="AIU35" s="0"/>
+      <c r="AIV35" s="0"/>
+      <c r="AIW35" s="0"/>
+      <c r="AIX35" s="0"/>
+      <c r="AIY35" s="0"/>
+      <c r="AIZ35" s="0"/>
+      <c r="AJA35" s="0"/>
+      <c r="AJB35" s="0"/>
+      <c r="AJC35" s="0"/>
+      <c r="AJD35" s="0"/>
+      <c r="AJE35" s="0"/>
+      <c r="AJF35" s="0"/>
+      <c r="AJG35" s="0"/>
+      <c r="AJH35" s="0"/>
+      <c r="AJI35" s="0"/>
+      <c r="AJJ35" s="0"/>
+      <c r="AJK35" s="0"/>
+      <c r="AJL35" s="0"/>
+      <c r="AJM35" s="0"/>
+      <c r="AJN35" s="0"/>
+      <c r="AJO35" s="0"/>
+      <c r="AJP35" s="0"/>
+      <c r="AJQ35" s="0"/>
+      <c r="AJR35" s="0"/>
+      <c r="AJS35" s="0"/>
+      <c r="AJT35" s="0"/>
+      <c r="AJU35" s="0"/>
+      <c r="AJV35" s="0"/>
+      <c r="AJW35" s="0"/>
+      <c r="AJX35" s="0"/>
+      <c r="AJY35" s="0"/>
+      <c r="AJZ35" s="0"/>
+      <c r="AKA35" s="0"/>
+      <c r="AKB35" s="0"/>
+      <c r="AKC35" s="0"/>
+      <c r="AKD35" s="0"/>
+      <c r="AKE35" s="0"/>
+      <c r="AKF35" s="0"/>
+      <c r="AKG35" s="0"/>
+      <c r="AKH35" s="0"/>
+      <c r="AKI35" s="0"/>
+      <c r="AKJ35" s="0"/>
+      <c r="AKK35" s="0"/>
+      <c r="AKL35" s="0"/>
+      <c r="AKM35" s="0"/>
+      <c r="AKN35" s="0"/>
+      <c r="AKO35" s="0"/>
+      <c r="AKP35" s="0"/>
+      <c r="AKQ35" s="0"/>
+      <c r="AKR35" s="0"/>
+      <c r="AKS35" s="0"/>
+      <c r="AKT35" s="0"/>
+      <c r="AKU35" s="0"/>
+      <c r="AKV35" s="0"/>
+      <c r="AKW35" s="0"/>
+      <c r="AKX35" s="0"/>
+      <c r="AKY35" s="0"/>
+      <c r="AKZ35" s="0"/>
+      <c r="ALA35" s="0"/>
+      <c r="ALB35" s="0"/>
+      <c r="ALC35" s="0"/>
+      <c r="ALD35" s="0"/>
+      <c r="ALE35" s="0"/>
+      <c r="ALF35" s="0"/>
+      <c r="ALG35" s="0"/>
+      <c r="ALH35" s="0"/>
+      <c r="ALI35" s="0"/>
+      <c r="ALJ35" s="0"/>
+      <c r="ALK35" s="0"/>
+      <c r="ALL35" s="0"/>
+      <c r="ALM35" s="0"/>
+      <c r="ALN35" s="0"/>
+      <c r="ALO35" s="0"/>
+      <c r="ALP35" s="0"/>
+      <c r="ALQ35" s="0"/>
+      <c r="ALR35" s="0"/>
+      <c r="ALS35" s="0"/>
+      <c r="ALT35" s="0"/>
+      <c r="ALU35" s="0"/>
+      <c r="ALV35" s="0"/>
+      <c r="ALW35" s="0"/>
+      <c r="ALX35" s="0"/>
+      <c r="ALY35" s="0"/>
+      <c r="ALZ35" s="0"/>
+      <c r="AMA35" s="0"/>
+      <c r="AMB35" s="0"/>
+      <c r="AMC35" s="0"/>
+      <c r="AMD35" s="0"/>
+      <c r="AME35" s="0"/>
+      <c r="AMF35" s="0"/>
+      <c r="AMG35" s="0"/>
+      <c r="AMH35" s="0"/>
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>5</v>
@@ -34625,7 +36701,43 @@
       <c r="D36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -62,6 +62,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>th</t>
     </r>
@@ -70,6 +71,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t> decimal – done</t>
     </r>
@@ -294,6 +296,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -315,23 +318,26 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -339,6 +345,7 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -346,6 +353,7 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -36729,6 +36737,12 @@
       </c>
       <c r="E38" s="8"/>
     </row>
+    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+    </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
         <v>80</v>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -9,13 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -176,7 +177,7 @@
     <t>Purchase order should be a drop down from those PO's that have a remanining balance &gt; 100 lbs</t>
   </si>
   <si>
-    <t>rema</t>
+    <t>Use same logic as in Trailers</t>
   </si>
   <si>
     <t>DB</t>
@@ -260,9 +261,6 @@
     <t>need to implement the same way as purchase orders with vendors</t>
   </si>
   <si>
-    <t>made weight_lbs mandatory</t>
-  </si>
-  <si>
     <t>Weight in tons should be calculated based on User entry, like with the PO Screen.</t>
   </si>
   <si>
@@ -282,6 +280,12 @@
   </si>
   <si>
     <t>display messages on screens rather than logs, like record not found</t>
+  </si>
+  <si>
+    <t>If error is encountered during create PO, cannot enter the weight</t>
+  </si>
+  <si>
+    <t>fixed logic</t>
   </si>
 </sst>
 </file>
@@ -510,10 +514,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:42"/>
+  <dimension ref="1:43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9854,7 +9858,9 @@
       <c r="C10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -10886,7 +10892,9 @@
       <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -11918,7 +11926,9 @@
       <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -19154,12 +19164,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
@@ -35671,10 +35679,10 @@
         <v>73</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
@@ -36696,9 +36704,9 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>5</v>
@@ -36713,24 +36721,26 @@
     </row>
     <row r="37" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="D37" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>7</v>
@@ -36745,12 +36755,23 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -36762,4 +36783,37 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <f aca="false">LEN(1000000000)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -287,6 +287,22 @@
   <si>
     <t>fixed logic</t>
   </si>
+  <si>
+    <t>Herroku - Include 'rails_12factor' gem to enable all platform features</t>
+  </si>
+  <si>
+    <t>Herroku – You have not declared a Ruby version in your Gemfile.
+remote:        To set your Ruby version add this line to your Gemfile:
+remote:        ruby '2.0.0'
+remote:        # See https://devcenter.heroku.com/articles/ruby-versions for more information.
+</t>
+  </si>
+  <si>
+    <t>Herroku -  ###### WARNING:
+remote:        No Procfile detected, using the default web server (webrick)
+remote:        https://devcenter.heroku.com/articles/ruby-default-web-server
+</t>
+  </si>
 </sst>
 </file>
 
@@ -514,10 +530,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:43"/>
+  <dimension ref="1:46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -19166,7 +19182,9 @@
       <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -36749,19 +36767,27 @@
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
         <v>79</v>
       </c>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -36772,6 +36798,21 @@
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -291,6 +291,9 @@
     <t>Herroku - Include 'rails_12factor' gem to enable all platform features</t>
   </si>
   <si>
+    <t>added gem</t>
+  </si>
+  <si>
     <t>Herroku – You have not declared a Ruby version in your Gemfile.
 remote:        To set your Ruby version add this line to your Gemfile:
 remote:        ruby '2.0.0'
@@ -532,8 +535,8 @@
   </sheetPr>
   <dimension ref="1:46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -31570,7 +31573,9 @@
       <c r="C31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -36804,15 +36809,21 @@
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -535,8 +535,8 @@
   </sheetPr>
   <dimension ref="1:46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -33637,7 +33637,9 @@
         <v>5</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -32607,7 +32607,9 @@
       <c r="C32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -180,7 +180,7 @@
     <t>Use same logic as in Trailers</t>
   </si>
   <si>
-    <t>DB</t>
+    <t>Not allow for the user to click the back button, I need it not to crash/not load a screen</t>
   </si>
   <si>
     <t>No data is entered if user does nor complete the screen</t>
@@ -535,8 +535,8 @@
   </sheetPr>
   <dimension ref="1:46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -29507,7 +29507,9 @@
         <v>5</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -535,8 +535,8 @@
   </sheetPr>
   <dimension ref="1:46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -34675,7 +34675,9 @@
       <c r="C34" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>

--- a/Requirements/m2w initial feedback.xlsx
+++ b/Requirements/m2w initial feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
   <si>
     <t>Purchase Order screen:</t>
   </si>
@@ -306,6 +306,15 @@
 remote:        https://devcenter.heroku.com/articles/ruby-default-web-server
 </t>
   </si>
+  <si>
+    <t>make badge # field on trailer into a foreign key</t>
+  </si>
+  <si>
+    <t>add auto logout feature</t>
+  </si>
+  <si>
+    <t>5 minute timer</t>
+  </si>
 </sst>
 </file>
 
@@ -533,10 +542,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:46"/>
+  <dimension ref="1:48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -36834,6 +36843,22 @@
         <v>86</v>
       </c>
     </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
